--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
     <sheet name="Lucene" sheetId="2" r:id="rId2"/>
+    <sheet name="JDK Tools utilities" sheetId="3" r:id="rId3"/>
+    <sheet name="Autosys" sheetId="4" r:id="rId4"/>
+    <sheet name="HTML" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="jar" localSheetId="2">'JDK Tools utilities'!$A$10</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
   <si>
     <t>Lucene</t>
   </si>
@@ -95,12 +101,261 @@
   <si>
     <t>Lucene Definitions</t>
   </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>javac</t>
+  </si>
+  <si>
+    <t>javah</t>
+  </si>
+  <si>
+    <t>javap</t>
+  </si>
+  <si>
+    <t>javaws</t>
+  </si>
+  <si>
+    <t>javaw</t>
+  </si>
+  <si>
+    <t>jnlp</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Java_Web_Start</t>
+  </si>
+  <si>
+    <t>keytool</t>
+  </si>
+  <si>
+    <t>jdwp</t>
+  </si>
+  <si>
+    <t>java debug wire protocol</t>
+  </si>
+  <si>
+    <t>JDK Tools and Utilities</t>
+  </si>
+  <si>
+    <t>JDK Tools utilities</t>
+  </si>
+  <si>
+    <t>JDK Tools and Utilities url</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/javase/8/docs/technotes/tools/</t>
+  </si>
+  <si>
+    <t>JPDA</t>
+  </si>
+  <si>
+    <t>Java Platform Debug Architecture</t>
+  </si>
+  <si>
+    <t>JVM TI</t>
+  </si>
+  <si>
+    <t>Java Virtual Machine Tool Interface</t>
+  </si>
+  <si>
+    <t>JVMDI</t>
+  </si>
+  <si>
+    <t>Java Virtual Machine Debug Interface</t>
+  </si>
+  <si>
+    <t>JDI</t>
+  </si>
+  <si>
+    <t>Java Debug Interface</t>
+  </si>
+  <si>
+    <t>Follow the above link - for all basics</t>
+  </si>
+  <si>
+    <t>classpath</t>
+  </si>
+  <si>
+    <t>class path is the path that the Java Runtime Environment (JRE) searches for classes and other resource files</t>
+  </si>
+  <si>
+    <t>jdb</t>
+  </si>
+  <si>
+    <t>Basic Tools</t>
+  </si>
+  <si>
+    <t>appletviewer</t>
+  </si>
+  <si>
+    <t>Run and debug applets without a web browser.</t>
+  </si>
+  <si>
+    <t>extcheck</t>
+  </si>
+  <si>
+    <t>Utility to detect Jar conflicts</t>
+  </si>
+  <si>
+    <t>jar</t>
+  </si>
+  <si>
+    <t>Create and manage Java Archive (JAR) files</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/javase/8/docs/technotes/guides/jar/index.html</t>
+  </si>
+  <si>
+    <t>The launcher for Java applications. In this release, a single launcher is used both for development and deployment.
+The old deployment launcher, jre, is no longer provided.</t>
+  </si>
+  <si>
+    <t>The compiler for the Java programming language.</t>
+  </si>
+  <si>
+    <t>API documentation generator.</t>
+  </si>
+  <si>
+    <t>javadoc</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/javase/8/docs/technotes/guides/javadoc/index.html</t>
+  </si>
+  <si>
+    <t>C header and stub generator. Used to write native methods.</t>
+  </si>
+  <si>
+    <t>Class file disassembler</t>
+  </si>
+  <si>
+    <t>The Java Debugger</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/javase/8/docs/technotes/guides/jpda/index.html</t>
+  </si>
+  <si>
+    <t>jdeps</t>
+  </si>
+  <si>
+    <t>Java class dependency analyzer</t>
+  </si>
+  <si>
+    <t>Security Tools - refer link in line#2 for detailed description of below tools</t>
+  </si>
+  <si>
+    <t>Basic Tools - refer link in line#2 for detailed description of below tools</t>
+  </si>
+  <si>
+    <t>These tools are the foundation of the JDK. They are the tools you use to create and build applications</t>
+  </si>
+  <si>
+    <t>The Java Network Launch Protocol (JNLP) enables an application to be launched on a client desktop by using resources 
+that are hosted on a remote web server. Java Plug-in software and Java Web Start software are considered JNLP clients because they can launch remotely hosted applets and applications on a client desktop</t>
+  </si>
+  <si>
+    <t>Autosys</t>
+  </si>
+  <si>
+    <t>Topics</t>
+  </si>
+  <si>
+    <t>Autosys Definitions</t>
+  </si>
+  <si>
+    <t>What is Autosys?</t>
+  </si>
+  <si>
+    <t>An automated job control system for scheduling,monitoring and reporting jobs.
+The jobs can reside on an Autosys configured machine attached to a network.</t>
+  </si>
+  <si>
+    <t>What is an Autosys-job?</t>
+  </si>
+  <si>
+    <t>• A single action performed on a validated machine
+• Autosys-jobs can be defined using GUI or JIL
+• Any single command,executable script or NT batch file.It includes a set of qualifying attributes ,conditions specifying when and where a autosys-job should be run.
+Autosys-jobs  can be defined by assigning it a name and specifying attributes describing its behavior.</t>
+  </si>
+  <si>
+    <t>Two methods to define Autosys jobs are</t>
+  </si>
+  <si>
+    <t>1. Using Autosys GUI
+2. Using Job Information Language(JIL)</t>
+  </si>
+  <si>
+    <t>Using Autosys GUI</t>
+  </si>
+  <si>
+    <t>• Autosys GUI allows to set the attributes that describe when,where and how a autosys-job should be run.
+• GUI Control Panel is used to define autosys-jobs Contain fields that correspond to Autosys JIL sub-commands and attributes.</t>
+  </si>
+  <si>
+    <t>Using Job Information Language(JIL)</t>
+  </si>
+  <si>
+    <t>• A specification language that has its own commands to describe when,where and how a autosys-job should be run.
+• The attributes are set by JIL sub-commands</t>
+  </si>
+  <si>
+    <t>Autosys Quick Reference</t>
+  </si>
+  <si>
+    <t>http://autosys-tutorials.blogspot.in/2011/04/autosys-quick-reference.html</t>
+  </si>
+  <si>
+    <t>Autosys Machines V/s Autosys Instances</t>
+  </si>
+  <si>
+    <t>http://autosys-tutorials.blogspot.in/2010/01/autosys-machines-vs-autosys-instances.html</t>
+  </si>
+  <si>
+    <t>Autosys Work-Flow</t>
+  </si>
+  <si>
+    <t>http://autosys-tutorials.blogspot.in/2010/01/autosys-work-flow.html</t>
+  </si>
+  <si>
+    <t>http://autosys-tutorials.blogspot.in/</t>
+  </si>
+  <si>
+    <t>Html</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>Html 5</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>How to make div height increase automatically based on data</t>
+  </si>
+  <si>
+    <t>#divId{
+  min-height: 500px;
+  height: auto;
+}</t>
+  </si>
+  <si>
+    <t>jps</t>
+  </si>
+  <si>
+    <t>killing the process found in jps</t>
+  </si>
+  <si>
+    <t>cmd:&gt;taskkill /f /PID %PID%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +370,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -143,7 +412,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -192,11 +461,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -210,14 +489,48 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -510,11 +823,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -532,24 +845,71 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="14"/>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="14"/>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" location="Lucene!A1" display="Lucene"/>
+    <hyperlink ref="A3" location="'JDK Tools utilities'!A1" display="JDK Tools utilities"/>
+    <hyperlink ref="A4" location="Autosys!A1" display="Autosys"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="A5:A6" location="HTML!A1" display="HTML"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -559,96 +919,559 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="17"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:2" ht="120">
-      <c r="A2" t="s">
+      <c r="B2" s="16"/>
+    </row>
+    <row r="3" spans="1:2" ht="120">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" ht="30">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" ht="45">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="45">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" ht="45">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A1" display="Topics"/>
+    <hyperlink ref="A1:B1" location="Topics!A2" display="Topics"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="118.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="17"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="16"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="18"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="19"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="19"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="1:2" ht="45">
+      <c r="A28" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="18"/>
+      <c r="B29" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A21:B21"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B29" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B11" r:id="rId3"/>
+    <hyperlink ref="B15" r:id="rId4"/>
+    <hyperlink ref="B19" r:id="rId5"/>
+    <hyperlink ref="A1" location="Topics!A1" display="Topics"/>
+    <hyperlink ref="A1:B1" location="Topics!A3" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="114.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="17"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="16"/>
+    </row>
+    <row r="3" spans="1:2" ht="30">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="90">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A1" display="Topics"/>
+    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B9" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId3"/>
+    <hyperlink ref="A1:B1" location="Topics!A4" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="45.28515625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="119.5703125" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="17"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="16"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="16"/>
+    </row>
+    <row r="17" spans="1:2" ht="60">
+      <c r="A17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A16:B16"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A1" display="Topics"/>
+    <hyperlink ref="A1:B1" location="Topics!A7" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -12,16 +12,17 @@
     <sheet name="JDK Tools utilities" sheetId="3" r:id="rId3"/>
     <sheet name="Autosys" sheetId="4" r:id="rId4"/>
     <sheet name="HTML" sheetId="5" r:id="rId5"/>
+    <sheet name="JVM" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="jar" localSheetId="2">'JDK Tools utilities'!$A$10</definedName>
+    <definedName name="jar" localSheetId="2">'JDK Tools utilities'!$A$11</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="209">
   <si>
     <t>Lucene</t>
   </si>
@@ -195,9 +196,6 @@
     <t>extcheck</t>
   </si>
   <si>
-    <t>Utility to detect Jar conflicts</t>
-  </si>
-  <si>
     <t>jar</t>
   </si>
   <si>
@@ -242,9 +240,6 @@
   </si>
   <si>
     <t>Security Tools - refer link in line#2 for detailed description of below tools</t>
-  </si>
-  <si>
-    <t>Basic Tools - refer link in line#2 for detailed description of below tools</t>
   </si>
   <si>
     <t>These tools are the foundation of the JDK. They are the tools you use to create and build applications</t>
@@ -349,13 +344,1419 @@
   </si>
   <si>
     <t>cmd:&gt;taskkill /f /PID %PID%</t>
+  </si>
+  <si>
+    <t>Basic Tools - refer link in line#3 for detailed description of below tools</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/javase/8/docs/technotes/tools/windows/extcheck.html</t>
+  </si>
+  <si>
+    <t>Utility to detect Jar conflicts
+Detects version conflicts between a target Java Archive (JAR) file and currently installed extension JAR files.</t>
+  </si>
+  <si>
+    <t>JVM</t>
+  </si>
+  <si>
+    <t>JVM Definitions</t>
+  </si>
+  <si>
+    <t>JVM internals by artima</t>
+  </si>
+  <si>
+    <t>Basic understanding of JVM and what JVM contains</t>
+  </si>
+  <si>
+    <t>refer 1_JVM-architecture.jpg in JavaPrep\images\i_JVM</t>
+  </si>
+  <si>
+    <t>JVM Architecture</t>
+  </si>
+  <si>
+    <t>refer 2_jvm_internals.jpg in JavaPrep\images\i_JVM</t>
+  </si>
+  <si>
+    <t>Basic Terminology in JVM</t>
+  </si>
+  <si>
+    <t>1. Class Loader Sub System -&gt; Loading, Linking, Initialization
+2. Loading -&gt; Boot Srap Class Loader, Extension Class Loader, Application Class Loader 
+3. Linking -&gt; Verify, Prepare, Resove
+4. Initialization
+5. Memory Areas in JVM -&gt; Method Area, Heap Area, Stack Area, PC Registers, Native Method Stack
+6. Execution Engine -&gt; Interpreter, JIT Compiler, Profiler, Garbage Collection, JNI
+6.1. JIT Compiler -&gt; Intermediate code generation, Code Optimization, Target Code generation, Machine level language
+6.2. Profiler -&gt; for hot spots</t>
+  </si>
+  <si>
+    <t>Loading -&gt; Class Loaders -&gt; Boot strap class loader, Extension class loader, Application class loader</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Visibility limit:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A child class loader will have visibility into the parent class loader; But, a parent class loader will not have visibility into child class loader.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Each class loader has its namespace and cache that stores the loaded classes. A different namespace means that the class has been loaded by another class loader.</t>
+    </r>
+  </si>
+  <si>
+    <t>Linking -&gt; Verify, prepare, resolve</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Verify:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Check whether or not the read class is configured as described in the Java Language Specification and JVM specifications
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prepare:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Prepare a data structure that assigns the memory required by classes and fields, methods, and interfaces defined in the class
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resolve:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Change all symbolic references in the runtime constant pool of the class to direct references</t>
+    </r>
+  </si>
+  <si>
+    <t>Initialization</t>
+  </si>
+  <si>
+    <t>Memory Areas</t>
+  </si>
+  <si>
+    <t>Method Area, Heap Area, Stack Area, PC Registers, Native method stack</t>
+  </si>
+  <si>
+    <t>Method Area</t>
+  </si>
+  <si>
+    <t>Heap Area</t>
+  </si>
+  <si>
+    <t>StackOverFlowError</t>
+  </si>
+  <si>
+    <t>If the computation in a thread requires a larger JVM stack than permitted, then JVM throws StackOverflowError</t>
+  </si>
+  <si>
+    <t>OutOfMemoryError</t>
+  </si>
+  <si>
+    <t>JVM stacks can be dynamically expanded, and expansion is attempted but insufficient memory can be made available to effect the expansion, or if insufficient memory can be made available to create the initial Java Virtual Machine stack for a new thread, the Java Virtual Machine throws an OutOfMemoryError</t>
+  </si>
+  <si>
+    <t>Diagram representation of runtime areas</t>
+  </si>
+  <si>
+    <t>refer 3_runtime_area.jpg in JavaPrep\images\i_JVM</t>
+  </si>
+  <si>
+    <t>Stack Area</t>
+  </si>
+  <si>
+    <t>Stack Frame contains</t>
+  </si>
+  <si>
+    <t>Local Variable Array, Operand Stack, Frame Data</t>
+  </si>
+  <si>
+    <t>Local Variable Array</t>
+  </si>
+  <si>
+    <t>It has an index starting from 0. 
+0 is the reference of a class instance where the method belongs. From 1, the parameters sent to the method are saved. After the method parameters, the local variables of the method are saved</t>
+  </si>
+  <si>
+    <t>Operand stack</t>
+  </si>
+  <si>
+    <t>An actual workspace of a method. Each method exchanges data between the Operand stack and the local variable array, and pushes or pops other method invoke results.</t>
+  </si>
+  <si>
+    <t>PC Registers</t>
+  </si>
+  <si>
+    <t>One PC (Program Counter) register exists for one thread, and is created when the thread starts. PC register has the address of a JVM instruction being executed now.</t>
+  </si>
+  <si>
+    <t>PC Registers
+Stack Area (consists of Java Stack)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As each new thread comes into existence, it gets its own </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pc register</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (program counter) and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Java stack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. If the thread is executing a Java method (not a native method), the value of the pc register indicates the next instruction to execute. A thread's Java stack stores the state of Java (not native) method invocations for the thread. The state of a Java method invocation includes its local variables, the parameters with which it was invoked, its return value (if any), and intermediate calculations. The state of native method invocations is stored in an implementation-dependent way in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>native method stacks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, as well as possibly in registers or other implementation-dependent memory areas.</t>
+    </r>
+  </si>
+  <si>
+    <t>Native method stack</t>
+  </si>
+  <si>
+    <t>A  stack for native code written in a language other than Java. In other words, it is a stack used to execute C/C++ codes invoked through JNI (Java Native Interface). According to the language, a C stack or C++ stack is created.</t>
+  </si>
+  <si>
+    <t>Execution Engine</t>
+  </si>
+  <si>
+    <t>The execution engine must change the bytecode to the language that can be executed by the machine the JVM in. The bytecode can be changed to the suitable language in one of two ways</t>
+  </si>
+  <si>
+    <t>JIT - do not move forward without studying this</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">refer 4_JIT.jpg in JavaPrep\images\i_JVM
+In the above image -&gt; last statement saying -&gt; JIT compiler checks how frequently the method is executed and compile the method only when frequency is higher than certain level. These are called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hot spots</t>
+    </r>
+  </si>
+  <si>
+    <t>OSMemory contains many JVMs</t>
+  </si>
+  <si>
+    <t>refer 5_JVM_in_OS.jpg in JavaPrep\images\i_JVM</t>
+  </si>
+  <si>
+    <t>Three types of memory areas in JVM</t>
+  </si>
+  <si>
+    <t>Heap memory contains</t>
+  </si>
+  <si>
+    <t>1. All Objects, Shared among all threads
+2. A space that stores instances or objects, and is a target of garbage collection. This space is most frequently mentioned when discussing issues such as JVM performance. JVM vendors can determine how to configure the heap or not to collect garbage.</t>
+  </si>
+  <si>
+    <t>Permanent memory/Method Area contains</t>
+  </si>
+  <si>
+    <t>Thread stack/Stack area</t>
+  </si>
+  <si>
+    <t>Local to each thread, refer objects in heap, local variables of primitive type</t>
+  </si>
+  <si>
+    <t>Introduction to JVM</t>
+  </si>
+  <si>
+    <t>Some interesting areas in JVM</t>
+  </si>
+  <si>
+    <t>1. Interpreters
+2. JIT compilers
+3. More Complex compilers</t>
+  </si>
+  <si>
+    <t>Challenges and novel solutions in JVM design</t>
+  </si>
+  <si>
+    <t>1. Object Oriented
+2. Class loading
+3. Garbage collection</t>
+  </si>
+  <si>
+    <t>The Interpreter</t>
+  </si>
+  <si>
+    <t>1.We want to bridge the gap between planform independent byte code and the machine code of CPU we want to run our java application
+2. Whilst compilers do this better the interpreters still matters</t>
+  </si>
+  <si>
+    <t>Source of inefficiency in interpreter</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. overhead of branching
+2. overhead of decoding
+3. overhead of manipulating locals and the stack
+refer: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d_source_of_inefficiency_in_interpreter (JavaPrep/images/i_JVM)</t>
+    </r>
+  </si>
+  <si>
+    <t>Solutions for inefficiency in interpreters</t>
+  </si>
+  <si>
+    <t>1. Threaded interpreters
+2. cache local and stack values in registers
+3. pre-decoded bytecode
+4. optimize the dispatch by code alignment</t>
+  </si>
+  <si>
+    <t>JIT (Just In Time) compilation</t>
+  </si>
+  <si>
+    <t>Simple JIT compiler</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Turn byte code into a graph
+2. Turn graph into linear sequence of operations that manipulate an infinite pool of virtual registers (each node in graph is made to place its result into a virtual register)
+3. Allocate physical registers for the virtual registers (if there isn't enough we use stacks)
+4. Generate code for each operation with its allocated registers
+refer : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e_JIT_compiler (JavaPrep/images/i_JVM)</t>
+    </r>
+  </si>
+  <si>
+    <t>Internals of JVM by artima  - https://www.artima.com/insidejvm/ed2/jvm.html</t>
+  </si>
+  <si>
+    <t>Why java virtual machine is Virtual</t>
+  </si>
+  <si>
+    <t>The Java virtual machine is called "virtual" because it is an abstract computer defined by a specification. To run a Java program, you need a concrete implementation of the abstract specification. This chapter describes primarily the abstract specification of the Java virtual machine. To illustrate the abstract definition of certain features, however, this chapter also discusses various ways in which those features could be implemented</t>
+  </si>
+  <si>
+    <t>What is a Java Virtual Machine</t>
+  </si>
+  <si>
+    <t>To understand the Java virtual machine you must first be aware that you may be talking about any of three different things when you say "Java virtual machine." You may be speaking of:
+1. the abstract specification,
+2. a concrete implementation, or
+3. a runtime instance</t>
+  </si>
+  <si>
+    <t>The abstract specification is a concept, described in detail in the book: The Java Virtual Machine Specification, by Tim Lindholm and Frank Yellin. Concrete implementations, which exist on many platforms and come from many vendors, are either all software or a combination of hardware and software. 
+A runtime instance hosts a single running Java application
+Each Java application runs inside a runtime instance of some concrete implementation of the abstract specification of the Java virtual machine.</t>
+  </si>
+  <si>
+    <t>The Lifetime of a Java Virtual Machine</t>
+  </si>
+  <si>
+    <t>A runtime instance of the Java virtual machine has a clear mission in life: to run one Java application. When a Java application starts, a runtime instance is born. When the application completes, the instance dies. If you start three Java applications at the same time, on the same computer, using the same concrete implementation, you'll get three Java virtual machine instances. Each Java application runs inside its own Java virtual machine</t>
+  </si>
+  <si>
+    <t>A Java virtual machine instance starts running its solitary application by invoking the main() method of some initial class. The main() method must be public, static, return void, and accept one parameter: a String array. Any class with such a main() method can be used as the starting point for a Java application</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">One real world example of a Java virtual machine implementation is the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>java.exe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> program from Sun's Java 2 SDK. The main() method of an application's initial class serves as the starting point for that application's initial thread. The initial thread can in turn fire off other threads</t>
+    </r>
+  </si>
+  <si>
+    <t>Inside the Java virtual machine, threads come in two flavors: daemon and non- daemon. A daemon thread is ordinarily a thread used by the virtual machine itself, such as a thread that performs garbage collection. The application, however, can mark any threads it creates as daemon threads. The initial thread of an application--the one that begins at main()--is a non- daemon thread.
+A Java application continues to execute (the virtual machine instance continues to live) as long as any non-daemon threads are still running. When all non-daemon threads of a Java application terminate, the virtual machine instance will exit. If permitted by the security manager, the application can also cause its own demise by invoking the exit() method of class Runtime or System.</t>
+  </si>
+  <si>
+    <t>The Architecture of Java Virtual Machine</t>
+  </si>
+  <si>
+    <t>In the Java virtual machine specification, the behavior of a virtual machine instance is described in terms of subsystems, memory areas, data types, and instructions. These components describe an abstract inner architecture for the abstract Java virtual machine</t>
+  </si>
+  <si>
+    <t>Java virtual machine has a class loader subsystem: a mechanism for loading types (classes and interfaces) given fully qualified names. Each Java virtual machine also has an execution engine: a mechanism responsible for executing the instructions contained in the loaded classes.</t>
+  </si>
+  <si>
+    <t>When a Java virtual machine runs a program, it needs memory to store many things, including bytecodes and other information it extracts from loaded class files, objects the program instantiates, parameters to methods, return values, local variables, and intermediate results of computations. The Java virtual machine organizes the memory it needs to execute a program into several runtime data areas
+Although the same runtime data areas exist in some form in every Java virtual machine implementation, their specification is quite abstract. Many decisions about the structural details of the runtime data areas are left to the designers of individual implementations.
+Different implementations of the virtual machine can have very different memory constraints. Some implementations may have a lot of memory in which to work, others may have very little. Some implementations may be able to take advantage of virtual memory, others may not. The abstract nature of the specification of the runtime data areas helps make it easier to implement the Java virtual machine on a wide variety of computers and devices.</t>
+  </si>
+  <si>
+    <t>Method Area and Heap Area</t>
+  </si>
+  <si>
+    <t>Some runtime data areas are shared among all of an application's threads and others are unique to individual threads. Each instance of the Java virtual machine has one method area and one heap. These areas are shared by all threads running inside the virtual machine. When the virtual machine loads a class file, it parses information about a type from the binary data contained in the class file. It places this type information into the method area. As the program runs, the virtual machine places all objects the program instantiates onto the heap. See Figure 5-2 for a graphical depiction of these memory areas</t>
+  </si>
+  <si>
+    <t>The Java stack is composed of stack frames (or frames). A stack frame contains the state of one Java method invocation. When a thread invokes a method, the Java virtual machine pushes a new frame onto that thread's Java stack. When the method completes, the virtual machine pops and discards the frame for that method.
+The Java virtual machine has no registers to hold intermediate data values. The instruction set uses the Java stack for storage of intermediate data values. This approach was taken by Java's designers to keep the Java virtual machine's instruction set compact and to facilitate implementation on architectures with few or irregular general purpose registers. In addition, the stack-based architecture of the Java virtual machine's instruction set facilitates the code optimization work done by just-in-time and dynamic compilers that operate at run-time in some virtual machine implementations.
+See Figure 5-3 for a graphical depiction of the memory areas the Java virtual machine creates for each thread. These areas are private to the owning thread. No thread can access the pc register or Java stack of another thread</t>
+  </si>
+  <si>
+    <t>Data Types</t>
+  </si>
+  <si>
+    <t>https://www.artima.com/insidejvm/ed2/jvm3.html</t>
+  </si>
+  <si>
+    <t>http://javarevisited.blogspot.in/2011/05/java-heap-space-memory-size-jvm.html</t>
+  </si>
+  <si>
+    <t>10 points about Java Heap Space or Java Heap Memory (Prepare pdf of this and keep in images in free time)</t>
+  </si>
+  <si>
+    <t>http://javarevisited.blogspot.sg/2013/04/what-is-maximum-heap-size-for-32-bit-64-JVM-Java-memory.html</t>
+  </si>
+  <si>
+    <t>Maximum Heap Size of 32 bit or 64-bit JVM in Windows and Linux</t>
+  </si>
+  <si>
+    <t>http://javarevisited.blogspot.sg/2011/11/hotspot-jvm-options-java-examples.html</t>
+  </si>
+  <si>
+    <t>10 Examples of HotSpot JVM Options in Java</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hierarchical Structure:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Class loaders in Java are organized into a hierarchy with a parent-child relationship. The Bootstrap Class Loader is the parent of all class loaders. ClassLoaders follow deligation hierarchy algorithm.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Delegation mode:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Based on the hierarchical structure, load task is delegated between class loaders. Before loading a class, the parent class loader will be checked to determine whether or not the class is in the parent class loader. If the upper class loader has the class, same class is used. If not, the child class loader loads the class.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Bootstrap ClassLoader - JDK/JRE/lib/rt.jar
+2. Extension ClassLoader - JDK/JRE/lib/ext or any directory denoted by java.ext.dirs
+3. Application ClassLoader - CLASSPATH environment variable, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-classpath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-cp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> option</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Initialization of a class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> consists of -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>executing its static initializers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>initializers for static fields (class variables)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> declared in the class.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Initialization of an interface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> consists of -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>executing the initializers for fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (constants) declared in the interface. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Before a class is initialized, its direct superclass must be initialized</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, but </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>interfaces</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> implemented by the class are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> initialized. Similarly, the super interfaces of an interface are not initialized before the interface is initialized. 
+All instance variables in the new object and those of its super classes are then initialized to their default values.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>static final variables are not treated as class variables but as constants and are assigned their values at compilation. (Example with Static blocks)</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Static initialization blocks run in the order they appear when the class is first loaded into JVM
+2. Initialization blocks run in the order they appear in the program.
+3. Instance initialization blocks run whenever a new instance of class is created.
+4. Instance initialization blocks run AFTER the super constructor has completed executing and BEFORE current class constructor.
+5. Instance initialization blocks can be used to perform operations those are common to constructors
+6. Finally, the reference to the newly created object is returned as the result</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. An area that corresponds to the constant pool table in the class file format. This area is included in the method area. It plays the most core role in JVM operation. Therefore, the JVM specification separately describes its importance. 
+2. It contains </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constants of each class and interface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all references for fields and methods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. In short, when a field or method is referred to, the JVM searches the actual address of the field or method on the memory by using the runtime constant pool</t>
+    </r>
+  </si>
+  <si>
+    <t>Method Area -&gt; Runtime constant pool</t>
+  </si>
+  <si>
+    <t>(JVM) Stack: One JVM stack exists for one thread, and is created when the thread starts. It is a stack that saves the Stack Frame (struct). The JVM just pushes or pops the stack frame to the JVM stack. If any exception occurs, each line of the stack trace (on calling printStackTrce(); )represents one stack frame</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As each new thread comes into existence, it gets its own </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pc register</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (program counter) and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Java stack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pc registers:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> If the thread is executing a Java method (not a native method), the value of the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pc register indicates the next instruction to execute.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stack area:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A thread's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Java stack stores the state of Java (not native) method invocations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for the thread. The state of a Java method invocation includes its local variables, the parameters with which it was invoked, its return value (if any), and intermediate calculations.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>native method stack:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The state of native method invocations is stored in an implementation-dependent way in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>native method stacks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, as well as possibly in registers or other implementation-dependent memory areas.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The bytecode that is assigned to the runtime data areas in the JVM via class loader is executed by the execution engine.  It is like a CPU executing the machine command one by one. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Each command of the bytecode consists of a 1-byte OpCode and additional Operand. (256 opcodes*)</t>
+    </r>
+  </si>
+  <si>
+    <t>Interpreter: Reads, interprets and executes the bytecode instructions one by one. As it interprets and executes instructions one by one, it can quickly interpret one bytecode, but slowly executes the interpreted result. This is the disadvantage of the interpret language. The language called Bytecode basically runs like an interpreter</t>
+  </si>
+  <si>
+    <t>Permanent/PermGen (Method Area), Heap, Thread Stack</t>
+  </si>
+  <si>
+    <t>Runtime constant pool, field and method information, static variable, and method bytecode for each of the classes and interfaces read by the JVM</t>
+  </si>
+  <si>
+    <t>1. java files will be fed to compiler which generate .class files known as byte code
+2. There will be no linking process using Linker like C
+3. JVM resides in the RAM
+4. During execution using ClassLoader (present in JVM) the class files are brought on the RAM
+5. Byte Code Verifier (present in JVM) verifies for any security breaches
+6. Execution Engine will convert the byte code into native machine code. Here JIT (Just In Time) compiler used to identify HotSpots</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Just in time in virtual machine means, we have some code and we are executing it frequently, so lets compile it so that it can run faster. We don’t compile every thing, we just focus on compiling hot part of the code. So we got name like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hot Spots</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In Simple we are concentrating on compiling hot regions of the code.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. The method area is shared by all threads( so not thread safe), created when the JVM starts. 
+2. It stores </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>runtime constant pool, static variables, field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>method information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>method bytecode for each of the classes and interfaces read</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by the JVM. 
+3. The method area can be implemented in various formats by JVM vendor. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Oracle Hotspot JVM calls it Permanent Area or Permanent Generation (PermGen)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The garbage collection for the method area is optional for each JVM vendor.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jvm variables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: -XX:PermSize, -XX:MaxPermSize</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A space that stores instances or objects, and is a target of garbage collection. This space is most frequently mentioned when discussing issues such as JVM performance. JVM vendors can determine how to configure the heap or not to collect garbage.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Heap Area:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Young generation (Eden, Survivor 1, Survivor 2) + Tenured or Old generation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>minimum heap:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Xms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maximum heap:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Xmx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Young generation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-XX:NewSize, -XX:MaxNewSize</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,8 +1786,54 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,6 +1855,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,7 +1928,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -512,6 +1965,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -521,12 +1995,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -535,7 +2029,55 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3000375</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>2257425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="fig5-3.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="38738174"/>
+          <a:ext cx="3000375" cy="2190751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -823,11 +2365,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -862,35 +2404,50 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="21" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="14" t="s">
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="21"/>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="21"/>
+      <c r="B7" t="s">
         <v>95</v>
       </c>
-      <c r="B5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="14"/>
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="14"/>
-      <c r="B7" t="s">
-        <v>97</v>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="21"/>
+      <c r="B9" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" location="Lucene!A1" display="Lucene"/>
@@ -898,6 +2455,7 @@
     <hyperlink ref="A4" location="Autosys!A1" display="Autosys"/>
     <hyperlink ref="B4" r:id="rId1"/>
     <hyperlink ref="A5:A6" location="HTML!A1" display="HTML"/>
+    <hyperlink ref="A8:A9" location="JVM!A1" display="JVM"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -919,16 +2477,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="17"/>
+      <c r="A1" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2" ht="120">
       <c r="A3" t="s">
@@ -1026,11 +2584,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1040,16 +2598,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="17"/>
+      <c r="A1" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -1060,10 +2618,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="25"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
@@ -1074,17 +2632,17 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="19"/>
+      <c r="A6" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="26"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1095,105 +2653,107 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="27" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="7" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="9" t="s">
+    <row r="13" spans="1:2" ht="30">
+      <c r="A13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B19" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="27"/>
+      <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="9" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="7" t="s">
+      <c r="B21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="7" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="26" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="19"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="B22" s="26"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5"/>
@@ -1208,110 +2768,119 @@
       <c r="B25" s="5"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="1"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="5"/>
-    </row>
-    <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="18" t="s">
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="1:2" ht="45">
+      <c r="A29" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="25"/>
+      <c r="B30" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="13" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B29" r:id="rId1"/>
+    <hyperlink ref="B30" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B11" r:id="rId3"/>
-    <hyperlink ref="B15" r:id="rId4"/>
-    <hyperlink ref="B19" r:id="rId5"/>
+    <hyperlink ref="B12" r:id="rId3"/>
+    <hyperlink ref="B16" r:id="rId4"/>
+    <hyperlink ref="B20" r:id="rId5"/>
     <hyperlink ref="A1" location="Topics!A1" display="Topics"/>
     <hyperlink ref="A1:B1" location="Topics!A3" display="Topics"/>
+    <hyperlink ref="B10" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1331,79 +2900,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="17"/>
+      <c r="A1" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="16"/>
+      <c r="A2" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1427,7 +2996,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1437,29 +3006,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="17"/>
+      <c r="A1" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="16"/>
+      <c r="A2" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="23"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="16"/>
+      <c r="A16" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="23"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1474,4 +3043,495 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="45.28515625" customWidth="1"/>
+    <col min="2" max="2" width="122.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="29"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="1:2" ht="30">
+      <c r="A3" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="120">
+      <c r="A5" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="75">
+      <c r="A6" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="60">
+      <c r="A7" s="28"/>
+      <c r="B7" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45">
+      <c r="A8" s="28"/>
+      <c r="B8" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="60">
+      <c r="A9" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="120">
+      <c r="A10" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="90">
+      <c r="A11" s="28"/>
+      <c r="B11" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="90">
+      <c r="A13" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="60">
+      <c r="A14" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="75">
+      <c r="A15" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="45">
+      <c r="A17" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45">
+      <c r="A19" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45">
+      <c r="A21" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30">
+      <c r="A22" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="120">
+      <c r="A24" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30">
+      <c r="A25" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="45">
+      <c r="A26" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="28"/>
+      <c r="B27" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="45">
+      <c r="A28" s="28"/>
+      <c r="B28" s="16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="45">
+      <c r="A29" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="45">
+      <c r="A32" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30">
+      <c r="A33" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="90">
+      <c r="A35" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="45">
+      <c r="A36" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="45">
+      <c r="A37" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="45">
+      <c r="A38" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="60">
+      <c r="A39" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="60">
+      <c r="A40" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="45">
+      <c r="A41" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="90">
+      <c r="A42" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="45">
+      <c r="A43" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30">
+      <c r="A44" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B46" s="31"/>
+    </row>
+    <row r="47" spans="1:2" ht="60">
+      <c r="A47" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="75">
+      <c r="A48" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="90">
+      <c r="A49" s="27"/>
+      <c r="B49" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="60">
+      <c r="A50" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="45">
+      <c r="A51" s="27"/>
+      <c r="B51" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="45">
+      <c r="A52" s="27"/>
+      <c r="B52" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="105">
+      <c r="A53" s="27"/>
+      <c r="B53" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="30">
+      <c r="A54" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="45">
+      <c r="A55" s="28"/>
+      <c r="B55" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="180">
+      <c r="A56" s="28"/>
+      <c r="B56" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="75">
+      <c r="A57" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="90">
+      <c r="A58" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="180">
+      <c r="A59" s="17"/>
+      <c r="B59" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A46:B46"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1:B1" location="Topics!A9" display="Topics"/>
+    <hyperlink ref="B60" r:id="rId1"/>
+    <hyperlink ref="A46:B46" r:id="rId2" display="Internals of JVM by artima  - https://www.artima.com/insidejvm/ed2/jvm.html"/>
+    <hyperlink ref="B43" r:id="rId3"/>
+    <hyperlink ref="B44" r:id="rId4"/>
+    <hyperlink ref="B45" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId6"/>
+  <drawing r:id="rId7"/>
+</worksheet>
 </file>
--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Autosys" sheetId="4" r:id="rId4"/>
     <sheet name="HTML" sheetId="5" r:id="rId5"/>
     <sheet name="JVM" sheetId="6" r:id="rId6"/>
+    <sheet name="ActiveMQ" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="jar" localSheetId="2">'JDK Tools utilities'!$A$11</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="213">
   <si>
     <t>Lucene</t>
   </si>
@@ -1750,6 +1751,24 @@
       </rPr>
       <t>-XX:NewSize, -XX:MaxNewSize</t>
     </r>
+  </si>
+  <si>
+    <t>ActiveMQ</t>
+  </si>
+  <si>
+    <t>Setting ActiveMQ</t>
+  </si>
+  <si>
+    <t>ActiveMQ Definitions</t>
+  </si>
+  <si>
+    <t>1. Download ActiveMQ (Google ActiveMQ download)
+2. Download zip (Ex: apache-activemq-5.14.0-20160129.042638-3-bin.zip)
+3. Unzip it
+4. Go to "unzipped folder/bin/win64" --&gt; run activemq.bat
+5. open url --&gt; http://localhost:8161/
+6. click in the link --&gt; Manage ActiveMQ broker
+7. enter credentials "admin/admin"</t>
   </si>
 </sst>
 </file>
@@ -1928,7 +1947,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1986,6 +2005,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2018,9 +2043,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2365,11 +2387,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:A9"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2411,7 +2433,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="23" t="s">
         <v>93</v>
       </c>
       <c r="B5" t="s">
@@ -2419,19 +2441,19 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="21"/>
+      <c r="A6" s="23"/>
       <c r="B6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="21"/>
+      <c r="A7" s="23"/>
       <c r="B7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="23" t="s">
         <v>104</v>
       </c>
       <c r="B8" t="s">
@@ -2439,9 +2461,14 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="21"/>
+      <c r="A9" s="23"/>
       <c r="B9" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="9" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2456,6 +2483,7 @@
     <hyperlink ref="B4" r:id="rId1"/>
     <hyperlink ref="A5:A6" location="HTML!A1" display="HTML"/>
     <hyperlink ref="A8:A9" location="JVM!A1" display="JVM"/>
+    <hyperlink ref="A10" location="ActiveMQ!A1" display="ActiveMQ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2477,16 +2505,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="25"/>
     </row>
     <row r="3" spans="1:2" ht="120">
       <c r="A3" t="s">
@@ -2598,16 +2626,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="25"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -2618,10 +2646,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="27"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
@@ -2632,10 +2660,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="28"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
@@ -2654,7 +2682,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="29" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -2662,13 +2690,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="27"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="29" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2676,7 +2704,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="27"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
@@ -2698,7 +2726,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2706,7 +2734,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="27"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
@@ -2728,7 +2756,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="29" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -2736,7 +2764,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="27"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
@@ -2750,10 +2778,10 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="26"/>
+      <c r="B22" s="28"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5"/>
@@ -2784,7 +2812,7 @@
       <c r="B28" s="5"/>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="27" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -2792,7 +2820,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="25"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="6" t="s">
         <v>31</v>
       </c>
@@ -2900,16 +2928,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="25"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -3006,22 +3034,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="25"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="25"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="11" t="s">
@@ -3050,8 +3078,8 @@
   <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3061,16 +3089,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="25"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" s="15" t="s">
@@ -3097,7 +3125,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="30" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -3105,19 +3133,19 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="28"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="28"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="16" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="22" t="s">
         <v>115</v>
       </c>
       <c r="B9" s="16" t="s">
@@ -3125,7 +3153,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="30" t="s">
         <v>117</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -3133,7 +3161,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="28"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="16" t="s">
         <v>196</v>
       </c>
@@ -3251,7 +3279,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="30" t="s">
         <v>141</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -3259,13 +3287,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="28"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="16" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="28"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="16" t="s">
         <v>202</v>
       </c>
@@ -3407,10 +3435,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="B46" s="31"/>
+      <c r="B46" s="33"/>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="17" t="s">
@@ -3421,7 +3449,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="29" t="s">
         <v>170</v>
       </c>
       <c r="B48" s="16" t="s">
@@ -3429,13 +3457,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="90">
-      <c r="A49" s="27"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="29" t="s">
         <v>173</v>
       </c>
       <c r="B50" s="16" t="s">
@@ -3443,25 +3471,25 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="27"/>
+      <c r="A51" s="29"/>
       <c r="B51" s="16" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="27"/>
+      <c r="A52" s="29"/>
       <c r="B52" s="16" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="27"/>
+      <c r="A53" s="29"/>
       <c r="B53" s="16" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="30" t="s">
         <v>178</v>
       </c>
       <c r="B54" s="16" t="s">
@@ -3469,13 +3497,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="28"/>
+      <c r="A55" s="30"/>
       <c r="B55" s="16" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="28"/>
+      <c r="A56" s="30"/>
       <c r="B56" s="16" t="s">
         <v>181</v>
       </c>
@@ -3534,4 +3562,51 @@
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId6"/>
   <drawing r:id="rId7"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="115" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="31"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="25"/>
+    </row>
+    <row r="3" spans="1:2" ht="105">
+      <c r="A3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1:B1" location="Topics!A10" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="HTML" sheetId="5" r:id="rId5"/>
     <sheet name="JVM" sheetId="6" r:id="rId6"/>
     <sheet name="ActiveMQ" sheetId="7" r:id="rId7"/>
+    <sheet name="Apache Camel" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="jar" localSheetId="2">'JDK Tools utilities'!$A$11</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="215">
   <si>
     <t>Lucene</t>
   </si>
@@ -1769,6 +1770,12 @@
 5. open url --&gt; http://localhost:8161/
 6. click in the link --&gt; Manage ActiveMQ broker
 7. enter credentials "admin/admin"</t>
+  </si>
+  <si>
+    <t>Apache Camel</t>
+  </si>
+  <si>
+    <t>http://camel.apache.org/getting-started.html</t>
   </si>
 </sst>
 </file>
@@ -2387,11 +2394,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2469,6 +2476,14 @@
     <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
         <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2484,6 +2499,8 @@
     <hyperlink ref="A5:A6" location="HTML!A1" display="HTML"/>
     <hyperlink ref="A8:A9" location="JVM!A1" display="JVM"/>
     <hyperlink ref="A10" location="ActiveMQ!A1" display="ActiveMQ"/>
+    <hyperlink ref="A11" location="'Apache Camel'!A1" display="Apache Camel"/>
+    <hyperlink ref="B11" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3568,9 +3585,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3609,4 +3626,41 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="111.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="26"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1:B1" location="Topics!A11" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="234">
   <si>
     <t>Lucene</t>
   </si>
@@ -709,10 +709,6 @@
     <t>The Interpreter</t>
   </si>
   <si>
-    <t>1.We want to bridge the gap between planform independent byte code and the machine code of CPU we want to run our java application
-2. Whilst compilers do this better the interpreters still matters</t>
-  </si>
-  <si>
     <t>Source of inefficiency in interpreter</t>
   </si>
   <si>
@@ -1776,6 +1772,85 @@
   </si>
   <si>
     <t>http://camel.apache.org/getting-started.html</t>
+  </si>
+  <si>
+    <t>1.We want to bridge the gap between platform independent byte code and the machine code of CPU we want to run our java application
+2. Whilst compilers do this better the interpreters still matters</t>
+  </si>
+  <si>
+    <t>Java 8: From PermGen to MetaSpace</t>
+  </si>
+  <si>
+    <t>What this discussion about?</t>
+  </si>
+  <si>
+    <t>This article will share the information that we found so far on the PermGen successor: Metaspace. We will also compare the runtime behavior of the HotSpot 1.7 vs. HotSpot 1.8 (b75) when executing a Java program “leaking” class metadata objects</t>
+  </si>
+  <si>
+    <t>Metaspace</t>
+  </si>
+  <si>
+    <t>The JDK 8 HotSpot JVM is now using native memory for the representation of class metadata and is called Metaspace; similar to the Oracle JRockit and IBM JVM's.
+The good news is that it means no more java.lang.OutOfMemoryError: PermGen space problems and no need for you to tune and monitor this memory space anymore…not so fast. While this change is invisible by default, we will show you next that you will still need to worry about the class metadata memory footprint. Please also keep in mind that this new feature does not magically eliminate class and classloader memory leaks. You will need to track down these problems using a different approach and by learning the new naming convention.</t>
+  </si>
+  <si>
+    <t>PermGen Space in JDK8</t>
+  </si>
+  <si>
+    <t>1. This memory space is completely removed.
+2. The PermSize and MaxPermSize JVM arguments are ignored and a warning is issued if present at start-up</t>
+  </si>
+  <si>
+    <t>Metaspace memory allocation model</t>
+  </si>
+  <si>
+    <t>Most allocations for the class metadata are now allocated out of native memory.
+The klasses that were used to describe class metadata have been removed.</t>
+  </si>
+  <si>
+    <t>Metaspace capacity`</t>
+  </si>
+  <si>
+    <t>By default class metadata allocation is limited by the amount of available native memory (capacity will of course depend if you use a 32-bit JVM vs. 64-bit along with OS virtual memory availability).
+A new flag is available (MaxMetaspaceSize), allowing you to limit the amount of native memory used for class metadata. If you don’t specify this flag, the Metaspace will dynamically re-size depending of the application demand at runtime.</t>
+  </si>
+  <si>
+    <t>Metaspace garbage collection</t>
+  </si>
+  <si>
+    <t>Garbage collection of the dead classes and classloaders is triggered once the class metadata usage reaches the “MaxMetaspaceSize”.
+Proper monitoring &amp; tuning of the Metaspace will obviously be required in order to limit the frequency or delay of such garbage collections. Excessive Metaspace garbage collections may be a symptom of classes, classloaders memory leak or inadequate sizing for your application</t>
+  </si>
+  <si>
+    <t>Java heap space impact</t>
+  </si>
+  <si>
+    <t>Some miscellaneous data has been moved to the Java heap space. This means you may observe an increase of the Java heap space following a future JDK 8 upgrade</t>
+  </si>
+  <si>
+    <t>Metaspace monitoring</t>
+  </si>
+  <si>
+    <t>Metaspace usage is available from the HotSpot 1.8 verbose GC log output.
+Jstat &amp; JVisualVM have not been updated at this point based on our testing with b75 and the old PermGen space references are still present.</t>
+  </si>
+  <si>
+    <t>PermGen_vs_Metaspace_runtime_comparison</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">refer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>images/i_JVM/f_PermGen_vs_Metaspace_runtime_comparison.pdf</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1859,7 +1934,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1887,6 +1962,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1954,7 +2035,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2018,6 +2099,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2050,6 +2134,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2398,7 +2494,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2440,7 +2536,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>93</v>
       </c>
       <c r="B5" t="s">
@@ -2448,19 +2544,19 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="24" t="s">
         <v>104</v>
       </c>
       <c r="B8" t="s">
@@ -2468,22 +2564,22 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>213</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2522,16 +2618,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:2" ht="120">
       <c r="A3" t="s">
@@ -2643,16 +2739,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -2663,10 +2759,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="28"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
@@ -2677,10 +2773,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="29"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
@@ -2699,7 +2795,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -2707,13 +2803,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="29"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="30" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2721,7 +2817,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="29"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
@@ -2743,7 +2839,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="30" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2751,7 +2847,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="29"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
@@ -2773,7 +2869,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="30" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -2781,7 +2877,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="29"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
@@ -2795,10 +2891,10 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="28"/>
+      <c r="B22" s="29"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5"/>
@@ -2829,7 +2925,7 @@
       <c r="B28" s="5"/>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="28" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -2837,7 +2933,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="27"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="6" t="s">
         <v>31</v>
       </c>
@@ -2945,16 +3041,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -3051,22 +3147,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="25"/>
+      <c r="B16" s="26"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="11" t="s">
@@ -3092,11 +3188,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3106,16 +3202,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" s="15" t="s">
@@ -3142,23 +3238,23 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="31" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="30"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
@@ -3170,17 +3266,17 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="31" t="s">
         <v>117</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="90">
+      <c r="A11" s="31"/>
+      <c r="B11" s="16" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="30"/>
-      <c r="B11" s="16" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3196,15 +3292,15 @@
         <v>120</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
       <c r="A14" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75">
@@ -3212,7 +3308,7 @@
         <v>121</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3244,7 +3340,7 @@
         <v>128</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3284,7 +3380,7 @@
         <v>137</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
@@ -3296,23 +3392,23 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="31" t="s">
         <v>141</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="30"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="16" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="30"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45">
@@ -3336,7 +3432,7 @@
         <v>147</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="45">
@@ -3352,7 +3448,7 @@
         <v>150</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3368,7 +3464,7 @@
         <v>153</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="45">
@@ -3392,145 +3488,145 @@
         <v>158</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>159</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="60">
       <c r="A39" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" s="16" t="s">
         <v>160</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="60">
       <c r="A40" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" s="16" t="s">
         <v>162</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
       <c r="A41" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="90">
       <c r="A42" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42" s="16" t="s">
         <v>165</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
       <c r="A43" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30">
       <c r="A44" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="B46" s="33"/>
+      <c r="A46" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" s="34"/>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B47" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B47" s="16" t="s">
+    </row>
+    <row r="48" spans="1:2" ht="75">
+      <c r="A48" s="30" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="29" t="s">
+      <c r="B48" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B48" s="16" t="s">
+    </row>
+    <row r="49" spans="1:2" ht="90">
+      <c r="A49" s="30"/>
+      <c r="B49" s="16" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="90">
-      <c r="A49" s="29"/>
-      <c r="B49" s="16" t="s">
+    <row r="50" spans="1:2" ht="60">
+      <c r="A50" s="30" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="29" t="s">
+      <c r="B50" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="B50" s="16" t="s">
+    </row>
+    <row r="51" spans="1:2" ht="45">
+      <c r="A51" s="30"/>
+      <c r="B51" s="16" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="29"/>
-      <c r="B51" s="16" t="s">
+    <row r="52" spans="1:2" ht="45">
+      <c r="A52" s="30"/>
+      <c r="B52" s="16" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="29"/>
-      <c r="B52" s="16" t="s">
+    <row r="53" spans="1:2" ht="105">
+      <c r="A53" s="30"/>
+      <c r="B53" s="16" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="29"/>
-      <c r="B53" s="16" t="s">
+    <row r="54" spans="1:2" ht="30">
+      <c r="A54" s="31" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="30" t="s">
+      <c r="B54" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="B54" s="16" t="s">
+    </row>
+    <row r="55" spans="1:2" ht="45">
+      <c r="A55" s="31"/>
+      <c r="B55" s="16" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="30"/>
-      <c r="B55" s="16" t="s">
+    <row r="56" spans="1:2" ht="180">
+      <c r="A56" s="31"/>
+      <c r="B56" s="16" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="30"/>
-      <c r="B56" s="16" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="75">
       <c r="A57" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B57" s="16" t="s">
         <v>182</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="90">
@@ -3544,19 +3640,98 @@
     <row r="59" spans="1:2" ht="180">
       <c r="A59" s="17"/>
       <c r="B59" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="B60" s="19" t="s">
-        <v>186</v>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B61" s="36"/>
+    </row>
+    <row r="62" spans="1:2" ht="30">
+      <c r="A62" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="105">
+      <c r="A63" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30">
+      <c r="A64" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="30">
+      <c r="A65" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="60">
+      <c r="A66" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="60">
+      <c r="A67" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="30">
+      <c r="A68" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="45">
+      <c r="A69" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A61:B61"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A54:A56"/>
@@ -3597,23 +3772,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="25"/>
+      <c r="A2" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:2" ht="105">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3632,9 +3807,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3644,14 +3819,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="251">
   <si>
     <t>Lucene</t>
   </si>
@@ -241,9 +241,6 @@
     <t>Java class dependency analyzer</t>
   </si>
   <si>
-    <t>Security Tools - refer link in line#2 for detailed description of below tools</t>
-  </si>
-  <si>
     <t>These tools are the foundation of the JDK. They are the tools you use to create and build applications</t>
   </si>
   <si>
@@ -1852,12 +1849,66 @@
       <t>images/i_JVM/f_PermGen_vs_Metaspace_runtime_comparison.pdf</t>
     </r>
   </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Security Tools - refer link in line#3 for detailed description of below tools</t>
+  </si>
+  <si>
+    <t>Visual VM</t>
+  </si>
+  <si>
+    <t>Download Visual VM and configuring in eclipse</t>
+  </si>
+  <si>
+    <t>https://visualvm.java.net/eclipse-launcher.html</t>
+  </si>
+  <si>
+    <t>Getting started with Visual VM</t>
+  </si>
+  <si>
+    <t>https://visualvm.java.net/gettingstarted.html</t>
+  </si>
+  <si>
+    <t>How to run Jvisual VM</t>
+  </si>
+  <si>
+    <t>JAVA_HOME -&gt; bin -&gt; jvisualvm.exe</t>
+  </si>
+  <si>
+    <t>JPS</t>
+  </si>
+  <si>
+    <t>what is JPS</t>
+  </si>
+  <si>
+    <t>To know what JVMs are running in system and find out which Java programs running</t>
+  </si>
+  <si>
+    <t>how to run</t>
+  </si>
+  <si>
+    <t>JAVA_HOME -&gt; bin -&gt; jps</t>
+  </si>
+  <si>
+    <t>jps -m</t>
+  </si>
+  <si>
+    <t>To show arguments to the program</t>
+  </si>
+  <si>
+    <t>jps -v</t>
+  </si>
+  <si>
+    <t>To show arguments to JVM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1933,8 +1984,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1968,6 +2028,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2035,7 +2101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2102,6 +2168,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2114,6 +2195,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2123,29 +2210,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2494,7 +2575,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:A9"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2529,57 +2610,57 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="24" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="29"/>
+      <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="B5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="24"/>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="29"/>
+      <c r="B7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="24"/>
-      <c r="B7" t="s">
-        <v>95</v>
-      </c>
-    </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s">
         <v>104</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="29"/>
+      <c r="B9" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="24"/>
-      <c r="B9" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>212</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2618,16 +2699,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="27"/>
+      <c r="A1" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2" ht="120">
       <c r="A3" t="s">
@@ -2725,11 +2806,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2739,16 +2820,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="27"/>
+      <c r="A1" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -2759,10 +2840,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="35"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
@@ -2773,17 +2854,17 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="29"/>
+      <c r="A6" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="36"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2795,21 +2876,21 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="37" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="30"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="37" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2817,7 +2898,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="30"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
@@ -2839,7 +2920,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="37" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2847,7 +2928,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="30"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
@@ -2869,7 +2950,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="37" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -2877,7 +2958,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="30"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
@@ -2890,11 +2971,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="29"/>
+    <row r="22" spans="1:2" ht="15" customHeight="1">
+      <c r="A22" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5"/>
@@ -2925,15 +3006,15 @@
       <c r="B28" s="5"/>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="35" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="28"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="6" t="s">
         <v>31</v>
       </c>
@@ -2986,19 +3067,89 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>100</v>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="B40" s="34"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="B50" s="34"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>243</v>
+      </c>
+      <c r="B51" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>245</v>
+      </c>
+      <c r="B52" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>247</v>
+      </c>
+      <c r="B53" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>249</v>
+      </c>
+      <c r="B54" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A50:B50"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A29:A30"/>
@@ -3019,9 +3170,11 @@
     <hyperlink ref="A1" location="Topics!A1" display="Topics"/>
     <hyperlink ref="A1:B1" location="Topics!A3" display="Topics"/>
     <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="B42" r:id="rId7"/>
+    <hyperlink ref="B41" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -3041,79 +3194,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="32"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="27"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
       <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3147,29 +3300,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="27"/>
+      <c r="A1" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="26"/>
+      <c r="A2" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="31"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="26"/>
+      <c r="A16" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="31"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3190,9 +3343,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3202,540 +3355,541 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="32"/>
+      <c r="A1" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="26"/>
+      <c r="A2" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>107</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>109</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="120">
       <c r="A5" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="16" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="75">
+      <c r="A6" s="40" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="31" t="s">
+      <c r="B6" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="60">
+      <c r="A7" s="40"/>
+      <c r="B7" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="16" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="45">
+      <c r="A8" s="40"/>
+      <c r="B8" s="16" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="31"/>
-      <c r="B7" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="31"/>
-      <c r="B8" s="16" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
       <c r="A9" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="16" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="120">
+      <c r="A10" s="40" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="31" t="s">
-        <v>117</v>
-      </c>
       <c r="B10" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="90">
+      <c r="A11" s="40"/>
+      <c r="B11" s="16" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="31"/>
-      <c r="B11" s="16" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>118</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="90">
       <c r="A13" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
       <c r="A14" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75">
       <c r="A15" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>122</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45">
       <c r="A17" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
       <c r="A19" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45">
       <c r="A21" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>131</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
       <c r="A23" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="120">
       <c r="A24" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
       <c r="A25" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B25" s="16" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="45">
+      <c r="A26" s="40" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="31" t="s">
+      <c r="B26" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="40"/>
+      <c r="B27" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B26" s="16" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="45">
+      <c r="A28" s="40"/>
+      <c r="B28" s="16" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="31"/>
-      <c r="B27" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="31"/>
-      <c r="B28" s="16" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45">
       <c r="A29" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>143</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>145</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="45">
       <c r="A32" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>148</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
       <c r="A33" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="90">
       <c r="A35" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="45">
       <c r="A36" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="16" t="s">
         <v>154</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="45">
       <c r="A37" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>156</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="45">
       <c r="A38" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="60">
       <c r="A39" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" s="16" t="s">
         <v>159</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="60">
       <c r="A40" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" s="16" t="s">
         <v>161</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
       <c r="A41" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="90">
       <c r="A42" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="16" t="s">
         <v>164</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
       <c r="A43" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30">
       <c r="A44" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="B46" s="34"/>
+      <c r="A46" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" s="42"/>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="B47" s="16" t="s">
+    </row>
+    <row r="48" spans="1:2" ht="75">
+      <c r="A48" s="37" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="30" t="s">
+      <c r="B48" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="B48" s="16" t="s">
+    </row>
+    <row r="49" spans="1:2" ht="90">
+      <c r="A49" s="37"/>
+      <c r="B49" s="16" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="90">
-      <c r="A49" s="30"/>
-      <c r="B49" s="16" t="s">
+    <row r="50" spans="1:2" ht="60">
+      <c r="A50" s="37" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="30" t="s">
+      <c r="B50" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="B50" s="16" t="s">
+    </row>
+    <row r="51" spans="1:2" ht="45">
+      <c r="A51" s="37"/>
+      <c r="B51" s="16" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="30"/>
-      <c r="B51" s="16" t="s">
+    <row r="52" spans="1:2" ht="45">
+      <c r="A52" s="37"/>
+      <c r="B52" s="16" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="30"/>
-      <c r="B52" s="16" t="s">
+    <row r="53" spans="1:2" ht="105">
+      <c r="A53" s="37"/>
+      <c r="B53" s="16" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="30"/>
-      <c r="B53" s="16" t="s">
+    <row r="54" spans="1:2" ht="30">
+      <c r="A54" s="40" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="31" t="s">
+      <c r="B54" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="B54" s="16" t="s">
+    </row>
+    <row r="55" spans="1:2" ht="45">
+      <c r="A55" s="40"/>
+      <c r="B55" s="16" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="31"/>
-      <c r="B55" s="16" t="s">
+    <row r="56" spans="1:2" ht="180">
+      <c r="A56" s="40"/>
+      <c r="B56" s="16" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="31"/>
-      <c r="B56" s="16" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="75">
       <c r="A57" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B57" s="16" t="s">
         <v>181</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="90">
       <c r="A58" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="16" t="s">
         <v>137</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="180">
       <c r="A59" s="17"/>
       <c r="B59" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="B60" s="19" t="s">
-        <v>185</v>
-      </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="35" t="s">
+      <c r="A61" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B61" s="39"/>
+    </row>
+    <row r="62" spans="1:2" ht="30">
+      <c r="A62" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="B61" s="36"/>
-    </row>
-    <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="37" t="s">
+      <c r="B62" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="B62" s="38" t="s">
+    </row>
+    <row r="63" spans="1:2" ht="105">
+      <c r="A63" s="24" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="105">
-      <c r="A63" s="37" t="s">
+      <c r="B63" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="B63" s="23" t="s">
+    </row>
+    <row r="64" spans="1:2" ht="30">
+      <c r="A64" s="24" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="37" t="s">
+      <c r="B64" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="B64" s="23" t="s">
+    </row>
+    <row r="65" spans="1:2" ht="30">
+      <c r="A65" s="24" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="30">
-      <c r="A65" s="37" t="s">
+      <c r="B65" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="B65" s="23" t="s">
+    </row>
+    <row r="66" spans="1:2" ht="60">
+      <c r="A66" s="24" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="60">
-      <c r="A66" s="37" t="s">
+      <c r="B66" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="B66" s="23" t="s">
+    </row>
+    <row r="67" spans="1:2" ht="60">
+      <c r="A67" s="24" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="60">
-      <c r="A67" s="37" t="s">
+      <c r="B67" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="B67" s="23" t="s">
+    </row>
+    <row r="68" spans="1:2" ht="30">
+      <c r="A68" s="24" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="30">
-      <c r="A68" s="37" t="s">
+      <c r="B68" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="B68" s="23" t="s">
+    </row>
+    <row r="69" spans="1:2" ht="45">
+      <c r="A69" s="24" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="45">
-      <c r="A69" s="37" t="s">
+      <c r="B69" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="B69" s="23" t="s">
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="24" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="37" t="s">
+      <c r="B70" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="B70" s="23" t="s">
-        <v>233</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A10:A11"/>
@@ -3749,6 +3903,7 @@
     <hyperlink ref="B43" r:id="rId3"/>
     <hyperlink ref="B44" r:id="rId4"/>
     <hyperlink ref="B45" r:id="rId5"/>
+    <hyperlink ref="B1" location="JVM!A2" display="Up"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId6"/>
@@ -3772,23 +3927,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="32"/>
+      <c r="A1" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="43"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="26"/>
+      <c r="A2" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2" ht="105">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3819,14 +3974,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="27"/>
+      <c r="A1" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="252">
   <si>
     <t>Lucene</t>
   </si>
@@ -345,9 +345,6 @@
     <t>cmd:&gt;taskkill /f /PID %PID%</t>
   </si>
   <si>
-    <t>Basic Tools - refer link in line#3 for detailed description of below tools</t>
-  </si>
-  <si>
     <t>https://docs.oracle.com/javase/8/docs/technotes/tools/windows/extcheck.html</t>
   </si>
   <si>
@@ -1902,6 +1899,12 @@
   </si>
   <si>
     <t>To show arguments to JVM</t>
+  </si>
+  <si>
+    <t>Basic Tools - https://docs.oracle.com/javase/8/docs/technotes/tools/</t>
+  </si>
+  <si>
+    <t>Security Tools</t>
   </si>
 </sst>
 </file>
@@ -2571,11 +2574,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2602,82 +2605,101 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
+        <v>71</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>90</v>
+      <c r="A4" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="29" t="s">
-        <v>92</v>
-      </c>
+      <c r="A5" s="29"/>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="29"/>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="29"/>
+      <c r="A7" s="29" t="s">
+        <v>102</v>
+      </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="29" t="s">
-        <v>103</v>
-      </c>
+      <c r="A8" s="29"/>
       <c r="B8" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="29"/>
-      <c r="B9" t="s">
-        <v>105</v>
+      <c r="A9" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
-        <v>207</v>
+        <v>210</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>212</v>
+      <c r="A11" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="29"/>
+      <c r="B12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="29"/>
+      <c r="B13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="29"/>
+      <c r="B14" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="3">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" location="Lucene!A1" display="Lucene"/>
-    <hyperlink ref="A3" location="'JDK Tools utilities'!A1" display="JDK Tools utilities"/>
-    <hyperlink ref="A4" location="Autosys!A1" display="Autosys"/>
-    <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="A5:A6" location="HTML!A1" display="HTML"/>
-    <hyperlink ref="A8:A9" location="JVM!A1" display="JVM"/>
-    <hyperlink ref="A10" location="ActiveMQ!A1" display="ActiveMQ"/>
-    <hyperlink ref="A11" location="'Apache Camel'!A1" display="Apache Camel"/>
-    <hyperlink ref="B11" r:id="rId2"/>
+    <hyperlink ref="A3" location="Autosys!A1" display="Autosys"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A4:A5" location="HTML!A1" display="HTML"/>
+    <hyperlink ref="A7:A8" location="JVM!A1" display="JVM"/>
+    <hyperlink ref="A9" location="ActiveMQ!A1" display="ActiveMQ"/>
+    <hyperlink ref="A10" location="'Apache Camel'!A1" display="Apache Camel"/>
+    <hyperlink ref="B10" r:id="rId2"/>
+    <hyperlink ref="A11" location="'JDK Tools utilities'!A1" display="JDK Tools utilities"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2689,7 +2711,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2699,16 +2721,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="28" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:2" ht="120">
       <c r="A3" t="s">
@@ -2791,13 +2815,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A1" display="Topics"/>
     <hyperlink ref="A1:B1" location="Topics!A2" display="Topics"/>
+    <hyperlink ref="B1" location="Lucene!A2" display="Up"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -2806,11 +2830,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2820,16 +2844,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="28" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -2855,7 +2881,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="36" t="s">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="B6" s="36"/>
     </row>
@@ -2880,13 +2906,13 @@
         <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="37"/>
       <c r="B10" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2973,186 +2999,169 @@
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
       <c r="A22" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="5"/>
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="5"/>
-    </row>
-    <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>70</v>
+        <v>33</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="35"/>
-      <c r="B30" s="6" t="s">
-        <v>31</v>
+      <c r="A30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="1"/>
+      <c r="A31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>34</v>
+      <c r="A32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>40</v>
+      <c r="A33" s="13" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>44</v>
+      <c r="A34" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="A36" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36" s="34"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="13" t="s">
-        <v>97</v>
+      <c r="A37" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="B40" s="34"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="B41" s="6" t="s">
+      <c r="A38" s="26" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="26" t="s">
+      <c r="B38" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B42" s="6" t="s">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="26" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="26" t="s">
+      <c r="B39" t="s">
         <v>240</v>
       </c>
-      <c r="B43" t="s">
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="33" t="s">
         <v>241</v>
       </c>
+      <c r="B46" s="34"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>242</v>
+      </c>
+      <c r="B47" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>244</v>
+      </c>
+      <c r="B48" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>246</v>
+      </c>
+      <c r="B49" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="B50" s="34"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>243</v>
-      </c>
-      <c r="B51" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>245</v>
-      </c>
-      <c r="B52" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>247</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="A50" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
+      <c r="B50" t="s">
         <v>249</v>
       </c>
-      <c r="B54" t="s">
-        <v>250</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="11">
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A46:B46"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A22:B22"/>
@@ -3162,7 +3171,7 @@
     <mergeCell ref="A9:A10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B30" r:id="rId1"/>
+    <hyperlink ref="B26" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B12" r:id="rId3"/>
     <hyperlink ref="B16" r:id="rId4"/>
@@ -3170,8 +3179,9 @@
     <hyperlink ref="A1" location="Topics!A1" display="Topics"/>
     <hyperlink ref="A1:B1" location="Topics!A3" display="Topics"/>
     <hyperlink ref="B10" r:id="rId6"/>
-    <hyperlink ref="B42" r:id="rId7"/>
-    <hyperlink ref="B41" r:id="rId8"/>
+    <hyperlink ref="B38" r:id="rId7"/>
+    <hyperlink ref="B37" r:id="rId8"/>
+    <hyperlink ref="B1" location="'JDK Tools utilities'!A2" display="Up"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId9"/>
@@ -3184,7 +3194,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3194,16 +3204,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="28" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -3270,18 +3282,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="1">
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Topics!A1" display="Topics"/>
+    <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
     <hyperlink ref="B8" r:id="rId1"/>
     <hyperlink ref="B9" r:id="rId2"/>
     <hyperlink ref="B10" r:id="rId3"/>
     <hyperlink ref="A1:B1" location="Topics!A4" display="Topics"/>
+    <hyperlink ref="B1" location="Autosys!A2" display="Up"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -3345,7 +3358,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3359,529 +3372,529 @@
         <v>72</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="120">
       <c r="A5" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>110</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="75">
       <c r="A6" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="40"/>
       <c r="B7" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
       <c r="A8" s="40"/>
       <c r="B8" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
       <c r="A9" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>114</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
       <c r="A10" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
       <c r="A11" s="40"/>
       <c r="B11" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="90">
       <c r="A13" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
       <c r="A14" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75">
       <c r="A15" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>121</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45">
       <c r="A17" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>123</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>125</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
       <c r="A19" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45">
       <c r="A21" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>130</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
       <c r="A23" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="16" t="s">
         <v>134</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="120">
       <c r="A24" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
       <c r="A25" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="16" t="s">
         <v>138</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
       <c r="A26" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
       <c r="A27" s="40"/>
       <c r="B27" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
       <c r="A28" s="40"/>
       <c r="B28" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45">
       <c r="A29" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>142</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>144</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="45">
       <c r="A32" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>147</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
       <c r="A33" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="16" t="s">
         <v>150</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="90">
       <c r="A35" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="45">
       <c r="A36" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" s="16" t="s">
         <v>153</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="45">
       <c r="A37" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="45">
       <c r="A38" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="60">
       <c r="A39" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="16" t="s">
         <v>158</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="60">
       <c r="A40" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="16" t="s">
         <v>160</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
       <c r="A41" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="90">
       <c r="A42" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" s="16" t="s">
         <v>163</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
       <c r="A43" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30">
       <c r="A44" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B46" s="42"/>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B47" s="16" t="s">
         <v>166</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
       <c r="A48" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" s="16" t="s">
         <v>168</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="90">
       <c r="A49" s="37"/>
       <c r="B49" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
       <c r="A50" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B50" s="16" t="s">
         <v>171</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
       <c r="A51" s="37"/>
       <c r="B51" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
       <c r="A52" s="37"/>
       <c r="B52" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105">
       <c r="A53" s="37"/>
       <c r="B53" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
       <c r="A54" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="B54" s="16" t="s">
         <v>176</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
       <c r="A55" s="40"/>
       <c r="B55" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180">
       <c r="A56" s="40"/>
       <c r="B56" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="75">
       <c r="A57" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B57" s="16" t="s">
         <v>180</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="90">
       <c r="A58" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="180">
       <c r="A59" s="17"/>
       <c r="B59" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B60" s="19" t="s">
         <v>183</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B61" s="39"/>
     </row>
     <row r="62" spans="1:2" ht="30">
       <c r="A62" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B62" s="25" t="s">
         <v>215</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="105">
       <c r="A63" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B63" s="23" t="s">
         <v>217</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
       <c r="A64" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="B64" s="23" t="s">
         <v>219</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="30">
       <c r="A65" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B65" s="23" t="s">
         <v>221</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="60">
       <c r="A66" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B66" s="23" t="s">
         <v>223</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="60">
       <c r="A67" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B67" s="23" t="s">
         <v>225</v>
-      </c>
-      <c r="B67" s="23" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="30">
       <c r="A68" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B68" s="23" t="s">
         <v>227</v>
-      </c>
-      <c r="B68" s="23" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="45">
       <c r="A69" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B69" s="23" t="s">
         <v>229</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="B70" s="23" t="s">
         <v>231</v>
-      </c>
-      <c r="B70" s="23" t="s">
-        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3904,6 +3917,7 @@
     <hyperlink ref="B44" r:id="rId4"/>
     <hyperlink ref="B45" r:id="rId5"/>
     <hyperlink ref="B1" location="JVM!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A8" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId6"/>
@@ -3934,16 +3948,16 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2" ht="105">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="JVM" sheetId="6" r:id="rId6"/>
     <sheet name="ActiveMQ" sheetId="7" r:id="rId7"/>
     <sheet name="Apache Camel" sheetId="8" r:id="rId8"/>
+    <sheet name="OpenAM" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="jar" localSheetId="2">'JDK Tools utilities'!$A$11</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="260">
   <si>
     <t>Lucene</t>
   </si>
@@ -1747,19 +1748,7 @@
     <t>ActiveMQ</t>
   </si>
   <si>
-    <t>Setting ActiveMQ</t>
-  </si>
-  <si>
     <t>ActiveMQ Definitions</t>
-  </si>
-  <si>
-    <t>1. Download ActiveMQ (Google ActiveMQ download)
-2. Download zip (Ex: apache-activemq-5.14.0-20160129.042638-3-bin.zip)
-3. Unzip it
-4. Go to "unzipped folder/bin/win64" --&gt; run activemq.bat
-5. open url --&gt; http://localhost:8161/
-6. click in the link --&gt; Manage ActiveMQ broker
-7. enter credentials "admin/admin"</t>
   </si>
   <si>
     <t>Apache Camel</t>
@@ -1905,6 +1894,128 @@
   </si>
   <si>
     <t>Security Tools</t>
+  </si>
+  <si>
+    <t>Tutorial 1 link</t>
+  </si>
+  <si>
+    <t>http://tech.lalitbhatt.net/2014/08/activemq-introduction.html</t>
+  </si>
+  <si>
+    <t>Active MQ</t>
+  </si>
+  <si>
+    <t>ActiveMQ is a messaging bus and helps in building Event based systems.It supports JMS which is a JavaEE based feature</t>
+  </si>
+  <si>
+    <t>Installation of ActiveMQ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Download the latest version from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://activemq.apache.org/download-archives.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> . This post is done with version 5.9.1
+2. Download the zip file and extract it to some location.
+3. In the extracted folder you would see a bin directory. Inside that will be batch file activemq
+4. Run the activemq batch script
+5. A cmd window would appear and if everything is fine you should be able to access the ActiveMQ management console at </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://localhost:8161</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+6. click on the link "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Manage ActiveMQ broker using the old console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+7. Enter credentials "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>admin/admin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Note on Active MQ</t>
+  </si>
+  <si>
+    <t>ActiveMQ is a messaging bus so it works on the notion of consumer and producer. A producer produces the message and consumer consumes it. Producers can produce message both on Queues and Topics. Let's write a TopicProducer and TopicConsumer to see how we can interact with ActiveMQ.</t>
+  </si>
+  <si>
+    <t>Open AM</t>
+  </si>
+  <si>
+    <t>OpenAM Definitions</t>
   </si>
 </sst>
 </file>
@@ -2163,9 +2274,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2186,17 +2294,14 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2213,6 +2318,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2227,9 +2341,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2574,11 +2685,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:A14"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2612,7 +2723,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
@@ -2620,19 +2731,19 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="29"/>
+      <c r="A5" s="30"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="29"/>
+      <c r="A6" s="30"/>
       <c r="B6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>102</v>
       </c>
       <c r="B7" t="s">
@@ -2640,7 +2751,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="29"/>
+      <c r="A8" s="30"/>
       <c r="B8" t="s">
         <v>104</v>
       </c>
@@ -2652,14 +2763,14 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="30" t="s">
         <v>36</v>
       </c>
       <c r="B11" t="s">
@@ -2667,21 +2778,26 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="29"/>
+      <c r="A12" s="30"/>
       <c r="B12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="29"/>
+      <c r="A13" s="30"/>
       <c r="B13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="29"/>
+      <c r="A14" s="30"/>
       <c r="B14" t="s">
-        <v>241</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="9" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2700,6 +2816,7 @@
     <hyperlink ref="A10" location="'Apache Camel'!A1" display="Apache Camel"/>
     <hyperlink ref="B10" r:id="rId2"/>
     <hyperlink ref="A11" location="'JDK Tools utilities'!A1" display="JDK Tools utilities"/>
+    <hyperlink ref="A15" location="OpenAM!A1" display="Open AM"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2721,18 +2838,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>232</v>
+      <c r="B1" s="27" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2" ht="120">
       <c r="A3" t="s">
@@ -2832,9 +2949,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2844,18 +2961,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>232</v>
+      <c r="B1" s="27" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -2866,10 +2983,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="33"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
@@ -2880,10 +2997,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="B6" s="36"/>
+      <c r="A6" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" s="34"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
@@ -2902,7 +3019,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="35" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -2910,13 +3027,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="37"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="35" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2924,7 +3041,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="37"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
@@ -2946,7 +3063,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="35" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2954,7 +3071,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="37"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
@@ -2976,7 +3093,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="35" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -2984,7 +3101,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="37"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
@@ -2998,10 +3115,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
-      <c r="A22" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="B22" s="34"/>
+      <c r="A22" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="32"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
@@ -3016,7 +3133,7 @@
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="33" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -3024,7 +3141,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="35"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
@@ -3089,71 +3206,71 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="B36" s="32"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="34"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="26" t="s">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B38" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="26" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B39" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="26" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="B39" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="B46" s="34"/>
+      <c r="B46" s="32"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B47" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B48" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B49" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B50" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3204,18 +3321,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>232</v>
+      <c r="B1" s="27" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -3313,22 +3430,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="37"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="31"/>
+      <c r="B16" s="37"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="11" t="s">
@@ -3368,18 +3485,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>232</v>
+      <c r="B1" s="27" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" s="15" t="s">
@@ -3406,7 +3523,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>111</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -3414,19 +3531,19 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="40"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="40"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="16" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>113</v>
       </c>
       <c r="B9" s="16" t="s">
@@ -3434,7 +3551,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="41" t="s">
         <v>115</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -3442,7 +3559,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="40"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="16" t="s">
         <v>193</v>
       </c>
@@ -3560,7 +3677,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="41" t="s">
         <v>139</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -3568,13 +3685,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="40"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="40"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="16" t="s">
         <v>199</v>
       </c>
@@ -3656,7 +3773,7 @@
         <v>156</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="60">
@@ -3716,10 +3833,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="42"/>
+      <c r="B46" s="43"/>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="17" t="s">
@@ -3730,7 +3847,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="35" t="s">
         <v>167</v>
       </c>
       <c r="B48" s="16" t="s">
@@ -3738,13 +3855,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="90">
-      <c r="A49" s="37"/>
+      <c r="A49" s="35"/>
       <c r="B49" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="35" t="s">
         <v>170</v>
       </c>
       <c r="B50" s="16" t="s">
@@ -3752,25 +3869,25 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="37"/>
+      <c r="A51" s="35"/>
       <c r="B51" s="16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="37"/>
+      <c r="A52" s="35"/>
       <c r="B52" s="16" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="37"/>
+      <c r="A53" s="35"/>
       <c r="B53" s="16" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="41" t="s">
         <v>175</v>
       </c>
       <c r="B54" s="16" t="s">
@@ -3778,13 +3895,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="40"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="16" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="40"/>
+      <c r="A56" s="41"/>
       <c r="B56" s="16" t="s">
         <v>178</v>
       </c>
@@ -3820,81 +3937,81 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="38" t="s">
+      <c r="A61" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="B61" s="40"/>
+    </row>
+    <row r="62" spans="1:2" ht="30">
+      <c r="A62" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="B62" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="B61" s="39"/>
-    </row>
-    <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="24" t="s">
+    </row>
+    <row r="63" spans="1:2" ht="105">
+      <c r="A63" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="B62" s="25" t="s">
+      <c r="B63" s="22" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="105">
-      <c r="A63" s="24" t="s">
+    <row r="64" spans="1:2" ht="30">
+      <c r="A64" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B64" s="22" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="24" t="s">
+    <row r="65" spans="1:2" ht="30">
+      <c r="A65" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B65" s="22" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="30">
-      <c r="A65" s="24" t="s">
+    <row r="66" spans="1:2" ht="60">
+      <c r="A66" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B66" s="22" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="60">
-      <c r="A66" s="24" t="s">
+    <row r="67" spans="1:2" ht="60">
+      <c r="A67" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B67" s="22" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="60">
-      <c r="A67" s="24" t="s">
+    <row r="68" spans="1:2" ht="30">
+      <c r="A68" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B68" s="22" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="30">
-      <c r="A68" s="24" t="s">
+    <row r="69" spans="1:2" ht="45">
+      <c r="A69" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B69" s="22" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="45">
-      <c r="A69" s="24" t="s">
+    <row r="70" spans="1:2">
+      <c r="A70" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="B69" s="23" t="s">
+      <c r="B70" s="22" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="B70" s="23" t="s">
-        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3927,48 +4044,76 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="115" customWidth="1"/>
+    <col min="2" max="2" width="131.7109375" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="27" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="31"/>
-    </row>
-    <row r="3" spans="1:2" ht="105">
-      <c r="A3" t="s">
+      <c r="A2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>209</v>
+      <c r="B6" s="34"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="120">
+      <c r="A8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45">
+      <c r="A9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
+  <mergeCells count="1">
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1:B1" location="Topics!A10" display="Topics"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B1" location="ActiveMQ!A2" display="Up"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3988,14 +4133,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4007,4 +4152,45 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="47.28515625" customWidth="1"/>
+    <col min="2" max="2" width="123.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A15" display="Topics"/>
+    <hyperlink ref="B1" location="OpenAM!A2" display="Up"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="264">
   <si>
     <t>Lucene</t>
   </si>
@@ -2016,6 +2016,18 @@
   </si>
   <si>
     <t>OpenAM Definitions</t>
+  </si>
+  <si>
+    <t>OpenAM home page</t>
+  </si>
+  <si>
+    <t>https://backstage.forgerock.com/#!/</t>
+  </si>
+  <si>
+    <t>Getting started with OpenAM</t>
+  </si>
+  <si>
+    <t>https://backstage.forgerock.com/#!/docs/openam/11.0.0/getting-started#federation</t>
   </si>
 </sst>
 </file>
@@ -2215,7 +2227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2296,9 +2308,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2723,7 +2732,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
@@ -2731,19 +2740,19 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="30"/>
+      <c r="A5" s="29"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="30"/>
+      <c r="A6" s="29"/>
       <c r="B6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="29" t="s">
         <v>102</v>
       </c>
       <c r="B7" t="s">
@@ -2751,7 +2760,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="30"/>
+      <c r="A8" s="29"/>
       <c r="B8" t="s">
         <v>104</v>
       </c>
@@ -2770,7 +2779,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="29" t="s">
         <v>36</v>
       </c>
       <c r="B11" t="s">
@@ -2778,19 +2787,19 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="30"/>
+      <c r="A12" s="29"/>
       <c r="B12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="30"/>
+      <c r="A13" s="29"/>
       <c r="B13" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="30"/>
+      <c r="A14" s="29"/>
       <c r="B14" t="s">
         <v>239</v>
       </c>
@@ -2846,10 +2855,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2" ht="120">
       <c r="A3" t="s">
@@ -2951,7 +2960,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:B6"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2969,10 +2978,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -2983,10 +2992,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="32"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
@@ -2997,10 +3006,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="33"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
@@ -3019,7 +3028,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="34" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -3027,13 +3036,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="35"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="34" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -3041,7 +3050,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="35"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
@@ -3063,7 +3072,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="34" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -3071,7 +3080,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="35"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
@@ -3093,7 +3102,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="34" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -3101,7 +3110,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="35"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
@@ -3115,10 +3124,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="B22" s="32"/>
+      <c r="B22" s="31"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
@@ -3133,7 +3142,7 @@
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="32" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -3141,7 +3150,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="33"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
@@ -3206,10 +3215,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="B36" s="32"/>
+      <c r="B36" s="31"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="25" t="s">
@@ -3236,10 +3245,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="B46" s="32"/>
+      <c r="B46" s="31"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
@@ -3329,10 +3338,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -3430,22 +3439,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="36"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="37"/>
+      <c r="B16" s="36"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="11" t="s">
@@ -3493,10 +3502,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" s="15" t="s">
@@ -3523,7 +3532,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="40" t="s">
         <v>111</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -3531,13 +3540,13 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="41"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="41"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="16" t="s">
         <v>191</v>
       </c>
@@ -3551,7 +3560,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="40" t="s">
         <v>115</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -3559,7 +3568,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="41"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="16" t="s">
         <v>193</v>
       </c>
@@ -3677,7 +3686,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="40" t="s">
         <v>139</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -3685,13 +3694,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="41"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="41"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="16" t="s">
         <v>199</v>
       </c>
@@ -3833,10 +3842,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="43"/>
+      <c r="B46" s="42"/>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="17" t="s">
@@ -3847,7 +3856,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="35" t="s">
+      <c r="A48" s="34" t="s">
         <v>167</v>
       </c>
       <c r="B48" s="16" t="s">
@@ -3855,13 +3864,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="90">
-      <c r="A49" s="35"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="34" t="s">
         <v>170</v>
       </c>
       <c r="B50" s="16" t="s">
@@ -3869,25 +3878,25 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="35"/>
+      <c r="A51" s="34"/>
       <c r="B51" s="16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="35"/>
+      <c r="A52" s="34"/>
       <c r="B52" s="16" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="35"/>
+      <c r="A53" s="34"/>
       <c r="B53" s="16" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="41" t="s">
+      <c r="A54" s="40" t="s">
         <v>175</v>
       </c>
       <c r="B54" s="16" t="s">
@@ -3895,13 +3904,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="41"/>
+      <c r="A55" s="40"/>
       <c r="B55" s="16" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="41"/>
+      <c r="A56" s="40"/>
       <c r="B56" s="16" t="s">
         <v>178</v>
       </c>
@@ -3937,10 +3946,10 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="39" t="s">
+      <c r="A61" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="B61" s="40"/>
+      <c r="B61" s="39"/>
     </row>
     <row r="62" spans="1:2" ht="30">
       <c r="A62" s="23" t="s">
@@ -4074,10 +4083,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="33"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
@@ -4133,14 +4142,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4156,7 +4165,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4170,26 +4179,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>230</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="34" t="s">
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B15" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A15" display="Topics"/>
     <hyperlink ref="B1" location="OpenAM!A2" display="Up"/>
+    <hyperlink ref="B2" r:id="rId1" location="!/"/>
+    <hyperlink ref="B3" r:id="rId2" location="!/docs/openam/11.0.0/getting-started#federation"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="ActiveMQ" sheetId="7" r:id="rId7"/>
     <sheet name="Apache Camel" sheetId="8" r:id="rId8"/>
     <sheet name="OpenAM" sheetId="9" r:id="rId9"/>
+    <sheet name="MongoDB" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="jar" localSheetId="2">'JDK Tools utilities'!$A$11</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="383">
   <si>
     <t>Lucene</t>
   </si>
@@ -2029,12 +2030,839 @@
   <si>
     <t>https://backstage.forgerock.com/#!/docs/openam/11.0.0/getting-started#federation</t>
   </si>
+  <si>
+    <t>OpenAM docs</t>
+  </si>
+  <si>
+    <t>https://backstage.forgerock.com/#!/docs</t>
+  </si>
+  <si>
+    <t>What is OpenAM - wiki</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/OpenAM</t>
+  </si>
+  <si>
+    <t>What is OpenSSO - wiki</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/OpenSSO</t>
+  </si>
+  <si>
+    <t>OpenAM getting started</t>
+  </si>
+  <si>
+    <t>https://backstage.forgerock.com/#!/docs/openam/11.0.0/getting-started#software-you-need</t>
+  </si>
+  <si>
+    <t>What is Hosts file wiki</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Hosts_(file)</t>
+  </si>
+  <si>
+    <t>http://support.isoc.net/Page.aspx/117/hosts.html</t>
+  </si>
+  <si>
+    <t>OpenAM - Getting started guide - from Forgerock</t>
+  </si>
+  <si>
+    <t>https://wikis.forgerock.org/confluence/display/openam/If+you%27re+new+to+OpenAM</t>
+  </si>
+  <si>
+    <t>OpenAM - docs</t>
+  </si>
+  <si>
+    <t>https://backstage.forgerock.com/#!/docs/openam/12.0.0</t>
+  </si>
+  <si>
+    <t>Read the definitions in this order</t>
+  </si>
+  <si>
+    <t>link at row 2
+link at row 3
+link at row 4
+link at row 5,6
+link at row 7
+link at row 8</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
+  </si>
+  <si>
+    <t>MongoDB definitions</t>
+  </si>
+  <si>
+    <t>What is MongoDB</t>
+  </si>
+  <si>
+    <t>No SQL database</t>
+  </si>
+  <si>
+    <t>Installing MongoDB</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. go to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">https://www.mongodb.org
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. Click on Download MongoDB button
+3. Select OS and version (Windows 64-bit 2008 R2+ for Windows 7/10)
+4. Click Download button</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Double click on downloaded .msi file
+2. Click Next -&gt; Check acceptance -&gt; Next -&gt; click Complete -&gt; Install -&gt; windows will ask for permission to install -&gt; click Yes -&gt; Installation will take place -&gt; once done click Finish</t>
+  </si>
+  <si>
+    <t>Installation after downloading</t>
+  </si>
+  <si>
+    <t>checking our MongoDB after installation</t>
+  </si>
+  <si>
+    <t>C: drive -&gt; Program Files -&gt; MongoDB -&gt; Server -&gt; 3.2 -&gt; bin (location may change in future releases, finally look for bin directory)</t>
+  </si>
+  <si>
+    <t>bin/mongod</t>
+  </si>
+  <si>
+    <t>mongo data base</t>
+  </si>
+  <si>
+    <t>mongo</t>
+  </si>
+  <si>
+    <t>to write commands and execute stuff etc
+command line interface where we can type our database commands (like add data, remove data etc)</t>
+  </si>
+  <si>
+    <t>Running MongoDB</t>
+  </si>
+  <si>
+    <t>1. Go to location C:\Program Files\MongoDB\Server\3.2\bin
+2. run mongod.exe (if you are running first time, we will get an exception as follow)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C:\Program Files\MongoDB\Server\3.2\bin&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">mongod.exe
+2016-04-30T11:53:38.037+0530 I CONTROL  [initandlisten] MongoDB starting : pid=8708 port=27017 dbpath=C:\data\db\ 64-bit host=Admin-PC
+2016-04-30T11:53:38.040+0530 I CONTROL  [initandlisten] targetMinOS: Windows 7/Windows Server 2008 R2
+2016-04-30T11:53:38.042+0530 I CONTROL  [initandlisten] db version v3.2.6
+2016-04-30T11:53:38.043+0530 I CONTROL  [initandlisten] git version: 05552b562c7a0b3143a729aaa0838e558dc49b25
+2016-04-30T11:53:38.044+0530 I CONTROL  [initandlisten] OpenSSL version: OpenSSL 1.0.1p-fips 9 Jul 2015
+2016-04-30T11:53:38.047+0530 I CONTROL  [initandlisten] allocator: tcmalloc
+2016-04-30T11:53:38.049+0530 I CONTROL  [initandlisten] modules: none
+2016-04-30T11:53:38.050+0530 I CONTROL  [initandlisten] build environment:
+2016-04-30T11:53:38.052+0530 I CONTROL  [initandlisten]     distmod: 2008plus-ssl
+2016-04-30T11:53:38.053+0530 I CONTROL  [initandlisten]     distarch: x86_64
+2016-04-30T11:53:38.054+0530 I CONTROL  [initandlisten]     target_arch: x86_64
+2016-04-30T11:53:38.055+0530 I CONTROL  [initandlisten] options: {}
+2016-04-30T11:53:38.057+0530 I STORAGE  [initandlisten] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exception in initAndListen: 29 Data directory C:\data\db\ not found.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, terminating
+2016-04-30T11:53:38.059+0530 I CONTROL  [initandlisten] dbexit:  rc: 100</t>
+    </r>
+  </si>
+  <si>
+    <t>MongoDB is trying to create a data base in C:\data\db directory and that directory is not present, so we got an exception</t>
+  </si>
+  <si>
+    <t>So go to C drive and create data\db</t>
+  </si>
+  <si>
+    <t>Go to location C:\Program Files\MongoDB\Server\3.2\bin and run mongod.exe</t>
+  </si>
+  <si>
+    <t>e,statistics=(fast),log=(enabled=true,archive=true,path=journal,compressor=snappy),file_manager=(close_idle_time=100000),checkpoint=(wait=60,log_size=2GB),statistics_log=(wait=0),
+2016-04-30T12:11:59.440+0530 I NETWORK  [HostnameCanonicalizationWorker] Starting hostname canonicalization worker
+2016-04-30T12:11:59.440+0530 I FTDC     [initandlisten] Initializing full-time diagnostic data capture with directory 'C:/data/db/diagnostic.data'
+2016-04-30T12:11:59.842+0530 I NETWORK  [initandlisten] waiting for connections on port 27017</t>
+  </si>
+  <si>
+    <t>Open one more cmd and go to location C:\Program Files\MongoDB\Server\3.2\bin and run mongo.exe</t>
+  </si>
+  <si>
+    <t>C:\Program Files\MongoDB\Server\3.2\bin&gt;mongo.exe
+MongoDB shell version: 3.2.6
+connecting to: test
+Welcome to the MongoDB shell.
+For interactive help, type "help".
+For more comprehensive documentation, see
+        http://docs.mongodb.org/
+Questions? Try the support group
+        http://groups.google.com/group/mongodb-user
+&gt;</t>
+  </si>
+  <si>
+    <t>type "db" -&gt; this will show "test" -&gt; now we are successfully connected to mongoDB</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once db started, how to create new database? I want to create database with name </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hockey</t>
+    </r>
+  </si>
+  <si>
+    <t>use hockey</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>command to check the current database connected to</t>
+  </si>
+  <si>
+    <t>delete current connected database</t>
+  </si>
+  <si>
+    <t>db.dropDatabase()</t>
+  </si>
+  <si>
+    <t>want to insert this data to mongoDB</t>
+  </si>
+  <si>
+    <t>{  
+         "position":"Right Wing",
+         "id":8465166,
+         "weight":200,
+         "height":"6' 0\"",
+         "imageUrl":"http://1.cdn.nhle.com/photos/mugs/8465166.jpg",
+         "birthplace":"Seria, BRN",
+         "age":37,
+         "name":"Craig Adams",
+         "birthdate":"April 26, 1977",
+         "number":27
+      }</t>
+  </si>
+  <si>
+    <t>&gt; db.players.insert({
+...          "position":"Right Wing",
+...          "id":8465166,
+...          "weight":200,
+...          "height":"6' 0\"",
+...          "imageUrl":"http://1.cdn.nhle.com/photos/mugs/8465166.jpg",
+...          "birthplace":"Seria, BRN",
+...          "age":37,
+...          "name":"Craig Adams",
+...          "birthdate":"April 26, 1977",
+...          "number":27
+...       }
+... )
+WriteResult({ "nInserted" : 1 })</t>
+  </si>
+  <si>
+    <t>want to insert one more record into same collection</t>
+  </si>
+  <si>
+    <t>&gt; db.players.insert({
+...          "position":"Right Wing",
+...          "id":8475761,
+...          "weight":195,
+...          "height":"6' 2\"",
+...          "imageUrl":"http://1.cdn.nhle.com/photos/mugs/8475761.jpg",
+...          "birthplace":"Gardena, CA, USA",
+...          "age":23,
+...          "name":"Beau Bennett",
+...          "birthdate":"November 27, 1991",
+...          "number":19
+...       }
+... )
+WriteResult({ "nInserted" : 1 })</t>
+  </si>
+  <si>
+    <t>If we want to insert more than one record</t>
+  </si>
+  <si>
+    <t>{  "position":"Left Wing", "id":8471260, "weight":202, "height":"6' 1\"",  "imageUrl":"http://3.cdn.nhle.com/photos/mugs/8471260.jpg",
+   "birthplace":"Meadow Lake, SK, CAN", "age":29, "name":"Blake Comeau", "birthdate":"February 18, 1986", "number":17
+},
+{  "position":"Center", "id":8471675, "weight":200, "height":"5' 11\"", "imageUrl":"http://3.cdn.nhle.com/photos/mugs/8471675.jpg",
+   "birthplace":"Cole Harbour, NS, CAN", "age":27, "name":"Sidney Crosby", "birthdate":"August 07, 1987", "number":87
+}</t>
+  </si>
+  <si>
+    <t>&gt; db.players.insert([{  "position":"Left Wing", "id":8471260, "weight":202, "height":"6' 1\"",  "imageUrl":"http://3.cdn.nhle.com/photos/mugs/8471260.jpg",
+...    "birthplace":"Meadow Lake, SK, CAN", "age":29, "name":"Blake Comeau", "birthdate":"February 18, 1986", "number":17
+... },
+... {  "position":"Center", "id":8471675, "weight":200, "height":"5' 11\"", "imageUrl":"http://3.cdn.nhle.com/photos/mugs/8471675.jpg",
+...    "birthplace":"Cole Harbour, NS, CAN", "age":27, "name":"Sidney Crosby", "birthdate":"August 07, 1987", "number":87
+... }
+... ])
+BulkWriteResult({
+        "writeErrors" : [ ],
+        "writeConcernErrors" : [ ],
+        "nInserted" : 2,
+        "nUpserted" : 0,
+        "nMatched" : 0,
+        "nModified" : 0,
+        "nRemoved" : 0,
+        "upserted" : [ ]
+})</t>
+  </si>
+  <si>
+    <t>To see existing collections in db</t>
+  </si>
+  <si>
+    <t>show collections</t>
+  </si>
+  <si>
+    <t>To display all documents(records) in a collection hockey</t>
+  </si>
+  <si>
+    <t>db.players.find()</t>
+  </si>
+  <si>
+    <t>All data in mongo data base will go into collection. Below data goes into - players collection in hockey database</t>
+  </si>
+  <si>
+    <t>To see formatted output</t>
+  </si>
+  <si>
+    <t>db.players.find().pretty()</t>
+  </si>
+  <si>
+    <t>To find the first document (record)</t>
+  </si>
+  <si>
+    <t>db.players.findOne()</t>
+  </si>
+  <si>
+    <t>Note on mongodb insertion</t>
+  </si>
+  <si>
+    <t>1. whenever we insert document(record) into mongodb, internally it will assign unique id to each document(record)
+2. If we want to remove the record, then we can use this id to uniquely identify the record</t>
+  </si>
+  <si>
+    <t>How to remove one document(record)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> db.players.remove(
+      {"_id" : ObjectId("57247113fe85fc289b855de3")}
+)
+WriteResult({ "nRemoved" : 1 })</t>
+  </si>
+  <si>
+    <t>Update record</t>
+  </si>
+  <si>
+    <t>&gt; db.players.update(
+... {"_id" : ObjectId("57247193fe85fc289b855de4")},
+... {"_id" : ObjectId("57247193fe85fc289b855de4"),"position" : "Left Wing","id" : 8475761,"weight" : 195,"height" : "6' 2\"",
+...  "imageUrl" : "http://1.cdn.nhle.com/photos/mugs/8475761.jpg","birthplace" : "Gardena, CA, USA","age" : 23,"name" : "Bob Bennett",
+...  "birthdate" : "November 27, 1991","number" : 19
+... }
+... )
+WriteResult({ "nMatched" : 1, "nUpserted" : 0, "nModified" : 1 })</t>
+  </si>
+  <si>
+    <r>
+      <t>{"_id" : ObjectId("57247193fe85fc289b855de4"),"position" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Wing","id" : 8475761,"weight" : 195,"height" : "6' 2\"",
+ "imageUrl" : "http://1.cdn.nhle.com/photos/mugs/8475761.jpg","birthplace" : "Gardena, CA, USA","age" : 23,"name" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bob</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Bennett",
+ "birthdate" : "November 27, 1991","number" : 19
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{"_id" : ObjectId("57247193fe85fc289b855de4"),"position" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Wing","id" : 8475761,"weight" : 195,"height" : "6' 2\"",
+ "imageUrl" : "http://1.cdn.nhle.com/photos/mugs/8475761.jpg","birthplace" : "Gardena, CA, USA","age" : 23,"name" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Beau</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Bennett",
+ "birthdate" : "November 27, 1991","number" : 19
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">delete collection </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>players</t>
+    </r>
+  </si>
+  <si>
+    <t>db.players.drop()</t>
+  </si>
+  <si>
+    <t>db.players.find({"position":"Goalie"}).pretty()</t>
+  </si>
+  <si>
+    <t>want to search for Goalie (We need to give key-value pairs)</t>
+  </si>
+  <si>
+    <t>If we want get one Goalie</t>
+  </si>
+  <si>
+    <t>db.players.findOne({"position":"Goalie"})</t>
+  </si>
+  <si>
+    <t>db.players.find({"position":"Defenseman", "age":21}).pretty()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">record - position: Defenseman </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> age: 21</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">all players who are Right Wing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Left Wing</t>
+    </r>
+  </si>
+  <si>
+    <t>db.players.find( {   
+       $or:[{"position":"Right Wing"},    {"position":"Left Wing"}]   
+} )</t>
+  </si>
+  <si>
+    <t>players whose age is greater than 30</t>
+  </si>
+  <si>
+    <t>db.players.find(     
+       {"age": {$gt:30}  }
+ )</t>
+  </si>
+  <si>
+    <t>$gt:</t>
+  </si>
+  <si>
+    <t>greater than</t>
+  </si>
+  <si>
+    <t>$lt:</t>
+  </si>
+  <si>
+    <t>less than</t>
+  </si>
+  <si>
+    <t>$gte</t>
+  </si>
+  <si>
+    <t>greater than or equal</t>
+  </si>
+  <si>
+    <t>$lte</t>
+  </si>
+  <si>
+    <t>less than or equal</t>
+  </si>
+  <si>
+    <t>$ne</t>
+  </si>
+  <si>
+    <t>not equal</t>
+  </si>
+  <si>
+    <t>db.players.find( {"age": {$gt:30}  }, {"name":1, "_id":0} )</t>
+  </si>
+  <si>
+    <t>limit the number of documents(records) to 3</t>
+  </si>
+  <si>
+    <t>db.players.find( {"age": {$gt:30} }, {"name":1, "_id":0} ).limit(3)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>output:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+{ "name" : "Craig Adams" }
+{ "name" : "Pascal Dupuis" }
+{ "name" : "Chris Kunitz" }
+{ "name" : "Christian Ehrhoff" }
+{ "name" : "Ben Lovejoy" }
+{ "name" : "Paul Martin" }
+{ "name" : "Rob Scuderi" }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>output:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+{ "name" : "Craig Adams" }
+{ "name" : "Pascal Dupuis" }
+{ "name" : "Chris Kunitz" }</t>
+    </r>
+  </si>
+  <si>
+    <t>Want to get specific columns. Want names of players whose age &gt; 30.
+Note- name: 1. Here 1 means to display that property
+0 means do not display that property</t>
+  </si>
+  <si>
+    <t>skip first 2 records of resulted documents(records)</t>
+  </si>
+  <si>
+    <t>db.players.find( {"age": {$gt:30} }, {"name":1, "_id":0} ).skip(2)</t>
+  </si>
+  <si>
+    <t>Want to create index on age property(column) of document(record)</t>
+  </si>
+  <si>
+    <t>To see existing indexes</t>
+  </si>
+  <si>
+    <t>Drop an index</t>
+  </si>
+  <si>
+    <t>db.users.ensureIndex( {"age":1} )</t>
+  </si>
+  <si>
+    <t>db.users.getIndexes()</t>
+  </si>
+  <si>
+    <t>db.users.dropIndex( {"age":1} )</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Group the documents based on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">eyeColor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and return the count of each group</t>
+    </r>
+  </si>
+  <si>
+    <t>db.users.aggregate({ $group: {   _id: "$eyeColor",   total: {$sum: 1}   } })</t>
+  </si>
+  <si>
+    <t>Group based on gender</t>
+  </si>
+  <si>
+    <t>db.users.aggregate({ $group: {   _id: "$gender",   total: {$sum: 1}   } })</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>output:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+{ "_id" : "female", "total" : 15 }
+{ "_id" : "male", "total" : 20 }</t>
+    </r>
+  </si>
+  <si>
+    <t>Group by gender and calculate averge age</t>
+  </si>
+  <si>
+    <t>db.users.aggregate({   $group: {   _id: "$gender",   avgAge: {$avg: "$age"}  } })</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>output:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+{ "_id" : "female", "avgAge" : 30.8 }
+{ "_id" : "male", "avgAge" : 32.5 }</t>
+    </r>
+  </si>
+  <si>
+    <t>Group by gender and get max balance within that group</t>
+  </si>
+  <si>
+    <t>db.users.aggregate({ $group: { _id: "$gender", richest: {$max: "$balance"} } })</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">output:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{ "_id" : "female", "richest" : "$3,960.64" }
+{ "_id" : "male", "richest" : "$3,818.97" }</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2115,6 +2943,12 @@
       <u/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2227,7 +3061,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2309,6 +3143,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2350,6 +3193,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2694,11 +3543,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2732,7 +3581,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="32" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
@@ -2740,19 +3589,19 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="29"/>
+      <c r="A5" s="32"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="29"/>
+      <c r="A6" s="32"/>
       <c r="B6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="32" t="s">
         <v>102</v>
       </c>
       <c r="B7" t="s">
@@ -2760,7 +3609,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="29"/>
+      <c r="A8" s="32"/>
       <c r="B8" t="s">
         <v>104</v>
       </c>
@@ -2779,7 +3628,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="32" t="s">
         <v>36</v>
       </c>
       <c r="B11" t="s">
@@ -2787,19 +3636,19 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="29"/>
+      <c r="A12" s="32"/>
       <c r="B12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="29"/>
+      <c r="A13" s="32"/>
       <c r="B13" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="29"/>
+      <c r="A14" s="32"/>
       <c r="B14" t="s">
         <v>239</v>
       </c>
@@ -2807,6 +3656,11 @@
     <row r="15" spans="1:2">
       <c r="A15" s="9" t="s">
         <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="9" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2826,8 +3680,496 @@
     <hyperlink ref="B10" r:id="rId2"/>
     <hyperlink ref="A11" location="'JDK Tools utilities'!A1" display="JDK Tools utilities"/>
     <hyperlink ref="A15" location="OpenAM!A1" display="Open AM"/>
+    <hyperlink ref="A16" location="MongoDB!A1" display="MongoDB"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55:A56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="59.7109375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="121.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" s="36"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="60">
+      <c r="A10" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="45">
+      <c r="A11" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="B12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="B13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="240">
+      <c r="A16" s="37"/>
+      <c r="B16" s="30" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="37"/>
+      <c r="B17" s="30" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="37"/>
+      <c r="B18" s="30" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="37"/>
+      <c r="B19" s="30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="90">
+      <c r="A20" s="37"/>
+      <c r="B20" s="30" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="37"/>
+      <c r="B21" s="30" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="150">
+      <c r="A22" s="37"/>
+      <c r="B22" s="30" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="37"/>
+      <c r="B23" s="30" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="180">
+      <c r="A27" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="37"/>
+      <c r="B28" s="30" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="210">
+      <c r="A29" s="37"/>
+      <c r="B29" s="30" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="210">
+      <c r="A30" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="105">
+      <c r="A31" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="285">
+      <c r="A32" s="37"/>
+      <c r="B32" s="30" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30">
+      <c r="A37" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="60">
+      <c r="A38" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="75">
+      <c r="A39" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="75">
+      <c r="A40" s="37"/>
+      <c r="B40" s="30" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="135">
+      <c r="A41" s="37"/>
+      <c r="B41" s="30" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="45">
+      <c r="A46" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="45">
+      <c r="A47" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30" customHeight="1">
+      <c r="A53" s="37" t="s">
+        <v>363</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="120">
+      <c r="A54" s="37"/>
+      <c r="B54" s="30" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="60">
+      <c r="A56" s="37"/>
+      <c r="B56" s="30" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="30">
+      <c r="A58" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30">
+      <c r="A61" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="47" t="s">
+        <v>374</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="45">
+      <c r="A63" s="47"/>
+      <c r="B63" s="30" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="45">
+      <c r="A65" s="47"/>
+      <c r="B65" s="30" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="B66" s="30" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="45">
+      <c r="A67" s="47"/>
+      <c r="B67" s="31" t="s">
+        <v>382</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="MongoDB!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A16" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2855,10 +4197,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:2" ht="120">
       <c r="A3" t="s">
@@ -2978,10 +4320,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -2992,10 +4334,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="35"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
@@ -3006,10 +4348,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="36"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
@@ -3028,7 +4370,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="37" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -3036,13 +4378,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="34"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="37" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -3050,7 +4392,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="34"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
@@ -3072,7 +4414,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="37" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -3080,7 +4422,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="34"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
@@ -3102,7 +4444,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="37" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -3110,7 +4452,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="34"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
@@ -3124,10 +4466,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="B22" s="31"/>
+      <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
@@ -3142,7 +4484,7 @@
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="35" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -3150,7 +4492,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="32"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
@@ -3215,10 +4557,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="B36" s="31"/>
+      <c r="B36" s="34"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="25" t="s">
@@ -3245,10 +4587,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="B46" s="31"/>
+      <c r="B46" s="34"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
@@ -3338,10 +4680,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -3439,22 +4781,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="40"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="36"/>
+      <c r="B16" s="39"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="11" t="s">
@@ -3502,10 +4844,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" s="15" t="s">
@@ -3532,7 +4874,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="43" t="s">
         <v>111</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -3540,13 +4882,13 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="40"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="40"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="16" t="s">
         <v>191</v>
       </c>
@@ -3560,7 +4902,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="43" t="s">
         <v>115</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -3568,7 +4910,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="40"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="16" t="s">
         <v>193</v>
       </c>
@@ -3686,7 +5028,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="43" t="s">
         <v>139</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -3694,13 +5036,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="40"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="40"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="16" t="s">
         <v>199</v>
       </c>
@@ -3842,10 +5184,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="42"/>
+      <c r="B46" s="45"/>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="17" t="s">
@@ -3856,7 +5198,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="37" t="s">
         <v>167</v>
       </c>
       <c r="B48" s="16" t="s">
@@ -3864,13 +5206,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="90">
-      <c r="A49" s="34"/>
+      <c r="A49" s="37"/>
       <c r="B49" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="37" t="s">
         <v>170</v>
       </c>
       <c r="B50" s="16" t="s">
@@ -3878,25 +5220,25 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="34"/>
+      <c r="A51" s="37"/>
       <c r="B51" s="16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="34"/>
+      <c r="A52" s="37"/>
       <c r="B52" s="16" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="34"/>
+      <c r="A53" s="37"/>
       <c r="B53" s="16" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="43" t="s">
         <v>175</v>
       </c>
       <c r="B54" s="16" t="s">
@@ -3904,13 +5246,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="40"/>
+      <c r="A55" s="43"/>
       <c r="B55" s="16" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="40"/>
+      <c r="A56" s="43"/>
       <c r="B56" s="16" t="s">
         <v>178</v>
       </c>
@@ -3946,10 +5288,10 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="38" t="s">
+      <c r="A61" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="B61" s="39"/>
+      <c r="B61" s="42"/>
     </row>
     <row r="62" spans="1:2" ht="30">
       <c r="A62" s="23" t="s">
@@ -4083,10 +5425,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="36"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
@@ -4142,14 +5484,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="40"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4165,11 +5507,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4188,68 +5530,114 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="46"/>
+      <c r="B6" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>262</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B10" s="9" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="9"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="9"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="9"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="9"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="9"/>
-    </row>
     <row r="11" spans="1:2">
-      <c r="B11" s="9"/>
+      <c r="A11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="9"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" s="9"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="33" t="s">
+      <c r="A12" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="B15" s="33"/>
+      <c r="B12" s="36"/>
+    </row>
+    <row r="13" spans="1:2" ht="90">
+      <c r="A13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>280</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A15:B15"/>
+  <mergeCells count="2">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A15" display="Topics"/>
     <hyperlink ref="B1" location="OpenAM!A2" display="Up"/>
-    <hyperlink ref="B2" r:id="rId1" location="!/"/>
-    <hyperlink ref="B3" r:id="rId2" location="!/docs/openam/11.0.0/getting-started#federation"/>
+    <hyperlink ref="B9" r:id="rId1" location="!/"/>
+    <hyperlink ref="B10" r:id="rId2" location="!/docs/openam/11.0.0/getting-started#federation"/>
+    <hyperlink ref="B11" r:id="rId3" location="!/docs"/>
+    <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="B3" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6" location="!/docs/openam/11.0.0/getting-started#software-you-need"/>
+    <hyperlink ref="B5" r:id="rId7"/>
+    <hyperlink ref="B6" r:id="rId8"/>
+    <hyperlink ref="B7" r:id="rId9"/>
+    <hyperlink ref="B8" r:id="rId10" location="!/docs/openam/12.0.0"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="948" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="Apache Camel" sheetId="8" r:id="rId8"/>
     <sheet name="OpenAM" sheetId="9" r:id="rId9"/>
     <sheet name="MongoDB" sheetId="10" r:id="rId10"/>
+    <sheet name="Junit" sheetId="11" r:id="rId11"/>
+    <sheet name="Mockito" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="jar" localSheetId="2">'JDK Tools utilities'!$A$11</definedName>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="393">
   <si>
     <t>Lucene</t>
   </si>
@@ -2856,6 +2858,75 @@
       <t>{ "_id" : "female", "richest" : "$3,960.64" }
 { "_id" : "male", "richest" : "$3,818.97" }</t>
     </r>
+  </si>
+  <si>
+    <t>Junit</t>
+  </si>
+  <si>
+    <t>Junit Definitions</t>
+  </si>
+  <si>
+    <t>Mockito</t>
+  </si>
+  <si>
+    <t>Mockito Definitions</t>
+  </si>
+  <si>
+    <t>Order of Reading</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">videos in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JavaPrep\MongoDB\videos\1.level</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">videos in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JavaPrep\MongoDB\videos\2.level</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">videos in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JavaPrep\MongoDB\videos\3.level</t>
+    </r>
+  </si>
+  <si>
+    <t>MongoDB with Java</t>
+  </si>
+  <si>
+    <t>http://www.tutorialspoint.com/mongodb/mongodb_java.htm</t>
   </si>
 </sst>
 </file>
@@ -2998,7 +3069,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3056,12 +3127,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3152,6 +3249,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3199,6 +3299,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3543,11 +3649,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3581,7 +3687,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
@@ -3589,19 +3695,19 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="32"/>
+      <c r="A5" s="33"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>102</v>
       </c>
       <c r="B7" t="s">
@@ -3609,7 +3715,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" t="s">
         <v>104</v>
       </c>
@@ -3628,7 +3734,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>36</v>
       </c>
       <c r="B11" t="s">
@@ -3636,19 +3742,19 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="B12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="32"/>
+      <c r="A13" s="33"/>
       <c r="B13" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" t="s">
         <v>239</v>
       </c>
@@ -3661,6 +3767,16 @@
     <row r="16" spans="1:2">
       <c r="A16" s="9" t="s">
         <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="9" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -3681,6 +3797,8 @@
     <hyperlink ref="A11" location="'JDK Tools utilities'!A1" display="JDK Tools utilities"/>
     <hyperlink ref="A15" location="OpenAM!A1" display="Open AM"/>
     <hyperlink ref="A16" location="MongoDB!A1" display="MongoDB"/>
+    <hyperlink ref="A17" location="Junit!A1" display="Junit"/>
+    <hyperlink ref="A18" location="Mockito!A1" display="Mockito"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3691,8 +3809,8 @@
   <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55:A56"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3709,11 +3827,40 @@
         <v>230</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="37" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" s="37"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="32" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="32" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="32" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="37"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="30" t="s">
@@ -3764,7 +3911,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="38" t="s">
         <v>295</v>
       </c>
       <c r="B15" s="30" t="s">
@@ -3772,49 +3919,49 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="240">
-      <c r="A16" s="37"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="30" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="37"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="30" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="37"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="30" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="37"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="30" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="90">
-      <c r="A20" s="37"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="30" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="37"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="30" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="150">
-      <c r="A22" s="37"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="30" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="37"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="30" t="s">
         <v>304</v>
       </c>
@@ -3844,7 +3991,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="180">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="38" t="s">
         <v>311</v>
       </c>
       <c r="B27" s="30" t="s">
@@ -3852,13 +3999,13 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="37"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="30" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="210">
-      <c r="A29" s="37"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="30" t="s">
         <v>313</v>
       </c>
@@ -3872,7 +4019,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="105">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="38" t="s">
         <v>316</v>
       </c>
       <c r="B31" s="30" t="s">
@@ -3880,7 +4027,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="285">
-      <c r="A32" s="37"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="30" t="s">
         <v>318</v>
       </c>
@@ -3934,7 +4081,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="75">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="38" t="s">
         <v>332</v>
       </c>
       <c r="B39" s="30" t="s">
@@ -3942,13 +4089,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="37"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="135">
-      <c r="A41" s="37"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="30" t="s">
         <v>333</v>
       </c>
@@ -4042,7 +4189,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="30" customHeight="1">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="38" t="s">
         <v>363</v>
       </c>
       <c r="B53" s="30" t="s">
@@ -4050,13 +4197,13 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="120">
-      <c r="A54" s="37"/>
+      <c r="A54" s="38"/>
       <c r="B54" s="30" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="38" t="s">
         <v>359</v>
       </c>
       <c r="B55" s="30" t="s">
@@ -4064,7 +4211,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="37"/>
+      <c r="A56" s="38"/>
       <c r="B56" s="30" t="s">
         <v>362</v>
       </c>
@@ -4110,7 +4257,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="47" t="s">
+      <c r="A62" s="48" t="s">
         <v>374</v>
       </c>
       <c r="B62" s="30" t="s">
@@ -4118,13 +4265,13 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="47"/>
+      <c r="A63" s="48"/>
       <c r="B63" s="30" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="48" t="s">
         <v>377</v>
       </c>
       <c r="B64" s="30" t="s">
@@ -4132,13 +4279,13 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="45">
-      <c r="A65" s="47"/>
+      <c r="A65" s="48"/>
       <c r="B65" s="30" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="47" t="s">
+      <c r="A66" s="48" t="s">
         <v>380</v>
       </c>
       <c r="B66" s="30" t="s">
@@ -4146,27 +4293,112 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="45">
-      <c r="A67" s="47"/>
+      <c r="A67" s="48"/>
       <c r="B67" s="31" t="s">
         <v>382</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A15:A23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="MongoDB!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A16" display="Topics"/>
+    <hyperlink ref="B6" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="50.85546875" customWidth="1"/>
+    <col min="2" max="2" width="122.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="B8" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Junit!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A17" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="51.42578125" customWidth="1"/>
+    <col min="2" max="2" width="125.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="49" t="s">
+        <v>386</v>
+      </c>
+      <c r="B8" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Mockito!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A18" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4197,10 +4429,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2" ht="120">
       <c r="A3" t="s">
@@ -4320,10 +4552,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -4334,10 +4566,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
@@ -4348,10 +4580,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="37"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
@@ -4370,7 +4602,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -4378,13 +4610,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="37"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -4392,7 +4624,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="37"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
@@ -4414,7 +4646,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="38" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -4422,7 +4654,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="37"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
@@ -4444,7 +4676,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="38" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -4452,7 +4684,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="37"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
@@ -4466,10 +4698,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="B22" s="34"/>
+      <c r="B22" s="35"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
@@ -4484,7 +4716,7 @@
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -4492,7 +4724,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="35"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
@@ -4557,10 +4789,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="B36" s="34"/>
+      <c r="B36" s="35"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="25" t="s">
@@ -4587,10 +4819,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="B46" s="34"/>
+      <c r="B46" s="35"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
@@ -4680,10 +4912,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -4781,22 +5013,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="41"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="39"/>
+      <c r="B16" s="40"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="11" t="s">
@@ -4844,10 +5076,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" s="15" t="s">
@@ -4874,7 +5106,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>111</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -4882,13 +5114,13 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="43"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="43"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="16" t="s">
         <v>191</v>
       </c>
@@ -4902,7 +5134,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="44" t="s">
         <v>115</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -4910,7 +5142,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="43"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="16" t="s">
         <v>193</v>
       </c>
@@ -5028,7 +5260,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="44" t="s">
         <v>139</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -5036,13 +5268,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="43"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="43"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="16" t="s">
         <v>199</v>
       </c>
@@ -5184,10 +5416,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="45"/>
+      <c r="B46" s="46"/>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="17" t="s">
@@ -5198,7 +5430,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="38" t="s">
         <v>167</v>
       </c>
       <c r="B48" s="16" t="s">
@@ -5206,13 +5438,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="90">
-      <c r="A49" s="37"/>
+      <c r="A49" s="38"/>
       <c r="B49" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="38" t="s">
         <v>170</v>
       </c>
       <c r="B50" s="16" t="s">
@@ -5220,25 +5452,25 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="37"/>
+      <c r="A51" s="38"/>
       <c r="B51" s="16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="37"/>
+      <c r="A52" s="38"/>
       <c r="B52" s="16" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="37"/>
+      <c r="A53" s="38"/>
       <c r="B53" s="16" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="43" t="s">
+      <c r="A54" s="44" t="s">
         <v>175</v>
       </c>
       <c r="B54" s="16" t="s">
@@ -5246,13 +5478,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="43"/>
+      <c r="A55" s="44"/>
       <c r="B55" s="16" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="43"/>
+      <c r="A56" s="44"/>
       <c r="B56" s="16" t="s">
         <v>178</v>
       </c>
@@ -5288,10 +5520,10 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="41" t="s">
+      <c r="A61" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="B61" s="42"/>
+      <c r="B61" s="43"/>
     </row>
     <row r="62" spans="1:2" ht="30">
       <c r="A62" s="23" t="s">
@@ -5425,10 +5657,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="37"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
@@ -5484,14 +5716,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="41"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5553,7 +5785,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="47" t="s">
         <v>272</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -5561,7 +5793,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="46"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="9" t="s">
         <v>274</v>
       </c>
@@ -5607,10 +5839,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="B12" s="36"/>
+      <c r="B12" s="37"/>
     </row>
     <row r="13" spans="1:2" ht="90">
       <c r="A13" t="s">

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="948" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="Apache Camel" sheetId="8" r:id="rId8"/>
     <sheet name="OpenAM" sheetId="9" r:id="rId9"/>
     <sheet name="MongoDB" sheetId="10" r:id="rId10"/>
+    <sheet name="Junit" sheetId="11" r:id="rId11"/>
+    <sheet name="Mockito" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="jar" localSheetId="2">'JDK Tools utilities'!$A$11</definedName>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="395">
   <si>
     <t>Lucene</t>
   </si>
@@ -2856,6 +2858,81 @@
       <t>{ "_id" : "female", "richest" : "$3,960.64" }
 { "_id" : "male", "richest" : "$3,818.97" }</t>
     </r>
+  </si>
+  <si>
+    <t>Junit</t>
+  </si>
+  <si>
+    <t>Junit Definitions</t>
+  </si>
+  <si>
+    <t>Mockito</t>
+  </si>
+  <si>
+    <t>Mockito Definitions</t>
+  </si>
+  <si>
+    <t>Order of Reading</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">videos in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JavaPrep\MongoDB\videos\1.level</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">videos in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JavaPrep\MongoDB\videos\2.level</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">videos in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JavaPrep\MongoDB\videos\3.level</t>
+    </r>
+  </si>
+  <si>
+    <t>MongoDB with Java</t>
+  </si>
+  <si>
+    <t>http://www.tutorialspoint.com/mongodb/mongodb_java.htm</t>
+  </si>
+  <si>
+    <t>What is Mockito</t>
+  </si>
+  <si>
+    <t>Mockito is Mocking framework to use in Junit</t>
   </si>
 </sst>
 </file>
@@ -2998,7 +3075,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3056,12 +3133,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3152,6 +3255,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3199,6 +3305,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3543,11 +3655,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3581,7 +3693,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
@@ -3589,19 +3701,19 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="32"/>
+      <c r="A5" s="33"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>102</v>
       </c>
       <c r="B7" t="s">
@@ -3609,7 +3721,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" t="s">
         <v>104</v>
       </c>
@@ -3628,7 +3740,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>36</v>
       </c>
       <c r="B11" t="s">
@@ -3636,19 +3748,19 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="B12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="32"/>
+      <c r="A13" s="33"/>
       <c r="B13" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" t="s">
         <v>239</v>
       </c>
@@ -3661,6 +3773,16 @@
     <row r="16" spans="1:2">
       <c r="A16" s="9" t="s">
         <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="9" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -3681,6 +3803,8 @@
     <hyperlink ref="A11" location="'JDK Tools utilities'!A1" display="JDK Tools utilities"/>
     <hyperlink ref="A15" location="OpenAM!A1" display="Open AM"/>
     <hyperlink ref="A16" location="MongoDB!A1" display="MongoDB"/>
+    <hyperlink ref="A17" location="Junit!A1" display="Junit"/>
+    <hyperlink ref="A18" location="Mockito!A1" display="Mockito"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3690,9 +3814,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55:A56"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3709,11 +3833,40 @@
         <v>230</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="37" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" s="37"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="32" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="32" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="32" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="37"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="30" t="s">
@@ -3764,7 +3917,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="38" t="s">
         <v>295</v>
       </c>
       <c r="B15" s="30" t="s">
@@ -3772,49 +3925,49 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="240">
-      <c r="A16" s="37"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="30" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="37"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="30" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="37"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="30" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="37"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="30" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="90">
-      <c r="A20" s="37"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="30" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="37"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="30" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="150">
-      <c r="A22" s="37"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="30" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="37"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="30" t="s">
         <v>304</v>
       </c>
@@ -3844,7 +3997,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="180">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="38" t="s">
         <v>311</v>
       </c>
       <c r="B27" s="30" t="s">
@@ -3852,13 +4005,13 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="37"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="30" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="210">
-      <c r="A29" s="37"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="30" t="s">
         <v>313</v>
       </c>
@@ -3872,7 +4025,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="105">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="38" t="s">
         <v>316</v>
       </c>
       <c r="B31" s="30" t="s">
@@ -3880,7 +4033,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="285">
-      <c r="A32" s="37"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="30" t="s">
         <v>318</v>
       </c>
@@ -3934,7 +4087,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="75">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="38" t="s">
         <v>332</v>
       </c>
       <c r="B39" s="30" t="s">
@@ -3942,13 +4095,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="37"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="135">
-      <c r="A41" s="37"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="30" t="s">
         <v>333</v>
       </c>
@@ -4042,7 +4195,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="30" customHeight="1">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="38" t="s">
         <v>363</v>
       </c>
       <c r="B53" s="30" t="s">
@@ -4050,13 +4203,13 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="120">
-      <c r="A54" s="37"/>
+      <c r="A54" s="38"/>
       <c r="B54" s="30" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="38" t="s">
         <v>359</v>
       </c>
       <c r="B55" s="30" t="s">
@@ -4064,7 +4217,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="37"/>
+      <c r="A56" s="38"/>
       <c r="B56" s="30" t="s">
         <v>362</v>
       </c>
@@ -4110,7 +4263,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="47" t="s">
+      <c r="A62" s="48" t="s">
         <v>374</v>
       </c>
       <c r="B62" s="30" t="s">
@@ -4118,13 +4271,13 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="47"/>
+      <c r="A63" s="48"/>
       <c r="B63" s="30" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="48" t="s">
         <v>377</v>
       </c>
       <c r="B64" s="30" t="s">
@@ -4132,13 +4285,13 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="45">
-      <c r="A65" s="47"/>
+      <c r="A65" s="48"/>
       <c r="B65" s="30" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="47" t="s">
+      <c r="A66" s="48" t="s">
         <v>380</v>
       </c>
       <c r="B66" s="30" t="s">
@@ -4146,27 +4299,120 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="45">
-      <c r="A67" s="47"/>
+      <c r="A67" s="48"/>
       <c r="B67" s="31" t="s">
         <v>382</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A66:A67"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A15:A23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="MongoDB!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A16" display="Topics"/>
+    <hyperlink ref="B6" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="50.85546875" customWidth="1"/>
+    <col min="2" max="2" width="122.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="B8" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Junit!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A17" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="51.42578125" customWidth="1"/>
+    <col min="2" max="2" width="125.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="49" t="s">
+        <v>386</v>
+      </c>
+      <c r="B8" s="50"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Mockito!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A18" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4197,10 +4443,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2" ht="120">
       <c r="A3" t="s">
@@ -4320,10 +4566,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -4334,10 +4580,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
@@ -4348,10 +4594,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="37"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
@@ -4370,7 +4616,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -4378,13 +4624,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="37"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -4392,7 +4638,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="37"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
@@ -4414,7 +4660,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="38" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -4422,7 +4668,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="37"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
@@ -4444,7 +4690,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="38" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -4452,7 +4698,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="37"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
@@ -4466,10 +4712,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="B22" s="34"/>
+      <c r="B22" s="35"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
@@ -4484,7 +4730,7 @@
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -4492,7 +4738,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="35"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
@@ -4557,10 +4803,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="B36" s="34"/>
+      <c r="B36" s="35"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="25" t="s">
@@ -4587,10 +4833,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="B46" s="34"/>
+      <c r="B46" s="35"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
@@ -4680,10 +4926,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -4781,22 +5027,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="41"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="39"/>
+      <c r="B16" s="40"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="11" t="s">
@@ -4844,10 +5090,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" s="15" t="s">
@@ -4874,7 +5120,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>111</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -4882,13 +5128,13 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="43"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="43"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="16" t="s">
         <v>191</v>
       </c>
@@ -4902,7 +5148,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="44" t="s">
         <v>115</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -4910,7 +5156,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="43"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="16" t="s">
         <v>193</v>
       </c>
@@ -5028,7 +5274,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="44" t="s">
         <v>139</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -5036,13 +5282,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="43"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="43"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="16" t="s">
         <v>199</v>
       </c>
@@ -5184,10 +5430,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="45"/>
+      <c r="B46" s="46"/>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="17" t="s">
@@ -5198,7 +5444,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="38" t="s">
         <v>167</v>
       </c>
       <c r="B48" s="16" t="s">
@@ -5206,13 +5452,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="90">
-      <c r="A49" s="37"/>
+      <c r="A49" s="38"/>
       <c r="B49" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="38" t="s">
         <v>170</v>
       </c>
       <c r="B50" s="16" t="s">
@@ -5220,25 +5466,25 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="37"/>
+      <c r="A51" s="38"/>
       <c r="B51" s="16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="37"/>
+      <c r="A52" s="38"/>
       <c r="B52" s="16" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="37"/>
+      <c r="A53" s="38"/>
       <c r="B53" s="16" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="43" t="s">
+      <c r="A54" s="44" t="s">
         <v>175</v>
       </c>
       <c r="B54" s="16" t="s">
@@ -5246,13 +5492,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="43"/>
+      <c r="A55" s="44"/>
       <c r="B55" s="16" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="43"/>
+      <c r="A56" s="44"/>
       <c r="B56" s="16" t="s">
         <v>178</v>
       </c>
@@ -5288,10 +5534,10 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="41" t="s">
+      <c r="A61" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="B61" s="42"/>
+      <c r="B61" s="43"/>
     </row>
     <row r="62" spans="1:2" ht="30">
       <c r="A62" s="23" t="s">
@@ -5425,10 +5671,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="37"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
@@ -5484,14 +5730,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="41"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5553,7 +5799,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="47" t="s">
         <v>272</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -5561,7 +5807,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="46"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="9" t="s">
         <v>274</v>
       </c>
@@ -5607,10 +5853,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="B12" s="36"/>
+      <c r="B12" s="37"/>
     </row>
     <row r="13" spans="1:2" ht="90">
       <c r="A13" t="s">

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="948" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="948" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="395">
   <si>
     <t>Lucene</t>
   </si>
@@ -2927,6 +2927,12 @@
   </si>
   <si>
     <t>http://www.tutorialspoint.com/mongodb/mongodb_java.htm</t>
+  </si>
+  <si>
+    <t>What is Mockito</t>
+  </si>
+  <si>
+    <t>Mockito is Mocking framework to use in Junit</t>
   </si>
 </sst>
 </file>
@@ -3808,9 +3814,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4300,17 +4306,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A15:A23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="MongoDB!A2" display="Up"/>
@@ -4328,7 +4334,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:B8"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4365,11 +4371,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4391,6 +4397,14 @@
         <v>386</v>
       </c>
       <c r="B8" s="50"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B9" t="s">
+        <v>394</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="399">
   <si>
     <t>Lucene</t>
   </si>
@@ -2933,6 +2933,18 @@
   </si>
   <si>
     <t>Mockito is Mocking framework to use in Junit</t>
+  </si>
+  <si>
+    <t>Tutorial 2 link</t>
+  </si>
+  <si>
+    <t>http://www.mastertheintegration.com/core-apache-projects/activemq/introduction-to-activemq/activemq-lesson-1-getting-started-with-activemq.html</t>
+  </si>
+  <si>
+    <t>Refer</t>
+  </si>
+  <si>
+    <t>images\q_mockito\Unit_tests_with_Mockito.docx</t>
   </si>
 </sst>
 </file>
@@ -4306,17 +4318,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A15:A23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="MongoDB!A2" display="Up"/>
@@ -4375,7 +4387,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4390,6 +4402,14 @@
       </c>
       <c r="B1" s="27" t="s">
         <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B2" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5645,7 +5665,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:B6"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5670,6 +5690,14 @@
         <v>251</v>
       </c>
     </row>
+    <row r="3" spans="1:2" ht="30">
+      <c r="A3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
     <row r="6" spans="1:2">
       <c r="A6" s="37" t="s">
         <v>207</v>
@@ -5708,9 +5736,10 @@
     <hyperlink ref="A1:B1" location="Topics!A10" display="Topics"/>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B1" location="ActiveMQ!A2" display="Up"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="948" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="948" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="MongoDB" sheetId="10" r:id="rId10"/>
     <sheet name="Junit" sheetId="11" r:id="rId11"/>
     <sheet name="Mockito" sheetId="12" r:id="rId12"/>
+    <sheet name="AmazonWS" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="jar" localSheetId="2">'JDK Tools utilities'!$A$11</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="401">
   <si>
     <t>Lucene</t>
   </si>
@@ -2945,6 +2946,12 @@
   </si>
   <si>
     <t>images\q_mockito\Unit_tests_with_Mockito.docx</t>
+  </si>
+  <si>
+    <t>Amazon web services</t>
+  </si>
+  <si>
+    <t>Amazon Web Services Definitions</t>
   </si>
 </sst>
 </file>
@@ -3667,11 +3674,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3795,6 +3802,11 @@
     <row r="18" spans="1:1">
       <c r="A18" s="9" t="s">
         <v>385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="9" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -3817,6 +3829,7 @@
     <hyperlink ref="A16" location="MongoDB!A1" display="MongoDB"/>
     <hyperlink ref="A17" location="Junit!A1" display="Junit"/>
     <hyperlink ref="A18" location="Mockito!A1" display="Mockito"/>
+    <hyperlink ref="A19" location="AmazonWS!A1" display="Amazon web services"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4318,17 +4331,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A15:A23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="MongoDB!A2" display="Up"/>
@@ -4385,9 +4398,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4436,6 +4449,47 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="55.5703125" customWidth="1"/>
+    <col min="2" max="2" width="122.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="49" t="s">
+        <v>400</v>
+      </c>
+      <c r="B6" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A19" display="Topics"/>
+    <hyperlink ref="B1" location="AmazonWS!A2" display="Up"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="948" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="948" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="432">
   <si>
     <t>Lucene</t>
   </si>
@@ -2953,12 +2953,206 @@
   <si>
     <t>Amazon Web Services Definitions</t>
   </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>http://aws.amazon.com/documentation/</t>
+  </si>
+  <si>
+    <t>AWS Documentation</t>
+  </si>
+  <si>
+    <t>Amazon S3 Documentation</t>
+  </si>
+  <si>
+    <t>http://aws.amazon.com/documentation/s3/</t>
+  </si>
+  <si>
+    <t>Amazon S3 getting started</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AmazonS3/latest/gsg/s3-gsg.pdf</t>
+  </si>
+  <si>
+    <t>AWS Data Pipeline provides reliable service for data transfer between different AWS compute and storage services (e.g., Amazon S3, Amazon RDS, Amazon DynamoDB, Amazon EMR). In other words, this service is simply a data-driven workload management system, which provides a simple management API for managing and monitoring of data-driven workloads in cloud applications</t>
+  </si>
+  <si>
+    <t>Amazon DynamoDB provides a scalable, low-latency NoSQL online Database Service backed by SSD(Solid State Drive)</t>
+  </si>
+  <si>
+    <t>Amazon Simple Storage Service (S3) provides Web Service based storage</t>
+  </si>
+  <si>
+    <t>1. Amazon Elastic Compute Cloud (EC2) provides scalable virtual private servers using Xen
+2. Amazon Elastic MapReduce (EMR) allows businesses, researchers, data analysts, and developers to easily and cheaply process vast amounts of data. It uses a hosted Hadoop framework running on the web-scale infrastructure of EC2 and Amazon S3.
+3. Amazon Lambda (LAMBDA) provides a compute service that runs code in response to events and automatically manages the compute resources needed to run the code</t>
+  </si>
+  <si>
+    <t>Some products of AWS</t>
+  </si>
+  <si>
+    <t>Amazon EC2 ( Amazon Elastic Compute Cloud)
+Amazon S3 ( Amazon Simple Storage Service)</t>
+  </si>
+  <si>
+    <t>central and best-known of these services</t>
+  </si>
+  <si>
+    <t>Subsidiary of Amazon.com which offers a suite of cloud computing services that make up an on-demand computing platform</t>
+  </si>
+  <si>
+    <t>Amazon Web Services (AWS)</t>
+  </si>
+  <si>
+    <t>Amazon Simple Storage Service</t>
+  </si>
+  <si>
+    <t>Amazon S3</t>
+  </si>
+  <si>
+    <t>Amazon Simple Storage Service (Amazon S3) is storage for the Internet. You can use Amazon S3 to store and retrieve any amount of data at any time, from anywhere on the web. You can accomplish these tasks using the AWS Management Console, which is a simple and intuitive web interface. This guide introduces you to Amazon S3</t>
+  </si>
+  <si>
+    <t>What is Amazon S3</t>
+  </si>
+  <si>
+    <t>http://www.mastertheintegration.com/camel/camel-introduction.html</t>
+  </si>
+  <si>
+    <t>camel intro</t>
+  </si>
+  <si>
+    <t>Definitions</t>
+  </si>
+  <si>
+    <t>&lt;project xmlns="http://maven.apache.org/POM/4.0.0" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"
+  xsi:schemaLocation="http://maven.apache.org/POM/4.0.0 http://maven.apache.org/maven-v4_0_0.xsd"&gt;
+  &lt;modelVersion&gt;4.0.0&lt;/modelVersion&gt;
+  &lt;groupId&gt;camel.hello.world&lt;/groupId&gt;
+  &lt;artifactId&gt;CamelSpringHelloWorld&lt;/artifactId&gt;
+  &lt;packaging&gt;jar&lt;/packaging&gt;
+  &lt;version&gt;1.0&lt;/version&gt;
+  &lt;name&gt;CamelSpringHelloWorld&lt;/name&gt;
+  &lt;url&gt;http://maven.apache.org&lt;/url&gt;
+  &lt;properties&gt;
+   &lt;spring.version&gt;4.2.6.RELEASE&lt;/spring.version&gt;
+    &lt;camel.version&gt;2.17.1&lt;/camel.version&gt;
+  &lt;/properties&gt;
+  &lt;dependencies&gt;
+    &lt;dependency&gt;
+      &lt;groupId&gt;junit&lt;/groupId&gt;
+      &lt;artifactId&gt;junit&lt;/artifactId&gt;
+      &lt;version&gt;3.8.1&lt;/version&gt;
+      &lt;scope&gt;test&lt;/scope&gt;
+    &lt;/dependency&gt;
+    &lt;!-- camel spring dependencies --&gt;
+    &lt;dependency&gt;
+            &lt;groupId&gt;org.apache.camel&lt;/groupId&gt;
+            &lt;artifactId&gt;camel-spring&lt;/artifactId&gt;
+            &lt;version&gt;${camel.version}&lt;/version&gt;
+        &lt;/dependency&gt;
+        &lt;dependency&gt;
+            &lt;groupId&gt;org.springframework&lt;/groupId&gt;
+            &lt;artifactId&gt;spring-context&lt;/artifactId&gt;
+            &lt;version&gt;${spring.version}&lt;/version&gt;
+        &lt;/dependency&gt;
+     &lt;!-- camel spring dependencies --&gt;
+  &lt;/dependencies&gt;
+  &lt;build&gt;
+   &lt;plugins&gt;
+    &lt;plugin&gt;
+     &lt;groupId&gt;org.apache.maven.plugins&lt;/groupId&gt;
+     &lt;artifactId&gt;maven-compiler-plugin&lt;/artifactId&gt;
+     &lt;version&gt;2.3.1&lt;/version&gt;
+     &lt;configuration&gt;
+      &lt;source&gt;1.7&lt;/source&gt;
+            &lt;target&gt;1.7&lt;/target&gt;
+     &lt;/configuration&gt;
+    &lt;/plugin&gt;
+     &lt;plugin&gt;
+                &lt;groupId&gt;org.apache.camel&lt;/groupId&gt;
+                &lt;artifactId&gt;camel-maven-plugin&lt;/artifactId&gt;
+                &lt;version&gt;${camel.version}&lt;/version&gt;
+                &lt;!-- the file must be in the classpath --&gt;
+                &lt;configuration&gt;
+                     &lt;applicationContextUri&gt;application-context.xml&lt;/applicationContextUri&gt;
+                &lt;/configuration&gt;
+            &lt;/plugin&gt;
+   &lt;/plugins&gt;
+  &lt;/build&gt;
+&lt;/project&gt;</t>
+  </si>
+  <si>
+    <t>pom.xml</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;beans xmlns="http://www.springframework.org/schema/beans"
+    xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:camel="http://camel.apache.org/schema/spring"
+    xmlns:util="http://www.springframework.org/schema/util"
+    xsi:schemaLocation="http://www.springframework.org/schema/beans http://www.springframework.org/schema/beans/spring-beans-3.0.xsd    
+     http://camel.apache.org/schema/spring http://camel.apache.org/schema/spring/camel-spring.xsd
+      http://www.springframework.org/schema/util http://www.springframework.org/schema/util/spring-util-3.1.xsd"&gt;
+  &lt;bean id="nwp" class="com.camel.spring.GenerateNWPBean"&gt;&lt;/bean&gt;
+  &lt;bean id="merge" class="com.camel.spring.GenerateMerge"&gt;&lt;/bean&gt;
+    &lt;camelContext xmlns="http://camel.apache.org/schema/spring"&gt;
+        &lt;route&gt;
+            &lt;from uri="file:C:\Study\camel\input?noop=true" /&gt;
+            &lt;bean ref="nwp"/&gt;
+            &lt;bean ref="merge"/&gt;
+            &lt;to uri="file:C:\Study\camel\output" /&gt;
+        &lt;/route&gt;
+    &lt;/camelContext&gt;
+&lt;/beans&gt;</t>
+  </si>
+  <si>
+    <t>application-context.xml</t>
+  </si>
+  <si>
+    <t>Camel + Spring HelloWorld Example</t>
+  </si>
+  <si>
+    <t>package com.camel.spring;
+public class GenerateMerge {
+ public String generateMerge(String jsonString) {
+  System.out.println("GenerateMerge:data: " + jsonString);
+  return jsonString;
+ }
+}</t>
+  </si>
+  <si>
+    <t>package com.camel.spring;
+public class GenerateNWPBean {
+ public String generateNWP(String jsonString) {
+  System.out.println("GenerateNWPBean:data: " + jsonString);
+  return jsonString;
+ }
+}</t>
+  </si>
+  <si>
+    <t>package com.camel.spring;
+import org.springframework.context.support.AbstractApplicationContext;
+import org.springframework.context.support.ClassPathXmlApplicationContext;
+public class CamelSpringHelloWorld {
+ public static void main(String[] args) throws Exception {
+  CamelSpringHelloWorld object = new CamelSpringHelloWorld();
+  object.test();
+ }
+ public void test() throws InterruptedException {
+  AbstractApplicationContext context = new ClassPathXmlApplicationContext("application-context.xml");
+  context.start();
+  Thread.sleep(1000 * 60 * 2);
+  context.close();
+ }
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3048,6 +3242,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -3183,7 +3384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3277,6 +3478,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3320,10 +3531,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3712,7 +3929,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="37" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
@@ -3720,19 +3937,19 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="33"/>
+      <c r="A5" s="37"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="33"/>
+      <c r="A6" s="37"/>
       <c r="B6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="37" t="s">
         <v>102</v>
       </c>
       <c r="B7" t="s">
@@ -3740,7 +3957,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="33"/>
+      <c r="A8" s="37"/>
       <c r="B8" t="s">
         <v>104</v>
       </c>
@@ -3759,7 +3976,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="37" t="s">
         <v>36</v>
       </c>
       <c r="B11" t="s">
@@ -3767,19 +3984,19 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="33"/>
+      <c r="A12" s="37"/>
       <c r="B12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="33"/>
+      <c r="A13" s="37"/>
       <c r="B13" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="33"/>
+      <c r="A14" s="37"/>
       <c r="B14" t="s">
         <v>239</v>
       </c>
@@ -3859,10 +4076,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="41" t="s">
         <v>387</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="32" t="s">
@@ -3888,10 +4105,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="41" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="41"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="30" t="s">
@@ -3942,7 +4159,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="42" t="s">
         <v>295</v>
       </c>
       <c r="B15" s="30" t="s">
@@ -3950,49 +4167,49 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="240">
-      <c r="A16" s="38"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="30" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="38"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="30" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="38"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="30" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="38"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="30" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="90">
-      <c r="A20" s="38"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="30" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="38"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="30" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="150">
-      <c r="A22" s="38"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="30" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="38"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="30" t="s">
         <v>304</v>
       </c>
@@ -4022,7 +4239,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="180">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="42" t="s">
         <v>311</v>
       </c>
       <c r="B27" s="30" t="s">
@@ -4030,13 +4247,13 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="38"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="30" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="210">
-      <c r="A29" s="38"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="30" t="s">
         <v>313</v>
       </c>
@@ -4050,7 +4267,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="105">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>316</v>
       </c>
       <c r="B31" s="30" t="s">
@@ -4058,7 +4275,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="285">
-      <c r="A32" s="38"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="30" t="s">
         <v>318</v>
       </c>
@@ -4112,7 +4329,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="75">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="42" t="s">
         <v>332</v>
       </c>
       <c r="B39" s="30" t="s">
@@ -4120,13 +4337,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="38"/>
+      <c r="A40" s="42"/>
       <c r="B40" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="135">
-      <c r="A41" s="38"/>
+      <c r="A41" s="42"/>
       <c r="B41" s="30" t="s">
         <v>333</v>
       </c>
@@ -4220,7 +4437,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="30" customHeight="1">
-      <c r="A53" s="38" t="s">
+      <c r="A53" s="42" t="s">
         <v>363</v>
       </c>
       <c r="B53" s="30" t="s">
@@ -4228,13 +4445,13 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="120">
-      <c r="A54" s="38"/>
+      <c r="A54" s="42"/>
       <c r="B54" s="30" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="38" t="s">
+      <c r="A55" s="42" t="s">
         <v>359</v>
       </c>
       <c r="B55" s="30" t="s">
@@ -4242,7 +4459,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="38"/>
+      <c r="A56" s="42"/>
       <c r="B56" s="30" t="s">
         <v>362</v>
       </c>
@@ -4288,7 +4505,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="48" t="s">
+      <c r="A62" s="51" t="s">
         <v>374</v>
       </c>
       <c r="B62" s="30" t="s">
@@ -4296,13 +4513,13 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="48"/>
+      <c r="A63" s="51"/>
       <c r="B63" s="30" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="48" t="s">
+      <c r="A64" s="51" t="s">
         <v>377</v>
       </c>
       <c r="B64" s="30" t="s">
@@ -4310,13 +4527,13 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="45">
-      <c r="A65" s="48"/>
+      <c r="A65" s="51"/>
       <c r="B65" s="30" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="48" t="s">
+      <c r="A66" s="51" t="s">
         <v>380</v>
       </c>
       <c r="B66" s="30" t="s">
@@ -4324,24 +4541,24 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="45">
-      <c r="A67" s="48"/>
+      <c r="A67" s="51"/>
       <c r="B67" s="31" t="s">
         <v>382</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A15:A23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="MongoDB!A2" display="Up"/>
@@ -4377,10 +4594,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="41" t="s">
         <v>384</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4426,10 +4643,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="55" t="s">
         <v>386</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="56"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
@@ -4454,11 +4671,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4475,19 +4692,112 @@
         <v>230</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="55" t="s">
+        <v>401</v>
+      </c>
+      <c r="B2" s="56"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>407</v>
+      </c>
+    </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="55" t="s">
         <v>400</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="56"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30">
+      <c r="A8" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="75">
+      <c r="A9" s="51" t="s">
+        <v>412</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="51"/>
+      <c r="B10" s="33" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="51"/>
+      <c r="B11" s="33" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45">
+      <c r="A12" s="51"/>
+      <c r="B12" s="33" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45">
+      <c r="A14" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>419</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A9:A12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A19" display="Topics"/>
     <hyperlink ref="B1" location="AmazonWS!A2" display="Up"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4517,10 +4827,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="3" spans="1:2" ht="120">
       <c r="A3" t="s">
@@ -4640,10 +4950,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -4654,10 +4964,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="40"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
@@ -4668,10 +4978,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="41"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
@@ -4690,7 +5000,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="42" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -4698,13 +5008,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="38"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="42" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -4712,7 +5022,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="38"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
@@ -4734,7 +5044,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="42" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -4742,7 +5052,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="38"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
@@ -4764,7 +5074,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="42" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -4772,7 +5082,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="38"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
@@ -4786,10 +5096,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="39"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
@@ -4804,7 +5114,7 @@
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="40" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -4812,7 +5122,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="36"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
@@ -4877,10 +5187,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="B36" s="35"/>
+      <c r="B36" s="39"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="25" t="s">
@@ -4907,10 +5217,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="B46" s="35"/>
+      <c r="B46" s="39"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
@@ -5000,10 +5310,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -5101,22 +5411,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="40"/>
+      <c r="B16" s="44"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="11" t="s">
@@ -5164,10 +5474,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" s="15" t="s">
@@ -5194,7 +5504,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="48" t="s">
         <v>111</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -5202,13 +5512,13 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="44"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="44"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="16" t="s">
         <v>191</v>
       </c>
@@ -5222,7 +5532,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="48" t="s">
         <v>115</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -5230,7 +5540,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="44"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="16" t="s">
         <v>193</v>
       </c>
@@ -5348,7 +5658,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="48" t="s">
         <v>139</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -5356,13 +5666,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="44"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="44"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="16" t="s">
         <v>199</v>
       </c>
@@ -5504,10 +5814,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="46"/>
+      <c r="B46" s="50"/>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="17" t="s">
@@ -5518,7 +5828,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="42" t="s">
         <v>167</v>
       </c>
       <c r="B48" s="16" t="s">
@@ -5526,13 +5836,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="90">
-      <c r="A49" s="38"/>
+      <c r="A49" s="42"/>
       <c r="B49" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="38" t="s">
+      <c r="A50" s="42" t="s">
         <v>170</v>
       </c>
       <c r="B50" s="16" t="s">
@@ -5540,25 +5850,25 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="38"/>
+      <c r="A51" s="42"/>
       <c r="B51" s="16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="38"/>
+      <c r="A52" s="42"/>
       <c r="B52" s="16" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="38"/>
+      <c r="A53" s="42"/>
       <c r="B53" s="16" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="44" t="s">
+      <c r="A54" s="48" t="s">
         <v>175</v>
       </c>
       <c r="B54" s="16" t="s">
@@ -5566,13 +5876,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="44"/>
+      <c r="A55" s="48"/>
       <c r="B55" s="16" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="44"/>
+      <c r="A56" s="48"/>
       <c r="B56" s="16" t="s">
         <v>178</v>
       </c>
@@ -5608,10 +5918,10 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="42" t="s">
+      <c r="A61" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="B61" s="43"/>
+      <c r="B61" s="47"/>
     </row>
     <row r="62" spans="1:2" ht="30">
       <c r="A62" s="23" t="s">
@@ -5719,7 +6029,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5753,10 +6063,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="41"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
@@ -5799,11 +6109,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5813,22 +6123,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="27" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
+      <c r="A2" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="B2" s="41"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="B11" s="41"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="53" t="s">
+        <v>428</v>
+      </c>
+      <c r="B12" s="53"/>
+    </row>
+    <row r="13" spans="1:2" ht="315">
+      <c r="A13" t="s">
+        <v>427</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="285">
+      <c r="B14" s="34" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="135">
+      <c r="B15" s="34" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="135">
+      <c r="B16" s="34" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="52" t="s">
+        <v>425</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="B17:B27"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A17:A27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1:B1" location="Topics!A11" display="Topics"/>
+    <hyperlink ref="B1" location="'Apache Camel'!A2" display="Up"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5882,7 +6292,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="54" t="s">
         <v>272</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -5890,7 +6300,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="47"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="9" t="s">
         <v>274</v>
       </c>
@@ -5936,10 +6346,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="B12" s="37"/>
+      <c r="B12" s="41"/>
     </row>
     <row r="13" spans="1:2" ht="90">
       <c r="A13" t="s">

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -20,6 +20,7 @@
     <sheet name="Junit" sheetId="11" r:id="rId11"/>
     <sheet name="Mockito" sheetId="12" r:id="rId12"/>
     <sheet name="AmazonWS" sheetId="13" r:id="rId13"/>
+    <sheet name="Cassandra" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="jar" localSheetId="2">'JDK Tools utilities'!$A$11</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="475">
   <si>
     <t>Lucene</t>
   </si>
@@ -3147,12 +3148,169 @@
  }
 }</t>
   </si>
+  <si>
+    <t>Apache Cassandra</t>
+  </si>
+  <si>
+    <t>Apache Cassandra Definitions</t>
+  </si>
+  <si>
+    <t>Apache Cassandra is a free and open-source distributed database management system designed to handle large amounts of data across many commodity servers, providing high availability with no single point of failure. Cassandra offers robust support for clusters spanning multiple datacenters,[1] with asynchronous masterless replication allowing low latency operations for all clients</t>
+  </si>
+  <si>
+    <t>Apache Cassandra was initially developed at Facebook to power their Inbox Search feature by Avinash Lakshman (one of the authors of Amazon's Dynamo) and Prashant Malik</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Main features</t>
+  </si>
+  <si>
+    <t>Every node in the cluster has the same role. There is no single point of failure. Data is distributed across the cluster (so each node contains different data), but there is no master as every node can service any request</t>
+  </si>
+  <si>
+    <t>Decentralized</t>
+  </si>
+  <si>
+    <t>Supports replication and multi data center replication</t>
+  </si>
+  <si>
+    <t>Replication strategies are configurable.[17] Cassandra is designed as a distributed system, for deployment of large numbers of nodes across multiple data centers. Key features of Cassandra’s distributed architecture are specifically tailored for multiple-data center deployment, for redundancy, for failover and disaster recovery</t>
+  </si>
+  <si>
+    <t>1. Decentralized
+2. Supports replication and multi data center replication
+Scalability</t>
+  </si>
+  <si>
+    <t>Scalability</t>
+  </si>
+  <si>
+    <t>Read and write throughput both increase linearly as new machines are added, with no downtime or interruption to applications</t>
+  </si>
+  <si>
+    <t>Fault-tolerant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Data is automatically replicated to multiple nodes for fault-tolerance. Replication across multiple data centers is supported. Failed nodes can be replaced with no downtime</t>
+  </si>
+  <si>
+    <t>Tunable consistency</t>
+  </si>
+  <si>
+    <t>Writes and reads offer a tunable level of consistency, all the way from "writes never fail" to "block for all replicas to be readable", with the quorum level in the middle</t>
+  </si>
+  <si>
+    <t>MapReduce support</t>
+  </si>
+  <si>
+    <t>Cassandra has Hadoop integration, with MapReduce support. There is support also for Apache Pig and Apache Hive</t>
+  </si>
+  <si>
+    <t>Query language</t>
+  </si>
+  <si>
+    <t>Cassandra introduces CQL (Cassandra Query Language), a SQL-like alternative to the traditional RPC interface. CQL is a simple API meant for accessing Cassandra. CQL adds an abstraction layer that hides implementation details of this structure and provides native syntaxes for collections and other common encodings.[20] Language drivers are available for Java (JDBC), Python (DBAPI2), Node.JS (Helenus), Go (gocql) and C++</t>
+  </si>
+  <si>
+    <t>example of keyspace creation, including a column family in CQL 3.0</t>
+  </si>
+  <si>
+    <t>CREATE KEYSPACE MyKeySpace  WITH REPLICATION = { 'class' : 'SimpleStrategy', 'replication_factor' : 3 };
+USE MyKeySpace;
+CREATE COLUMNFAMILY MyColumns (id text, Last text, First text, PRIMARY KEY(id));
+INSERT INTO MyColumns (id, Last, First) VALUES ('1', 'Doe', 'John');
+SELECT * FROM MyColumns;</t>
+  </si>
+  <si>
+    <t>Output of above CQL commands</t>
+  </si>
+  <si>
+    <t>id | first | last
+----+-------+------
+  1 |  John |  Doe
+(1 rows)</t>
+  </si>
+  <si>
+    <t>Data model</t>
+  </si>
+  <si>
+    <t>Cassandra is essentially a hybrid between a key-value and a column-oriented (or tabular) database management system. Its data model is a partitioned row store with tunable consistency. Rows are organized into tables; the first component of a table's primary key is the partition key; within a partition, rows are clustered by the remaining columns of the key. Other columns may be indexed separately from the primary key.
+Tables may be created, dropped, and altered at run-time without blocking updates and queries.
+Cassandra cannot do joins or subqueries. Rather, Cassandra emphasizes denormalization through features like collections</t>
+  </si>
+  <si>
+    <t>Clustering</t>
+  </si>
+  <si>
+    <t>When the cluster for Apache Cassandra is designed, an important point is to select the right partitioner. Two partitioners exist:
+1. RandomPartitioner (RP): This partitioner randomly distributes the key-value pairs over the network, resulting in a good load balancing. Compared to OPP, more nodes have to be accessed to get a number of keys.
+2. OrderPreservingPartitioner (OPP): This partitioner distributes the key-value pairs in a natural way so that similar keys are not far away. The advantage is that fewer nodes have to be accessed. The drawback is the uneven distribution of the key-value pairs</t>
+  </si>
+  <si>
+    <t>Management and monitoring</t>
+  </si>
+  <si>
+    <t>Cassandra is a Java-based system that can be managed and monitored via Java Management Extensions (JMX). The JMX-compliant nodetool utility, for instance, can be used to manage a Cassandra cluster (adding nodes to a ring, draining nodes, decommissioning nodes, and so on).[29] Nodetool also offers a number of commands to return Cassandra metrics pertaining to disk usage, latency, compaction, garbage collection, and more.[30] Additional metrics are available via JMX tools such as JConsole and via pluggable metrics reporters for external monitoring tools, which became available with Cassandra version 2.0.2</t>
+  </si>
+  <si>
+    <t>Cassandra</t>
+  </si>
+  <si>
+    <t>1. Distributed features of Dynamo (Dynamo from Amazon)
+2. Data model and storage from Big Table (Big Table from Google)</t>
+  </si>
+  <si>
+    <t>What is Cassandra in a pic</t>
+  </si>
+  <si>
+    <t>refer r_apache_cassandra/1_what_is_cassandra.png</t>
+  </si>
+  <si>
+    <t>Cassandra - Fully Replicated</t>
+  </si>
+  <si>
+    <t>refer r_apache_cassandra/2_fully_replicated.png</t>
+  </si>
+  <si>
+    <t>SPOF</t>
+  </si>
+  <si>
+    <t>Single Point Of Failure</t>
+  </si>
+  <si>
+    <t>Running Camel with Spring and Camel Maven plugin</t>
+  </si>
+  <si>
+    <t>camel maven plugin in pom.xml:
+&lt;build&gt;
+        &lt;plugins&gt;
+            &lt;plugin&gt;
+                &lt;groupId&gt;org.apache.camel&lt;/groupId&gt;
+                &lt;artifactId&gt;camel-maven-plugin&lt;/artifactId&gt;
+                &lt;version&gt;${camel.version}&lt;/version&gt;
+                &lt;!-- the file must be in the classpath --&gt;
+                &lt;configuration&gt;
+                     &lt;applicationContextUri&gt;application-context.xml&lt;/applicationContextUri&gt;
+                &lt;/configuration&gt;
+            &lt;/plugin&gt;
+        &lt;/plugins&gt;
+    &lt;/build&gt;</t>
+  </si>
+  <si>
+    <t>mvn clean compile camel:run</t>
+  </si>
+  <si>
+    <t>To run camel with maven plugin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3248,6 +3406,12 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF252525"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3384,7 +3548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3487,7 +3651,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3548,6 +3718,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3891,11 +4062,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3929,7 +4100,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="39" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
@@ -3937,19 +4108,19 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="37"/>
+      <c r="A5" s="39"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="37"/>
+      <c r="A6" s="39"/>
       <c r="B6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="39" t="s">
         <v>102</v>
       </c>
       <c r="B7" t="s">
@@ -3957,7 +4128,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="37"/>
+      <c r="A8" s="39"/>
       <c r="B8" t="s">
         <v>104</v>
       </c>
@@ -3976,7 +4147,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="39" t="s">
         <v>36</v>
       </c>
       <c r="B11" t="s">
@@ -3984,19 +4155,19 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="37"/>
+      <c r="A12" s="39"/>
       <c r="B12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="37"/>
+      <c r="A13" s="39"/>
       <c r="B13" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="37"/>
+      <c r="A14" s="39"/>
       <c r="B14" t="s">
         <v>239</v>
       </c>
@@ -4024,6 +4195,11 @@
     <row r="19" spans="1:1">
       <c r="A19" s="9" t="s">
         <v>399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="9" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -4047,6 +4223,7 @@
     <hyperlink ref="A17" location="Junit!A1" display="Junit"/>
     <hyperlink ref="A18" location="Mockito!A1" display="Mockito"/>
     <hyperlink ref="A19" location="AmazonWS!A1" display="Amazon web services"/>
+    <hyperlink ref="A20" location="Cassandra!A1" display="Apache Cassandra"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4076,10 +4253,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>387</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="43"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="32" t="s">
@@ -4105,10 +4282,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="43"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="30" t="s">
@@ -4159,7 +4336,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="44" t="s">
         <v>295</v>
       </c>
       <c r="B15" s="30" t="s">
@@ -4167,49 +4344,49 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="240">
-      <c r="A16" s="42"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="30" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="42"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="30" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="42"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="30" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="42"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="30" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="90">
-      <c r="A20" s="42"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="30" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="42"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="30" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="150">
-      <c r="A22" s="42"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="30" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="42"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="30" t="s">
         <v>304</v>
       </c>
@@ -4239,7 +4416,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="180">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="44" t="s">
         <v>311</v>
       </c>
       <c r="B27" s="30" t="s">
@@ -4247,13 +4424,13 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="42"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="30" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="210">
-      <c r="A29" s="42"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="30" t="s">
         <v>313</v>
       </c>
@@ -4267,7 +4444,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="105">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="44" t="s">
         <v>316</v>
       </c>
       <c r="B31" s="30" t="s">
@@ -4275,7 +4452,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="285">
-      <c r="A32" s="42"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="30" t="s">
         <v>318</v>
       </c>
@@ -4329,7 +4506,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="75">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="44" t="s">
         <v>332</v>
       </c>
       <c r="B39" s="30" t="s">
@@ -4337,13 +4514,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="42"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="135">
-      <c r="A41" s="42"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="30" t="s">
         <v>333</v>
       </c>
@@ -4437,7 +4614,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="30" customHeight="1">
-      <c r="A53" s="42" t="s">
+      <c r="A53" s="44" t="s">
         <v>363</v>
       </c>
       <c r="B53" s="30" t="s">
@@ -4445,13 +4622,13 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="120">
-      <c r="A54" s="42"/>
+      <c r="A54" s="44"/>
       <c r="B54" s="30" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="42" t="s">
+      <c r="A55" s="44" t="s">
         <v>359</v>
       </c>
       <c r="B55" s="30" t="s">
@@ -4459,7 +4636,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="42"/>
+      <c r="A56" s="44"/>
       <c r="B56" s="30" t="s">
         <v>362</v>
       </c>
@@ -4505,7 +4682,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="51" t="s">
+      <c r="A62" s="53" t="s">
         <v>374</v>
       </c>
       <c r="B62" s="30" t="s">
@@ -4513,13 +4690,13 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="51"/>
+      <c r="A63" s="53"/>
       <c r="B63" s="30" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="51" t="s">
+      <c r="A64" s="53" t="s">
         <v>377</v>
       </c>
       <c r="B64" s="30" t="s">
@@ -4527,13 +4704,13 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="45">
-      <c r="A65" s="51"/>
+      <c r="A65" s="53"/>
       <c r="B65" s="30" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="51" t="s">
+      <c r="A66" s="53" t="s">
         <v>380</v>
       </c>
       <c r="B66" s="30" t="s">
@@ -4541,7 +4718,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="45">
-      <c r="A67" s="51"/>
+      <c r="A67" s="53"/>
       <c r="B67" s="31" t="s">
         <v>382</v>
       </c>
@@ -4594,10 +4771,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="43" t="s">
         <v>384</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4617,7 +4794,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:B8"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4643,10 +4820,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="57" t="s">
         <v>386</v>
       </c>
-      <c r="B8" s="56"/>
+      <c r="B8" s="58"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
@@ -4675,7 +4852,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4693,10 +4870,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>401</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="33" t="s">
@@ -4723,10 +4900,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="57" t="s">
         <v>400</v>
       </c>
-      <c r="B6" s="56"/>
+      <c r="B6" s="58"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="33" t="s">
@@ -4745,7 +4922,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="75">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="53" t="s">
         <v>412</v>
       </c>
       <c r="B9" s="33" t="s">
@@ -4753,19 +4930,19 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="51"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="33" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="51"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="33" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45">
-      <c r="A12" s="51"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="33" t="s">
         <v>408</v>
       </c>
@@ -4800,6 +4977,199 @@
     <hyperlink ref="B5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="47.28515625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="131.7109375" style="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="57" t="s">
+        <v>433</v>
+      </c>
+      <c r="B7" s="58"/>
+    </row>
+    <row r="8" spans="1:2" ht="45">
+      <c r="A8" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="36" t="s">
+        <v>436</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45">
+      <c r="A10" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45">
+      <c r="A12" s="36" t="s">
+        <v>440</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="36" t="s">
+        <v>443</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45">
+      <c r="A14" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="36" t="s">
+        <v>447</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="60">
+      <c r="A17" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="75">
+      <c r="A18" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="75">
+      <c r="A19" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="75">
+      <c r="A20" s="36" t="s">
+        <v>457</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="75">
+      <c r="A21" s="36" t="s">
+        <v>459</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="75">
+      <c r="A22" s="36" t="s">
+        <v>461</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>470</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A20" display="Topics"/>
+    <hyperlink ref="B1" location="Cassandra!A2" display="Up"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4827,10 +5197,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2" ht="120">
       <c r="A3" t="s">
@@ -4950,10 +5320,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -4964,10 +5334,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="42"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
@@ -4978,10 +5348,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="43"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
@@ -5000,7 +5370,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="44" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -5008,13 +5378,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="42"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="44" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -5022,7 +5392,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="42"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
@@ -5044,7 +5414,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="44" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -5052,7 +5422,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="42"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
@@ -5074,7 +5444,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -5082,7 +5452,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="42"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
@@ -5096,10 +5466,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="B22" s="39"/>
+      <c r="B22" s="41"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
@@ -5114,7 +5484,7 @@
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="42" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -5122,7 +5492,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="40"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
@@ -5187,10 +5557,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="B36" s="39"/>
+      <c r="B36" s="41"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="25" t="s">
@@ -5217,10 +5587,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="B46" s="39"/>
+      <c r="B46" s="41"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
@@ -5310,10 +5680,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -5411,22 +5781,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="44"/>
+      <c r="B16" s="46"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="11" t="s">
@@ -5474,10 +5844,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" s="15" t="s">
@@ -5504,7 +5874,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="50" t="s">
         <v>111</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -5512,13 +5882,13 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="48"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="48"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="16" t="s">
         <v>191</v>
       </c>
@@ -5532,7 +5902,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="50" t="s">
         <v>115</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -5540,7 +5910,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="48"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="16" t="s">
         <v>193</v>
       </c>
@@ -5658,7 +6028,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="50" t="s">
         <v>139</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -5666,13 +6036,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="48"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="48"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="16" t="s">
         <v>199</v>
       </c>
@@ -5814,10 +6184,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="50"/>
+      <c r="B46" s="52"/>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="17" t="s">
@@ -5828,7 +6198,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="44" t="s">
         <v>167</v>
       </c>
       <c r="B48" s="16" t="s">
@@ -5836,13 +6206,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="90">
-      <c r="A49" s="42"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="42" t="s">
+      <c r="A50" s="44" t="s">
         <v>170</v>
       </c>
       <c r="B50" s="16" t="s">
@@ -5850,25 +6220,25 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="42"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="42"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="16" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="42"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="16" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="48" t="s">
+      <c r="A54" s="50" t="s">
         <v>175</v>
       </c>
       <c r="B54" s="16" t="s">
@@ -5876,13 +6246,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="48"/>
+      <c r="A55" s="50"/>
       <c r="B55" s="16" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="48"/>
+      <c r="A56" s="50"/>
       <c r="B56" s="16" t="s">
         <v>178</v>
       </c>
@@ -5918,10 +6288,10 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="46" t="s">
+      <c r="A61" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="B61" s="47"/>
+      <c r="B61" s="49"/>
     </row>
     <row r="62" spans="1:2" ht="30">
       <c r="A62" s="23" t="s">
@@ -6063,10 +6433,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="43"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
@@ -6109,17 +6479,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="111.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="142.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6131,33 +6501,33 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>401</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="43"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="37" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="59" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="43" t="s">
         <v>423</v>
       </c>
-      <c r="B11" s="41"/>
+      <c r="B11" s="43"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="55" t="s">
         <v>428</v>
       </c>
-      <c r="B12" s="53"/>
-    </row>
-    <row r="13" spans="1:2" ht="315">
-      <c r="A13" t="s">
+      <c r="B12" s="55"/>
+    </row>
+    <row r="13" spans="1:2" ht="300">
+      <c r="A13" s="37" t="s">
         <v>427</v>
       </c>
       <c r="B13" s="34" t="s">
@@ -6180,52 +6550,68 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="53" t="s">
         <v>425</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="53" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="54"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="54"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="54"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="52"/>
-      <c r="B21" s="52"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="54"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="54"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="54"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="54"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="54"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="54"/>
+    </row>
+    <row r="28" spans="1:2" ht="210">
+      <c r="A28" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>473</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6292,7 +6678,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="56" t="s">
         <v>272</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -6300,7 +6686,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="54"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="9" t="s">
         <v>274</v>
       </c>
@@ -6346,10 +6732,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="B12" s="41"/>
+      <c r="B12" s="43"/>
     </row>
     <row r="13" spans="1:2" ht="90">
       <c r="A13" t="s">

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="482">
   <si>
     <t>Lucene</t>
   </si>
@@ -3304,6 +3304,27 @@
   </si>
   <si>
     <t>To run camel with maven plugin</t>
+  </si>
+  <si>
+    <t>Camel Definitions</t>
+  </si>
+  <si>
+    <t>Camel HelloWorld example</t>
+  </si>
+  <si>
+    <t>Camel + Processor + Bean example</t>
+  </si>
+  <si>
+    <t>Camel + Bean example</t>
+  </si>
+  <si>
+    <t>Refer images\t_apache_camel\1_Camel_HelloWorld.docx</t>
+  </si>
+  <si>
+    <t>Refer images\t_apache_camel\2_Camel_Bean_Example.docx</t>
+  </si>
+  <si>
+    <t>Refer images\t_apache_camel\3_Camel_Processor_Bean_Example.docx</t>
   </si>
 </sst>
 </file>
@@ -3548,7 +3569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3658,6 +3679,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3718,7 +3743,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4066,7 +4090,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4100,7 +4124,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="41" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
@@ -4108,19 +4132,19 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="39"/>
+      <c r="A5" s="41"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="39"/>
+      <c r="A6" s="41"/>
       <c r="B6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="41" t="s">
         <v>102</v>
       </c>
       <c r="B7" t="s">
@@ -4128,7 +4152,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="39"/>
+      <c r="A8" s="41"/>
       <c r="B8" t="s">
         <v>104</v>
       </c>
@@ -4147,7 +4171,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="41" t="s">
         <v>36</v>
       </c>
       <c r="B11" t="s">
@@ -4155,19 +4179,19 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="39"/>
+      <c r="A12" s="41"/>
       <c r="B12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="39"/>
+      <c r="A13" s="41"/>
       <c r="B13" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="39"/>
+      <c r="A14" s="41"/>
       <c r="B14" t="s">
         <v>239</v>
       </c>
@@ -4253,10 +4277,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>387</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="32" t="s">
@@ -4282,10 +4306,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="45"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="30" t="s">
@@ -4336,7 +4360,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="46" t="s">
         <v>295</v>
       </c>
       <c r="B15" s="30" t="s">
@@ -4344,49 +4368,49 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="240">
-      <c r="A16" s="44"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="30" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="44"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="30" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="44"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="30" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="44"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="30" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="90">
-      <c r="A20" s="44"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="30" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="44"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="30" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="150">
-      <c r="A22" s="44"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="30" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="44"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="30" t="s">
         <v>304</v>
       </c>
@@ -4416,7 +4440,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="180">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="46" t="s">
         <v>311</v>
       </c>
       <c r="B27" s="30" t="s">
@@ -4424,13 +4448,13 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="44"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="30" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="210">
-      <c r="A29" s="44"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="30" t="s">
         <v>313</v>
       </c>
@@ -4444,7 +4468,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="105">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="46" t="s">
         <v>316</v>
       </c>
       <c r="B31" s="30" t="s">
@@ -4452,7 +4476,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="285">
-      <c r="A32" s="44"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="30" t="s">
         <v>318</v>
       </c>
@@ -4506,7 +4530,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="75">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="46" t="s">
         <v>332</v>
       </c>
       <c r="B39" s="30" t="s">
@@ -4514,13 +4538,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="44"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="135">
-      <c r="A41" s="44"/>
+      <c r="A41" s="46"/>
       <c r="B41" s="30" t="s">
         <v>333</v>
       </c>
@@ -4614,7 +4638,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="30" customHeight="1">
-      <c r="A53" s="44" t="s">
+      <c r="A53" s="46" t="s">
         <v>363</v>
       </c>
       <c r="B53" s="30" t="s">
@@ -4622,13 +4646,13 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="120">
-      <c r="A54" s="44"/>
+      <c r="A54" s="46"/>
       <c r="B54" s="30" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="44" t="s">
+      <c r="A55" s="46" t="s">
         <v>359</v>
       </c>
       <c r="B55" s="30" t="s">
@@ -4636,7 +4660,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="44"/>
+      <c r="A56" s="46"/>
       <c r="B56" s="30" t="s">
         <v>362</v>
       </c>
@@ -4682,7 +4706,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="53" t="s">
+      <c r="A62" s="55" t="s">
         <v>374</v>
       </c>
       <c r="B62" s="30" t="s">
@@ -4690,13 +4714,13 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="53"/>
+      <c r="A63" s="55"/>
       <c r="B63" s="30" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="53" t="s">
+      <c r="A64" s="55" t="s">
         <v>377</v>
       </c>
       <c r="B64" s="30" t="s">
@@ -4704,13 +4728,13 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="45">
-      <c r="A65" s="53"/>
+      <c r="A65" s="55"/>
       <c r="B65" s="30" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="53" t="s">
+      <c r="A66" s="55" t="s">
         <v>380</v>
       </c>
       <c r="B66" s="30" t="s">
@@ -4718,24 +4742,24 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="45">
-      <c r="A67" s="53"/>
+      <c r="A67" s="55"/>
       <c r="B67" s="31" t="s">
         <v>382</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A15:A23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="MongoDB!A2" display="Up"/>
@@ -4771,10 +4795,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="45" t="s">
         <v>384</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4820,10 +4844,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="59" t="s">
         <v>386</v>
       </c>
-      <c r="B8" s="58"/>
+      <c r="B8" s="60"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
@@ -4870,10 +4894,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>401</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="60"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="33" t="s">
@@ -4900,10 +4924,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="59" t="s">
         <v>400</v>
       </c>
-      <c r="B6" s="58"/>
+      <c r="B6" s="60"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="33" t="s">
@@ -4922,7 +4946,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="75">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="55" t="s">
         <v>412</v>
       </c>
       <c r="B9" s="33" t="s">
@@ -4930,19 +4954,19 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="53"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="33" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="53"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="33" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45">
-      <c r="A12" s="53"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="33" t="s">
         <v>408</v>
       </c>
@@ -5003,10 +5027,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>433</v>
       </c>
-      <c r="B7" s="58"/>
+      <c r="B7" s="60"/>
     </row>
     <row r="8" spans="1:2" ht="45">
       <c r="A8" s="36" t="s">
@@ -5197,10 +5221,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="43"/>
     </row>
     <row r="3" spans="1:2" ht="120">
       <c r="A3" t="s">
@@ -5320,10 +5344,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="43"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -5334,10 +5358,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="42"/>
+      <c r="B4" s="44"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
@@ -5348,10 +5372,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
@@ -5370,7 +5394,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="46" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -5378,13 +5402,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="44"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="46" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -5392,7 +5416,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="44"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
@@ -5414,7 +5438,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="46" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -5422,7 +5446,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="44"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
@@ -5444,7 +5468,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="46" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -5452,7 +5476,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="44"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
@@ -5466,10 +5490,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="B22" s="41"/>
+      <c r="B22" s="43"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
@@ -5484,7 +5508,7 @@
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="44" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -5492,7 +5516,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="42"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
@@ -5557,10 +5581,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="B36" s="41"/>
+      <c r="B36" s="43"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="25" t="s">
@@ -5587,10 +5611,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="B46" s="41"/>
+      <c r="B46" s="43"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
@@ -5680,10 +5704,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="43"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -5781,22 +5805,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="49"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="46"/>
+      <c r="B16" s="48"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="11" t="s">
@@ -5844,10 +5868,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="43"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" s="15" t="s">
@@ -5874,7 +5898,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="52" t="s">
         <v>111</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -5882,13 +5906,13 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="50"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="50"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="16" t="s">
         <v>191</v>
       </c>
@@ -5902,7 +5926,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="52" t="s">
         <v>115</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -5910,7 +5934,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="50"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="16" t="s">
         <v>193</v>
       </c>
@@ -6028,7 +6052,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="52" t="s">
         <v>139</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -6036,13 +6060,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="50"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="50"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="16" t="s">
         <v>199</v>
       </c>
@@ -6184,10 +6208,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="52"/>
+      <c r="B46" s="54"/>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="17" t="s">
@@ -6198,7 +6222,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="44" t="s">
+      <c r="A48" s="46" t="s">
         <v>167</v>
       </c>
       <c r="B48" s="16" t="s">
@@ -6206,13 +6230,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="90">
-      <c r="A49" s="44"/>
+      <c r="A49" s="46"/>
       <c r="B49" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="44" t="s">
+      <c r="A50" s="46" t="s">
         <v>170</v>
       </c>
       <c r="B50" s="16" t="s">
@@ -6220,25 +6244,25 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="44"/>
+      <c r="A51" s="46"/>
       <c r="B51" s="16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="44"/>
+      <c r="A52" s="46"/>
       <c r="B52" s="16" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="44"/>
+      <c r="A53" s="46"/>
       <c r="B53" s="16" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="50" t="s">
+      <c r="A54" s="52" t="s">
         <v>175</v>
       </c>
       <c r="B54" s="16" t="s">
@@ -6246,13 +6270,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="50"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="16" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="50"/>
+      <c r="A56" s="52"/>
       <c r="B56" s="16" t="s">
         <v>178</v>
       </c>
@@ -6288,10 +6312,10 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="48" t="s">
+      <c r="A61" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="B61" s="49"/>
+      <c r="B61" s="51"/>
     </row>
     <row r="62" spans="1:2" ht="30">
       <c r="A62" s="23" t="s">
@@ -6433,10 +6457,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
@@ -6482,8 +6506,8 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6501,36 +6525,66 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>401</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="37" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="40" t="s">
         <v>421</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="45" t="s">
+        <v>475</v>
+      </c>
+      <c r="B6" s="45"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="39" t="s">
+        <v>476</v>
+      </c>
+      <c r="B7" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="39" t="s">
+        <v>478</v>
+      </c>
+      <c r="B8" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="39" t="s">
+        <v>477</v>
+      </c>
+      <c r="B9" t="s">
+        <v>481</v>
+      </c>
+    </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="45" t="s">
         <v>423</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="45"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="57" t="s">
         <v>428</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="57"/>
     </row>
     <row r="13" spans="1:2" ht="300">
       <c r="A13" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="39" t="s">
         <v>426</v>
       </c>
     </row>
@@ -6550,52 +6604,52 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="55" t="s">
         <v>425</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="55" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="56"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="53"/>
-      <c r="B19" s="54"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="56"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="53"/>
-      <c r="B20" s="54"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="56"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="53"/>
-      <c r="B21" s="54"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="56"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="53"/>
-      <c r="B22" s="54"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="56"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="53"/>
-      <c r="B23" s="54"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="56"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="53"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="56"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="53"/>
-      <c r="B25" s="54"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="56"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="53"/>
-      <c r="B26" s="54"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="56"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="53"/>
-      <c r="B27" s="54"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="56"/>
     </row>
     <row r="28" spans="1:2" ht="210">
       <c r="A28" s="37" t="s">
@@ -6614,12 +6668,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="B17:B27"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A17:A27"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1:B1" location="Topics!A11" display="Topics"/>
@@ -6678,7 +6733,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="58" t="s">
         <v>272</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -6686,7 +6741,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="56"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="9" t="s">
         <v>274</v>
       </c>
@@ -6732,10 +6787,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="45"/>
     </row>
     <row r="13" spans="1:2" ht="90">
       <c r="A13" t="s">

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="481">
   <si>
     <t>Lucene</t>
   </si>
@@ -3024,131 +3024,6 @@
     <t>camel intro</t>
   </si>
   <si>
-    <t>Definitions</t>
-  </si>
-  <si>
-    <t>&lt;project xmlns="http://maven.apache.org/POM/4.0.0" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"
-  xsi:schemaLocation="http://maven.apache.org/POM/4.0.0 http://maven.apache.org/maven-v4_0_0.xsd"&gt;
-  &lt;modelVersion&gt;4.0.0&lt;/modelVersion&gt;
-  &lt;groupId&gt;camel.hello.world&lt;/groupId&gt;
-  &lt;artifactId&gt;CamelSpringHelloWorld&lt;/artifactId&gt;
-  &lt;packaging&gt;jar&lt;/packaging&gt;
-  &lt;version&gt;1.0&lt;/version&gt;
-  &lt;name&gt;CamelSpringHelloWorld&lt;/name&gt;
-  &lt;url&gt;http://maven.apache.org&lt;/url&gt;
-  &lt;properties&gt;
-   &lt;spring.version&gt;4.2.6.RELEASE&lt;/spring.version&gt;
-    &lt;camel.version&gt;2.17.1&lt;/camel.version&gt;
-  &lt;/properties&gt;
-  &lt;dependencies&gt;
-    &lt;dependency&gt;
-      &lt;groupId&gt;junit&lt;/groupId&gt;
-      &lt;artifactId&gt;junit&lt;/artifactId&gt;
-      &lt;version&gt;3.8.1&lt;/version&gt;
-      &lt;scope&gt;test&lt;/scope&gt;
-    &lt;/dependency&gt;
-    &lt;!-- camel spring dependencies --&gt;
-    &lt;dependency&gt;
-            &lt;groupId&gt;org.apache.camel&lt;/groupId&gt;
-            &lt;artifactId&gt;camel-spring&lt;/artifactId&gt;
-            &lt;version&gt;${camel.version}&lt;/version&gt;
-        &lt;/dependency&gt;
-        &lt;dependency&gt;
-            &lt;groupId&gt;org.springframework&lt;/groupId&gt;
-            &lt;artifactId&gt;spring-context&lt;/artifactId&gt;
-            &lt;version&gt;${spring.version}&lt;/version&gt;
-        &lt;/dependency&gt;
-     &lt;!-- camel spring dependencies --&gt;
-  &lt;/dependencies&gt;
-  &lt;build&gt;
-   &lt;plugins&gt;
-    &lt;plugin&gt;
-     &lt;groupId&gt;org.apache.maven.plugins&lt;/groupId&gt;
-     &lt;artifactId&gt;maven-compiler-plugin&lt;/artifactId&gt;
-     &lt;version&gt;2.3.1&lt;/version&gt;
-     &lt;configuration&gt;
-      &lt;source&gt;1.7&lt;/source&gt;
-            &lt;target&gt;1.7&lt;/target&gt;
-     &lt;/configuration&gt;
-    &lt;/plugin&gt;
-     &lt;plugin&gt;
-                &lt;groupId&gt;org.apache.camel&lt;/groupId&gt;
-                &lt;artifactId&gt;camel-maven-plugin&lt;/artifactId&gt;
-                &lt;version&gt;${camel.version}&lt;/version&gt;
-                &lt;!-- the file must be in the classpath --&gt;
-                &lt;configuration&gt;
-                     &lt;applicationContextUri&gt;application-context.xml&lt;/applicationContextUri&gt;
-                &lt;/configuration&gt;
-            &lt;/plugin&gt;
-   &lt;/plugins&gt;
-  &lt;/build&gt;
-&lt;/project&gt;</t>
-  </si>
-  <si>
-    <t>pom.xml</t>
-  </si>
-  <si>
-    <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;beans xmlns="http://www.springframework.org/schema/beans"
-    xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:camel="http://camel.apache.org/schema/spring"
-    xmlns:util="http://www.springframework.org/schema/util"
-    xsi:schemaLocation="http://www.springframework.org/schema/beans http://www.springframework.org/schema/beans/spring-beans-3.0.xsd    
-     http://camel.apache.org/schema/spring http://camel.apache.org/schema/spring/camel-spring.xsd
-      http://www.springframework.org/schema/util http://www.springframework.org/schema/util/spring-util-3.1.xsd"&gt;
-  &lt;bean id="nwp" class="com.camel.spring.GenerateNWPBean"&gt;&lt;/bean&gt;
-  &lt;bean id="merge" class="com.camel.spring.GenerateMerge"&gt;&lt;/bean&gt;
-    &lt;camelContext xmlns="http://camel.apache.org/schema/spring"&gt;
-        &lt;route&gt;
-            &lt;from uri="file:C:\Study\camel\input?noop=true" /&gt;
-            &lt;bean ref="nwp"/&gt;
-            &lt;bean ref="merge"/&gt;
-            &lt;to uri="file:C:\Study\camel\output" /&gt;
-        &lt;/route&gt;
-    &lt;/camelContext&gt;
-&lt;/beans&gt;</t>
-  </si>
-  <si>
-    <t>application-context.xml</t>
-  </si>
-  <si>
-    <t>Camel + Spring HelloWorld Example</t>
-  </si>
-  <si>
-    <t>package com.camel.spring;
-public class GenerateMerge {
- public String generateMerge(String jsonString) {
-  System.out.println("GenerateMerge:data: " + jsonString);
-  return jsonString;
- }
-}</t>
-  </si>
-  <si>
-    <t>package com.camel.spring;
-public class GenerateNWPBean {
- public String generateNWP(String jsonString) {
-  System.out.println("GenerateNWPBean:data: " + jsonString);
-  return jsonString;
- }
-}</t>
-  </si>
-  <si>
-    <t>package com.camel.spring;
-import org.springframework.context.support.AbstractApplicationContext;
-import org.springframework.context.support.ClassPathXmlApplicationContext;
-public class CamelSpringHelloWorld {
- public static void main(String[] args) throws Exception {
-  CamelSpringHelloWorld object = new CamelSpringHelloWorld();
-  object.test();
- }
- public void test() throws InterruptedException {
-  AbstractApplicationContext context = new ClassPathXmlApplicationContext("application-context.xml");
-  context.start();
-  Thread.sleep(1000 * 60 * 2);
-  context.close();
- }
-}</t>
-  </si>
-  <si>
     <t>Apache Cassandra</t>
   </si>
   <si>
@@ -3281,50 +3156,77 @@
     <t>Single Point Of Failure</t>
   </si>
   <si>
-    <t>Running Camel with Spring and Camel Maven plugin</t>
-  </si>
-  <si>
-    <t>camel maven plugin in pom.xml:
-&lt;build&gt;
-        &lt;plugins&gt;
-            &lt;plugin&gt;
+    <t>To run camel with maven plugin</t>
+  </si>
+  <si>
+    <t>Camel Definitions</t>
+  </si>
+  <si>
+    <t>Camel HelloWorld example</t>
+  </si>
+  <si>
+    <t>Camel + Processor + Bean example</t>
+  </si>
+  <si>
+    <t>Camel + Bean example</t>
+  </si>
+  <si>
+    <t>Refer images\t_apache_camel\1_Camel_HelloWorld.docx</t>
+  </si>
+  <si>
+    <t>Refer images\t_apache_camel\2_Camel_Bean_Example.docx</t>
+  </si>
+  <si>
+    <t>Refer images\t_apache_camel\3_Camel_Processor_Bean_Example.docx</t>
+  </si>
+  <si>
+    <t>Camel + Spring example</t>
+  </si>
+  <si>
+    <t>Camel + Spring + Processor + Bean</t>
+  </si>
+  <si>
+    <t>Refer images\t_apache_camel\4_Camel_Spring_Bean_Example.docx</t>
+  </si>
+  <si>
+    <t>Refer images\t_apache_camel\5_Camel_Spring_Processor_Bean_Example.docx</t>
+  </si>
+  <si>
+    <t>org.apache.camel.builder.RouteBuilder</t>
+  </si>
+  <si>
+    <t>1. Used to write RouteBuilder
+2. This is spring provided class
+3. To write route builder we have to extend this class
+4. Override configure() method</t>
+  </si>
+  <si>
+    <t>org.apache.camel.Processor</t>
+  </si>
+  <si>
+    <t>1. Used to write Processor class
+2. This is spring provided interface
+3. To write processor we have to implement this interface
+4. Override process(org.apache.camel.Exchange) method</t>
+  </si>
+  <si>
+    <t>To run camel from maven</t>
+  </si>
+  <si>
+    <t>Add below plugin in pom.xml:
+&lt;plugin&gt;
                 &lt;groupId&gt;org.apache.camel&lt;/groupId&gt;
                 &lt;artifactId&gt;camel-maven-plugin&lt;/artifactId&gt;
-                &lt;version&gt;${camel.version}&lt;/version&gt;
-                &lt;!-- the file must be in the classpath --&gt;
+                &lt;version&gt;2.17.1&lt;/version&gt;
+                &lt;!-- spring config file name. file must be in the classpath --&gt;
                 &lt;configuration&gt;
-                     &lt;applicationContextUri&gt;application-context.xml&lt;/applicationContextUri&gt;
+                     &lt;applicationContextUri&gt;camel-spring.xml&lt;/applicationContextUri&gt;
                 &lt;/configuration&gt;
-            &lt;/plugin&gt;
-        &lt;/plugins&gt;
-    &lt;/build&gt;</t>
-  </si>
-  <si>
-    <t>mvn clean compile camel:run</t>
-  </si>
-  <si>
-    <t>To run camel with maven plugin</t>
-  </si>
-  <si>
-    <t>Camel Definitions</t>
-  </si>
-  <si>
-    <t>Camel HelloWorld example</t>
-  </si>
-  <si>
-    <t>Camel + Processor + Bean example</t>
-  </si>
-  <si>
-    <t>Camel + Bean example</t>
-  </si>
-  <si>
-    <t>Refer images\t_apache_camel\1_Camel_HelloWorld.docx</t>
-  </si>
-  <si>
-    <t>Refer images\t_apache_camel\2_Camel_Bean_Example.docx</t>
-  </si>
-  <si>
-    <t>Refer images\t_apache_camel\3_Camel_Processor_Bean_Example.docx</t>
+            &lt;/plugin&gt;</t>
+  </si>
+  <si>
+    <t>Run using following command from cmd prompt:
+mvn clean compile camel:run</t>
   </si>
 </sst>
 </file>
@@ -3569,7 +3471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3683,6 +3585,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3727,12 +3632,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4124,7 +4023,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="42" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
@@ -4132,19 +4031,19 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="41"/>
+      <c r="A5" s="42"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="41"/>
+      <c r="A6" s="42"/>
       <c r="B6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>102</v>
       </c>
       <c r="B7" t="s">
@@ -4152,7 +4051,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" t="s">
         <v>104</v>
       </c>
@@ -4171,7 +4070,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="42" t="s">
         <v>36</v>
       </c>
       <c r="B11" t="s">
@@ -4179,19 +4078,19 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="41"/>
+      <c r="A12" s="42"/>
       <c r="B12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="41"/>
+      <c r="A13" s="42"/>
       <c r="B13" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="41"/>
+      <c r="A14" s="42"/>
       <c r="B14" t="s">
         <v>239</v>
       </c>
@@ -4223,7 +4122,7 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="9" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -4277,10 +4176,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="32" t="s">
@@ -4306,10 +4205,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="45"/>
+      <c r="B8" s="46"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="30" t="s">
@@ -4360,7 +4259,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="47" t="s">
         <v>295</v>
       </c>
       <c r="B15" s="30" t="s">
@@ -4368,49 +4267,49 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="240">
-      <c r="A16" s="46"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="30" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="46"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="30" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="46"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="30" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="46"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="30" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="90">
-      <c r="A20" s="46"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="30" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="46"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="30" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="150">
-      <c r="A22" s="46"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="30" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="46"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="30" t="s">
         <v>304</v>
       </c>
@@ -4440,7 +4339,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="180">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="47" t="s">
         <v>311</v>
       </c>
       <c r="B27" s="30" t="s">
@@ -4448,13 +4347,13 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="46"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="30" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="210">
-      <c r="A29" s="46"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="30" t="s">
         <v>313</v>
       </c>
@@ -4468,7 +4367,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="105">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="47" t="s">
         <v>316</v>
       </c>
       <c r="B31" s="30" t="s">
@@ -4476,7 +4375,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="285">
-      <c r="A32" s="46"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="30" t="s">
         <v>318</v>
       </c>
@@ -4530,7 +4429,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="75">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="47" t="s">
         <v>332</v>
       </c>
       <c r="B39" s="30" t="s">
@@ -4538,13 +4437,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="46"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="135">
-      <c r="A41" s="46"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="30" t="s">
         <v>333</v>
       </c>
@@ -4638,7 +4537,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="30" customHeight="1">
-      <c r="A53" s="46" t="s">
+      <c r="A53" s="47" t="s">
         <v>363</v>
       </c>
       <c r="B53" s="30" t="s">
@@ -4646,13 +4545,13 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="120">
-      <c r="A54" s="46"/>
+      <c r="A54" s="47"/>
       <c r="B54" s="30" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="46" t="s">
+      <c r="A55" s="47" t="s">
         <v>359</v>
       </c>
       <c r="B55" s="30" t="s">
@@ -4660,7 +4559,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="46"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="30" t="s">
         <v>362</v>
       </c>
@@ -4706,7 +4605,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="55" t="s">
+      <c r="A62" s="56" t="s">
         <v>374</v>
       </c>
       <c r="B62" s="30" t="s">
@@ -4714,13 +4613,13 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="55"/>
+      <c r="A63" s="56"/>
       <c r="B63" s="30" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="55" t="s">
+      <c r="A64" s="56" t="s">
         <v>377</v>
       </c>
       <c r="B64" s="30" t="s">
@@ -4728,13 +4627,13 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="45">
-      <c r="A65" s="55"/>
+      <c r="A65" s="56"/>
       <c r="B65" s="30" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="55" t="s">
+      <c r="A66" s="56" t="s">
         <v>380</v>
       </c>
       <c r="B66" s="30" t="s">
@@ -4742,24 +4641,24 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="45">
-      <c r="A67" s="55"/>
+      <c r="A67" s="56"/>
       <c r="B67" s="31" t="s">
         <v>382</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A15:A23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="MongoDB!A2" display="Up"/>
@@ -4795,10 +4694,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="46" t="s">
         <v>384</v>
       </c>
-      <c r="B8" s="45"/>
+      <c r="B8" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4844,10 +4743,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="58" t="s">
         <v>386</v>
       </c>
-      <c r="B8" s="60"/>
+      <c r="B8" s="59"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
@@ -4894,10 +4793,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="B2" s="60"/>
+      <c r="B2" s="59"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="33" t="s">
@@ -4924,10 +4823,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="58" t="s">
         <v>400</v>
       </c>
-      <c r="B6" s="60"/>
+      <c r="B6" s="59"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="33" t="s">
@@ -4946,7 +4845,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="75">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="56" t="s">
         <v>412</v>
       </c>
       <c r="B9" s="33" t="s">
@@ -4954,19 +4853,19 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="55"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="33" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="33" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45">
-      <c r="A12" s="55"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="33" t="s">
         <v>408</v>
       </c>
@@ -5027,161 +4926,161 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="59" t="s">
-        <v>433</v>
-      </c>
-      <c r="B7" s="60"/>
+      <c r="A7" s="58" t="s">
+        <v>424</v>
+      </c>
+      <c r="B7" s="59"/>
     </row>
     <row r="8" spans="1:2" ht="45">
       <c r="A8" s="36" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="36" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45">
       <c r="A10" s="36" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" s="36" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45">
       <c r="A12" s="36" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="36" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
       <c r="A14" s="36" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" s="36" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="36" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="36" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75">
       <c r="A18" s="36" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="75">
       <c r="A19" s="36" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
       <c r="A20" s="36" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
       <c r="A21" s="36" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="75">
       <c r="A22" s="36" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
       <c r="A23" s="36" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="36" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="36" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="36" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -5221,10 +5120,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2" ht="120">
       <c r="A3" t="s">
@@ -5344,10 +5243,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -5358,10 +5257,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="45"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
@@ -5372,10 +5271,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>248</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
@@ -5394,7 +5293,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="47" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -5402,13 +5301,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="46"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -5416,7 +5315,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="46"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
@@ -5438,7 +5337,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="47" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -5446,7 +5345,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="46"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
@@ -5468,7 +5367,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="47" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -5476,7 +5375,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="46"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
@@ -5490,10 +5389,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="44"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
@@ -5508,7 +5407,7 @@
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="45" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -5516,7 +5415,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="44"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
@@ -5581,10 +5480,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="B36" s="43"/>
+      <c r="B36" s="44"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="25" t="s">
@@ -5611,10 +5510,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="B46" s="43"/>
+      <c r="B46" s="44"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
@@ -5704,10 +5603,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -5805,22 +5704,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="50"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="48"/>
+      <c r="B16" s="49"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="11" t="s">
@@ -5868,10 +5767,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" s="15" t="s">
@@ -5898,7 +5797,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>111</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -5906,13 +5805,13 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="52"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="52"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="16" t="s">
         <v>191</v>
       </c>
@@ -5926,7 +5825,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="53" t="s">
         <v>115</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -5934,7 +5833,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="52"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="16" t="s">
         <v>193</v>
       </c>
@@ -6052,7 +5951,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="53" t="s">
         <v>139</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -6060,13 +5959,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="52"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="52"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="16" t="s">
         <v>199</v>
       </c>
@@ -6208,10 +6107,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="53" t="s">
+      <c r="A46" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="54"/>
+      <c r="B46" s="55"/>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="17" t="s">
@@ -6222,7 +6121,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="46" t="s">
+      <c r="A48" s="47" t="s">
         <v>167</v>
       </c>
       <c r="B48" s="16" t="s">
@@ -6230,13 +6129,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="90">
-      <c r="A49" s="46"/>
+      <c r="A49" s="47"/>
       <c r="B49" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="46" t="s">
+      <c r="A50" s="47" t="s">
         <v>170</v>
       </c>
       <c r="B50" s="16" t="s">
@@ -6244,25 +6143,25 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="46"/>
+      <c r="A51" s="47"/>
       <c r="B51" s="16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="46"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="16" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="46"/>
+      <c r="A53" s="47"/>
       <c r="B53" s="16" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="52" t="s">
+      <c r="A54" s="53" t="s">
         <v>175</v>
       </c>
       <c r="B54" s="16" t="s">
@@ -6270,13 +6169,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="52"/>
+      <c r="A55" s="53"/>
       <c r="B55" s="16" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="52"/>
+      <c r="A56" s="53"/>
       <c r="B56" s="16" t="s">
         <v>178</v>
       </c>
@@ -6312,10 +6211,10 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="50" t="s">
+      <c r="A61" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="B61" s="51"/>
+      <c r="B61" s="52"/>
     </row>
     <row r="62" spans="1:2" ht="30">
       <c r="A62" s="23" t="s">
@@ -6457,10 +6356,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
@@ -6503,11 +6402,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6525,10 +6424,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>401</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="37" t="s">
@@ -6539,141 +6438,143 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="45" t="s">
-        <v>475</v>
-      </c>
-      <c r="B6" s="45"/>
+      <c r="A6" s="46" t="s">
+        <v>463</v>
+      </c>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="39" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="39" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="B8" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="39" t="s">
+        <v>465</v>
+      </c>
+      <c r="B9" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="B10" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="41" t="s">
+        <v>471</v>
+      </c>
+      <c r="B11" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="60">
+      <c r="A12" s="41" t="s">
+        <v>474</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60">
+      <c r="A13" s="41" t="s">
+        <v>476</v>
+      </c>
+      <c r="B13" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="B9" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="45" t="s">
-        <v>423</v>
-      </c>
-      <c r="B11" s="45"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="57" t="s">
-        <v>428</v>
-      </c>
-      <c r="B12" s="57"/>
-    </row>
-    <row r="13" spans="1:2" ht="300">
-      <c r="A13" s="37" t="s">
-        <v>427</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="285">
-      <c r="B14" s="34" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="135">
-      <c r="B15" s="34" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="135">
-      <c r="B16" s="34" t="s">
-        <v>430</v>
-      </c>
+    </row>
+    <row r="14" spans="1:2" ht="150">
+      <c r="A14" s="53" t="s">
+        <v>478</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="53"/>
+      <c r="B15" s="41" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="34"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="55" t="s">
-        <v>425</v>
-      </c>
-      <c r="B17" s="55" t="s">
-        <v>424</v>
-      </c>
+      <c r="B17" s="34"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="55"/>
-      <c r="B18" s="56"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="55"/>
-      <c r="B19" s="56"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="55"/>
-      <c r="B20" s="56"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="55"/>
-      <c r="B21" s="56"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="55"/>
-      <c r="B22" s="56"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="55"/>
-      <c r="B23" s="56"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="55"/>
-      <c r="B24" s="56"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="55"/>
-      <c r="B25" s="56"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="55"/>
-      <c r="B26" s="56"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="55"/>
-      <c r="B27" s="56"/>
-    </row>
-    <row r="28" spans="1:2" ht="210">
-      <c r="A28" s="37" t="s">
-        <v>471</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>472</v>
-      </c>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="37" t="s">
-        <v>474</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>473</v>
+      <c r="B29" s="37"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="37" t="s">
+        <v>462</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="3">
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="B17:B27"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A17:A27"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <hyperlinks>
@@ -6733,7 +6634,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="57" t="s">
         <v>272</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -6741,7 +6642,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="9" t="s">
         <v>274</v>
       </c>
@@ -6787,10 +6688,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="B12" s="45"/>
+      <c r="B12" s="46"/>
     </row>
     <row r="13" spans="1:2" ht="90">
       <c r="A13" t="s">

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -3631,10 +3631,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4605,7 +4605,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="56" t="s">
+      <c r="A62" s="57" t="s">
         <v>374</v>
       </c>
       <c r="B62" s="30" t="s">
@@ -4613,13 +4613,13 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="56"/>
+      <c r="A63" s="57"/>
       <c r="B63" s="30" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="56" t="s">
+      <c r="A64" s="57" t="s">
         <v>377</v>
       </c>
       <c r="B64" s="30" t="s">
@@ -4627,13 +4627,13 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="45">
-      <c r="A65" s="56"/>
+      <c r="A65" s="57"/>
       <c r="B65" s="30" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="56" t="s">
+      <c r="A66" s="57" t="s">
         <v>380</v>
       </c>
       <c r="B66" s="30" t="s">
@@ -4641,24 +4641,24 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="45">
-      <c r="A67" s="56"/>
+      <c r="A67" s="57"/>
       <c r="B67" s="31" t="s">
         <v>382</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A15:A23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="MongoDB!A2" display="Up"/>
@@ -4845,7 +4845,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="75">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="57" t="s">
         <v>412</v>
       </c>
       <c r="B9" s="33" t="s">
@@ -4853,19 +4853,19 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="56"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="33" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="56"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="33" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45">
-      <c r="A12" s="56"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="33" t="s">
         <v>408</v>
       </c>
@@ -6405,7 +6405,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -6634,7 +6634,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="56" t="s">
         <v>272</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -6642,7 +6642,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="57"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="9" t="s">
         <v>274</v>
       </c>

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="485">
   <si>
     <t>Lucene</t>
   </si>
@@ -3227,6 +3227,18 @@
   <si>
     <t>Run using following command from cmd prompt:
 mvn clean compile camel:run</t>
+  </si>
+  <si>
+    <t>Camel + Object as exchange body</t>
+  </si>
+  <si>
+    <t>Refer images\t_apache_camel\6_Camel_Object_As_Body_Example.docx</t>
+  </si>
+  <si>
+    <t>Camel + exception handling</t>
+  </si>
+  <si>
+    <t>Refer images\t_apache_camel\7_Camel_Exception_Handling_Example.docx</t>
   </si>
 </sst>
 </file>
@@ -3568,9 +3580,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3585,6 +3594,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4648,17 +4660,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A15:A23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="MongoDB!A2" display="Up"/>
@@ -4802,7 +4814,7 @@
       <c r="A3" s="33" t="s">
         <v>403</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>402</v>
       </c>
     </row>
@@ -4810,7 +4822,7 @@
       <c r="A4" t="s">
         <v>404</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>405</v>
       </c>
     </row>
@@ -4818,7 +4830,7 @@
       <c r="A5" s="33" t="s">
         <v>406</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>407</v>
       </c>
     </row>
@@ -4913,8 +4925,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.28515625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="131.7109375" style="36" customWidth="1"/>
+    <col min="1" max="1" width="47.28515625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="131.7109375" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4932,154 +4944,154 @@
       <c r="B7" s="59"/>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="35" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="35" t="s">
         <v>428</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="35" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="35" t="s">
         <v>430</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="35" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="35" t="s">
         <v>431</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="37" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="35" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="35" t="s">
         <v>440</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="35" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="35" t="s">
         <v>442</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="35" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="35" t="s">
         <v>444</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="35" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="75">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="35" t="s">
         <v>446</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="35" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="35" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="35" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="75">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="35" t="s">
         <v>452</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="35" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="35" t="s">
         <v>454</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="35" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="35" t="s">
         <v>456</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="35" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="35" t="s">
         <v>458</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="35" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="35" t="s">
         <v>460</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="35" t="s">
         <v>461</v>
       </c>
     </row>
@@ -6405,13 +6417,13 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" style="36" customWidth="1"/>
     <col min="2" max="2" width="142.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6430,10 +6442,10 @@
       <c r="B2" s="46"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="36" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>421</v>
       </c>
     </row>
@@ -6444,7 +6456,7 @@
       <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>464</v>
       </c>
       <c r="B7" t="s">
@@ -6452,7 +6464,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
         <v>466</v>
       </c>
       <c r="B8" t="s">
@@ -6460,7 +6472,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="38" t="s">
         <v>465</v>
       </c>
       <c r="B9" t="s">
@@ -6468,7 +6480,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="40" t="s">
         <v>470</v>
       </c>
       <c r="B10" t="s">
@@ -6476,7 +6488,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="40" t="s">
         <v>471</v>
       </c>
       <c r="B11" t="s">
@@ -6484,18 +6496,18 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="40" t="s">
         <v>474</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="40" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="40" t="s">
         <v>476</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="40" t="s">
         <v>477</v>
       </c>
     </row>
@@ -6503,71 +6515,81 @@
       <c r="A14" s="53" t="s">
         <v>478</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="40" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" s="53"/>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="40" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="B16" s="34"/>
+      <c r="A16" s="41" t="s">
+        <v>481</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="B17" s="34"/>
+      <c r="A17" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="B29" s="37"/>
+      <c r="B29" s="36"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="36" t="s">
         <v>462</v>
       </c>
     </row>

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="948" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="948" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Mockito" sheetId="12" r:id="rId12"/>
     <sheet name="AmazonWS" sheetId="13" r:id="rId13"/>
     <sheet name="Cassandra" sheetId="14" r:id="rId14"/>
+    <sheet name="File IO" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="jar" localSheetId="2">'JDK Tools utilities'!$A$11</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="502">
   <si>
     <t>Lucene</t>
   </si>
@@ -3239,6 +3240,132 @@
   </si>
   <si>
     <t>Refer images\t_apache_camel\7_Camel_Exception_Handling_Example.docx</t>
+  </si>
+  <si>
+    <t>File IO</t>
+  </si>
+  <si>
+    <t>File Definitions &amp; Sample codes</t>
+  </si>
+  <si>
+    <t>How to create a single directory in Java</t>
+  </si>
+  <si>
+    <t>new File("C:\\Directory1").mkdir();</t>
+  </si>
+  <si>
+    <t>Create a directory named “Directory2 and all its sub-directories “Sub2” and “Sub-Sub2” together</t>
+  </si>
+  <si>
+    <t>new File("C:\\Directory2\\Sub2\\Sub-Sub2").mkdirs()</t>
+  </si>
+  <si>
+    <t>Note on mkdir() and mkdirs()</t>
+  </si>
+  <si>
+    <t>Both method mkdir() and mkdirs() are returning a boolean value to indicate the operation status : true if succeed, false otherwise</t>
+  </si>
+  <si>
+    <t>Path path = Paths.get("C:\\Directory1");
+Files.createDirectories(path);</t>
+  </si>
+  <si>
+    <t>NIO package example</t>
+  </si>
+  <si>
+    <t>If a directory is failing to create, IOException will be thrown, for example:
+java.nio.file.AccessDeniedException: /directory-name
+ at sun.nio.fs.UnixException.translateToIOException(UnixException.java:84)
+ at sun.nio.fs.UnixException.rethrowAsIOException(UnixException.java:102)
+ at sun.nio.fs.UnixException.rethrowAsIOException(UnixException.java:107)
+ at sun.nio.fs.UnixFileSystemProvider.createDirectory(UnixFileSystemProvider.java:384)
+ at java.nio.file.Files.createDirectory(Files.java:674)</t>
+  </si>
+  <si>
+    <t>public class CreateDirectoryExample {
+    public static void main(String[] args) {
+        java.nio.file.Path path = java.nio.file.Paths.get("C:\\Directory2\\Sub2\\Sub-Sub2");
+        //if directory exists?
+        if (!java.nio.file.Files.exists(path)) {
+            try {
+                java.nio.file.Files.createDirectories(path);
+            } catch (java.io.IOException e) {
+                //fail to create directory
+                e.printStackTrace();
+            }
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For JDK 7, try Java NIO package – 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>java.nio.file.Paths</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">java.nio.file.Files </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> java.nio.file.Path</t>
+    </r>
+  </si>
+  <si>
+    <t>How to get line seperator to append to String based on OS</t>
+  </si>
+  <si>
+    <t>System.getProperty("line.separator")</t>
+  </si>
+  <si>
+    <t>How to get directory separator in file paths based on OS</t>
+  </si>
+  <si>
+    <t>java.io.File.separator</t>
   </si>
 </sst>
 </file>
@@ -3483,7 +3610,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3594,6 +3721,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3997,11 +4130,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4035,7 +4168,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="44" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
@@ -4043,19 +4176,19 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="42"/>
+      <c r="A5" s="44"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="42"/>
+      <c r="A6" s="44"/>
       <c r="B6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="44" t="s">
         <v>102</v>
       </c>
       <c r="B7" t="s">
@@ -4063,7 +4196,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="42"/>
+      <c r="A8" s="44"/>
       <c r="B8" t="s">
         <v>104</v>
       </c>
@@ -4082,7 +4215,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="44" t="s">
         <v>36</v>
       </c>
       <c r="B11" t="s">
@@ -4090,19 +4223,19 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="42"/>
+      <c r="A12" s="44"/>
       <c r="B12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="42"/>
+      <c r="A13" s="44"/>
       <c r="B13" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="42"/>
+      <c r="A14" s="44"/>
       <c r="B14" t="s">
         <v>239</v>
       </c>
@@ -4135,6 +4268,11 @@
     <row r="20" spans="1:1">
       <c r="A20" s="9" t="s">
         <v>423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="9" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -4159,6 +4297,7 @@
     <hyperlink ref="A18" location="Mockito!A1" display="Mockito"/>
     <hyperlink ref="A19" location="AmazonWS!A1" display="Amazon web services"/>
     <hyperlink ref="A20" location="Cassandra!A1" display="Apache Cassandra"/>
+    <hyperlink ref="A21" location="'File IO'!A1" display="File IO"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4170,7 +4309,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4188,10 +4327,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="48" t="s">
         <v>387</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="32" t="s">
@@ -4217,10 +4356,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="48"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="30" t="s">
@@ -4271,7 +4410,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="49" t="s">
         <v>295</v>
       </c>
       <c r="B15" s="30" t="s">
@@ -4279,49 +4418,49 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="240">
-      <c r="A16" s="47"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="30" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="47"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="30" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="47"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="30" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="47"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="30" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="90">
-      <c r="A20" s="47"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="30" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="47"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="30" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="150">
-      <c r="A22" s="47"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="30" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="47"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="30" t="s">
         <v>304</v>
       </c>
@@ -4351,7 +4490,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="180">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="49" t="s">
         <v>311</v>
       </c>
       <c r="B27" s="30" t="s">
@@ -4359,13 +4498,13 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="47"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="30" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="210">
-      <c r="A29" s="47"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="30" t="s">
         <v>313</v>
       </c>
@@ -4379,7 +4518,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="105">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="49" t="s">
         <v>316</v>
       </c>
       <c r="B31" s="30" t="s">
@@ -4387,7 +4526,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="285">
-      <c r="A32" s="47"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="30" t="s">
         <v>318</v>
       </c>
@@ -4441,7 +4580,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="75">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="49" t="s">
         <v>332</v>
       </c>
       <c r="B39" s="30" t="s">
@@ -4449,13 +4588,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="47"/>
+      <c r="A40" s="49"/>
       <c r="B40" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="135">
-      <c r="A41" s="47"/>
+      <c r="A41" s="49"/>
       <c r="B41" s="30" t="s">
         <v>333</v>
       </c>
@@ -4549,7 +4688,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="30" customHeight="1">
-      <c r="A53" s="47" t="s">
+      <c r="A53" s="49" t="s">
         <v>363</v>
       </c>
       <c r="B53" s="30" t="s">
@@ -4557,13 +4696,13 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="120">
-      <c r="A54" s="47"/>
+      <c r="A54" s="49"/>
       <c r="B54" s="30" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="47" t="s">
+      <c r="A55" s="49" t="s">
         <v>359</v>
       </c>
       <c r="B55" s="30" t="s">
@@ -4571,7 +4710,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="47"/>
+      <c r="A56" s="49"/>
       <c r="B56" s="30" t="s">
         <v>362</v>
       </c>
@@ -4617,7 +4756,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="57" t="s">
+      <c r="A62" s="59" t="s">
         <v>374</v>
       </c>
       <c r="B62" s="30" t="s">
@@ -4625,13 +4764,13 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="57"/>
+      <c r="A63" s="59"/>
       <c r="B63" s="30" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="57" t="s">
+      <c r="A64" s="59" t="s">
         <v>377</v>
       </c>
       <c r="B64" s="30" t="s">
@@ -4639,13 +4778,13 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="45">
-      <c r="A65" s="57"/>
+      <c r="A65" s="59"/>
       <c r="B65" s="30" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="57" t="s">
+      <c r="A66" s="59" t="s">
         <v>380</v>
       </c>
       <c r="B66" s="30" t="s">
@@ -4653,7 +4792,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="45">
-      <c r="A67" s="57"/>
+      <c r="A67" s="59"/>
       <c r="B67" s="31" t="s">
         <v>382</v>
       </c>
@@ -4706,10 +4845,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="48" t="s">
         <v>384</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4755,10 +4894,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="61"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
@@ -4787,7 +4926,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:B6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4805,10 +4944,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="60" t="s">
         <v>401</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="61"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="33" t="s">
@@ -4835,10 +4974,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="60" t="s">
         <v>400</v>
       </c>
-      <c r="B6" s="59"/>
+      <c r="B6" s="61"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="33" t="s">
@@ -4857,7 +4996,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="75">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="59" t="s">
         <v>412</v>
       </c>
       <c r="B9" s="33" t="s">
@@ -4865,19 +5004,19 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="57"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="33" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="57"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="33" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45">
-      <c r="A12" s="57"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="33" t="s">
         <v>408</v>
       </c>
@@ -4919,8 +5058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4938,10 +5077,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="60" t="s">
         <v>424</v>
       </c>
-      <c r="B7" s="59"/>
+      <c r="B7" s="61"/>
     </row>
     <row r="8" spans="1:2" ht="45">
       <c r="A8" s="35" t="s">
@@ -5102,6 +5241,111 @@
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A20" display="Topics"/>
     <hyperlink ref="B1" location="Cassandra!A2" display="Up"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="58.7109375" style="42" customWidth="1"/>
+    <col min="2" max="2" width="123.42578125" style="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="60" t="s">
+        <v>486</v>
+      </c>
+      <c r="B5" s="61"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="42" t="s">
+        <v>487</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="42" t="s">
+        <v>489</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="42" t="s">
+        <v>497</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="240">
+      <c r="A10" s="49" t="s">
+        <v>494</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="105">
+      <c r="A11" s="49"/>
+      <c r="B11" s="42" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="43" t="s">
+        <v>500</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>501</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:A11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="'File IO'!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A21" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5132,10 +5376,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="3" spans="1:2" ht="120">
       <c r="A3" t="s">
@@ -5255,10 +5499,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -5269,10 +5513,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="47"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
@@ -5283,10 +5527,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
@@ -5305,7 +5549,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="49" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -5313,13 +5557,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="47"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -5327,7 +5571,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="47"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
@@ -5349,7 +5593,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="49" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -5357,7 +5601,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="47"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
@@ -5379,7 +5623,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="49" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -5387,7 +5631,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="47"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
@@ -5401,10 +5645,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="B22" s="44"/>
+      <c r="B22" s="46"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
@@ -5419,7 +5663,7 @@
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="47" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -5427,7 +5671,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="45"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
@@ -5492,10 +5736,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="B36" s="44"/>
+      <c r="B36" s="46"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="25" t="s">
@@ -5522,10 +5766,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="B46" s="44"/>
+      <c r="B46" s="46"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
@@ -5615,10 +5859,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -5716,22 +5960,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="50"/>
+      <c r="B1" s="52"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="49"/>
+      <c r="B16" s="51"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="11" t="s">
@@ -5779,10 +6023,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" s="15" t="s">
@@ -5809,7 +6053,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="55" t="s">
         <v>111</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -5817,13 +6061,13 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="53"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="53"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="16" t="s">
         <v>191</v>
       </c>
@@ -5837,7 +6081,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="55" t="s">
         <v>115</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -5845,7 +6089,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="53"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="16" t="s">
         <v>193</v>
       </c>
@@ -5963,7 +6207,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="55" t="s">
         <v>139</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -5971,13 +6215,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="53"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="53"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="16" t="s">
         <v>199</v>
       </c>
@@ -6119,10 +6363,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="55"/>
+      <c r="B46" s="57"/>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="17" t="s">
@@ -6133,7 +6377,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="47" t="s">
+      <c r="A48" s="49" t="s">
         <v>167</v>
       </c>
       <c r="B48" s="16" t="s">
@@ -6141,13 +6385,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="90">
-      <c r="A49" s="47"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="47" t="s">
+      <c r="A50" s="49" t="s">
         <v>170</v>
       </c>
       <c r="B50" s="16" t="s">
@@ -6155,25 +6399,25 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="47"/>
+      <c r="A51" s="49"/>
       <c r="B51" s="16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="47"/>
+      <c r="A52" s="49"/>
       <c r="B52" s="16" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="47"/>
+      <c r="A53" s="49"/>
       <c r="B53" s="16" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="53" t="s">
+      <c r="A54" s="55" t="s">
         <v>175</v>
       </c>
       <c r="B54" s="16" t="s">
@@ -6181,13 +6425,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="53"/>
+      <c r="A55" s="55"/>
       <c r="B55" s="16" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="53"/>
+      <c r="A56" s="55"/>
       <c r="B56" s="16" t="s">
         <v>178</v>
       </c>
@@ -6223,10 +6467,10 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="51" t="s">
+      <c r="A61" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="B61" s="52"/>
+      <c r="B61" s="54"/>
     </row>
     <row r="62" spans="1:2" ht="30">
       <c r="A62" s="23" t="s">
@@ -6368,10 +6612,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
@@ -6416,9 +6660,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6436,10 +6680,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="48" t="s">
         <v>401</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="36" t="s">
@@ -6450,10 +6694,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>463</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="38" t="s">
@@ -6512,7 +6756,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="150">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="55" t="s">
         <v>478</v>
       </c>
       <c r="B14" s="40" t="s">
@@ -6520,7 +6764,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="53"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="40" t="s">
         <v>480</v>
       </c>
@@ -6656,7 +6900,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="58" t="s">
         <v>272</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -6664,7 +6908,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="56"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="9" t="s">
         <v>274</v>
       </c>
@@ -6710,10 +6954,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="B12" s="46"/>
+      <c r="B12" s="48"/>
     </row>
     <row r="13" spans="1:2" ht="90">
       <c r="A13" t="s">

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="948" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="948" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="504">
   <si>
     <t>Lucene</t>
   </si>
@@ -3366,6 +3366,12 @@
   </si>
   <si>
     <t>java.io.File.separator</t>
+  </si>
+  <si>
+    <t>Amazon aws console</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/console/</t>
   </si>
 </sst>
 </file>
@@ -3610,7 +3616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3721,6 +3727,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4134,7 +4143,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4168,7 +4177,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
@@ -4176,19 +4185,19 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="44"/>
+      <c r="A5" s="45"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="44"/>
+      <c r="A6" s="45"/>
       <c r="B6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>102</v>
       </c>
       <c r="B7" t="s">
@@ -4196,7 +4205,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="44"/>
+      <c r="A8" s="45"/>
       <c r="B8" t="s">
         <v>104</v>
       </c>
@@ -4215,7 +4224,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="45" t="s">
         <v>36</v>
       </c>
       <c r="B11" t="s">
@@ -4223,19 +4232,19 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="44"/>
+      <c r="A12" s="45"/>
       <c r="B12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="44"/>
+      <c r="A13" s="45"/>
       <c r="B13" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="44"/>
+      <c r="A14" s="45"/>
       <c r="B14" t="s">
         <v>239</v>
       </c>
@@ -4327,10 +4336,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>387</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="32" t="s">
@@ -4356,10 +4365,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="48"/>
+      <c r="B8" s="49"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="30" t="s">
@@ -4410,7 +4419,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="50" t="s">
         <v>295</v>
       </c>
       <c r="B15" s="30" t="s">
@@ -4418,49 +4427,49 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="240">
-      <c r="A16" s="49"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="30" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="49"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="30" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="49"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="30" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="49"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="30" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="90">
-      <c r="A20" s="49"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="30" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="49"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="30" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="150">
-      <c r="A22" s="49"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="30" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="49"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="30" t="s">
         <v>304</v>
       </c>
@@ -4490,7 +4499,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="180">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="50" t="s">
         <v>311</v>
       </c>
       <c r="B27" s="30" t="s">
@@ -4498,13 +4507,13 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="49"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="30" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="210">
-      <c r="A29" s="49"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="30" t="s">
         <v>313</v>
       </c>
@@ -4518,7 +4527,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="105">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="50" t="s">
         <v>316</v>
       </c>
       <c r="B31" s="30" t="s">
@@ -4526,7 +4535,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="285">
-      <c r="A32" s="49"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="30" t="s">
         <v>318</v>
       </c>
@@ -4580,7 +4589,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="75">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="50" t="s">
         <v>332</v>
       </c>
       <c r="B39" s="30" t="s">
@@ -4588,13 +4597,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="49"/>
+      <c r="A40" s="50"/>
       <c r="B40" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="135">
-      <c r="A41" s="49"/>
+      <c r="A41" s="50"/>
       <c r="B41" s="30" t="s">
         <v>333</v>
       </c>
@@ -4688,7 +4697,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="30" customHeight="1">
-      <c r="A53" s="49" t="s">
+      <c r="A53" s="50" t="s">
         <v>363</v>
       </c>
       <c r="B53" s="30" t="s">
@@ -4696,13 +4705,13 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="120">
-      <c r="A54" s="49"/>
+      <c r="A54" s="50"/>
       <c r="B54" s="30" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="49" t="s">
+      <c r="A55" s="50" t="s">
         <v>359</v>
       </c>
       <c r="B55" s="30" t="s">
@@ -4710,7 +4719,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="49"/>
+      <c r="A56" s="50"/>
       <c r="B56" s="30" t="s">
         <v>362</v>
       </c>
@@ -4756,7 +4765,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="59" t="s">
+      <c r="A62" s="60" t="s">
         <v>374</v>
       </c>
       <c r="B62" s="30" t="s">
@@ -4764,13 +4773,13 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="59"/>
+      <c r="A63" s="60"/>
       <c r="B63" s="30" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="59" t="s">
+      <c r="A64" s="60" t="s">
         <v>377</v>
       </c>
       <c r="B64" s="30" t="s">
@@ -4778,13 +4787,13 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="45">
-      <c r="A65" s="59"/>
+      <c r="A65" s="60"/>
       <c r="B65" s="30" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="59" t="s">
+      <c r="A66" s="60" t="s">
         <v>380</v>
       </c>
       <c r="B66" s="30" t="s">
@@ -4792,24 +4801,24 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="45">
-      <c r="A67" s="59"/>
+      <c r="A67" s="60"/>
       <c r="B67" s="31" t="s">
         <v>382</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A15:A23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="MongoDB!A2" display="Up"/>
@@ -4845,10 +4854,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="49" t="s">
         <v>384</v>
       </c>
-      <c r="B8" s="48"/>
+      <c r="B8" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4894,10 +4903,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="61" t="s">
         <v>386</v>
       </c>
-      <c r="B8" s="61"/>
+      <c r="B8" s="62"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
@@ -4922,11 +4931,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4944,10 +4953,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>401</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="62"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="33" t="s">
@@ -4974,74 +4983,82 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="44" t="s">
+        <v>502</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="61" t="s">
         <v>400</v>
       </c>
-      <c r="B6" s="61"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="33" t="s">
+      <c r="B7" s="62"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="33" t="s">
         <v>416</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B8" s="33" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="33" t="s">
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="33" t="s">
         <v>414</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B9" s="33" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="75">
-      <c r="A9" s="59" t="s">
+    <row r="10" spans="1:2" ht="75">
+      <c r="A10" s="60" t="s">
         <v>412</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B10" s="33" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="59"/>
-      <c r="B10" s="33" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="60"/>
+      <c r="B11" s="33" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="59"/>
-      <c r="B11" s="33" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="60"/>
+      <c r="B12" s="33" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="45">
-      <c r="A12" s="59"/>
-      <c r="B12" s="33" t="s">
+    <row r="13" spans="1:2" ht="45">
+      <c r="A13" s="60"/>
+      <c r="B13" s="33" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="33" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="33" t="s">
         <v>418</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B14" s="33" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="33" t="s">
+    <row r="15" spans="1:2" ht="45">
+      <c r="A15" s="33" t="s">
         <v>420</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B15" s="33" t="s">
         <v>419</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A19" display="Topics"/>
@@ -5049,6 +5066,7 @@
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5077,10 +5095,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="61" t="s">
         <v>424</v>
       </c>
-      <c r="B7" s="61"/>
+      <c r="B7" s="62"/>
     </row>
     <row r="8" spans="1:2" ht="45">
       <c r="A8" s="35" t="s">
@@ -5251,9 +5269,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5271,10 +5289,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>486</v>
       </c>
-      <c r="B5" s="61"/>
+      <c r="B5" s="62"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="42" t="s">
@@ -5309,7 +5327,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="240">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="50" t="s">
         <v>494</v>
       </c>
       <c r="B10" s="42" t="s">
@@ -5317,7 +5335,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="105">
-      <c r="A11" s="49"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="42" t="s">
         <v>495</v>
       </c>
@@ -5376,10 +5394,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2" ht="120">
       <c r="A3" t="s">
@@ -5499,10 +5517,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -5513,10 +5531,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="47"/>
+      <c r="B4" s="48"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
@@ -5527,10 +5545,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="49" t="s">
         <v>248</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="49"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
@@ -5549,7 +5567,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="50" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -5557,13 +5575,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="49"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="50" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -5571,7 +5589,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="49"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
@@ -5593,7 +5611,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="50" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -5601,7 +5619,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="49"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
@@ -5623,7 +5641,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="50" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -5631,7 +5649,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="49"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
@@ -5645,10 +5663,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="B22" s="46"/>
+      <c r="B22" s="47"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
@@ -5663,7 +5681,7 @@
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -5671,7 +5689,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="47"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
@@ -5736,10 +5754,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="B36" s="46"/>
+      <c r="B36" s="47"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="25" t="s">
@@ -5766,10 +5784,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="B46" s="46"/>
+      <c r="B46" s="47"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
@@ -5859,10 +5877,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -5960,22 +5978,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="53"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="52"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="52"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="11" t="s">
@@ -6023,10 +6041,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" s="15" t="s">
@@ -6053,7 +6071,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="56" t="s">
         <v>111</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -6061,13 +6079,13 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="55"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="55"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="16" t="s">
         <v>191</v>
       </c>
@@ -6081,7 +6099,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="56" t="s">
         <v>115</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -6089,7 +6107,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="16" t="s">
         <v>193</v>
       </c>
@@ -6207,7 +6225,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="56" t="s">
         <v>139</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -6215,13 +6233,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="55"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="55"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="16" t="s">
         <v>199</v>
       </c>
@@ -6363,10 +6381,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="56" t="s">
+      <c r="A46" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="57"/>
+      <c r="B46" s="58"/>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="17" t="s">
@@ -6377,7 +6395,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="50" t="s">
         <v>167</v>
       </c>
       <c r="B48" s="16" t="s">
@@ -6385,13 +6403,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="90">
-      <c r="A49" s="49"/>
+      <c r="A49" s="50"/>
       <c r="B49" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="49" t="s">
+      <c r="A50" s="50" t="s">
         <v>170</v>
       </c>
       <c r="B50" s="16" t="s">
@@ -6399,25 +6417,25 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="49"/>
+      <c r="A51" s="50"/>
       <c r="B51" s="16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="49"/>
+      <c r="A52" s="50"/>
       <c r="B52" s="16" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="49"/>
+      <c r="A53" s="50"/>
       <c r="B53" s="16" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="55" t="s">
+      <c r="A54" s="56" t="s">
         <v>175</v>
       </c>
       <c r="B54" s="16" t="s">
@@ -6425,13 +6443,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="55"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="16" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="55"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="16" t="s">
         <v>178</v>
       </c>
@@ -6467,10 +6485,10 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="53" t="s">
+      <c r="A61" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="B61" s="54"/>
+      <c r="B61" s="55"/>
     </row>
     <row r="62" spans="1:2" ht="30">
       <c r="A62" s="23" t="s">
@@ -6612,10 +6630,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="49"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
@@ -6680,10 +6698,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>401</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="36" t="s">
@@ -6694,10 +6712,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="49" t="s">
         <v>463</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="49"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="38" t="s">
@@ -6756,7 +6774,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="150">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="56" t="s">
         <v>478</v>
       </c>
       <c r="B14" s="40" t="s">
@@ -6764,7 +6782,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="55"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="40" t="s">
         <v>480</v>
       </c>
@@ -6900,7 +6918,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="59" t="s">
         <v>272</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -6908,7 +6926,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="9" t="s">
         <v>274</v>
       </c>
@@ -6954,10 +6972,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="B12" s="48"/>
+      <c r="B12" s="49"/>
     </row>
     <row r="13" spans="1:2" ht="90">
       <c r="A13" t="s">

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -4808,17 +4808,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A15:A23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="MongoDB!A2" display="Up"/>

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="948" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="948" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="509">
   <si>
     <t>Lucene</t>
   </si>
@@ -3157,9 +3157,6 @@
     <t>Single Point Of Failure</t>
   </si>
   <si>
-    <t>To run camel with maven plugin</t>
-  </si>
-  <si>
     <t>Camel Definitions</t>
   </si>
   <si>
@@ -3372,6 +3369,51 @@
   </si>
   <si>
     <t>https://aws.amazon.com/console/</t>
+  </si>
+  <si>
+    <t>How to send message to camel from end point</t>
+  </si>
+  <si>
+    <t>Sample route created: from("direct:bean1").bean(new ExceptionThrowingBean()).end();
+CamelContext context = new DefaultCamelContext();
+  context.addRoutes(new ExceptionRouteBuilder());
+  context.start();
+  Message defaultMessage = new DefaultMessage();
+  Exchange exchange = new DefaultExchange(context);
+  exchange.setIn(defaultMessage);
+  ProducerTemplate template = context.createProducerTemplate();
+  template.send("direct:bean1", exchange);</t>
+  </si>
+  <si>
+    <t>Some important classes/interfaces</t>
+  </si>
+  <si>
+    <t>import org.apache.camel.CamelContext;
+import org.apache.camel.Exchange;
+import org.apache.camel.Message;
+import org.apache.camel.ProducerTemplate;
+import org.apache.camel.impl.DefaultCamelContext;
+import org.apache.camel.impl.DefaultExchange;
+import org.apache.camel.impl.DefaultMessage;</t>
+  </si>
+  <si>
+    <t>Send object as body in message</t>
+  </si>
+  <si>
+    <t>// create an Employee object
+  Employee employee = new Employee("john", "architect", "US");
+// create camel context, add route(s) to it and start camel context
+  CamelContext context = new DefaultCamelContext();
+  context.addRoutes(new ObjectAsBodyRouteBuilder());
+  context.start();
+// create camel message and add employee object as body to message
+  Message defaultMessage = new DefaultMessage();
+  defaultMessage.setBody(employee);
+// create Exchange and add camel message to it
+  Exchange exchange = new DefaultExchange(context);
+  exchange.setIn(defaultMessage);
+  ProducerTemplate template = context.createProducerTemplate();
+  template.send("direct:start", exchange);</t>
   </si>
 </sst>
 </file>
@@ -3616,7 +3658,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3727,6 +3769,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4143,7 +4188,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4177,7 +4222,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="46" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
@@ -4185,19 +4230,19 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="45"/>
+      <c r="A6" s="46"/>
       <c r="B6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
         <v>102</v>
       </c>
       <c r="B7" t="s">
@@ -4205,7 +4250,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
       <c r="B8" t="s">
         <v>104</v>
       </c>
@@ -4224,7 +4269,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="46" t="s">
         <v>36</v>
       </c>
       <c r="B11" t="s">
@@ -4232,19 +4277,19 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="45"/>
+      <c r="A12" s="46"/>
       <c r="B12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="45"/>
+      <c r="A13" s="46"/>
       <c r="B13" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="45"/>
+      <c r="A14" s="46"/>
       <c r="B14" t="s">
         <v>239</v>
       </c>
@@ -4281,7 +4326,7 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -4336,10 +4381,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="32" t="s">
@@ -4365,10 +4410,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="50" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="50"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="30" t="s">
@@ -4419,7 +4464,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="51" t="s">
         <v>295</v>
       </c>
       <c r="B15" s="30" t="s">
@@ -4427,49 +4472,49 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="240">
-      <c r="A16" s="50"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="30" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="50"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="30" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="50"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="30" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="50"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="30" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="90">
-      <c r="A20" s="50"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="30" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="50"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="30" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="150">
-      <c r="A22" s="50"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="30" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="50"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="30" t="s">
         <v>304</v>
       </c>
@@ -4499,7 +4544,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="180">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="51" t="s">
         <v>311</v>
       </c>
       <c r="B27" s="30" t="s">
@@ -4507,13 +4552,13 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="50"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="30" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="210">
-      <c r="A29" s="50"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="30" t="s">
         <v>313</v>
       </c>
@@ -4527,7 +4572,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="105">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="51" t="s">
         <v>316</v>
       </c>
       <c r="B31" s="30" t="s">
@@ -4535,7 +4580,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="285">
-      <c r="A32" s="50"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="30" t="s">
         <v>318</v>
       </c>
@@ -4589,7 +4634,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="75">
-      <c r="A39" s="50" t="s">
+      <c r="A39" s="51" t="s">
         <v>332</v>
       </c>
       <c r="B39" s="30" t="s">
@@ -4597,13 +4642,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="50"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="135">
-      <c r="A41" s="50"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="30" t="s">
         <v>333</v>
       </c>
@@ -4697,7 +4742,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="30" customHeight="1">
-      <c r="A53" s="50" t="s">
+      <c r="A53" s="51" t="s">
         <v>363</v>
       </c>
       <c r="B53" s="30" t="s">
@@ -4705,13 +4750,13 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="120">
-      <c r="A54" s="50"/>
+      <c r="A54" s="51"/>
       <c r="B54" s="30" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="50" t="s">
+      <c r="A55" s="51" t="s">
         <v>359</v>
       </c>
       <c r="B55" s="30" t="s">
@@ -4719,7 +4764,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="50"/>
+      <c r="A56" s="51"/>
       <c r="B56" s="30" t="s">
         <v>362</v>
       </c>
@@ -4765,7 +4810,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="60" t="s">
+      <c r="A62" s="61" t="s">
         <v>374</v>
       </c>
       <c r="B62" s="30" t="s">
@@ -4773,13 +4818,13 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="60"/>
+      <c r="A63" s="61"/>
       <c r="B63" s="30" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="60" t="s">
+      <c r="A64" s="61" t="s">
         <v>377</v>
       </c>
       <c r="B64" s="30" t="s">
@@ -4787,13 +4832,13 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="45">
-      <c r="A65" s="60"/>
+      <c r="A65" s="61"/>
       <c r="B65" s="30" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="60" t="s">
+      <c r="A66" s="61" t="s">
         <v>380</v>
       </c>
       <c r="B66" s="30" t="s">
@@ -4801,7 +4846,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="45">
-      <c r="A67" s="60"/>
+      <c r="A67" s="61"/>
       <c r="B67" s="31" t="s">
         <v>382</v>
       </c>
@@ -4854,10 +4899,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="50" t="s">
         <v>384</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4903,10 +4948,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>386</v>
       </c>
-      <c r="B8" s="62"/>
+      <c r="B8" s="63"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
@@ -4933,9 +4978,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:B7"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4953,10 +4998,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>401</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="63"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="33" t="s">
@@ -4984,17 +5029,17 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>503</v>
-      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="62"/>
+      <c r="B7" s="63"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="33" t="s">
@@ -5013,7 +5058,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="61" t="s">
         <v>412</v>
       </c>
       <c r="B10" s="33" t="s">
@@ -5021,19 +5066,19 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="60"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="33" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="60"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="33" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="60"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="33" t="s">
         <v>408</v>
       </c>
@@ -5095,10 +5140,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>424</v>
       </c>
-      <c r="B7" s="62"/>
+      <c r="B7" s="63"/>
     </row>
     <row r="8" spans="1:2" ht="45">
       <c r="A8" s="35" t="s">
@@ -5289,71 +5334,71 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="61" t="s">
-        <v>486</v>
-      </c>
-      <c r="B5" s="62"/>
+      <c r="A5" s="62" t="s">
+        <v>485</v>
+      </c>
+      <c r="B5" s="63"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="42" t="s">
+        <v>486</v>
+      </c>
+      <c r="B6" s="42" t="s">
         <v>487</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="B7" s="42" t="s">
         <v>489</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="42" t="s">
+        <v>490</v>
+      </c>
+      <c r="B8" s="42" t="s">
         <v>491</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="42" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B9" s="42" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="240">
+      <c r="A10" s="51" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="240">
-      <c r="A10" s="50" t="s">
+      <c r="B10" s="42" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="105">
+      <c r="A11" s="51"/>
+      <c r="B11" s="42" t="s">
         <v>494</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="105">
-      <c r="A11" s="50"/>
-      <c r="B11" s="42" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="43" t="s">
+        <v>497</v>
+      </c>
+      <c r="B12" s="43" t="s">
         <v>498</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="43" t="s">
+        <v>499</v>
+      </c>
+      <c r="B13" s="43" t="s">
         <v>500</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -5394,10 +5439,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:2" ht="120">
       <c r="A3" t="s">
@@ -5517,10 +5562,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -5531,10 +5576,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="49"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
@@ -5545,10 +5590,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="50"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
@@ -5567,7 +5612,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="51" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -5575,13 +5620,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="50"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="51" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -5589,7 +5634,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="50"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
@@ -5611,7 +5656,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="51" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -5619,7 +5664,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="50"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
@@ -5641,7 +5686,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="51" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -5649,7 +5694,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="50"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
@@ -5663,10 +5708,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="B22" s="47"/>
+      <c r="B22" s="48"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
@@ -5681,7 +5726,7 @@
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="49" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -5689,7 +5734,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="48"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
@@ -5754,10 +5799,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="B36" s="47"/>
+      <c r="B36" s="48"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="25" t="s">
@@ -5784,10 +5829,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="B46" s="47"/>
+      <c r="B46" s="48"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
@@ -5877,10 +5922,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -5978,22 +6023,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="52"/>
+      <c r="B16" s="53"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="11" t="s">
@@ -6041,10 +6086,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" s="15" t="s">
@@ -6071,7 +6116,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>111</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -6079,13 +6124,13 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="56"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="56"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="16" t="s">
         <v>191</v>
       </c>
@@ -6099,7 +6144,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="57" t="s">
         <v>115</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -6107,7 +6152,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="56"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="16" t="s">
         <v>193</v>
       </c>
@@ -6225,7 +6270,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="57" t="s">
         <v>139</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -6233,13 +6278,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="56"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="56"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="16" t="s">
         <v>199</v>
       </c>
@@ -6381,10 +6426,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="57" t="s">
+      <c r="A46" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="58"/>
+      <c r="B46" s="59"/>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="17" t="s">
@@ -6395,7 +6440,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="50" t="s">
+      <c r="A48" s="51" t="s">
         <v>167</v>
       </c>
       <c r="B48" s="16" t="s">
@@ -6403,13 +6448,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="90">
-      <c r="A49" s="50"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="50" t="s">
+      <c r="A50" s="51" t="s">
         <v>170</v>
       </c>
       <c r="B50" s="16" t="s">
@@ -6417,25 +6462,25 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="50"/>
+      <c r="A51" s="51"/>
       <c r="B51" s="16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="50"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="16" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="50"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="16" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="56" t="s">
+      <c r="A54" s="57" t="s">
         <v>175</v>
       </c>
       <c r="B54" s="16" t="s">
@@ -6443,13 +6488,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="56"/>
+      <c r="A55" s="57"/>
       <c r="B55" s="16" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="56"/>
+      <c r="A56" s="57"/>
       <c r="B56" s="16" t="s">
         <v>178</v>
       </c>
@@ -6485,10 +6530,10 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="54" t="s">
+      <c r="A61" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="B61" s="55"/>
+      <c r="B61" s="56"/>
     </row>
     <row r="62" spans="1:2" ht="30">
       <c r="A62" s="23" t="s">
@@ -6630,10 +6675,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="50"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
@@ -6678,9 +6723,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6698,10 +6743,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>401</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="36" t="s">
@@ -6712,108 +6757,120 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="49" t="s">
-        <v>463</v>
-      </c>
-      <c r="B6" s="49"/>
+      <c r="A6" s="50" t="s">
+        <v>462</v>
+      </c>
+      <c r="B6" s="50"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="38" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="40" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="40" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
       <c r="A12" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="B12" s="40" t="s">
         <v>474</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60">
       <c r="A13" s="40" t="s">
+        <v>475</v>
+      </c>
+      <c r="B13" s="40" t="s">
         <v>476</v>
       </c>
-      <c r="B13" s="40" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="150">
+      <c r="A14" s="57" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="150">
-      <c r="A14" s="56" t="s">
+      <c r="B14" s="40" t="s">
         <v>478</v>
       </c>
-      <c r="B14" s="40" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="57"/>
+      <c r="B15" s="40" t="s">
         <v>479</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="56"/>
-      <c r="B15" s="40" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="41" t="s">
+        <v>480</v>
+      </c>
+      <c r="B16" s="41" t="s">
         <v>481</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="41" t="s">
+        <v>482</v>
+      </c>
+      <c r="B17" s="41" t="s">
         <v>483</v>
       </c>
-      <c r="B17" s="41" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
+    </row>
+    <row r="18" spans="1:2" ht="105">
+      <c r="A18" s="45" t="s">
+        <v>505</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="165">
+      <c r="A19" s="45" t="s">
+        <v>503</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="225">
+      <c r="A20" s="45" t="s">
+        <v>507</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="40"/>
@@ -6848,12 +6905,11 @@
       <c r="B28" s="40"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="B29" s="36"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="36" t="s">
-        <v>462</v>
-      </c>
+      <c r="B30" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6918,7 +6974,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>272</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -6926,7 +6982,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="59"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="9" t="s">
         <v>274</v>
       </c>
@@ -6972,10 +7028,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="B12" s="49"/>
+      <c r="B12" s="50"/>
     </row>
     <row r="13" spans="1:2" ht="90">
       <c r="A13" t="s">

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="948" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="948" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="AmazonWS" sheetId="13" r:id="rId13"/>
     <sheet name="Cassandra" sheetId="14" r:id="rId14"/>
     <sheet name="File IO" sheetId="15" r:id="rId15"/>
+    <sheet name="Class Loading" sheetId="16" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="jar" localSheetId="2">'JDK Tools utilities'!$A$11</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="546">
   <si>
     <t>Lucene</t>
   </si>
@@ -3414,6 +3415,234 @@
   exchange.setIn(defaultMessage);
   ProducerTemplate template = context.createProducerTemplate();
   template.send("direct:start", exchange);</t>
+  </si>
+  <si>
+    <t>IAM</t>
+  </si>
+  <si>
+    <t>Identity Access Management</t>
+  </si>
+  <si>
+    <t>ARN</t>
+  </si>
+  <si>
+    <t>Amazon Resource Name</t>
+  </si>
+  <si>
+    <t>amazon command line access</t>
+  </si>
+  <si>
+    <t>1. have to download amazon cli (command line interface)
+2. for cli - google - amazon cli download</t>
+  </si>
+  <si>
+    <t>Class Loading</t>
+  </si>
+  <si>
+    <t>Class loader sub system follows which algorithm</t>
+  </si>
+  <si>
+    <t>Delegation Hierarchy algorithm</t>
+  </si>
+  <si>
+    <t>How class loading works - don’t go ahead without refering this</t>
+  </si>
+  <si>
+    <t>refer 1_Class_loading_delegation_hierarchy.jpg, 2_class_loading_delegation_hierarchy.jpg files in images/j_class_loading</t>
+  </si>
+  <si>
+    <t>Each class loader creates its own name space. classes loaded by that class loader will present in the respective name space.</t>
+  </si>
+  <si>
+    <t>Java class loader throws ClassNotFoundException if class loader cannot load the class or fails to get java class</t>
+  </si>
+  <si>
+    <t>Java class loaders are hierarchical in nature</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Boot strap class loader (will print null if we print in console)
+2. Extension class loader (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object of extension class loader:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sun.misc.Launcher$ExtClassLoader@4e25154f)
+3. System class loader (or) Application class loader (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object of application class loader:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sun.misc.Launcher$AppClassLoader@73d16e93)</t>
+    </r>
+  </si>
+  <si>
+    <t>Bootstrap class loader</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Also known as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Primordial class loader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. This class loader is embedded into Java virtual machine (JVM) which loads class from JDK lib (jdk/jre/lib) directory. Loads jars such as rt.jar, I18.jar etc. These jars contains java core classes which are present in java.* package</t>
+    </r>
+  </si>
+  <si>
+    <t>Extensions Class loader</t>
+  </si>
+  <si>
+    <t>Loads classes from jdk extension directory jdk/jre/lib/ext. These classes are extensions of standard core java classes</t>
+  </si>
+  <si>
+    <t>System class loader (or) Application class loader</t>
+  </si>
+  <si>
+    <t>Loads classes from system class path(java class path). This classpath has been set by CLASSPATH environment variable</t>
+  </si>
+  <si>
+    <t>ClassLoader class</t>
+  </si>
+  <si>
+    <t>Present in java.lang package</t>
+  </si>
+  <si>
+    <t>main method of ClassLoader class is</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public Class loadClass(String className);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>className:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Fully qualified name</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">protected Class defineClass(byte[] b); </t>
+  </si>
+  <si>
+    <t>Another method is ClassLoader class - used to provide class to JVM from byte code. 
+Argument to this method is byte code (loaded from disk or network etc). Loads byte code to jvm and initializes it</t>
+  </si>
+  <si>
+    <t>When class will be loaded</t>
+  </si>
+  <si>
+    <t>Either class referenced by Constructor (or) static fields (or) static methods</t>
+  </si>
+  <si>
+    <t>Note on class loader - Important read it</t>
+  </si>
+  <si>
+    <t>In class loaders, parent class loader will consulted first to avoid same class loading several times but in Java EE this is reversed that is local classes are searched first</t>
+  </si>
+  <si>
+    <t>In Java EE each WAR module of an EAR gets its own class loader. This allows separate namespaces for application in same container</t>
+  </si>
+  <si>
+    <t>In general parent class loader will be asked to load the class first but where as in the case of WAR - class loader of specific WAR will try to load the class with in the same WAR, if class not found in the WAR then it will be delegated to EAR class loader and EAR deligates to Container class loader and container deligates to Bootstrap class loader. Only difference is WAR will check and deligate where as EAR first deligates and checks</t>
+  </si>
+  <si>
+    <t>Some classloaders</t>
+  </si>
+  <si>
+    <t>sun.misc.Launcher$ExtClassLoader
+sun.misc.Launcher$AppClassLoader
+sun.applet.AppletClassLoader
+java.rmi.server.RMIClassLoader
+java.security.SecurityClassLoader
+java.net.URLClassLoader</t>
+  </si>
+  <si>
+    <t>Refer JavaPrep/ClassLoading for more material</t>
+  </si>
+  <si>
+    <t>Class Loading Definitions</t>
   </si>
 </sst>
 </file>
@@ -3658,7 +3887,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3786,6 +4015,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4184,11 +4422,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4222,7 +4460,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="49" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
@@ -4230,19 +4468,19 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="46"/>
+      <c r="A5" s="49"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="46"/>
+      <c r="A6" s="49"/>
       <c r="B6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="49" t="s">
         <v>102</v>
       </c>
       <c r="B7" t="s">
@@ -4250,7 +4488,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="46"/>
+      <c r="A8" s="49"/>
       <c r="B8" t="s">
         <v>104</v>
       </c>
@@ -4269,7 +4507,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="49" t="s">
         <v>36</v>
       </c>
       <c r="B11" t="s">
@@ -4277,19 +4515,19 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="46"/>
+      <c r="A12" s="49"/>
       <c r="B12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="46"/>
+      <c r="A13" s="49"/>
       <c r="B13" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="46"/>
+      <c r="A14" s="49"/>
       <c r="B14" t="s">
         <v>239</v>
       </c>
@@ -4327,6 +4565,11 @@
     <row r="21" spans="1:1">
       <c r="A21" s="9" t="s">
         <v>484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="9" t="s">
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -4352,6 +4595,7 @@
     <hyperlink ref="A19" location="AmazonWS!A1" display="Amazon web services"/>
     <hyperlink ref="A20" location="Cassandra!A1" display="Apache Cassandra"/>
     <hyperlink ref="A21" location="'File IO'!A1" display="File IO"/>
+    <hyperlink ref="A22" location="'Class Loading'!A1" display="Class Loading"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4381,10 +4625,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="53" t="s">
         <v>387</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="32" t="s">
@@ -4410,10 +4654,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="53" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="53"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="30" t="s">
@@ -4464,7 +4708,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="54" t="s">
         <v>295</v>
       </c>
       <c r="B15" s="30" t="s">
@@ -4472,49 +4716,49 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="240">
-      <c r="A16" s="51"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="30" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="51"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="30" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="51"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="30" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="51"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="30" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="90">
-      <c r="A20" s="51"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="30" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="51"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="30" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="150">
-      <c r="A22" s="51"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="30" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="51"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="30" t="s">
         <v>304</v>
       </c>
@@ -4544,7 +4788,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="180">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="54" t="s">
         <v>311</v>
       </c>
       <c r="B27" s="30" t="s">
@@ -4552,13 +4796,13 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="51"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="30" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="210">
-      <c r="A29" s="51"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="30" t="s">
         <v>313</v>
       </c>
@@ -4572,7 +4816,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="105">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="54" t="s">
         <v>316</v>
       </c>
       <c r="B31" s="30" t="s">
@@ -4580,7 +4824,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="285">
-      <c r="A32" s="51"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="30" t="s">
         <v>318</v>
       </c>
@@ -4634,7 +4878,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="75">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="54" t="s">
         <v>332</v>
       </c>
       <c r="B39" s="30" t="s">
@@ -4642,13 +4886,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="51"/>
+      <c r="A40" s="54"/>
       <c r="B40" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="135">
-      <c r="A41" s="51"/>
+      <c r="A41" s="54"/>
       <c r="B41" s="30" t="s">
         <v>333</v>
       </c>
@@ -4742,7 +4986,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="30" customHeight="1">
-      <c r="A53" s="51" t="s">
+      <c r="A53" s="54" t="s">
         <v>363</v>
       </c>
       <c r="B53" s="30" t="s">
@@ -4750,13 +4994,13 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="120">
-      <c r="A54" s="51"/>
+      <c r="A54" s="54"/>
       <c r="B54" s="30" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="51" t="s">
+      <c r="A55" s="54" t="s">
         <v>359</v>
       </c>
       <c r="B55" s="30" t="s">
@@ -4764,7 +5008,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="51"/>
+      <c r="A56" s="54"/>
       <c r="B56" s="30" t="s">
         <v>362</v>
       </c>
@@ -4810,7 +5054,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="61" t="s">
+      <c r="A62" s="64" t="s">
         <v>374</v>
       </c>
       <c r="B62" s="30" t="s">
@@ -4818,13 +5062,13 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="61"/>
+      <c r="A63" s="64"/>
       <c r="B63" s="30" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="61" t="s">
+      <c r="A64" s="64" t="s">
         <v>377</v>
       </c>
       <c r="B64" s="30" t="s">
@@ -4832,13 +5076,13 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="45">
-      <c r="A65" s="61"/>
+      <c r="A65" s="64"/>
       <c r="B65" s="30" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="61" t="s">
+      <c r="A66" s="64" t="s">
         <v>380</v>
       </c>
       <c r="B66" s="30" t="s">
@@ -4846,7 +5090,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="45">
-      <c r="A67" s="61"/>
+      <c r="A67" s="64"/>
       <c r="B67" s="31" t="s">
         <v>382</v>
       </c>
@@ -4899,10 +5143,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="53" t="s">
         <v>384</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4948,10 +5192,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="B8" s="63"/>
+      <c r="B8" s="66"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
@@ -4976,10 +5220,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -4998,10 +5242,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>401</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="66"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="33" t="s">
@@ -5036,10 +5280,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="65" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="63"/>
+      <c r="B7" s="66"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="33" t="s">
@@ -5058,7 +5302,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="64" t="s">
         <v>412</v>
       </c>
       <c r="B10" s="33" t="s">
@@ -5066,19 +5310,19 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="61"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="33" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="61"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="33" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="61"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="33" t="s">
         <v>408</v>
       </c>
@@ -5097,6 +5341,30 @@
       </c>
       <c r="B15" s="33" t="s">
         <v>419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>509</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="46" t="s">
+        <v>511</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="46" t="s">
+        <v>513</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -5121,9 +5389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5140,10 +5406,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="65" t="s">
         <v>424</v>
       </c>
-      <c r="B7" s="63"/>
+      <c r="B7" s="66"/>
     </row>
     <row r="8" spans="1:2" ht="45">
       <c r="A8" s="35" t="s">
@@ -5316,7 +5582,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5334,10 +5600,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="65" t="s">
         <v>485</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="66"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="42" t="s">
@@ -5372,7 +5638,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="240">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="54" t="s">
         <v>493</v>
       </c>
       <c r="B10" s="42" t="s">
@@ -5380,7 +5646,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="105">
-      <c r="A11" s="51"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="42" t="s">
         <v>494</v>
       </c>
@@ -5412,6 +5678,177 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="48" customWidth="1"/>
+    <col min="2" max="2" width="130.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="65" t="s">
+        <v>545</v>
+      </c>
+      <c r="B5" s="66"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="47" t="s">
+        <v>518</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="52" t="s">
+        <v>520</v>
+      </c>
+      <c r="B8" s="52"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="52" t="s">
+        <v>521</v>
+      </c>
+      <c r="B9" s="52"/>
+    </row>
+    <row r="10" spans="1:2" ht="45">
+      <c r="A10" s="48" t="s">
+        <v>522</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="48" t="s">
+        <v>524</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="47" t="s">
+        <v>526</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="47" t="s">
+        <v>528</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="47" t="s">
+        <v>530</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="47" t="s">
+        <v>532</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="48" t="s">
+        <v>534</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="47" t="s">
+        <v>536</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="60" t="s">
+        <v>538</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="60"/>
+      <c r="B19" s="16" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="60">
+      <c r="A20" s="60"/>
+      <c r="B20" s="16" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="90">
+      <c r="A21" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="52" t="s">
+        <v>544</v>
+      </c>
+      <c r="B22" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A22" display="Topics"/>
+    <hyperlink ref="B1" location="'Class Loading'!A2" display="Up"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5439,10 +5876,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:2" ht="120">
       <c r="A3" t="s">
@@ -5562,10 +5999,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -5576,10 +6013,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="52"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
@@ -5590,10 +6027,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="53"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
@@ -5612,7 +6049,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="54" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -5620,13 +6057,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="51"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="54" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -5634,7 +6071,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="51"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
@@ -5656,7 +6093,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="54" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -5664,7 +6101,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="51"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
@@ -5686,7 +6123,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="54" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -5694,7 +6131,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="51"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
@@ -5708,10 +6145,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="B22" s="48"/>
+      <c r="B22" s="51"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
@@ -5726,7 +6163,7 @@
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="52" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -5734,7 +6171,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="49"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
@@ -5799,10 +6236,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="B36" s="48"/>
+      <c r="B36" s="51"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="25" t="s">
@@ -5829,10 +6266,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="B46" s="48"/>
+      <c r="B46" s="51"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
@@ -5922,10 +6359,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -6023,22 +6460,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="57"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="53"/>
+      <c r="B16" s="56"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="11" t="s">
@@ -6086,10 +6523,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" s="15" t="s">
@@ -6116,7 +6553,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="60" t="s">
         <v>111</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -6124,13 +6561,13 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="57"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="57"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="16" t="s">
         <v>191</v>
       </c>
@@ -6144,7 +6581,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="60" t="s">
         <v>115</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -6152,7 +6589,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="57"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="16" t="s">
         <v>193</v>
       </c>
@@ -6270,7 +6707,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="60" t="s">
         <v>139</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -6278,13 +6715,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="57"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="57"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="16" t="s">
         <v>199</v>
       </c>
@@ -6426,10 +6863,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="58" t="s">
+      <c r="A46" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="59"/>
+      <c r="B46" s="62"/>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="17" t="s">
@@ -6440,7 +6877,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="51" t="s">
+      <c r="A48" s="54" t="s">
         <v>167</v>
       </c>
       <c r="B48" s="16" t="s">
@@ -6448,13 +6885,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="90">
-      <c r="A49" s="51"/>
+      <c r="A49" s="54"/>
       <c r="B49" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="51" t="s">
+      <c r="A50" s="54" t="s">
         <v>170</v>
       </c>
       <c r="B50" s="16" t="s">
@@ -6462,25 +6899,25 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="51"/>
+      <c r="A51" s="54"/>
       <c r="B51" s="16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="51"/>
+      <c r="A52" s="54"/>
       <c r="B52" s="16" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="51"/>
+      <c r="A53" s="54"/>
       <c r="B53" s="16" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="57" t="s">
+      <c r="A54" s="60" t="s">
         <v>175</v>
       </c>
       <c r="B54" s="16" t="s">
@@ -6488,13 +6925,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="57"/>
+      <c r="A55" s="60"/>
       <c r="B55" s="16" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="57"/>
+      <c r="A56" s="60"/>
       <c r="B56" s="16" t="s">
         <v>178</v>
       </c>
@@ -6530,10 +6967,10 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="55" t="s">
+      <c r="A61" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="B61" s="56"/>
+      <c r="B61" s="59"/>
     </row>
     <row r="62" spans="1:2" ht="30">
       <c r="A62" s="23" t="s">
@@ -6675,10 +7112,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="53"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
@@ -6723,7 +7160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
@@ -6743,10 +7180,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="36" t="s">
@@ -6757,10 +7194,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="53" t="s">
         <v>462</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="53"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="38" t="s">
@@ -6819,7 +7256,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="150">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="60" t="s">
         <v>477</v>
       </c>
       <c r="B14" s="40" t="s">
@@ -6827,7 +7264,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="57"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="40" t="s">
         <v>479</v>
       </c>
@@ -6974,7 +7411,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="63" t="s">
         <v>272</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -6982,7 +7419,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="60"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="9" t="s">
         <v>274</v>
       </c>
@@ -7028,10 +7465,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="53" t="s">
         <v>259</v>
       </c>
-      <c r="B12" s="50"/>
+      <c r="B12" s="53"/>
     </row>
     <row r="13" spans="1:2" ht="90">
       <c r="A13" t="s">

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="948" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="948" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="563">
   <si>
     <t>Lucene</t>
   </si>
@@ -1916,101 +1916,6 @@
   </si>
   <si>
     <t>Installation of ActiveMQ</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Download the latest version from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://activemq.apache.org/download-archives.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> . This post is done with version 5.9.1
-2. Download the zip file and extract it to some location.
-3. In the extracted folder you would see a bin directory. Inside that will be batch file activemq
-4. Run the activemq batch script
-5. A cmd window would appear and if everything is fine you should be able to access the ActiveMQ management console at </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://localhost:8161</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-6. click on the link "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Manage ActiveMQ broker using the old console</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-7. Enter credentials "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>admin/admin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
   </si>
   <si>
     <t>Note on Active MQ</t>
@@ -3643,6 +3548,183 @@
   </si>
   <si>
     <t>Class Loading Definitions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Download the latest version from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://activemq.apache.org/download-archives.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> . This post is done with version 5.9.1
+2. Download the zip file and extract it to some location.
+3. In the extracted folder you would see a bin directory. Inside that there will be batch file activemq
+4. Run the activemq batch script
+5. A cmd window would appear and if everything is fine you should be able to access the ActiveMQ management console at </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://localhost:8161</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+6. click on the link "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Manage ActiveMQ broker using the old console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+7. Enter credentials "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>admin/admin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>How to connect to ActiveMQ</t>
+  </si>
+  <si>
+    <t>using org.apache.activemq.ActiveMQConnectionFactory</t>
+  </si>
+  <si>
+    <t>ActiveMQConnectionFactory connection = new ActiveMQConnectionFactory("tcp://localhost:61616");</t>
+  </si>
+  <si>
+    <t>How to create Topic producer</t>
+  </si>
+  <si>
+    <t>org.apache.activemq.ActiveMQConnectionFactory connectionFactory = new ActiveMQConnectionFactory("tcp://localhost:61616");
+// create javax.jms.Connection object and start connection
+    javax.jms.Connection connection = connectionFactory.createConnection();
+    connection.start();
+    // create javax.jms.Session object
+    javax.jms.Session session = connection.createSession(false, Session.AUTO_ACKNOWLEDGE);
+    /*create Topic Destination and create producer to that destination*/
+    Destination topicDestination = session.createTopic("CLIMATE");
+    MessageProducer producer = session.createProducer(topicDestination);
+    producer.setDeliveryMode(DeliveryMode.PERSISTENT);
+    /*create javax.jms.TextMessage and send it to destination topic*/
+    TextMessage message = session.createTextMessage("Hello Climate");
+    producer.send(message);
+    // close session and connection
+    session.close();
+    connection.close();</t>
+  </si>
+  <si>
+    <t>How to create Topic Consumer</t>
+  </si>
+  <si>
+    <t>org.apache.activemq.ActiveMQConnectionFactory connectionFactory = new ActiveMQConnectionFactory("tcp://localhost:61616");
+// create javax.jms.Connection object and start connection
+    javax.jms.Connection  connection = connectionFactory.createConnection();
+    connection.start();
+    // create javax.jms.Session object
+    javax.jms.Session session = connection.createSession(false, Session.AUTO_ACKNOWLEDGE);
+    /*create Topic javax.jms.Destination and create consumer from that destination*/
+    Destination topicDestination = session.createTopic("CLIMATE");
+    MessageConsumer consumer = session.createConsumer(topicDestination);
+    /*receive message from that destination - javax.jms.Message*/
+    Message message = consumer.receive();
+    TextMessage textMessage = (TextMessage) message;
+    System.out.println("Recieved javax.jms.Message: " + textMessage);
+    System.out.println(textMessage.getText());
+    // close session and connection
+    session.close();
+    connection.close();</t>
+  </si>
+  <si>
+    <t>video: 1_ActiveMQ Introduction</t>
+  </si>
+  <si>
+    <t>http://activemq.apache.org/initial-configuration.html</t>
+  </si>
+  <si>
+    <t>http://activemq.apache.org/hello-world.html</t>
+  </si>
+  <si>
+    <t>http://examples.javacodegeeks.com/enterprise-java/jms/activemq-tutorial-beginners/</t>
+  </si>
+  <si>
+    <t>video: 2_Simple Java program to consume from an ActiveMQ Queue</t>
+  </si>
+  <si>
+    <t>http://examples.javacodegeeks.com/enterprise-java/apache-camel/apache-camel-activemq-example/</t>
+  </si>
+  <si>
+    <t>video: 3.Spring Framework JMS Integartion Tutorial.mp4</t>
+  </si>
+  <si>
+    <t>new console for active mq</t>
+  </si>
+  <si>
+    <t>http://localhost:8161/hawtio/</t>
+  </si>
+  <si>
+    <t>ActiveMQ and apache camel</t>
   </si>
 </sst>
 </file>
@@ -3887,7 +3969,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4025,6 +4107,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4066,6 +4154,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4426,7 +4517,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4460,7 +4551,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="51" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
@@ -4468,19 +4559,19 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="49"/>
+      <c r="A5" s="51"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="49"/>
+      <c r="A6" s="51"/>
       <c r="B6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="51" t="s">
         <v>102</v>
       </c>
       <c r="B7" t="s">
@@ -4488,7 +4579,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="49"/>
+      <c r="A8" s="51"/>
       <c r="B8" t="s">
         <v>104</v>
       </c>
@@ -4507,7 +4598,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="51" t="s">
         <v>36</v>
       </c>
       <c r="B11" t="s">
@@ -4515,61 +4606,61 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="49"/>
+      <c r="A12" s="51"/>
       <c r="B12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="49"/>
+      <c r="A13" s="51"/>
       <c r="B13" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="49"/>
+      <c r="A14" s="51"/>
       <c r="B14" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -4625,474 +4716,474 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
-        <v>387</v>
-      </c>
-      <c r="B2" s="53"/>
+      <c r="A2" s="55" t="s">
+        <v>386</v>
+      </c>
+      <c r="B2" s="55"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="32" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="32" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="32" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>392</v>
-      </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="53" t="s">
-        <v>282</v>
-      </c>
-      <c r="B8" s="53"/>
+      <c r="A8" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" s="55"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" t="s">
         <v>283</v>
-      </c>
-      <c r="B9" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="60">
       <c r="A10" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="B10" s="30" t="s">
         <v>285</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" t="s">
         <v>289</v>
-      </c>
-      <c r="B12" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="B13" t="s">
         <v>291</v>
-      </c>
-      <c r="B13" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="B14" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="B14" s="30" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="56" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="54" t="s">
+      <c r="B15" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="B15" s="30" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="240">
+      <c r="A16" s="56"/>
+      <c r="B16" s="30" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="240">
-      <c r="A16" s="54"/>
-      <c r="B16" s="30" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="56"/>
+      <c r="B17" s="30" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="54"/>
-      <c r="B17" s="30" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="56"/>
+      <c r="B18" s="30" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="54"/>
-      <c r="B18" s="30" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="56"/>
+      <c r="B19" s="30" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="54"/>
-      <c r="B19" s="30" t="s">
+    <row r="20" spans="1:2" ht="90">
+      <c r="A20" s="56"/>
+      <c r="B20" s="30" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="90">
-      <c r="A20" s="54"/>
-      <c r="B20" s="30" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="56"/>
+      <c r="B21" s="30" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="30" t="s">
+    <row r="22" spans="1:2" ht="150">
+      <c r="A22" s="56"/>
+      <c r="B22" s="30" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="150">
-      <c r="A22" s="54"/>
-      <c r="B22" s="30" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="56"/>
+      <c r="B23" s="30" t="s">
         <v>303</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="30" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
       <c r="A24" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="B24" s="30" t="s">
         <v>305</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26" s="30" t="s">
         <v>309</v>
       </c>
-      <c r="B26" s="30" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="180">
+      <c r="A27" s="56" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="180">
-      <c r="A27" s="54" t="s">
+      <c r="B27" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="B27" s="30" t="s">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="56"/>
+      <c r="B28" s="30" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="210">
+      <c r="A29" s="56"/>
+      <c r="B29" s="30" t="s">
         <v>312</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="54"/>
-      <c r="B28" s="30" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="210">
-      <c r="A29" s="54"/>
-      <c r="B29" s="30" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="210">
       <c r="A30" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="B30" s="30" t="s">
         <v>314</v>
       </c>
-      <c r="B30" s="30" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="105">
+      <c r="A31" s="56" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="105">
-      <c r="A31" s="54" t="s">
+      <c r="B31" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="B31" s="30" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="285">
+      <c r="A32" s="56"/>
+      <c r="B32" s="30" t="s">
         <v>317</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="285">
-      <c r="A32" s="54"/>
-      <c r="B32" s="30" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="B33" s="30" t="s">
         <v>319</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="B34" s="30" t="s">
         <v>321</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="B35" s="30" t="s">
         <v>324</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="B36" s="30" t="s">
         <v>326</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
       <c r="A37" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="B37" s="30" t="s">
         <v>328</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
       <c r="A38" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="B38" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="B38" s="30" t="s">
+    </row>
+    <row r="39" spans="1:2" ht="75">
+      <c r="A39" s="56" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="75">
-      <c r="A39" s="54" t="s">
+      <c r="B39" s="30" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="75">
+      <c r="A40" s="56"/>
+      <c r="B40" s="30" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="135">
+      <c r="A41" s="56"/>
+      <c r="B41" s="30" t="s">
         <v>332</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="54"/>
-      <c r="B40" s="30" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="135">
-      <c r="A41" s="54"/>
-      <c r="B41" s="30" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="B42" s="30" t="s">
         <v>336</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="B44" s="30" t="s">
         <v>340</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
       <c r="A46" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="B46" s="30" t="s">
         <v>344</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="45">
       <c r="A47" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="B47" s="30" t="s">
         <v>346</v>
-      </c>
-      <c r="B47" s="30" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="B48" s="30" t="s">
         <v>348</v>
-      </c>
-      <c r="B48" s="30" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="B49" s="30" t="s">
         <v>350</v>
-      </c>
-      <c r="B49" s="30" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="B50" s="30" t="s">
         <v>352</v>
-      </c>
-      <c r="B50" s="30" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="B51" s="30" t="s">
         <v>354</v>
-      </c>
-      <c r="B51" s="30" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="B52" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="B52" s="30" t="s">
+    </row>
+    <row r="53" spans="1:2" ht="30" customHeight="1">
+      <c r="A53" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="B53" s="30" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="30" customHeight="1">
-      <c r="A53" s="54" t="s">
-        <v>363</v>
-      </c>
-      <c r="B53" s="30" t="s">
+    <row r="54" spans="1:2" ht="120">
+      <c r="A54" s="56"/>
+      <c r="B54" s="30" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="56" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="120">
-      <c r="A54" s="54"/>
-      <c r="B54" s="30" t="s">
+      <c r="B55" s="30" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="60">
+      <c r="A56" s="56"/>
+      <c r="B56" s="30" t="s">
         <v>361</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="54" t="s">
-        <v>359</v>
-      </c>
-      <c r="B55" s="30" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="54"/>
-      <c r="B56" s="30" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="B57" s="30" t="s">
         <v>364</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="30">
       <c r="A58" s="30" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="30" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B60" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="30">
       <c r="A61" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="B61" s="30" t="s">
         <v>372</v>
       </c>
-      <c r="B61" s="30" t="s">
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="67" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="64" t="s">
+      <c r="B62" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="B62" s="30" t="s">
+    </row>
+    <row r="63" spans="1:2" ht="45">
+      <c r="A63" s="67"/>
+      <c r="B63" s="30" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="64"/>
-      <c r="B63" s="30" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" s="67" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="64" t="s">
+      <c r="B64" s="30" t="s">
         <v>377</v>
       </c>
-      <c r="B64" s="30" t="s">
+    </row>
+    <row r="65" spans="1:2" ht="45">
+      <c r="A65" s="67"/>
+      <c r="B65" s="30" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="45">
-      <c r="A65" s="64"/>
-      <c r="B65" s="30" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="67" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="64" t="s">
+      <c r="B66" s="30" t="s">
         <v>380</v>
       </c>
-      <c r="B66" s="30" t="s">
+    </row>
+    <row r="67" spans="1:2" ht="45">
+      <c r="A67" s="67"/>
+      <c r="B67" s="31" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="45">
-      <c r="A67" s="64"/>
-      <c r="B67" s="31" t="s">
-        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -5143,10 +5234,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="53" t="s">
-        <v>384</v>
-      </c>
-      <c r="B8" s="53"/>
+      <c r="A8" s="55" t="s">
+        <v>383</v>
+      </c>
+      <c r="B8" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5185,24 +5276,24 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2" t="s">
         <v>397</v>
       </c>
-      <c r="B2" t="s">
-        <v>398</v>
-      </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="65" t="s">
-        <v>386</v>
-      </c>
-      <c r="B8" s="66"/>
+      <c r="A8" s="68" t="s">
+        <v>385</v>
+      </c>
+      <c r="B8" s="69"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>392</v>
+      </c>
+      <c r="B9" t="s">
         <v>393</v>
-      </c>
-      <c r="B9" t="s">
-        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -5242,129 +5333,129 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="65" t="s">
-        <v>401</v>
-      </c>
-      <c r="B2" s="66"/>
+      <c r="A2" s="68" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" s="69"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="33" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>404</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5" s="34" t="s">
         <v>406</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="44" t="s">
+        <v>500</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>502</v>
-      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="65" t="s">
-        <v>400</v>
-      </c>
-      <c r="B7" s="66"/>
+      <c r="A7" s="68" t="s">
+        <v>399</v>
+      </c>
+      <c r="B7" s="69"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="33" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="64" t="s">
-        <v>412</v>
+      <c r="A10" s="67" t="s">
+        <v>411</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="64"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="64"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="64"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="33" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45">
       <c r="A15" s="33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>508</v>
+      </c>
+      <c r="B16" s="46" t="s">
         <v>509</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="46" t="s">
+        <v>510</v>
+      </c>
+      <c r="B17" s="46" t="s">
         <v>511</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="46" t="s">
+        <v>512</v>
+      </c>
+      <c r="B18" s="46" t="s">
         <v>513</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -5406,161 +5497,161 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="65" t="s">
-        <v>424</v>
-      </c>
-      <c r="B7" s="66"/>
+      <c r="A7" s="68" t="s">
+        <v>423</v>
+      </c>
+      <c r="B7" s="69"/>
     </row>
     <row r="8" spans="1:2" ht="45">
       <c r="A8" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="35" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45">
       <c r="A10" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" s="35" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45">
       <c r="A12" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="B12" s="35" t="s">
         <v>431</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="B13" s="37" t="s">
         <v>434</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
       <c r="A14" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="B14" s="35" t="s">
         <v>436</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="B15" s="35" t="s">
         <v>438</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="B16" s="35" t="s">
         <v>440</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="B17" s="35" t="s">
         <v>442</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75">
       <c r="A18" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="B18" s="35" t="s">
         <v>444</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="75">
       <c r="A19" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="B19" s="35" t="s">
         <v>446</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
       <c r="A20" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="B20" s="35" t="s">
         <v>448</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
       <c r="A21" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="B21" s="35" t="s">
         <v>450</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="75">
       <c r="A22" s="35" t="s">
+        <v>451</v>
+      </c>
+      <c r="B22" s="35" t="s">
         <v>452</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
       <c r="A23" s="35" t="s">
+        <v>453</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>454</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="35" t="s">
+        <v>455</v>
+      </c>
+      <c r="B24" s="35" t="s">
         <v>456</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="35" t="s">
+        <v>457</v>
+      </c>
+      <c r="B25" s="35" t="s">
         <v>458</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="B26" s="35" t="s">
         <v>460</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -5600,71 +5691,71 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="65" t="s">
-        <v>485</v>
-      </c>
-      <c r="B5" s="66"/>
+      <c r="A5" s="68" t="s">
+        <v>484</v>
+      </c>
+      <c r="B5" s="69"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="42" t="s">
+        <v>485</v>
+      </c>
+      <c r="B6" s="42" t="s">
         <v>486</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="42" t="s">
+        <v>487</v>
+      </c>
+      <c r="B7" s="42" t="s">
         <v>488</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="42" t="s">
+        <v>489</v>
+      </c>
+      <c r="B8" s="42" t="s">
         <v>490</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="42" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B9" s="42" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="240">
+      <c r="A10" s="56" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="240">
-      <c r="A10" s="54" t="s">
+      <c r="B10" s="42" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="105">
+      <c r="A11" s="56"/>
+      <c r="B11" s="42" t="s">
         <v>493</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="105">
-      <c r="A11" s="54"/>
-      <c r="B11" s="42" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="43" t="s">
+        <v>496</v>
+      </c>
+      <c r="B12" s="43" t="s">
         <v>497</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="B13" s="43" t="s">
         <v>499</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -5685,9 +5776,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5705,136 +5796,136 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="65" t="s">
-        <v>545</v>
-      </c>
-      <c r="B5" s="66"/>
+      <c r="A5" s="68" t="s">
+        <v>544</v>
+      </c>
+      <c r="B5" s="69"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="47" t="s">
+        <v>515</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>516</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="47" t="s">
+        <v>517</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="B7" s="16" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="54" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="52" t="s">
+      <c r="B8" s="54"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="54" t="s">
         <v>520</v>
       </c>
-      <c r="B8" s="52"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="52" t="s">
-        <v>521</v>
-      </c>
-      <c r="B9" s="52"/>
+      <c r="B9" s="54"/>
     </row>
     <row r="10" spans="1:2" ht="45">
       <c r="A10" s="48" t="s">
+        <v>521</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>522</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" s="48" t="s">
+        <v>523</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>524</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="47" t="s">
+        <v>525</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>526</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="47" t="s">
+        <v>527</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>528</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="47" t="s">
+        <v>529</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>530</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="47" t="s">
+        <v>531</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>532</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
       <c r="A16" s="48" t="s">
+        <v>533</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>534</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="47" t="s">
+        <v>535</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>536</v>
       </c>
-      <c r="B17" s="16" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="62" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="60" t="s">
+      <c r="B18" s="16" t="s">
         <v>538</v>
       </c>
-      <c r="B18" s="16" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="62"/>
+      <c r="B19" s="16" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="60"/>
-      <c r="B19" s="16" t="s">
+    <row r="20" spans="1:2" ht="60">
+      <c r="A20" s="62"/>
+      <c r="B20" s="16" t="s">
         <v>540</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="60">
-      <c r="A20" s="60"/>
-      <c r="B20" s="16" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="90">
       <c r="A21" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>542</v>
       </c>
-      <c r="B21" s="16" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="54" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="52" t="s">
-        <v>544</v>
-      </c>
-      <c r="B22" s="52"/>
+      <c r="B22" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5876,10 +5967,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2" ht="120">
       <c r="A3" t="s">
@@ -5999,10 +6090,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -6013,10 +6104,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="54"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
@@ -6027,10 +6118,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="55" t="s">
         <v>248</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="55"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
@@ -6049,7 +6140,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="56" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -6057,13 +6148,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="54"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="56" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -6071,7 +6162,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="54"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
@@ -6093,7 +6184,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="56" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -6101,7 +6192,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="54"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
@@ -6123,7 +6214,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="56" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -6131,7 +6222,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="54"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
@@ -6145,10 +6236,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="B22" s="51"/>
+      <c r="B22" s="53"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
@@ -6163,7 +6254,7 @@
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="54" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -6171,7 +6262,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="52"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
@@ -6236,10 +6327,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="B36" s="51"/>
+      <c r="B36" s="53"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="25" t="s">
@@ -6266,10 +6357,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="50" t="s">
+      <c r="A46" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="B46" s="51"/>
+      <c r="B46" s="53"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
@@ -6359,10 +6450,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -6460,22 +6551,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="59"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="56"/>
+      <c r="B16" s="58"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="11" t="s">
@@ -6523,10 +6614,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" s="15" t="s">
@@ -6553,7 +6644,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="62" t="s">
         <v>111</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -6561,13 +6652,13 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="60"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="60"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="16" t="s">
         <v>191</v>
       </c>
@@ -6581,7 +6672,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="62" t="s">
         <v>115</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -6589,7 +6680,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="60"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="16" t="s">
         <v>193</v>
       </c>
@@ -6707,7 +6798,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="62" t="s">
         <v>139</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -6715,13 +6806,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="60"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="60"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="16" t="s">
         <v>199</v>
       </c>
@@ -6863,10 +6954,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="61" t="s">
+      <c r="A46" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="62"/>
+      <c r="B46" s="64"/>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="17" t="s">
@@ -6877,7 +6968,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="54" t="s">
+      <c r="A48" s="56" t="s">
         <v>167</v>
       </c>
       <c r="B48" s="16" t="s">
@@ -6885,13 +6976,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="90">
-      <c r="A49" s="54"/>
+      <c r="A49" s="56"/>
       <c r="B49" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="54" t="s">
+      <c r="A50" s="56" t="s">
         <v>170</v>
       </c>
       <c r="B50" s="16" t="s">
@@ -6899,25 +6990,25 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="54"/>
+      <c r="A51" s="56"/>
       <c r="B51" s="16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="54"/>
+      <c r="A52" s="56"/>
       <c r="B52" s="16" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="54"/>
+      <c r="A53" s="56"/>
       <c r="B53" s="16" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="60" t="s">
+      <c r="A54" s="62" t="s">
         <v>175</v>
       </c>
       <c r="B54" s="16" t="s">
@@ -6925,13 +7016,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="60"/>
+      <c r="A55" s="62"/>
       <c r="B55" s="16" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="60"/>
+      <c r="A56" s="62"/>
       <c r="B56" s="16" t="s">
         <v>178</v>
       </c>
@@ -6967,10 +7058,10 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="58" t="s">
+      <c r="A61" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="B61" s="59"/>
+      <c r="B61" s="61"/>
     </row>
     <row r="62" spans="1:2" ht="30">
       <c r="A62" s="23" t="s">
@@ -7074,17 +7165,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:B6"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="131.7109375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="150.5703125" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -7096,63 +7187,142 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="50" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="6" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="50" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="9" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30">
-      <c r="A3" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="53" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="9" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="B6" s="53"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="B15" s="55"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>252</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B16" s="28" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="120">
-      <c r="A8" t="s">
+    <row r="17" spans="1:2" ht="105">
+      <c r="A17" t="s">
         <v>254</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B17" s="49" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="45">
-      <c r="A9" t="s">
+      <c r="B18" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>257</v>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="65" t="s">
+        <v>546</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="65"/>
+      <c r="B20" s="49" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="300">
+      <c r="A21" t="s">
+        <v>549</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="315">
+      <c r="A22" t="s">
+        <v>551</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>560</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>561</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A6:B6"/>
+  <mergeCells count="2">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1:B1" location="Topics!A10" display="Topics"/>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId1"/>
     <hyperlink ref="B1" location="ActiveMQ!A2" display="Up"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B9" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B23" r:id="rId6"/>
+    <hyperlink ref="B4" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -7161,8 +7331,8 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7180,133 +7350,141 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
-        <v>401</v>
-      </c>
-      <c r="B2" s="53"/>
+      <c r="A2" s="55" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" s="55"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>421</v>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="50" t="s">
+        <v>562</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="53" t="s">
-        <v>462</v>
-      </c>
-      <c r="B6" s="53"/>
+      <c r="A6" s="55" t="s">
+        <v>461</v>
+      </c>
+      <c r="B6" s="55"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="38" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="40" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="40" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
       <c r="A12" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="B12" s="40" t="s">
         <v>473</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60">
       <c r="A13" s="40" t="s">
+        <v>474</v>
+      </c>
+      <c r="B13" s="40" t="s">
         <v>475</v>
       </c>
-      <c r="B13" s="40" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="150">
+      <c r="A14" s="62" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="150">
-      <c r="A14" s="60" t="s">
+      <c r="B14" s="40" t="s">
         <v>477</v>
       </c>
-      <c r="B14" s="40" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="62"/>
+      <c r="B15" s="40" t="s">
         <v>478</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="60"/>
-      <c r="B15" s="40" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="41" t="s">
+        <v>479</v>
+      </c>
+      <c r="B16" s="41" t="s">
         <v>480</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="41" t="s">
+        <v>481</v>
+      </c>
+      <c r="B17" s="41" t="s">
         <v>482</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="105">
       <c r="A18" s="45" t="s">
+        <v>504</v>
+      </c>
+      <c r="B18" s="45" t="s">
         <v>505</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="165">
       <c r="A19" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="B19" s="45" t="s">
         <v>503</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="225">
       <c r="A20" s="45" t="s">
+        <v>506</v>
+      </c>
+      <c r="B20" s="45" t="s">
         <v>507</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -7358,6 +7536,7 @@
     <hyperlink ref="A1:B1" location="Topics!A11" display="Topics"/>
     <hyperlink ref="B1" location="'Apache Camel'!A2" display="Up"/>
     <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7388,94 +7567,94 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>266</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="B4" s="9" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="66" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="63" t="s">
+      <c r="B5" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="B5" s="9" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="66"/>
+      <c r="B6" s="9" t="s">
         <v>273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="63"/>
-      <c r="B6" s="9" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>275</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>277</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>260</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>262</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>265</v>
-      </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="53" t="s">
-        <v>259</v>
-      </c>
-      <c r="B12" s="53"/>
+      <c r="A12" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" s="55"/>
     </row>
     <row r="13" spans="1:2" ht="90">
       <c r="A13" t="s">
+        <v>278</v>
+      </c>
+      <c r="B13" s="29" t="s">
         <v>279</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="948" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="948"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -13,16 +13,15 @@
     <sheet name="Autosys" sheetId="4" r:id="rId4"/>
     <sheet name="HTML" sheetId="5" r:id="rId5"/>
     <sheet name="JVM" sheetId="6" r:id="rId6"/>
-    <sheet name="ActiveMQ" sheetId="7" r:id="rId7"/>
-    <sheet name="Apache Camel" sheetId="8" r:id="rId8"/>
-    <sheet name="OpenAM" sheetId="9" r:id="rId9"/>
-    <sheet name="MongoDB" sheetId="10" r:id="rId10"/>
-    <sheet name="Junit" sheetId="11" r:id="rId11"/>
-    <sheet name="Mockito" sheetId="12" r:id="rId12"/>
-    <sheet name="AmazonWS" sheetId="13" r:id="rId13"/>
-    <sheet name="Cassandra" sheetId="14" r:id="rId14"/>
-    <sheet name="File IO" sheetId="15" r:id="rId15"/>
-    <sheet name="Class Loading" sheetId="16" r:id="rId16"/>
+    <sheet name="Apache Camel" sheetId="8" r:id="rId7"/>
+    <sheet name="OpenAM" sheetId="9" r:id="rId8"/>
+    <sheet name="MongoDB" sheetId="10" r:id="rId9"/>
+    <sheet name="Junit" sheetId="11" r:id="rId10"/>
+    <sheet name="Mockito" sheetId="12" r:id="rId11"/>
+    <sheet name="AmazonWS" sheetId="13" r:id="rId12"/>
+    <sheet name="Cassandra" sheetId="14" r:id="rId13"/>
+    <sheet name="File IO" sheetId="15" r:id="rId14"/>
+    <sheet name="Class Loading" sheetId="16" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="jar" localSheetId="2">'JDK Tools utilities'!$A$11</definedName>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="536">
   <si>
     <t>Lucene</t>
   </si>
@@ -1752,12 +1751,6 @@
     </r>
   </si>
   <si>
-    <t>ActiveMQ</t>
-  </si>
-  <si>
-    <t>ActiveMQ Definitions</t>
-  </si>
-  <si>
     <t>Apache Camel</t>
   </si>
   <si>
@@ -1901,27 +1894,6 @@
   </si>
   <si>
     <t>Security Tools</t>
-  </si>
-  <si>
-    <t>Tutorial 1 link</t>
-  </si>
-  <si>
-    <t>http://tech.lalitbhatt.net/2014/08/activemq-introduction.html</t>
-  </si>
-  <si>
-    <t>Active MQ</t>
-  </si>
-  <si>
-    <t>ActiveMQ is a messaging bus and helps in building Event based systems.It supports JMS which is a JavaEE based feature</t>
-  </si>
-  <si>
-    <t>Installation of ActiveMQ</t>
-  </si>
-  <si>
-    <t>Note on Active MQ</t>
-  </si>
-  <si>
-    <t>ActiveMQ is a messaging bus so it works on the notion of consumer and producer. A producer produces the message and consumer consumes it. Producers can produce message both on Queues and Topics. Let's write a TopicProducer and TopicConsumer to see how we can interact with ActiveMQ.</t>
   </si>
   <si>
     <t>Open AM</t>
@@ -2844,12 +2816,6 @@
     <t>Mockito is Mocking framework to use in Junit</t>
   </si>
   <si>
-    <t>Tutorial 2 link</t>
-  </si>
-  <si>
-    <t>http://www.mastertheintegration.com/core-apache-projects/activemq/introduction-to-activemq/activemq-lesson-1-getting-started-with-activemq.html</t>
-  </si>
-  <si>
     <t>Refer</t>
   </si>
   <si>
@@ -3550,178 +3516,7 @@
     <t>Class Loading Definitions</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. Download the latest version from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://activemq.apache.org/download-archives.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> . This post is done with version 5.9.1
-2. Download the zip file and extract it to some location.
-3. In the extracted folder you would see a bin directory. Inside that there will be batch file activemq
-4. Run the activemq batch script
-5. A cmd window would appear and if everything is fine you should be able to access the ActiveMQ management console at </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://localhost:8161</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-6. click on the link "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Manage ActiveMQ broker using the old console</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-7. Enter credentials "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>admin/admin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <t>How to connect to ActiveMQ</t>
-  </si>
-  <si>
-    <t>using org.apache.activemq.ActiveMQConnectionFactory</t>
-  </si>
-  <si>
-    <t>ActiveMQConnectionFactory connection = new ActiveMQConnectionFactory("tcp://localhost:61616");</t>
-  </si>
-  <si>
-    <t>How to create Topic producer</t>
-  </si>
-  <si>
-    <t>org.apache.activemq.ActiveMQConnectionFactory connectionFactory = new ActiveMQConnectionFactory("tcp://localhost:61616");
-// create javax.jms.Connection object and start connection
-    javax.jms.Connection connection = connectionFactory.createConnection();
-    connection.start();
-    // create javax.jms.Session object
-    javax.jms.Session session = connection.createSession(false, Session.AUTO_ACKNOWLEDGE);
-    /*create Topic Destination and create producer to that destination*/
-    Destination topicDestination = session.createTopic("CLIMATE");
-    MessageProducer producer = session.createProducer(topicDestination);
-    producer.setDeliveryMode(DeliveryMode.PERSISTENT);
-    /*create javax.jms.TextMessage and send it to destination topic*/
-    TextMessage message = session.createTextMessage("Hello Climate");
-    producer.send(message);
-    // close session and connection
-    session.close();
-    connection.close();</t>
-  </si>
-  <si>
-    <t>How to create Topic Consumer</t>
-  </si>
-  <si>
-    <t>org.apache.activemq.ActiveMQConnectionFactory connectionFactory = new ActiveMQConnectionFactory("tcp://localhost:61616");
-// create javax.jms.Connection object and start connection
-    javax.jms.Connection  connection = connectionFactory.createConnection();
-    connection.start();
-    // create javax.jms.Session object
-    javax.jms.Session session = connection.createSession(false, Session.AUTO_ACKNOWLEDGE);
-    /*create Topic javax.jms.Destination and create consumer from that destination*/
-    Destination topicDestination = session.createTopic("CLIMATE");
-    MessageConsumer consumer = session.createConsumer(topicDestination);
-    /*receive message from that destination - javax.jms.Message*/
-    Message message = consumer.receive();
-    TextMessage textMessage = (TextMessage) message;
-    System.out.println("Recieved javax.jms.Message: " + textMessage);
-    System.out.println(textMessage.getText());
-    // close session and connection
-    session.close();
-    connection.close();</t>
-  </si>
-  <si>
-    <t>video: 1_ActiveMQ Introduction</t>
-  </si>
-  <si>
-    <t>http://activemq.apache.org/initial-configuration.html</t>
-  </si>
-  <si>
-    <t>http://activemq.apache.org/hello-world.html</t>
-  </si>
-  <si>
-    <t>http://examples.javacodegeeks.com/enterprise-java/jms/activemq-tutorial-beginners/</t>
-  </si>
-  <si>
-    <t>video: 2_Simple Java program to consume from an ActiveMQ Queue</t>
-  </si>
-  <si>
     <t>http://examples.javacodegeeks.com/enterprise-java/apache-camel/apache-camel-activemq-example/</t>
-  </si>
-  <si>
-    <t>video: 3.Spring Framework JMS Integartion Tutorial.mp4</t>
-  </si>
-  <si>
-    <t>new console for active mq</t>
-  </si>
-  <si>
-    <t>http://localhost:8161/hawtio/</t>
   </si>
   <si>
     <t>ActiveMQ and apache camel</t>
@@ -3969,7 +3764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4054,9 +3849,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4110,9 +3902,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4154,9 +3943,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4513,11 +4299,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4551,7 +4337,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
@@ -4559,19 +4345,19 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="51"/>
+      <c r="A5" s="49"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="51"/>
+      <c r="A6" s="49"/>
       <c r="B6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="49" t="s">
         <v>102</v>
       </c>
       <c r="B7" t="s">
@@ -4579,7 +4365,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="51"/>
+      <c r="A8" s="49"/>
       <c r="B8" t="s">
         <v>104</v>
       </c>
@@ -4588,86 +4374,81 @@
       <c r="A9" s="9" t="s">
         <v>206</v>
       </c>
+      <c r="B9" s="9" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>209</v>
+      <c r="A10" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="51" t="s">
-        <v>36</v>
-      </c>
+      <c r="A11" s="49"/>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="51"/>
+      <c r="A12" s="49"/>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="51"/>
+      <c r="A13" s="49"/>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="51"/>
-      <c r="B14" t="s">
-        <v>239</v>
+      <c r="A14" s="9" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="9" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="9" t="s">
-        <v>280</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="9" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="9" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="9" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="9" t="s">
-        <v>422</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="9" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="9" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" location="Lucene!A1" display="Lucene"/>
@@ -4675,542 +4456,23 @@
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="A4:A5" location="HTML!A1" display="HTML"/>
     <hyperlink ref="A7:A8" location="JVM!A1" display="JVM"/>
-    <hyperlink ref="A9" location="ActiveMQ!A1" display="ActiveMQ"/>
-    <hyperlink ref="A10" location="'Apache Camel'!A1" display="Apache Camel"/>
-    <hyperlink ref="B10" r:id="rId2"/>
-    <hyperlink ref="A11" location="'JDK Tools utilities'!A1" display="JDK Tools utilities"/>
-    <hyperlink ref="A15" location="OpenAM!A1" display="Open AM"/>
-    <hyperlink ref="A16" location="MongoDB!A1" display="MongoDB"/>
-    <hyperlink ref="A17" location="Junit!A1" display="Junit"/>
-    <hyperlink ref="A18" location="Mockito!A1" display="Mockito"/>
-    <hyperlink ref="A19" location="AmazonWS!A1" display="Amazon web services"/>
-    <hyperlink ref="A20" location="Cassandra!A1" display="Apache Cassandra"/>
-    <hyperlink ref="A21" location="'File IO'!A1" display="File IO"/>
-    <hyperlink ref="A22" location="'Class Loading'!A1" display="Class Loading"/>
+    <hyperlink ref="A9" location="'Apache Camel'!A1" display="Apache Camel"/>
+    <hyperlink ref="B9" r:id="rId2"/>
+    <hyperlink ref="A10" location="'JDK Tools utilities'!A1" display="JDK Tools utilities"/>
+    <hyperlink ref="A14" location="OpenAM!A1" display="Open AM"/>
+    <hyperlink ref="A15" location="MongoDB!A1" display="MongoDB"/>
+    <hyperlink ref="A16" location="Junit!A1" display="Junit"/>
+    <hyperlink ref="A17" location="Mockito!A1" display="Mockito"/>
+    <hyperlink ref="A18" location="AmazonWS!A1" display="Amazon web services"/>
+    <hyperlink ref="A19" location="Cassandra!A1" display="Apache Cassandra"/>
+    <hyperlink ref="A20" location="'File IO'!A1" display="File IO"/>
+    <hyperlink ref="A21" location="'Class Loading'!A1" display="Class Loading"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B67"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="59.7109375" style="30" customWidth="1"/>
-    <col min="2" max="2" width="121.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="55" t="s">
-        <v>386</v>
-      </c>
-      <c r="B2" s="55"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="32" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="32" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="32" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="55" t="s">
-        <v>281</v>
-      </c>
-      <c r="B8" s="55"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="B9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="60">
-      <c r="A10" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="B12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="B13" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="56" t="s">
-        <v>294</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="240">
-      <c r="A16" s="56"/>
-      <c r="B16" s="30" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="56"/>
-      <c r="B17" s="30" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="56"/>
-      <c r="B18" s="30" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="56"/>
-      <c r="B19" s="30" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="90">
-      <c r="A20" s="56"/>
-      <c r="B20" s="30" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="56"/>
-      <c r="B21" s="30" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="150">
-      <c r="A22" s="56"/>
-      <c r="B22" s="30" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="56"/>
-      <c r="B23" s="30" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="180">
-      <c r="A27" s="56" t="s">
-        <v>310</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="56"/>
-      <c r="B28" s="30" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="210">
-      <c r="A29" s="56"/>
-      <c r="B29" s="30" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="210">
-      <c r="A30" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="105">
-      <c r="A31" s="56" t="s">
-        <v>315</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="285">
-      <c r="A32" s="56"/>
-      <c r="B32" s="30" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="30" t="s">
-        <v>320</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="30" t="s">
-        <v>327</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="75">
-      <c r="A39" s="56" t="s">
-        <v>331</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="56"/>
-      <c r="B40" s="30" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="135">
-      <c r="A41" s="56"/>
-      <c r="B41" s="30" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="30" t="s">
-        <v>338</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="45">
-      <c r="A47" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="B47" s="30" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="B48" s="30" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="B49" s="30" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="B50" s="30" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="30" t="s">
-        <v>353</v>
-      </c>
-      <c r="B51" s="30" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="B52" s="30" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="30" customHeight="1">
-      <c r="A53" s="56" t="s">
-        <v>362</v>
-      </c>
-      <c r="B53" s="30" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="120">
-      <c r="A54" s="56"/>
-      <c r="B54" s="30" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="56" t="s">
-        <v>358</v>
-      </c>
-      <c r="B55" s="30" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="56"/>
-      <c r="B56" s="30" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="30">
-      <c r="A58" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="B58" s="30" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="B59" s="30" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="B60" s="30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="30">
-      <c r="A61" s="30" t="s">
-        <v>371</v>
-      </c>
-      <c r="B61" s="30" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="67" t="s">
-        <v>373</v>
-      </c>
-      <c r="B62" s="30" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="67"/>
-      <c r="B63" s="30" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="67" t="s">
-        <v>376</v>
-      </c>
-      <c r="B64" s="30" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="45">
-      <c r="A65" s="67"/>
-      <c r="B65" s="30" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="67" t="s">
-        <v>379</v>
-      </c>
-      <c r="B66" s="30" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="45">
-      <c r="A67" s="67"/>
-      <c r="B67" s="31" t="s">
-        <v>381</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A15:A23"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A39:A41"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B1" location="MongoDB!A2" display="Up"/>
-    <hyperlink ref="A1" location="Topics!A16" display="Topics"/>
-    <hyperlink ref="B6" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -5230,14 +4492,14 @@
         <v>72</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="55" t="s">
-        <v>383</v>
-      </c>
-      <c r="B8" s="55"/>
+      <c r="A8" s="53" t="s">
+        <v>374</v>
+      </c>
+      <c r="B8" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5251,7 +4513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -5271,29 +4533,29 @@
         <v>72</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="B2" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="68" t="s">
-        <v>385</v>
-      </c>
-      <c r="B8" s="69"/>
+      <c r="A8" s="65" t="s">
+        <v>376</v>
+      </c>
+      <c r="B8" s="66"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B9" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -5309,7 +4571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -5329,133 +4591,133 @@
         <v>72</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="68" t="s">
-        <v>400</v>
-      </c>
-      <c r="B2" s="69"/>
+      <c r="A2" s="65" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" s="66"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="33" t="s">
-        <v>402</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>401</v>
+      <c r="A3" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="43" t="s">
+        <v>489</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="B7" s="66"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>403</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="33" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="75">
+      <c r="A10" s="64" t="s">
+        <v>400</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="64"/>
+      <c r="B11" s="32" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="64"/>
+      <c r="B12" s="32" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45">
+      <c r="A13" s="64"/>
+      <c r="B13" s="32" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="32" t="s">
+        <v>406</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>405</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="44" t="s">
-        <v>500</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="68" t="s">
-        <v>399</v>
-      </c>
-      <c r="B7" s="69"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="33" t="s">
-        <v>415</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="67" t="s">
-        <v>411</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="67"/>
-      <c r="B11" s="33" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="67"/>
-      <c r="B12" s="33" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="45">
+      <c r="A15" s="32" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="67"/>
-      <c r="B13" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>407</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="45">
-      <c r="A15" s="33" t="s">
-        <v>419</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>508</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>509</v>
+        <v>497</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="46" t="s">
-        <v>510</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>511</v>
+      <c r="A17" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="46" t="s">
-        <v>512</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>513</v>
+      <c r="A18" s="45" t="s">
+        <v>501</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -5476,7 +4738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
@@ -5484,8 +4746,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.28515625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="131.7109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="47.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="131.7109375" style="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5493,165 +4755,165 @@
         <v>72</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="65" t="s">
+        <v>412</v>
+      </c>
+      <c r="B7" s="66"/>
+    </row>
+    <row r="8" spans="1:2" ht="45">
+      <c r="A8" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45">
+      <c r="A10" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45">
+      <c r="A12" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="B13" s="36" t="s">
         <v>423</v>
       </c>
-      <c r="B7" s="69"/>
-    </row>
-    <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="35" t="s">
-        <v>422</v>
-      </c>
-      <c r="B8" s="35" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="45">
+      <c r="A14" s="34" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="35" t="s">
+      <c r="B14" s="34" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>427</v>
       </c>
-      <c r="B10" s="35" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="60">
+      <c r="A17" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="75">
+      <c r="A18" s="34" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="35" t="s">
-        <v>429</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="45">
-      <c r="A12" s="35" t="s">
-        <v>430</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="35" t="s">
+      <c r="B18" s="34" t="s">
         <v>433</v>
       </c>
-      <c r="B13" s="37" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="75">
+      <c r="A19" s="34" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="35" t="s">
+      <c r="B19" s="34" t="s">
         <v>435</v>
       </c>
-      <c r="B14" s="35" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="75">
+      <c r="A20" s="34" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="35" t="s">
+      <c r="B20" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="B15" s="35" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="75">
+      <c r="A21" s="34" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="35" t="s">
+      <c r="B21" s="34" t="s">
         <v>439</v>
       </c>
-      <c r="B16" s="35" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="75">
+      <c r="A22" s="34" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="35" t="s">
+      <c r="B22" s="34" t="s">
         <v>441</v>
       </c>
-      <c r="B17" s="35" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="34" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="75">
-      <c r="A18" s="35" t="s">
+      <c r="B23" s="34" t="s">
         <v>443</v>
       </c>
-      <c r="B18" s="35" t="s">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="34" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="75">
-      <c r="A19" s="35" t="s">
+      <c r="B24" s="34" t="s">
         <v>445</v>
       </c>
-      <c r="B19" s="35" t="s">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="34" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="35" t="s">
+      <c r="B25" s="34" t="s">
         <v>447</v>
       </c>
-      <c r="B20" s="35" t="s">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="34" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="35" t="s">
+      <c r="B26" s="34" t="s">
         <v>449</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="75">
-      <c r="A22" s="35" t="s">
-        <v>451</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="35" t="s">
-        <v>453</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="35" t="s">
-        <v>455</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="35" t="s">
-        <v>457</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="35" t="s">
-        <v>459</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -5667,7 +4929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -5678,8 +4940,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="58.7109375" style="42" customWidth="1"/>
-    <col min="2" max="2" width="123.42578125" style="42" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" style="41" customWidth="1"/>
+    <col min="2" max="2" width="123.42578125" style="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5687,75 +4949,75 @@
         <v>72</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="65" t="s">
+        <v>473</v>
+      </c>
+      <c r="B5" s="66"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="41" t="s">
+        <v>474</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="41" t="s">
+        <v>476</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="B5" s="69"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="42" t="s">
+      <c r="B9" s="41" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="240">
+      <c r="A10" s="54" t="s">
+        <v>481</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="105">
+      <c r="A11" s="54"/>
+      <c r="B11" s="41" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="42" t="s">
         <v>485</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B12" s="42" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="42" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="42" t="s">
         <v>487</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B13" s="42" t="s">
         <v>488</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="42" t="s">
-        <v>489</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="42" t="s">
-        <v>495</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="240">
-      <c r="A10" s="56" t="s">
-        <v>492</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="105">
-      <c r="A11" s="56"/>
-      <c r="B11" s="42" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="43" t="s">
-        <v>496</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="43" t="s">
-        <v>498</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -5772,7 +5034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -5792,140 +5054,140 @@
         <v>72</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="68" t="s">
-        <v>544</v>
-      </c>
-      <c r="B5" s="69"/>
+      <c r="A5" s="65" t="s">
+        <v>533</v>
+      </c>
+      <c r="B5" s="66"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="46" t="s">
+        <v>504</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="46" t="s">
+        <v>506</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="52" t="s">
+        <v>508</v>
+      </c>
+      <c r="B8" s="52"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="52" t="s">
+        <v>509</v>
+      </c>
+      <c r="B9" s="52"/>
+    </row>
+    <row r="10" spans="1:2" ht="45">
+      <c r="A10" s="47" t="s">
+        <v>510</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="47" t="s">
+        <v>512</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="46" t="s">
+        <v>514</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>515</v>
       </c>
-      <c r="B6" s="16" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="46" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="47" t="s">
+      <c r="B13" s="16" t="s">
         <v>517</v>
       </c>
-      <c r="B7" s="16" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="46" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="54" t="s">
+      <c r="B14" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="B8" s="54"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="54" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="46" t="s">
         <v>520</v>
       </c>
-      <c r="B9" s="54"/>
-    </row>
-    <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="48" t="s">
+      <c r="B15" s="16" t="s">
         <v>521</v>
       </c>
-      <c r="B10" s="16" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="47" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="48" t="s">
+      <c r="B16" s="16" t="s">
         <v>523</v>
       </c>
-      <c r="B11" s="16" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="46" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="47" t="s">
+      <c r="B17" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="B12" s="16" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="60" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="47" t="s">
+      <c r="B18" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="B13" s="16" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="60"/>
+      <c r="B19" s="16" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="47" t="s">
+    <row r="20" spans="1:2" ht="60">
+      <c r="A20" s="60"/>
+      <c r="B20" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="B14" s="16" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="90">
+      <c r="A21" s="46" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="47" t="s">
+      <c r="B21" s="16" t="s">
         <v>531</v>
       </c>
-      <c r="B15" s="16" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="52" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="48" t="s">
-        <v>533</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="47" t="s">
-        <v>535</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="62" t="s">
-        <v>537</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="62"/>
-      <c r="B19" s="16" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="60">
-      <c r="A20" s="62"/>
-      <c r="B20" s="16" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="90">
-      <c r="A21" s="47" t="s">
-        <v>541</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="54" t="s">
-        <v>543</v>
-      </c>
-      <c r="B22" s="54"/>
+      <c r="B22" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5963,14 +5225,14 @@
         <v>72</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:2" ht="120">
       <c r="A3" t="s">
@@ -6086,14 +5348,14 @@
         <v>72</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -6104,10 +5366,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="54"/>
+      <c r="B4" s="52"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
@@ -6118,10 +5380,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="55" t="s">
-        <v>248</v>
-      </c>
-      <c r="B6" s="55"/>
+      <c r="A6" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="53"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
@@ -6140,7 +5402,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="54" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -6148,13 +5410,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="56"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="54" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -6162,7 +5424,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="56"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
@@ -6184,7 +5446,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="54" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -6192,7 +5454,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="56"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
@@ -6214,7 +5476,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="54" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -6222,7 +5484,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="56"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
@@ -6236,10 +5498,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
-      <c r="A22" s="52" t="s">
-        <v>231</v>
-      </c>
-      <c r="B22" s="53"/>
+      <c r="A22" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="51"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
@@ -6254,7 +5516,7 @@
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="52" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -6262,7 +5524,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="54"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
@@ -6327,71 +5589,71 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="52" t="s">
-        <v>232</v>
-      </c>
-      <c r="B36" s="53"/>
+      <c r="A36" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="B36" s="51"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="B39" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="B39" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="52" t="s">
-        <v>239</v>
-      </c>
-      <c r="B46" s="53"/>
+      <c r="B46" s="51"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B47" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B48" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B49" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B50" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -6446,14 +5708,14 @@
         <v>72</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -6551,22 +5813,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="57"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="58"/>
+      <c r="B16" s="56"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="11" t="s">
@@ -6610,14 +5872,14 @@
         <v>72</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" s="15" t="s">
@@ -6644,7 +5906,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="60" t="s">
         <v>111</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -6652,13 +5914,13 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="62"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="62"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="16" t="s">
         <v>191</v>
       </c>
@@ -6672,7 +5934,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="60" t="s">
         <v>115</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -6680,7 +5942,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="62"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="16" t="s">
         <v>193</v>
       </c>
@@ -6798,7 +6060,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="60" t="s">
         <v>139</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -6806,13 +6068,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="62"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="62"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="16" t="s">
         <v>199</v>
       </c>
@@ -6894,7 +6156,7 @@
         <v>156</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="60">
@@ -6954,10 +6216,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="63" t="s">
+      <c r="A46" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="64"/>
+      <c r="B46" s="62"/>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="17" t="s">
@@ -6968,7 +6230,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="54" t="s">
         <v>167</v>
       </c>
       <c r="B48" s="16" t="s">
@@ -6976,13 +6238,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="90">
-      <c r="A49" s="56"/>
+      <c r="A49" s="54"/>
       <c r="B49" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="56" t="s">
+      <c r="A50" s="54" t="s">
         <v>170</v>
       </c>
       <c r="B50" s="16" t="s">
@@ -6990,25 +6252,25 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="56"/>
+      <c r="A51" s="54"/>
       <c r="B51" s="16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="56"/>
+      <c r="A52" s="54"/>
       <c r="B52" s="16" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="56"/>
+      <c r="A53" s="54"/>
       <c r="B53" s="16" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="62" t="s">
+      <c r="A54" s="60" t="s">
         <v>175</v>
       </c>
       <c r="B54" s="16" t="s">
@@ -7016,13 +6278,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="62"/>
+      <c r="A55" s="60"/>
       <c r="B55" s="16" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="62"/>
+      <c r="A56" s="60"/>
       <c r="B56" s="16" t="s">
         <v>178</v>
       </c>
@@ -7058,81 +6320,81 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="60" t="s">
-        <v>211</v>
-      </c>
-      <c r="B61" s="61"/>
+      <c r="A61" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="B61" s="59"/>
     </row>
     <row r="62" spans="1:2" ht="30">
       <c r="A62" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="105">
       <c r="A63" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
       <c r="A64" s="23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="30">
       <c r="A65" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="60">
       <c r="A66" s="23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="60">
       <c r="A67" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="30">
       <c r="A68" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="45">
       <c r="A69" s="23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -7165,169 +6427,6 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="150.5703125" style="28" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="B2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="B3" s="50" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="6" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="6" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="50" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>250</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>394</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="9" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="55" t="s">
-        <v>207</v>
-      </c>
-      <c r="B15" s="55"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>252</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="105">
-      <c r="A17" t="s">
-        <v>254</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30">
-      <c r="A18" t="s">
-        <v>255</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="65" t="s">
-        <v>546</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="65"/>
-      <c r="B20" s="49" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="300">
-      <c r="A21" t="s">
-        <v>549</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="315">
-      <c r="A22" t="s">
-        <v>551</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>560</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>561</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A19:A20"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1:B1" location="Topics!A10" display="Topics"/>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B1" location="ActiveMQ!A2" display="Up"/>
-    <hyperlink ref="B9" r:id="rId2"/>
-    <hyperlink ref="B10" r:id="rId3"/>
-    <hyperlink ref="B7" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="B23" r:id="rId6"/>
-    <hyperlink ref="B4" r:id="rId7"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7337,7 +6436,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" style="35" customWidth="1"/>
     <col min="2" max="2" width="142.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7346,185 +6445,185 @@
         <v>72</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="55" t="s">
-        <v>400</v>
-      </c>
-      <c r="B2" s="55"/>
+      <c r="A2" s="53" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="36" t="s">
-        <v>421</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>420</v>
+      <c r="A3" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="50" t="s">
-        <v>562</v>
+      <c r="A4" s="48" t="s">
+        <v>535</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="53" t="s">
+        <v>450</v>
+      </c>
+      <c r="B6" s="53"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="37" t="s">
+        <v>453</v>
+      </c>
+      <c r="B8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="B9" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="39" t="s">
+        <v>457</v>
+      </c>
+      <c r="B10" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="39" t="s">
+        <v>458</v>
+      </c>
+      <c r="B11" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="60">
+      <c r="A12" s="39" t="s">
         <v>461</v>
       </c>
-      <c r="B6" s="55"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="38" t="s">
+      <c r="B12" s="39" t="s">
         <v>462</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="60">
+      <c r="A13" s="39" t="s">
+        <v>463</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="150">
+      <c r="A14" s="60" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B14" s="39" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="38" t="s">
-        <v>463</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="60"/>
+      <c r="B15" s="39" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="40" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="40" t="s">
         <v>468</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B16" s="40" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="40" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="40" t="s">
-        <v>469</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B17" s="40" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="40" t="s">
-        <v>472</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="60">
-      <c r="A13" s="40" t="s">
-        <v>474</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="150">
-      <c r="A14" s="62" t="s">
-        <v>476</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="62"/>
-      <c r="B15" s="40" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="41" t="s">
-        <v>479</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="41" t="s">
-        <v>481</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>482</v>
-      </c>
-    </row>
     <row r="18" spans="1:2" ht="105">
-      <c r="A18" s="45" t="s">
-        <v>504</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>505</v>
+      <c r="A18" s="44" t="s">
+        <v>493</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="165">
-      <c r="A19" s="45" t="s">
-        <v>502</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>503</v>
+      <c r="A19" s="44" t="s">
+        <v>491</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="225">
-      <c r="A20" s="45" t="s">
-        <v>506</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>507</v>
+      <c r="A20" s="44" t="s">
+        <v>495</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="B30" s="36"/>
+      <c r="B30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7542,7 +6641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -7562,99 +6661,99 @@
         <v>72</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="66" t="s">
-        <v>271</v>
+      <c r="A5" s="63" t="s">
+        <v>262</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="66"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="9" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="B12" s="55"/>
+      <c r="A12" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" s="53"/>
     </row>
     <row r="13" spans="1:2" ht="90">
       <c r="A13" t="s">
-        <v>278</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>279</v>
+        <v>269</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -7678,4 +6777,522 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="59.7109375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="121.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="53" t="s">
+        <v>377</v>
+      </c>
+      <c r="B2" s="53"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="31" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="31" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="31" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" s="53"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="B9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="60">
+      <c r="A10" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="45">
+      <c r="A11" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="B12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="B13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="240">
+      <c r="A16" s="54"/>
+      <c r="B16" s="29" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="29" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="29" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="29" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="90">
+      <c r="A20" s="54"/>
+      <c r="B20" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="54"/>
+      <c r="B21" s="29" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="150">
+      <c r="A22" s="54"/>
+      <c r="B22" s="29" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="54"/>
+      <c r="B23" s="29" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="180">
+      <c r="A27" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="54"/>
+      <c r="B28" s="29" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="210">
+      <c r="A29" s="54"/>
+      <c r="B29" s="29" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="210">
+      <c r="A30" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="105">
+      <c r="A31" s="54" t="s">
+        <v>306</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="285">
+      <c r="A32" s="54"/>
+      <c r="B32" s="29" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30">
+      <c r="A37" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="60">
+      <c r="A38" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="75">
+      <c r="A39" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="75">
+      <c r="A40" s="54"/>
+      <c r="B40" s="29" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="135">
+      <c r="A41" s="54"/>
+      <c r="B41" s="29" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="45">
+      <c r="A46" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="45">
+      <c r="A47" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30" customHeight="1">
+      <c r="A53" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="120">
+      <c r="A54" s="54"/>
+      <c r="B54" s="29" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="54" t="s">
+        <v>349</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="60">
+      <c r="A56" s="54"/>
+      <c r="B56" s="29" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="30">
+      <c r="A58" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30">
+      <c r="A61" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="64" t="s">
+        <v>364</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="45">
+      <c r="A63" s="64"/>
+      <c r="B63" s="29" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="64" t="s">
+        <v>367</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="45">
+      <c r="A65" s="64"/>
+      <c r="B65" s="29" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="64" t="s">
+        <v>370</v>
+      </c>
+      <c r="B66" s="29" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="45">
+      <c r="A67" s="64"/>
+      <c r="B67" s="30" t="s">
+        <v>372</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="MongoDB!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A16" display="Topics"/>
+    <hyperlink ref="B6" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="948"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="948" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="570">
   <si>
     <t>Lucene</t>
   </si>
@@ -3520,6 +3520,113 @@
   </si>
   <si>
     <t>ActiveMQ and apache camel</t>
+  </si>
+  <si>
+    <t>http://aws.amazon.com/sdk-for-java/</t>
+  </si>
+  <si>
+    <t>AWS SDK Java</t>
+  </si>
+  <si>
+    <t>http://aws.amazon.com/code</t>
+  </si>
+  <si>
+    <t>AWS SDK (software Development Kit)</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AWSImportExport/latest/DG/introduction.html</t>
+  </si>
+  <si>
+    <t>AWS Import/Export</t>
+  </si>
+  <si>
+    <t>http://aws.amazon.com/elasticmapreduce/</t>
+  </si>
+  <si>
+    <t>Amazon Elastic Map reduce</t>
+  </si>
+  <si>
+    <t>http://aws.amazon.com/ec2/</t>
+  </si>
+  <si>
+    <t>Amazon EC2 (Elastic Compute Cloud)</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/IAM/latest/UserGuide/introduction.html</t>
+  </si>
+  <si>
+    <t>IAM user guide</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/IAM/latest/UserGuide/getting-started.html</t>
+  </si>
+  <si>
+    <t>IAM Getting started</t>
+  </si>
+  <si>
+    <t>http://aws.amazon.com/iam/</t>
+  </si>
+  <si>
+    <t>Identity and Access Management</t>
+  </si>
+  <si>
+    <t>1. REST through HTTP
+2. SOAP through HTTPS (SOAP through HTTP is not supported)</t>
+  </si>
+  <si>
+    <t>Amazon S3 API</t>
+  </si>
+  <si>
+    <t>1. Create a Bucket – Create and name your own bucket in which to store your objects.
+2. Write an Object – Store data by creating or overwriting an object.When you write an object, you specify a unique key in the namespace of your bucket. This is also a good time to specify any access control you want on the object.
+3. Read an Object – Read data back.You can download the data via HTTP or BitTorrent.
+4. Deleting an Object – Delete some of your data.
+5. Listing Keys – List the keys contained in one of your buckets.You can filter the key list based on a prefix.</t>
+  </si>
+  <si>
+    <t>Common Operations</t>
+  </si>
+  <si>
+    <t>Amazon Elastic Map Reduce</t>
+  </si>
+  <si>
+    <t>Amazon EMR</t>
+  </si>
+  <si>
+    <t>Amazon Elastic Compute Cloud</t>
+  </si>
+  <si>
+    <t>Amazon EC2</t>
+  </si>
+  <si>
+    <t>Amazon Resource Names</t>
+  </si>
+  <si>
+    <t>Bucket Policies</t>
+  </si>
+  <si>
+    <t>Reduced Redundancy Storage (RRS)</t>
+  </si>
+  <si>
+    <t>Eventually Consistent Read</t>
+  </si>
+  <si>
+    <t>Consistent Read</t>
+  </si>
+  <si>
+    <t>Regions</t>
+  </si>
+  <si>
+    <t>Keys</t>
+  </si>
+  <si>
+    <t>Objects</t>
+  </si>
+  <si>
+    <t>Buckets</t>
+  </si>
+  <si>
+    <t>Naming conventions</t>
   </si>
 </sst>
 </file>
@@ -3764,7 +3871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3902,6 +4009,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3954,6 +4064,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4301,7 +4417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
@@ -4337,7 +4453,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="50" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
@@ -4345,19 +4461,19 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="49"/>
+      <c r="A5" s="50"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="49"/>
+      <c r="A6" s="50"/>
       <c r="B6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="50" t="s">
         <v>102</v>
       </c>
       <c r="B7" t="s">
@@ -4365,7 +4481,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="49"/>
+      <c r="A8" s="50"/>
       <c r="B8" t="s">
         <v>104</v>
       </c>
@@ -4379,7 +4495,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="50" t="s">
         <v>36</v>
       </c>
       <c r="B10" t="s">
@@ -4387,19 +4503,19 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="49"/>
+      <c r="A11" s="50"/>
       <c r="B11" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="49"/>
+      <c r="A12" s="50"/>
       <c r="B12" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="49"/>
+      <c r="A13" s="50"/>
       <c r="B13" t="s">
         <v>237</v>
       </c>
@@ -4496,10 +4612,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="54" t="s">
         <v>374</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4545,10 +4661,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="66" t="s">
         <v>376</v>
       </c>
-      <c r="B8" s="66"/>
+      <c r="B8" s="67"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
@@ -4573,11 +4689,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4595,10 +4711,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>389</v>
       </c>
-      <c r="B2" s="66"/>
+      <c r="B2" s="67"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="32" t="s">
@@ -4634,97 +4750,291 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="65" t="s">
+        <v>497</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="65"/>
+      <c r="B8" s="33" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="49" t="s">
+        <v>549</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="49" t="s">
+        <v>547</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="49" t="s">
+        <v>545</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="49" t="s">
+        <v>543</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="49" t="s">
+        <v>541</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="49" t="s">
+        <v>539</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="49" t="s">
+        <v>537</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="49"/>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="69" t="s">
+        <v>569</v>
+      </c>
+      <c r="B17" s="68"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="49" t="s">
+        <v>568</v>
+      </c>
+      <c r="B18" s="49"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="B19" s="49"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="49" t="s">
+        <v>566</v>
+      </c>
+      <c r="B20" s="49"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="49" t="s">
+        <v>565</v>
+      </c>
+      <c r="B21" s="49"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="49" t="s">
+        <v>564</v>
+      </c>
+      <c r="B22" s="49"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="49" t="s">
+        <v>563</v>
+      </c>
+      <c r="B23" s="49"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="49" t="s">
+        <v>562</v>
+      </c>
+      <c r="B24" s="49"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="49" t="s">
+        <v>561</v>
+      </c>
+      <c r="B25" s="49"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="49" t="s">
+        <v>499</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="49" t="s">
+        <v>559</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="49" t="s">
+        <v>557</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
+    </row>
+    <row r="31" spans="1:2" ht="90">
+      <c r="A31" s="49" t="s">
+        <v>555</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30">
+      <c r="A32" s="49" t="s">
+        <v>553</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="49"/>
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="49"/>
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="49"/>
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="49"/>
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="66" t="s">
         <v>388</v>
       </c>
-      <c r="B7" s="66"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="32" t="s">
+      <c r="B37" s="67"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="32" t="s">
         <v>404</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B38" s="32" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="32" t="s">
+    <row r="39" spans="1:2" ht="30">
+      <c r="A39" s="32" t="s">
         <v>402</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B39" s="32" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="64" t="s">
+    <row r="40" spans="1:2" ht="75">
+      <c r="A40" s="65" t="s">
         <v>400</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B40" s="32" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="64"/>
-      <c r="B11" s="32" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="65"/>
+      <c r="B41" s="32" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="64"/>
-      <c r="B12" s="32" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="65"/>
+      <c r="B42" s="32" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="64"/>
-      <c r="B13" s="32" t="s">
+    <row r="43" spans="1:2" ht="45">
+      <c r="A43" s="65"/>
+      <c r="B43" s="32" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="32" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="32" t="s">
         <v>406</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B44" s="32" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="45">
-      <c r="A15" s="32" t="s">
+    <row r="45" spans="1:2" ht="45">
+      <c r="A45" s="32" t="s">
         <v>408</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B45" s="32" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>497</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B46" s="45" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="45" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="45" t="s">
         <v>499</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B47" s="45" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="45" t="s">
+    <row r="48" spans="1:2" ht="30">
+      <c r="A48" s="45" t="s">
         <v>501</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B48" s="45" t="s">
         <v>502</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A7:B7"/>
+  <mergeCells count="5">
+    <mergeCell ref="A37:B37"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A19" display="Topics"/>
@@ -4733,6 +5043,14 @@
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId6"/>
+    <hyperlink ref="B10" r:id="rId7"/>
+    <hyperlink ref="B11" r:id="rId8"/>
+    <hyperlink ref="B13" r:id="rId9"/>
+    <hyperlink ref="B12" r:id="rId10"/>
+    <hyperlink ref="B14" r:id="rId11"/>
+    <hyperlink ref="B15" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4759,10 +5077,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="66" t="s">
         <v>412</v>
       </c>
-      <c r="B7" s="66"/>
+      <c r="B7" s="67"/>
     </row>
     <row r="8" spans="1:2" ht="45">
       <c r="A8" s="34" t="s">
@@ -4953,10 +5271,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="66" t="s">
         <v>473</v>
       </c>
-      <c r="B5" s="66"/>
+      <c r="B5" s="67"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="41" t="s">
@@ -4991,7 +5309,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="240">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="55" t="s">
         <v>481</v>
       </c>
       <c r="B10" s="41" t="s">
@@ -4999,7 +5317,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="105">
-      <c r="A11" s="54"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="41" t="s">
         <v>482</v>
       </c>
@@ -5058,10 +5376,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="66" t="s">
         <v>533</v>
       </c>
-      <c r="B5" s="66"/>
+      <c r="B5" s="67"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="46" t="s">
@@ -5080,16 +5398,16 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="53" t="s">
         <v>508</v>
       </c>
-      <c r="B8" s="52"/>
+      <c r="B8" s="53"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>509</v>
       </c>
-      <c r="B9" s="52"/>
+      <c r="B9" s="53"/>
     </row>
     <row r="10" spans="1:2" ht="45">
       <c r="A10" s="47" t="s">
@@ -5156,7 +5474,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="61" t="s">
         <v>526</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -5164,13 +5482,13 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="60"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="16" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60">
-      <c r="A20" s="60"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="16" t="s">
         <v>529</v>
       </c>
@@ -5184,10 +5502,10 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="53" t="s">
         <v>532</v>
       </c>
-      <c r="B22" s="52"/>
+      <c r="B22" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5229,10 +5547,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="52"/>
     </row>
     <row r="3" spans="1:2" ht="120">
       <c r="A3" t="s">
@@ -5352,10 +5670,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="52"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -5366,10 +5684,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="53"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
@@ -5380,10 +5698,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
@@ -5402,7 +5720,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="55" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -5410,13 +5728,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="54"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="55" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -5424,7 +5742,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="54"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
@@ -5446,7 +5764,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="55" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -5454,7 +5772,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="54"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
@@ -5476,7 +5794,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="55" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -5484,7 +5802,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="54"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
@@ -5498,10 +5816,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="B22" s="51"/>
+      <c r="B22" s="52"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
@@ -5516,7 +5834,7 @@
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="53" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -5524,7 +5842,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="52"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
@@ -5589,10 +5907,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="B36" s="51"/>
+      <c r="B36" s="52"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="25" t="s">
@@ -5619,10 +5937,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="50" t="s">
+      <c r="A46" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="B46" s="51"/>
+      <c r="B46" s="52"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
@@ -5712,10 +6030,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="52"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -5813,22 +6131,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="58"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="56"/>
+      <c r="B16" s="57"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="11" t="s">
@@ -5876,10 +6194,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="52"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" s="15" t="s">
@@ -5906,7 +6224,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="61" t="s">
         <v>111</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -5914,13 +6232,13 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="60"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="60"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="16" t="s">
         <v>191</v>
       </c>
@@ -5934,7 +6252,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="61" t="s">
         <v>115</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -5942,7 +6260,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="60"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="16" t="s">
         <v>193</v>
       </c>
@@ -6060,7 +6378,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="61" t="s">
         <v>139</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -6068,13 +6386,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="60"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="60"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="16" t="s">
         <v>199</v>
       </c>
@@ -6216,10 +6534,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="61" t="s">
+      <c r="A46" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="62"/>
+      <c r="B46" s="63"/>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="17" t="s">
@@ -6230,7 +6548,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="54" t="s">
+      <c r="A48" s="55" t="s">
         <v>167</v>
       </c>
       <c r="B48" s="16" t="s">
@@ -6238,13 +6556,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="90">
-      <c r="A49" s="54"/>
+      <c r="A49" s="55"/>
       <c r="B49" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="54" t="s">
+      <c r="A50" s="55" t="s">
         <v>170</v>
       </c>
       <c r="B50" s="16" t="s">
@@ -6252,25 +6570,25 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="54"/>
+      <c r="A51" s="55"/>
       <c r="B51" s="16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="54"/>
+      <c r="A52" s="55"/>
       <c r="B52" s="16" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="54"/>
+      <c r="A53" s="55"/>
       <c r="B53" s="16" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="60" t="s">
+      <c r="A54" s="61" t="s">
         <v>175</v>
       </c>
       <c r="B54" s="16" t="s">
@@ -6278,13 +6596,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="60"/>
+      <c r="A55" s="61"/>
       <c r="B55" s="16" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="60"/>
+      <c r="A56" s="61"/>
       <c r="B56" s="16" t="s">
         <v>178</v>
       </c>
@@ -6320,10 +6638,10 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="58" t="s">
+      <c r="A61" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="B61" s="59"/>
+      <c r="B61" s="60"/>
     </row>
     <row r="62" spans="1:2" ht="30">
       <c r="A62" s="23" t="s">
@@ -6449,10 +6767,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>389</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="35" t="s">
@@ -6471,10 +6789,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="54" t="s">
         <v>450</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="37" t="s">
@@ -6533,7 +6851,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="150">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="61" t="s">
         <v>465</v>
       </c>
       <c r="B14" s="39" t="s">
@@ -6541,7 +6859,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="60"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="39" t="s">
         <v>467</v>
       </c>
@@ -6689,7 +7007,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>262</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -6697,7 +7015,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="63"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="9" t="s">
         <v>264</v>
       </c>
@@ -6743,10 +7061,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="54" t="s">
         <v>249</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="54"/>
     </row>
     <row r="13" spans="1:2" ht="90">
       <c r="A13" t="s">
@@ -6803,10 +7121,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>377</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="31" t="s">
@@ -6832,10 +7150,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="54"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="29" t="s">
@@ -6886,7 +7204,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="55" t="s">
         <v>285</v>
       </c>
       <c r="B15" s="29" t="s">
@@ -6894,49 +7212,49 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="240">
-      <c r="A16" s="54"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="29" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="54"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="29" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="54"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="29" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="54"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="29" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="90">
-      <c r="A20" s="54"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="29" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="54"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="29" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="150">
-      <c r="A22" s="54"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="29" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="54"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="29" t="s">
         <v>294</v>
       </c>
@@ -6966,7 +7284,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="180">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="55" t="s">
         <v>301</v>
       </c>
       <c r="B27" s="29" t="s">
@@ -6974,13 +7292,13 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="54"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="29" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="210">
-      <c r="A29" s="54"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="29" t="s">
         <v>303</v>
       </c>
@@ -6994,7 +7312,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="105">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="55" t="s">
         <v>306</v>
       </c>
       <c r="B31" s="29" t="s">
@@ -7002,7 +7320,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="285">
-      <c r="A32" s="54"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="29" t="s">
         <v>308</v>
       </c>
@@ -7056,7 +7374,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="75">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="55" t="s">
         <v>322</v>
       </c>
       <c r="B39" s="29" t="s">
@@ -7064,13 +7382,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="54"/>
+      <c r="A40" s="55"/>
       <c r="B40" s="29" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="135">
-      <c r="A41" s="54"/>
+      <c r="A41" s="55"/>
       <c r="B41" s="29" t="s">
         <v>323</v>
       </c>
@@ -7164,7 +7482,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="30" customHeight="1">
-      <c r="A53" s="54" t="s">
+      <c r="A53" s="55" t="s">
         <v>353</v>
       </c>
       <c r="B53" s="29" t="s">
@@ -7172,13 +7490,13 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="120">
-      <c r="A54" s="54"/>
+      <c r="A54" s="55"/>
       <c r="B54" s="29" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="54" t="s">
+      <c r="A55" s="55" t="s">
         <v>349</v>
       </c>
       <c r="B55" s="29" t="s">
@@ -7186,7 +7504,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="54"/>
+      <c r="A56" s="55"/>
       <c r="B56" s="29" t="s">
         <v>352</v>
       </c>
@@ -7232,7 +7550,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="64" t="s">
+      <c r="A62" s="65" t="s">
         <v>364</v>
       </c>
       <c r="B62" s="29" t="s">
@@ -7240,13 +7558,13 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="64"/>
+      <c r="A63" s="65"/>
       <c r="B63" s="29" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="64" t="s">
+      <c r="A64" s="65" t="s">
         <v>367</v>
       </c>
       <c r="B64" s="29" t="s">
@@ -7254,13 +7572,13 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="45">
-      <c r="A65" s="64"/>
+      <c r="A65" s="65"/>
       <c r="B65" s="29" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="64" t="s">
+      <c r="A66" s="65" t="s">
         <v>370</v>
       </c>
       <c r="B66" s="29" t="s">
@@ -7268,24 +7586,24 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="45">
-      <c r="A67" s="64"/>
+      <c r="A67" s="65"/>
       <c r="B67" s="30" t="s">
         <v>372</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A15:A23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="MongoDB!A2" display="Up"/>

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="948" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="948" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="573">
   <si>
     <t>Lucene</t>
   </si>
@@ -3627,6 +3627,73 @@
   </si>
   <si>
     <t>Naming conventions</t>
+  </si>
+  <si>
+    <t>If we want to write a route builder class, then how to give that bean info in spring xml file?</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;beans xmlns="http://www.springframework.org/schema/beans" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:camel="http://camel.apache.org/schema/spring" xmlns:util="http://www.springframework.org/schema/util"
+    xsi:schemaLocation="http://www.springframework.org/schema/beans http://www.springframework.org/schema/beans/spring-beans-3.0.xsd    
+     http://camel.apache.org/schema/spring http://camel.apache.org/schema/spring/camel-spring.xsd http://www.springframework.org/schema/util http://www.springframework.org/schema/util/spring-util-3.1.xsd"&gt;
+      &lt;bean id="myRouteBuilder" class="com.routebuilder.in.xml.MyRouteBuilder"&gt;&lt;/bean&gt;
+      &lt;camelContext xmlns="http://camel.apache.org/schema/spring"&gt;
+       &lt;routeBuilder ref="myRouteBuilder"/&gt;
+      &lt;/camelContext&gt;
+&lt;/beans&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>package com.routebuilder.in.xml;
+import org.apache.camel.builder.RouteBuilder;
+public class MyRouteBuilder</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> extends RouteBuilder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {
+ @Override
+ public void configure() throws Exception {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>from("file:E:/Backup/JavaPrep/Apache_Camel/router_practice_folder/input?noop=true").to("file:E:/Backup/JavaPrep/Apache_Camel/router_practice_folder/output6").end();</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ }</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3871,7 +3938,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4012,6 +4079,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4066,10 +4136,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4453,7 +4523,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="51" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
@@ -4461,19 +4531,19 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="50"/>
+      <c r="A5" s="51"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="50"/>
+      <c r="A6" s="51"/>
       <c r="B6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="51" t="s">
         <v>102</v>
       </c>
       <c r="B7" t="s">
@@ -4481,7 +4551,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="50"/>
+      <c r="A8" s="51"/>
       <c r="B8" t="s">
         <v>104</v>
       </c>
@@ -4495,7 +4565,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="51" t="s">
         <v>36</v>
       </c>
       <c r="B10" t="s">
@@ -4503,19 +4573,19 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="50"/>
+      <c r="A11" s="51"/>
       <c r="B11" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="50"/>
+      <c r="A12" s="51"/>
       <c r="B12" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="50"/>
+      <c r="A13" s="51"/>
       <c r="B13" t="s">
         <v>237</v>
       </c>
@@ -4612,10 +4682,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="55" t="s">
         <v>374</v>
       </c>
-      <c r="B8" s="54"/>
+      <c r="B8" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4661,10 +4731,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="67" t="s">
         <v>376</v>
       </c>
-      <c r="B8" s="67"/>
+      <c r="B8" s="68"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
@@ -4691,7 +4761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
@@ -4711,10 +4781,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>389</v>
       </c>
-      <c r="B2" s="67"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="32" t="s">
@@ -4749,7 +4819,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="66" t="s">
         <v>497</v>
       </c>
       <c r="B7" s="49" t="s">
@@ -4757,7 +4827,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="65"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="33" t="s">
         <v>550</v>
       </c>
@@ -4826,7 +4896,7 @@
       <c r="A17" s="69" t="s">
         <v>569</v>
       </c>
-      <c r="B17" s="68"/>
+      <c r="B17" s="70"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="49" t="s">
@@ -4941,10 +5011,10 @@
       <c r="B36" s="6"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="66" t="s">
+      <c r="A37" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="B37" s="67"/>
+      <c r="B37" s="68"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="32" t="s">
@@ -4963,7 +5033,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="66" t="s">
         <v>400</v>
       </c>
       <c r="B40" s="32" t="s">
@@ -4971,19 +5041,19 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="65"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="32" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="65"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="32" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="65"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="32" t="s">
         <v>396</v>
       </c>
@@ -5077,10 +5147,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="67" t="s">
         <v>412</v>
       </c>
-      <c r="B7" s="67"/>
+      <c r="B7" s="68"/>
     </row>
     <row r="8" spans="1:2" ht="45">
       <c r="A8" s="34" t="s">
@@ -5271,10 +5341,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>473</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="41" t="s">
@@ -5309,7 +5379,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="240">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="56" t="s">
         <v>481</v>
       </c>
       <c r="B10" s="41" t="s">
@@ -5317,7 +5387,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="105">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="41" t="s">
         <v>482</v>
       </c>
@@ -5376,10 +5446,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>533</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="46" t="s">
@@ -5398,16 +5468,16 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="54" t="s">
         <v>508</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="54"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="54" t="s">
         <v>509</v>
       </c>
-      <c r="B9" s="53"/>
+      <c r="B9" s="54"/>
     </row>
     <row r="10" spans="1:2" ht="45">
       <c r="A10" s="47" t="s">
@@ -5474,7 +5544,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="62" t="s">
         <v>526</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -5482,13 +5552,13 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="61"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="16" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60">
-      <c r="A20" s="61"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="16" t="s">
         <v>529</v>
       </c>
@@ -5502,10 +5572,10 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="54" t="s">
         <v>532</v>
       </c>
-      <c r="B22" s="53"/>
+      <c r="B22" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5547,10 +5617,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2" ht="120">
       <c r="A3" t="s">
@@ -5670,10 +5740,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -5684,10 +5754,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="53"/>
+      <c r="B4" s="54"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
@@ -5698,10 +5768,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="55"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
@@ -5720,7 +5790,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="56" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -5728,13 +5798,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="55"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="56" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -5742,7 +5812,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="55"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
@@ -5764,7 +5834,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="56" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -5772,7 +5842,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="55"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
@@ -5794,7 +5864,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="56" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -5802,7 +5872,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="55"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
@@ -5816,10 +5886,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="B22" s="52"/>
+      <c r="B22" s="53"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
@@ -5834,7 +5904,7 @@
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="54" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -5842,7 +5912,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="53"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
@@ -5907,10 +5977,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="B36" s="52"/>
+      <c r="B36" s="53"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="25" t="s">
@@ -5937,10 +6007,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="B46" s="52"/>
+      <c r="B46" s="53"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
@@ -6030,10 +6100,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -6131,22 +6201,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="59"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="57"/>
+      <c r="B16" s="58"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="11" t="s">
@@ -6194,10 +6264,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" s="15" t="s">
@@ -6224,7 +6294,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>111</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -6232,13 +6302,13 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="61"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="61"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="16" t="s">
         <v>191</v>
       </c>
@@ -6252,7 +6322,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="62" t="s">
         <v>115</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -6260,7 +6330,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="61"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="16" t="s">
         <v>193</v>
       </c>
@@ -6378,7 +6448,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="62" t="s">
         <v>139</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -6386,13 +6456,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="61"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="61"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="16" t="s">
         <v>199</v>
       </c>
@@ -6534,10 +6604,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="62" t="s">
+      <c r="A46" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="63"/>
+      <c r="B46" s="64"/>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="17" t="s">
@@ -6548,7 +6618,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="55" t="s">
+      <c r="A48" s="56" t="s">
         <v>167</v>
       </c>
       <c r="B48" s="16" t="s">
@@ -6556,13 +6626,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="90">
-      <c r="A49" s="55"/>
+      <c r="A49" s="56"/>
       <c r="B49" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="56" t="s">
         <v>170</v>
       </c>
       <c r="B50" s="16" t="s">
@@ -6570,25 +6640,25 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="55"/>
+      <c r="A51" s="56"/>
       <c r="B51" s="16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="55"/>
+      <c r="A52" s="56"/>
       <c r="B52" s="16" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="55"/>
+      <c r="A53" s="56"/>
       <c r="B53" s="16" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="61" t="s">
+      <c r="A54" s="62" t="s">
         <v>175</v>
       </c>
       <c r="B54" s="16" t="s">
@@ -6596,13 +6666,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="61"/>
+      <c r="A55" s="62"/>
       <c r="B55" s="16" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="61"/>
+      <c r="A56" s="62"/>
       <c r="B56" s="16" t="s">
         <v>178</v>
       </c>
@@ -6638,10 +6708,10 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="59" t="s">
+      <c r="A61" s="60" t="s">
         <v>209</v>
       </c>
-      <c r="B61" s="60"/>
+      <c r="B61" s="61"/>
     </row>
     <row r="62" spans="1:2" ht="30">
       <c r="A62" s="23" t="s">
@@ -6747,9 +6817,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6767,10 +6837,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>389</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="35" t="s">
@@ -6789,10 +6859,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="55" t="s">
         <v>450</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="55"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="37" t="s">
@@ -6851,7 +6921,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="150">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="62" t="s">
         <v>465</v>
       </c>
       <c r="B14" s="39" t="s">
@@ -6859,7 +6929,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="61"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="39" t="s">
         <v>467</v>
       </c>
@@ -6904,13 +6974,19 @@
         <v>496</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
+    <row r="21" spans="1:2" ht="165">
+      <c r="A21" s="62" t="s">
+        <v>570</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="120">
+      <c r="A22" s="62"/>
+      <c r="B22" s="50" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="39"/>
@@ -6944,10 +7020,11 @@
       <c r="B30" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1:B1" location="Topics!A11" display="Topics"/>
@@ -6956,6 +7033,7 @@
     <hyperlink ref="B4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7007,7 +7085,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>262</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -7015,7 +7093,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="64"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="9" t="s">
         <v>264</v>
       </c>
@@ -7061,10 +7139,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="55"/>
     </row>
     <row r="13" spans="1:2" ht="90">
       <c r="A13" t="s">
@@ -7121,10 +7199,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>377</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="31" t="s">
@@ -7150,10 +7228,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="55" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="54"/>
+      <c r="B8" s="55"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="29" t="s">
@@ -7204,7 +7282,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="56" t="s">
         <v>285</v>
       </c>
       <c r="B15" s="29" t="s">
@@ -7212,49 +7290,49 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="240">
-      <c r="A16" s="55"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="29" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="55"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="29" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="55"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="29" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="29" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="90">
-      <c r="A20" s="55"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="29" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="55"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="29" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="150">
-      <c r="A22" s="55"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="29" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="55"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="29" t="s">
         <v>294</v>
       </c>
@@ -7284,7 +7362,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="180">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="56" t="s">
         <v>301</v>
       </c>
       <c r="B27" s="29" t="s">
@@ -7292,13 +7370,13 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="55"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="29" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="210">
-      <c r="A29" s="55"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="29" t="s">
         <v>303</v>
       </c>
@@ -7312,7 +7390,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="105">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="56" t="s">
         <v>306</v>
       </c>
       <c r="B31" s="29" t="s">
@@ -7320,7 +7398,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="285">
-      <c r="A32" s="55"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="29" t="s">
         <v>308</v>
       </c>
@@ -7374,7 +7452,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="75">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="56" t="s">
         <v>322</v>
       </c>
       <c r="B39" s="29" t="s">
@@ -7382,13 +7460,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="55"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="29" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="135">
-      <c r="A41" s="55"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="29" t="s">
         <v>323</v>
       </c>
@@ -7482,7 +7560,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="30" customHeight="1">
-      <c r="A53" s="55" t="s">
+      <c r="A53" s="56" t="s">
         <v>353</v>
       </c>
       <c r="B53" s="29" t="s">
@@ -7490,13 +7568,13 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="120">
-      <c r="A54" s="55"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="29" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="55" t="s">
+      <c r="A55" s="56" t="s">
         <v>349</v>
       </c>
       <c r="B55" s="29" t="s">
@@ -7504,7 +7582,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="55"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="29" t="s">
         <v>352</v>
       </c>
@@ -7550,7 +7628,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="65" t="s">
+      <c r="A62" s="66" t="s">
         <v>364</v>
       </c>
       <c r="B62" s="29" t="s">
@@ -7558,13 +7636,13 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="65"/>
+      <c r="A63" s="66"/>
       <c r="B63" s="29" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="65" t="s">
+      <c r="A64" s="66" t="s">
         <v>367</v>
       </c>
       <c r="B64" s="29" t="s">
@@ -7572,13 +7650,13 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="45">
-      <c r="A65" s="65"/>
+      <c r="A65" s="66"/>
       <c r="B65" s="29" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="65" t="s">
+      <c r="A66" s="66" t="s">
         <v>370</v>
       </c>
       <c r="B66" s="29" t="s">
@@ -7586,24 +7664,24 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="45">
-      <c r="A67" s="65"/>
+      <c r="A67" s="66"/>
       <c r="B67" s="30" t="s">
         <v>372</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A15:A23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="MongoDB!A2" display="Up"/>

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="948" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="948" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Cassandra" sheetId="14" r:id="rId13"/>
     <sheet name="File IO" sheetId="15" r:id="rId14"/>
     <sheet name="Class Loading" sheetId="16" r:id="rId15"/>
+    <sheet name="VisualVM" sheetId="17" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="jar" localSheetId="2">'JDK Tools utilities'!$A$11</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="580">
   <si>
     <t>Lucene</t>
   </si>
@@ -3694,6 +3695,27 @@
       <t xml:space="preserve">
  }</t>
     </r>
+  </si>
+  <si>
+    <t>Material Links</t>
+  </si>
+  <si>
+    <t>Tutorial 1</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/klc/entry/visualgc_plugin_for_visualvm</t>
+  </si>
+  <si>
+    <t>Tutorial 2</t>
+  </si>
+  <si>
+    <t>http://androidyou.blogspot.in/2010/06/visualgc-plugin-visualvm.html</t>
+  </si>
+  <si>
+    <t>Tutorial 3</t>
+  </si>
+  <si>
+    <t>http://www.oracle.com/technetwork/java/visualgc-136680.html</t>
   </si>
 </sst>
 </file>
@@ -3938,7 +3960,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4072,6 +4094,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4489,7 +4514,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4523,7 +4548,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
@@ -4531,19 +4556,19 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="51"/>
+      <c r="A5" s="52"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="52" t="s">
         <v>102</v>
       </c>
       <c r="B7" t="s">
@@ -4551,7 +4576,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="51"/>
+      <c r="A8" s="52"/>
       <c r="B8" t="s">
         <v>104</v>
       </c>
@@ -4565,7 +4590,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="52" t="s">
         <v>36</v>
       </c>
       <c r="B10" t="s">
@@ -4573,19 +4598,19 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="51"/>
+      <c r="A11" s="52"/>
       <c r="B11" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="51"/>
+      <c r="A12" s="52"/>
       <c r="B12" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="51"/>
+      <c r="A13" s="52"/>
       <c r="B13" t="s">
         <v>237</v>
       </c>
@@ -4682,10 +4707,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="56" t="s">
         <v>374</v>
       </c>
-      <c r="B8" s="55"/>
+      <c r="B8" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4731,10 +4756,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="68" t="s">
         <v>376</v>
       </c>
-      <c r="B8" s="68"/>
+      <c r="B8" s="69"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
@@ -4781,10 +4806,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>389</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="69"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="32" t="s">
@@ -4819,7 +4844,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="67" t="s">
         <v>497</v>
       </c>
       <c r="B7" s="49" t="s">
@@ -4827,7 +4852,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="66"/>
+      <c r="A8" s="67"/>
       <c r="B8" s="33" t="s">
         <v>550</v>
       </c>
@@ -4893,10 +4918,10 @@
       <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="70" t="s">
         <v>569</v>
       </c>
-      <c r="B17" s="70"/>
+      <c r="B17" s="71"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="49" t="s">
@@ -5011,10 +5036,10 @@
       <c r="B36" s="6"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="67" t="s">
+      <c r="A37" s="68" t="s">
         <v>388</v>
       </c>
-      <c r="B37" s="68"/>
+      <c r="B37" s="69"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="32" t="s">
@@ -5033,7 +5058,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="66" t="s">
+      <c r="A40" s="67" t="s">
         <v>400</v>
       </c>
       <c r="B40" s="32" t="s">
@@ -5041,19 +5066,19 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="66"/>
+      <c r="A41" s="67"/>
       <c r="B41" s="32" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="66"/>
+      <c r="A42" s="67"/>
       <c r="B42" s="32" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="66"/>
+      <c r="A43" s="67"/>
       <c r="B43" s="32" t="s">
         <v>396</v>
       </c>
@@ -5147,10 +5172,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="68" t="s">
         <v>412</v>
       </c>
-      <c r="B7" s="68"/>
+      <c r="B7" s="69"/>
     </row>
     <row r="8" spans="1:2" ht="45">
       <c r="A8" s="34" t="s">
@@ -5341,10 +5366,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>473</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="41" t="s">
@@ -5379,7 +5404,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="240">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="57" t="s">
         <v>481</v>
       </c>
       <c r="B10" s="41" t="s">
@@ -5387,7 +5412,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="105">
-      <c r="A11" s="56"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="41" t="s">
         <v>482</v>
       </c>
@@ -5446,10 +5471,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>533</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="46" t="s">
@@ -5468,16 +5493,16 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="55" t="s">
         <v>508</v>
       </c>
-      <c r="B8" s="54"/>
+      <c r="B8" s="55"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="55" t="s">
         <v>509</v>
       </c>
-      <c r="B9" s="54"/>
+      <c r="B9" s="55"/>
     </row>
     <row r="10" spans="1:2" ht="45">
       <c r="A10" s="47" t="s">
@@ -5544,7 +5569,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="63" t="s">
         <v>526</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -5552,13 +5577,13 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="62"/>
+      <c r="A19" s="63"/>
       <c r="B19" s="16" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60">
-      <c r="A20" s="62"/>
+      <c r="A20" s="63"/>
       <c r="B20" s="16" t="s">
         <v>529</v>
       </c>
@@ -5572,10 +5597,10 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="55" t="s">
         <v>532</v>
       </c>
-      <c r="B22" s="54"/>
+      <c r="B22" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5588,6 +5613,89 @@
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A22" display="Topics"/>
     <hyperlink ref="B1" location="'Class Loading'!A2" display="Up"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="55" customWidth="1"/>
+    <col min="2" max="2" width="121.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="53" t="s">
+        <v>573</v>
+      </c>
+      <c r="B2" s="54"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="51" t="s">
+        <v>574</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="51" t="s">
+        <v>576</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="51" t="s">
+        <v>578</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>579</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5617,10 +5725,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:2" ht="120">
       <c r="A3" t="s">
@@ -5721,8 +5829,8 @@
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5740,10 +5848,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -5754,10 +5862,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="54"/>
+      <c r="B4" s="55"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
@@ -5768,10 +5876,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="56"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
@@ -5790,7 +5898,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="57" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -5798,13 +5906,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="56"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="57" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -5812,7 +5920,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="56"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
@@ -5834,7 +5942,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="57" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -5842,7 +5950,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="56"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
@@ -5864,7 +5972,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="57" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -5872,7 +5980,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="56"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
@@ -5886,10 +5994,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="B22" s="53"/>
+      <c r="B22" s="54"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
@@ -5904,7 +6012,7 @@
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="55" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -5912,7 +6020,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="54"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
@@ -5976,41 +6084,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="52" t="s">
-        <v>230</v>
-      </c>
-      <c r="B36" s="53"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="B39" t="s">
-        <v>236</v>
-      </c>
-    </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="B46" s="53"/>
+      <c r="B46" s="54"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
@@ -6045,8 +6123,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A36:B36"/>
+  <mergeCells count="10">
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A25:A26"/>
@@ -6067,12 +6144,10 @@
     <hyperlink ref="A1" location="Topics!A1" display="Topics"/>
     <hyperlink ref="A1:B1" location="Topics!A3" display="Topics"/>
     <hyperlink ref="B10" r:id="rId6"/>
-    <hyperlink ref="B38" r:id="rId7"/>
-    <hyperlink ref="B37" r:id="rId8"/>
     <hyperlink ref="B1" location="'JDK Tools utilities'!A2" display="Up"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6100,10 +6175,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -6201,22 +6276,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="60"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="59"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="58"/>
+      <c r="B16" s="59"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="11" t="s">
@@ -6264,10 +6339,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" s="15" t="s">
@@ -6294,7 +6369,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>111</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -6302,13 +6377,13 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="62"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="62"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="16" t="s">
         <v>191</v>
       </c>
@@ -6322,7 +6397,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="63" t="s">
         <v>115</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -6330,7 +6405,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="62"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="16" t="s">
         <v>193</v>
       </c>
@@ -6448,7 +6523,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="63" t="s">
         <v>139</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -6456,13 +6531,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="62"/>
+      <c r="A27" s="63"/>
       <c r="B27" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="62"/>
+      <c r="A28" s="63"/>
       <c r="B28" s="16" t="s">
         <v>199</v>
       </c>
@@ -6604,10 +6679,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="63" t="s">
+      <c r="A46" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="64"/>
+      <c r="B46" s="65"/>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="17" t="s">
@@ -6618,7 +6693,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="57" t="s">
         <v>167</v>
       </c>
       <c r="B48" s="16" t="s">
@@ -6626,13 +6701,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="90">
-      <c r="A49" s="56"/>
+      <c r="A49" s="57"/>
       <c r="B49" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="56" t="s">
+      <c r="A50" s="57" t="s">
         <v>170</v>
       </c>
       <c r="B50" s="16" t="s">
@@ -6640,25 +6715,25 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="56"/>
+      <c r="A51" s="57"/>
       <c r="B51" s="16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="56"/>
+      <c r="A52" s="57"/>
       <c r="B52" s="16" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="56"/>
+      <c r="A53" s="57"/>
       <c r="B53" s="16" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="62" t="s">
+      <c r="A54" s="63" t="s">
         <v>175</v>
       </c>
       <c r="B54" s="16" t="s">
@@ -6666,13 +6741,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="62"/>
+      <c r="A55" s="63"/>
       <c r="B55" s="16" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="62"/>
+      <c r="A56" s="63"/>
       <c r="B56" s="16" t="s">
         <v>178</v>
       </c>
@@ -6708,10 +6783,10 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="60" t="s">
+      <c r="A61" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="B61" s="61"/>
+      <c r="B61" s="62"/>
     </row>
     <row r="62" spans="1:2" ht="30">
       <c r="A62" s="23" t="s">
@@ -6817,9 +6892,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21:A22"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6837,10 +6912,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>389</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="35" t="s">
@@ -6859,10 +6934,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="56" t="s">
         <v>450</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="56"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="37" t="s">
@@ -6921,7 +6996,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="150">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="63" t="s">
         <v>465</v>
       </c>
       <c r="B14" s="39" t="s">
@@ -6929,7 +7004,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="62"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="39" t="s">
         <v>467</v>
       </c>
@@ -6975,7 +7050,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="165">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="63" t="s">
         <v>570</v>
       </c>
       <c r="B21" s="50" t="s">
@@ -6983,7 +7058,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="120">
-      <c r="A22" s="62"/>
+      <c r="A22" s="63"/>
       <c r="B22" s="50" t="s">
         <v>572</v>
       </c>
@@ -7085,7 +7160,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="66" t="s">
         <v>262</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -7093,7 +7168,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="65"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="9" t="s">
         <v>264</v>
       </c>
@@ -7139,10 +7214,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="56" t="s">
         <v>249</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="56"/>
     </row>
     <row r="13" spans="1:2" ht="90">
       <c r="A13" t="s">
@@ -7199,10 +7274,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>377</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="31" t="s">
@@ -7228,10 +7303,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="56" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="55"/>
+      <c r="B8" s="56"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="29" t="s">
@@ -7282,7 +7357,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="57" t="s">
         <v>285</v>
       </c>
       <c r="B15" s="29" t="s">
@@ -7290,49 +7365,49 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="240">
-      <c r="A16" s="56"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="29" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="56"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="29" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="56"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="29" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="56"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="29" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="90">
-      <c r="A20" s="56"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="29" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="56"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="29" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="150">
-      <c r="A22" s="56"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="29" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="56"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="29" t="s">
         <v>294</v>
       </c>
@@ -7362,7 +7437,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="180">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="57" t="s">
         <v>301</v>
       </c>
       <c r="B27" s="29" t="s">
@@ -7370,13 +7445,13 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="56"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="29" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="210">
-      <c r="A29" s="56"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="29" t="s">
         <v>303</v>
       </c>
@@ -7390,7 +7465,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="105">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="57" t="s">
         <v>306</v>
       </c>
       <c r="B31" s="29" t="s">
@@ -7398,7 +7473,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="285">
-      <c r="A32" s="56"/>
+      <c r="A32" s="57"/>
       <c r="B32" s="29" t="s">
         <v>308</v>
       </c>
@@ -7452,7 +7527,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="75">
-      <c r="A39" s="56" t="s">
+      <c r="A39" s="57" t="s">
         <v>322</v>
       </c>
       <c r="B39" s="29" t="s">
@@ -7460,13 +7535,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="56"/>
+      <c r="A40" s="57"/>
       <c r="B40" s="29" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="135">
-      <c r="A41" s="56"/>
+      <c r="A41" s="57"/>
       <c r="B41" s="29" t="s">
         <v>323</v>
       </c>
@@ -7560,7 +7635,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="30" customHeight="1">
-      <c r="A53" s="56" t="s">
+      <c r="A53" s="57" t="s">
         <v>353</v>
       </c>
       <c r="B53" s="29" t="s">
@@ -7568,13 +7643,13 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="120">
-      <c r="A54" s="56"/>
+      <c r="A54" s="57"/>
       <c r="B54" s="29" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="56" t="s">
+      <c r="A55" s="57" t="s">
         <v>349</v>
       </c>
       <c r="B55" s="29" t="s">
@@ -7582,7 +7657,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="56"/>
+      <c r="A56" s="57"/>
       <c r="B56" s="29" t="s">
         <v>352</v>
       </c>
@@ -7628,7 +7703,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="66" t="s">
+      <c r="A62" s="67" t="s">
         <v>364</v>
       </c>
       <c r="B62" s="29" t="s">
@@ -7636,13 +7711,13 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="66"/>
+      <c r="A63" s="67"/>
       <c r="B63" s="29" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="66" t="s">
+      <c r="A64" s="67" t="s">
         <v>367</v>
       </c>
       <c r="B64" s="29" t="s">
@@ -7650,13 +7725,13 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="45">
-      <c r="A65" s="66"/>
+      <c r="A65" s="67"/>
       <c r="B65" s="29" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="66" t="s">
+      <c r="A66" s="67" t="s">
         <v>370</v>
       </c>
       <c r="B66" s="29" t="s">
@@ -7664,24 +7739,24 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="45">
-      <c r="A67" s="66"/>
+      <c r="A67" s="67"/>
       <c r="B67" s="30" t="s">
         <v>372</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A15:A23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="MongoDB!A2" display="Up"/>

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="948" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="580">
   <si>
     <t>Lucene</t>
   </si>
@@ -4510,11 +4510,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:A13"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4653,6 +4653,11 @@
     <row r="21" spans="1:1">
       <c r="A21" s="9" t="s">
         <v>503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="9" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4678,6 +4683,7 @@
     <hyperlink ref="A19" location="Cassandra!A1" display="Apache Cassandra"/>
     <hyperlink ref="A20" location="'File IO'!A1" display="File IO"/>
     <hyperlink ref="A21" location="'Class Loading'!A1" display="Class Loading"/>
+    <hyperlink ref="A22" location="VisualVM!A1" display="Visual VM"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5453,7 +5459,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5620,10 +5626,11 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5632,6 +5639,14 @@
     <col min="2" max="2" width="121.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>228</v>
+      </c>
+    </row>
     <row r="2" spans="1:2">
       <c r="A2" s="53" t="s">
         <v>573</v>
@@ -5696,6 +5711,8 @@
     <hyperlink ref="B6" r:id="rId3"/>
     <hyperlink ref="B7" r:id="rId4"/>
     <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="A1" location="Topics!A22" display="Topics"/>
+    <hyperlink ref="B1" location="VisualVM!A2" display="Up"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -12,17 +12,16 @@
     <sheet name="JDK Tools utilities" sheetId="3" r:id="rId3"/>
     <sheet name="Autosys" sheetId="4" r:id="rId4"/>
     <sheet name="HTML" sheetId="5" r:id="rId5"/>
-    <sheet name="JVM" sheetId="6" r:id="rId6"/>
-    <sheet name="Apache Camel" sheetId="8" r:id="rId7"/>
-    <sheet name="OpenAM" sheetId="9" r:id="rId8"/>
-    <sheet name="MongoDB" sheetId="10" r:id="rId9"/>
-    <sheet name="Junit" sheetId="11" r:id="rId10"/>
-    <sheet name="Mockito" sheetId="12" r:id="rId11"/>
-    <sheet name="AmazonWS" sheetId="13" r:id="rId12"/>
-    <sheet name="Cassandra" sheetId="14" r:id="rId13"/>
-    <sheet name="File IO" sheetId="15" r:id="rId14"/>
-    <sheet name="Class Loading" sheetId="16" r:id="rId15"/>
-    <sheet name="VisualVM" sheetId="17" r:id="rId16"/>
+    <sheet name="Apache Camel" sheetId="8" r:id="rId6"/>
+    <sheet name="OpenAM" sheetId="9" r:id="rId7"/>
+    <sheet name="MongoDB" sheetId="10" r:id="rId8"/>
+    <sheet name="Junit" sheetId="11" r:id="rId9"/>
+    <sheet name="Mockito" sheetId="12" r:id="rId10"/>
+    <sheet name="AmazonWS" sheetId="13" r:id="rId11"/>
+    <sheet name="Cassandra" sheetId="14" r:id="rId12"/>
+    <sheet name="File IO" sheetId="15" r:id="rId13"/>
+    <sheet name="Class Loading" sheetId="16" r:id="rId14"/>
+    <sheet name="VisualVM" sheetId="17" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="jar" localSheetId="2">'JDK Tools utilities'!$A$11</definedName>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="472">
   <si>
     <t>Lucene</t>
   </si>
@@ -360,1481 +359,10 @@
 Detects version conflicts between a target Java Archive (JAR) file and currently installed extension JAR files.</t>
   </si>
   <si>
-    <t>JVM</t>
-  </si>
-  <si>
-    <t>JVM Definitions</t>
-  </si>
-  <si>
-    <t>JVM internals by artima</t>
-  </si>
-  <si>
-    <t>Basic understanding of JVM and what JVM contains</t>
-  </si>
-  <si>
-    <t>refer 1_JVM-architecture.jpg in JavaPrep\images\i_JVM</t>
-  </si>
-  <si>
-    <t>JVM Architecture</t>
-  </si>
-  <si>
-    <t>refer 2_jvm_internals.jpg in JavaPrep\images\i_JVM</t>
-  </si>
-  <si>
-    <t>Basic Terminology in JVM</t>
-  </si>
-  <si>
-    <t>1. Class Loader Sub System -&gt; Loading, Linking, Initialization
-2. Loading -&gt; Boot Srap Class Loader, Extension Class Loader, Application Class Loader 
-3. Linking -&gt; Verify, Prepare, Resove
-4. Initialization
-5. Memory Areas in JVM -&gt; Method Area, Heap Area, Stack Area, PC Registers, Native Method Stack
-6. Execution Engine -&gt; Interpreter, JIT Compiler, Profiler, Garbage Collection, JNI
-6.1. JIT Compiler -&gt; Intermediate code generation, Code Optimization, Target Code generation, Machine level language
-6.2. Profiler -&gt; for hot spots</t>
-  </si>
-  <si>
-    <t>Loading -&gt; Class Loaders -&gt; Boot strap class loader, Extension class loader, Application class loader</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Visibility limit:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> A child class loader will have visibility into the parent class loader; But, a parent class loader will not have visibility into child class loader.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Each class loader has its namespace and cache that stores the loaded classes. A different namespace means that the class has been loaded by another class loader.</t>
-    </r>
-  </si>
-  <si>
-    <t>Linking -&gt; Verify, prepare, resolve</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Verify:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Check whether or not the read class is configured as described in the Java Language Specification and JVM specifications
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Prepare:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Prepare a data structure that assigns the memory required by classes and fields, methods, and interfaces defined in the class
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Resolve:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Change all symbolic references in the runtime constant pool of the class to direct references</t>
-    </r>
-  </si>
-  <si>
-    <t>Initialization</t>
-  </si>
-  <si>
-    <t>Memory Areas</t>
-  </si>
-  <si>
-    <t>Method Area, Heap Area, Stack Area, PC Registers, Native method stack</t>
-  </si>
-  <si>
-    <t>Method Area</t>
-  </si>
-  <si>
-    <t>Heap Area</t>
-  </si>
-  <si>
-    <t>StackOverFlowError</t>
-  </si>
-  <si>
-    <t>If the computation in a thread requires a larger JVM stack than permitted, then JVM throws StackOverflowError</t>
-  </si>
-  <si>
-    <t>OutOfMemoryError</t>
-  </si>
-  <si>
-    <t>JVM stacks can be dynamically expanded, and expansion is attempted but insufficient memory can be made available to effect the expansion, or if insufficient memory can be made available to create the initial Java Virtual Machine stack for a new thread, the Java Virtual Machine throws an OutOfMemoryError</t>
-  </si>
-  <si>
-    <t>Diagram representation of runtime areas</t>
-  </si>
-  <si>
-    <t>refer 3_runtime_area.jpg in JavaPrep\images\i_JVM</t>
-  </si>
-  <si>
-    <t>Stack Area</t>
-  </si>
-  <si>
-    <t>Stack Frame contains</t>
-  </si>
-  <si>
-    <t>Local Variable Array, Operand Stack, Frame Data</t>
-  </si>
-  <si>
-    <t>Local Variable Array</t>
-  </si>
-  <si>
-    <t>It has an index starting from 0. 
-0 is the reference of a class instance where the method belongs. From 1, the parameters sent to the method are saved. After the method parameters, the local variables of the method are saved</t>
-  </si>
-  <si>
-    <t>Operand stack</t>
-  </si>
-  <si>
-    <t>An actual workspace of a method. Each method exchanges data between the Operand stack and the local variable array, and pushes or pops other method invoke results.</t>
-  </si>
-  <si>
-    <t>PC Registers</t>
-  </si>
-  <si>
-    <t>One PC (Program Counter) register exists for one thread, and is created when the thread starts. PC register has the address of a JVM instruction being executed now.</t>
-  </si>
-  <si>
-    <t>PC Registers
-Stack Area (consists of Java Stack)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">As each new thread comes into existence, it gets its own </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pc register</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (program counter) and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Java stack</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. If the thread is executing a Java method (not a native method), the value of the pc register indicates the next instruction to execute. A thread's Java stack stores the state of Java (not native) method invocations for the thread. The state of a Java method invocation includes its local variables, the parameters with which it was invoked, its return value (if any), and intermediate calculations. The state of native method invocations is stored in an implementation-dependent way in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>native method stacks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, as well as possibly in registers or other implementation-dependent memory areas.</t>
-    </r>
-  </si>
-  <si>
-    <t>Native method stack</t>
-  </si>
-  <si>
-    <t>A  stack for native code written in a language other than Java. In other words, it is a stack used to execute C/C++ codes invoked through JNI (Java Native Interface). According to the language, a C stack or C++ stack is created.</t>
-  </si>
-  <si>
-    <t>Execution Engine</t>
-  </si>
-  <si>
-    <t>The execution engine must change the bytecode to the language that can be executed by the machine the JVM in. The bytecode can be changed to the suitable language in one of two ways</t>
-  </si>
-  <si>
-    <t>JIT - do not move forward without studying this</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">refer 4_JIT.jpg in JavaPrep\images\i_JVM
-In the above image -&gt; last statement saying -&gt; JIT compiler checks how frequently the method is executed and compile the method only when frequency is higher than certain level. These are called </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hot spots</t>
-    </r>
-  </si>
-  <si>
-    <t>OSMemory contains many JVMs</t>
-  </si>
-  <si>
-    <t>refer 5_JVM_in_OS.jpg in JavaPrep\images\i_JVM</t>
-  </si>
-  <si>
-    <t>Three types of memory areas in JVM</t>
-  </si>
-  <si>
-    <t>Heap memory contains</t>
-  </si>
-  <si>
-    <t>1. All Objects, Shared among all threads
-2. A space that stores instances or objects, and is a target of garbage collection. This space is most frequently mentioned when discussing issues such as JVM performance. JVM vendors can determine how to configure the heap or not to collect garbage.</t>
-  </si>
-  <si>
-    <t>Permanent memory/Method Area contains</t>
-  </si>
-  <si>
-    <t>Thread stack/Stack area</t>
-  </si>
-  <si>
-    <t>Local to each thread, refer objects in heap, local variables of primitive type</t>
-  </si>
-  <si>
-    <t>Introduction to JVM</t>
-  </si>
-  <si>
-    <t>Some interesting areas in JVM</t>
-  </si>
-  <si>
-    <t>1. Interpreters
-2. JIT compilers
-3. More Complex compilers</t>
-  </si>
-  <si>
-    <t>Challenges and novel solutions in JVM design</t>
-  </si>
-  <si>
-    <t>1. Object Oriented
-2. Class loading
-3. Garbage collection</t>
-  </si>
-  <si>
-    <t>The Interpreter</t>
-  </si>
-  <si>
-    <t>Source of inefficiency in interpreter</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. overhead of branching
-2. overhead of decoding
-3. overhead of manipulating locals and the stack
-refer: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d_source_of_inefficiency_in_interpreter (JavaPrep/images/i_JVM)</t>
-    </r>
-  </si>
-  <si>
-    <t>Solutions for inefficiency in interpreters</t>
-  </si>
-  <si>
-    <t>1. Threaded interpreters
-2. cache local and stack values in registers
-3. pre-decoded bytecode
-4. optimize the dispatch by code alignment</t>
-  </si>
-  <si>
-    <t>JIT (Just In Time) compilation</t>
-  </si>
-  <si>
-    <t>Simple JIT compiler</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Turn byte code into a graph
-2. Turn graph into linear sequence of operations that manipulate an infinite pool of virtual registers (each node in graph is made to place its result into a virtual register)
-3. Allocate physical registers for the virtual registers (if there isn't enough we use stacks)
-4. Generate code for each operation with its allocated registers
-refer : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>e_JIT_compiler (JavaPrep/images/i_JVM)</t>
-    </r>
-  </si>
-  <si>
-    <t>Internals of JVM by artima  - https://www.artima.com/insidejvm/ed2/jvm.html</t>
-  </si>
-  <si>
-    <t>Why java virtual machine is Virtual</t>
-  </si>
-  <si>
-    <t>The Java virtual machine is called "virtual" because it is an abstract computer defined by a specification. To run a Java program, you need a concrete implementation of the abstract specification. This chapter describes primarily the abstract specification of the Java virtual machine. To illustrate the abstract definition of certain features, however, this chapter also discusses various ways in which those features could be implemented</t>
-  </si>
-  <si>
-    <t>What is a Java Virtual Machine</t>
-  </si>
-  <si>
-    <t>To understand the Java virtual machine you must first be aware that you may be talking about any of three different things when you say "Java virtual machine." You may be speaking of:
-1. the abstract specification,
-2. a concrete implementation, or
-3. a runtime instance</t>
-  </si>
-  <si>
-    <t>The abstract specification is a concept, described in detail in the book: The Java Virtual Machine Specification, by Tim Lindholm and Frank Yellin. Concrete implementations, which exist on many platforms and come from many vendors, are either all software or a combination of hardware and software. 
-A runtime instance hosts a single running Java application
-Each Java application runs inside a runtime instance of some concrete implementation of the abstract specification of the Java virtual machine.</t>
-  </si>
-  <si>
-    <t>The Lifetime of a Java Virtual Machine</t>
-  </si>
-  <si>
-    <t>A runtime instance of the Java virtual machine has a clear mission in life: to run one Java application. When a Java application starts, a runtime instance is born. When the application completes, the instance dies. If you start three Java applications at the same time, on the same computer, using the same concrete implementation, you'll get three Java virtual machine instances. Each Java application runs inside its own Java virtual machine</t>
-  </si>
-  <si>
-    <t>A Java virtual machine instance starts running its solitary application by invoking the main() method of some initial class. The main() method must be public, static, return void, and accept one parameter: a String array. Any class with such a main() method can be used as the starting point for a Java application</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">One real world example of a Java virtual machine implementation is the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>java.exe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> program from Sun's Java 2 SDK. The main() method of an application's initial class serves as the starting point for that application's initial thread. The initial thread can in turn fire off other threads</t>
-    </r>
-  </si>
-  <si>
-    <t>Inside the Java virtual machine, threads come in two flavors: daemon and non- daemon. A daemon thread is ordinarily a thread used by the virtual machine itself, such as a thread that performs garbage collection. The application, however, can mark any threads it creates as daemon threads. The initial thread of an application--the one that begins at main()--is a non- daemon thread.
-A Java application continues to execute (the virtual machine instance continues to live) as long as any non-daemon threads are still running. When all non-daemon threads of a Java application terminate, the virtual machine instance will exit. If permitted by the security manager, the application can also cause its own demise by invoking the exit() method of class Runtime or System.</t>
-  </si>
-  <si>
-    <t>The Architecture of Java Virtual Machine</t>
-  </si>
-  <si>
-    <t>In the Java virtual machine specification, the behavior of a virtual machine instance is described in terms of subsystems, memory areas, data types, and instructions. These components describe an abstract inner architecture for the abstract Java virtual machine</t>
-  </si>
-  <si>
-    <t>Java virtual machine has a class loader subsystem: a mechanism for loading types (classes and interfaces) given fully qualified names. Each Java virtual machine also has an execution engine: a mechanism responsible for executing the instructions contained in the loaded classes.</t>
-  </si>
-  <si>
-    <t>When a Java virtual machine runs a program, it needs memory to store many things, including bytecodes and other information it extracts from loaded class files, objects the program instantiates, parameters to methods, return values, local variables, and intermediate results of computations. The Java virtual machine organizes the memory it needs to execute a program into several runtime data areas
-Although the same runtime data areas exist in some form in every Java virtual machine implementation, their specification is quite abstract. Many decisions about the structural details of the runtime data areas are left to the designers of individual implementations.
-Different implementations of the virtual machine can have very different memory constraints. Some implementations may have a lot of memory in which to work, others may have very little. Some implementations may be able to take advantage of virtual memory, others may not. The abstract nature of the specification of the runtime data areas helps make it easier to implement the Java virtual machine on a wide variety of computers and devices.</t>
-  </si>
-  <si>
-    <t>Method Area and Heap Area</t>
-  </si>
-  <si>
-    <t>Some runtime data areas are shared among all of an application's threads and others are unique to individual threads. Each instance of the Java virtual machine has one method area and one heap. These areas are shared by all threads running inside the virtual machine. When the virtual machine loads a class file, it parses information about a type from the binary data contained in the class file. It places this type information into the method area. As the program runs, the virtual machine places all objects the program instantiates onto the heap. See Figure 5-2 for a graphical depiction of these memory areas</t>
-  </si>
-  <si>
-    <t>The Java stack is composed of stack frames (or frames). A stack frame contains the state of one Java method invocation. When a thread invokes a method, the Java virtual machine pushes a new frame onto that thread's Java stack. When the method completes, the virtual machine pops and discards the frame for that method.
-The Java virtual machine has no registers to hold intermediate data values. The instruction set uses the Java stack for storage of intermediate data values. This approach was taken by Java's designers to keep the Java virtual machine's instruction set compact and to facilitate implementation on architectures with few or irregular general purpose registers. In addition, the stack-based architecture of the Java virtual machine's instruction set facilitates the code optimization work done by just-in-time and dynamic compilers that operate at run-time in some virtual machine implementations.
-See Figure 5-3 for a graphical depiction of the memory areas the Java virtual machine creates for each thread. These areas are private to the owning thread. No thread can access the pc register or Java stack of another thread</t>
-  </si>
-  <si>
-    <t>Data Types</t>
-  </si>
-  <si>
-    <t>https://www.artima.com/insidejvm/ed2/jvm3.html</t>
-  </si>
-  <si>
-    <t>http://javarevisited.blogspot.in/2011/05/java-heap-space-memory-size-jvm.html</t>
-  </si>
-  <si>
-    <t>10 points about Java Heap Space or Java Heap Memory (Prepare pdf of this and keep in images in free time)</t>
-  </si>
-  <si>
-    <t>http://javarevisited.blogspot.sg/2013/04/what-is-maximum-heap-size-for-32-bit-64-JVM-Java-memory.html</t>
-  </si>
-  <si>
-    <t>Maximum Heap Size of 32 bit or 64-bit JVM in Windows and Linux</t>
-  </si>
-  <si>
-    <t>http://javarevisited.blogspot.sg/2011/11/hotspot-jvm-options-java-examples.html</t>
-  </si>
-  <si>
-    <t>10 Examples of HotSpot JVM Options in Java</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hierarchical Structure:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Class loaders in Java are organized into a hierarchy with a parent-child relationship. The Bootstrap Class Loader is the parent of all class loaders. ClassLoaders follow deligation hierarchy algorithm.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Delegation mode:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Based on the hierarchical structure, load task is delegated between class loaders. Before loading a class, the parent class loader will be checked to determine whether or not the class is in the parent class loader. If the upper class loader has the class, same class is used. If not, the child class loader loads the class.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Bootstrap ClassLoader - JDK/JRE/lib/rt.jar
-2. Extension ClassLoader - JDK/JRE/lib/ext or any directory denoted by java.ext.dirs
-3. Application ClassLoader - CLASSPATH environment variable, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-classpath</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-cp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> option</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Initialization of a class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> consists of -&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>executing its static initializers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>initializers for static fields (class variables)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> declared in the class.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Initialization of an interface</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> consists of -&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>executing the initializers for fields</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (constants) declared in the interface. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Before a class is initialized, its direct superclass must be initialized</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, but </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>interfaces</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> implemented by the class are </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>not</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> initialized. Similarly, the super interfaces of an interface are not initialized before the interface is initialized. 
-All instance variables in the new object and those of its super classes are then initialized to their default values.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>static final variables are not treated as class variables but as constants and are assigned their values at compilation. (Example with Static blocks)</t>
-    </r>
-  </si>
-  <si>
-    <t>1. Static initialization blocks run in the order they appear when the class is first loaded into JVM
-2. Initialization blocks run in the order they appear in the program.
-3. Instance initialization blocks run whenever a new instance of class is created.
-4. Instance initialization blocks run AFTER the super constructor has completed executing and BEFORE current class constructor.
-5. Instance initialization blocks can be used to perform operations those are common to constructors
-6. Finally, the reference to the newly created object is returned as the result</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. An area that corresponds to the constant pool table in the class file format. This area is included in the method area. It plays the most core role in JVM operation. Therefore, the JVM specification separately describes its importance. 
-2. It contains </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>constants of each class and interface</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>all references for fields and methods</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. In short, when a field or method is referred to, the JVM searches the actual address of the field or method on the memory by using the runtime constant pool</t>
-    </r>
-  </si>
-  <si>
-    <t>Method Area -&gt; Runtime constant pool</t>
-  </si>
-  <si>
-    <t>(JVM) Stack: One JVM stack exists for one thread, and is created when the thread starts. It is a stack that saves the Stack Frame (struct). The JVM just pushes or pops the stack frame to the JVM stack. If any exception occurs, each line of the stack trace (on calling printStackTrce(); )represents one stack frame</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">As each new thread comes into existence, it gets its own </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pc register</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (program counter) and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Java stack</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pc registers:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> If the thread is executing a Java method (not a native method), the value of the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pc register indicates the next instruction to execute.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stack area:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> A thread's </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Java stack stores the state of Java (not native) method invocations</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for the thread. The state of a Java method invocation includes its local variables, the parameters with which it was invoked, its return value (if any), and intermediate calculations.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>native method stack:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The state of native method invocations is stored in an implementation-dependent way in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>native method stacks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, as well as possibly in registers or other implementation-dependent memory areas.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The bytecode that is assigned to the runtime data areas in the JVM via class loader is executed by the execution engine.  It is like a CPU executing the machine command one by one. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Each command of the bytecode consists of a 1-byte OpCode and additional Operand. (256 opcodes*)</t>
-    </r>
-  </si>
-  <si>
-    <t>Interpreter: Reads, interprets and executes the bytecode instructions one by one. As it interprets and executes instructions one by one, it can quickly interpret one bytecode, but slowly executes the interpreted result. This is the disadvantage of the interpret language. The language called Bytecode basically runs like an interpreter</t>
-  </si>
-  <si>
-    <t>Permanent/PermGen (Method Area), Heap, Thread Stack</t>
-  </si>
-  <si>
-    <t>Runtime constant pool, field and method information, static variable, and method bytecode for each of the classes and interfaces read by the JVM</t>
-  </si>
-  <si>
-    <t>1. java files will be fed to compiler which generate .class files known as byte code
-2. There will be no linking process using Linker like C
-3. JVM resides in the RAM
-4. During execution using ClassLoader (present in JVM) the class files are brought on the RAM
-5. Byte Code Verifier (present in JVM) verifies for any security breaches
-6. Execution Engine will convert the byte code into native machine code. Here JIT (Just In Time) compiler used to identify HotSpots</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Just in time in virtual machine means, we have some code and we are executing it frequently, so lets compile it so that it can run faster. We don’t compile every thing, we just focus on compiling hot part of the code. So we got name like </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hot Spots</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>In Simple we are concentrating on compiling hot regions of the code.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. The method area is shared by all threads( so not thread safe), created when the JVM starts. 
-2. It stores </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>runtime constant pool, static variables, field</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>method information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>method bytecode for each of the classes and interfaces read</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> by the JVM. 
-3. The method area can be implemented in various formats by JVM vendor. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Oracle Hotspot JVM calls it Permanent Area or Permanent Generation (PermGen)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The garbage collection for the method area is optional for each JVM vendor.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>jvm variables</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: -XX:PermSize, -XX:MaxPermSize</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A space that stores instances or objects, and is a target of garbage collection. This space is most frequently mentioned when discussing issues such as JVM performance. JVM vendors can determine how to configure the heap or not to collect garbage.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Heap Area:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Young generation (Eden, Survivor 1, Survivor 2) + Tenured or Old generation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>minimum heap:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Xms</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>maximum heap:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Xmx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Young generation:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-XX:NewSize, -XX:MaxNewSize</t>
-    </r>
-  </si>
-  <si>
     <t>Apache Camel</t>
   </si>
   <si>
     <t>http://camel.apache.org/getting-started.html</t>
-  </si>
-  <si>
-    <t>1.We want to bridge the gap between platform independent byte code and the machine code of CPU we want to run our java application
-2. Whilst compilers do this better the interpreters still matters</t>
-  </si>
-  <si>
-    <t>Java 8: From PermGen to MetaSpace</t>
-  </si>
-  <si>
-    <t>What this discussion about?</t>
-  </si>
-  <si>
-    <t>This article will share the information that we found so far on the PermGen successor: Metaspace. We will also compare the runtime behavior of the HotSpot 1.7 vs. HotSpot 1.8 (b75) when executing a Java program “leaking” class metadata objects</t>
-  </si>
-  <si>
-    <t>Metaspace</t>
-  </si>
-  <si>
-    <t>The JDK 8 HotSpot JVM is now using native memory for the representation of class metadata and is called Metaspace; similar to the Oracle JRockit and IBM JVM's.
-The good news is that it means no more java.lang.OutOfMemoryError: PermGen space problems and no need for you to tune and monitor this memory space anymore…not so fast. While this change is invisible by default, we will show you next that you will still need to worry about the class metadata memory footprint. Please also keep in mind that this new feature does not magically eliminate class and classloader memory leaks. You will need to track down these problems using a different approach and by learning the new naming convention.</t>
-  </si>
-  <si>
-    <t>PermGen Space in JDK8</t>
-  </si>
-  <si>
-    <t>1. This memory space is completely removed.
-2. The PermSize and MaxPermSize JVM arguments are ignored and a warning is issued if present at start-up</t>
-  </si>
-  <si>
-    <t>Metaspace memory allocation model</t>
-  </si>
-  <si>
-    <t>Most allocations for the class metadata are now allocated out of native memory.
-The klasses that were used to describe class metadata have been removed.</t>
-  </si>
-  <si>
-    <t>Metaspace capacity`</t>
-  </si>
-  <si>
-    <t>By default class metadata allocation is limited by the amount of available native memory (capacity will of course depend if you use a 32-bit JVM vs. 64-bit along with OS virtual memory availability).
-A new flag is available (MaxMetaspaceSize), allowing you to limit the amount of native memory used for class metadata. If you don’t specify this flag, the Metaspace will dynamically re-size depending of the application demand at runtime.</t>
-  </si>
-  <si>
-    <t>Metaspace garbage collection</t>
-  </si>
-  <si>
-    <t>Garbage collection of the dead classes and classloaders is triggered once the class metadata usage reaches the “MaxMetaspaceSize”.
-Proper monitoring &amp; tuning of the Metaspace will obviously be required in order to limit the frequency or delay of such garbage collections. Excessive Metaspace garbage collections may be a symptom of classes, classloaders memory leak or inadequate sizing for your application</t>
-  </si>
-  <si>
-    <t>Java heap space impact</t>
-  </si>
-  <si>
-    <t>Some miscellaneous data has been moved to the Java heap space. This means you may observe an increase of the Java heap space following a future JDK 8 upgrade</t>
-  </si>
-  <si>
-    <t>Metaspace monitoring</t>
-  </si>
-  <si>
-    <t>Metaspace usage is available from the HotSpot 1.8 verbose GC log output.
-Jstat &amp; JVisualVM have not been updated at this point based on our testing with b75 and the old PermGen space references are still present.</t>
-  </si>
-  <si>
-    <t>PermGen_vs_Metaspace_runtime_comparison</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">refer </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>images/i_JVM/f_PermGen_vs_Metaspace_runtime_comparison.pdf</t>
-    </r>
   </si>
   <si>
     <t>Up</t>
@@ -3717,12 +2245,146 @@
   <si>
     <t>http://www.oracle.com/technetwork/java/visualgc-136680.html</t>
   </si>
+  <si>
+    <t xml:space="preserve"> @RunWith(MockitoJunitRunner.class)</t>
+  </si>
+  <si>
+    <t>To create injected object annotate them with this</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Mock
+private ProductDo productDo;</t>
+  </si>
+  <si>
+    <t>To inject above create mock object into another object</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @InjectMocks
+private ProductBo productBo = new ProductBOImpl();</t>
+  </si>
+  <si>
+    <t>In the above case: productDo will be injected into productBO</t>
+  </si>
+  <si>
+    <t>Steps to create Junit test case with Mockito</t>
+  </si>
+  <si>
+    <t>1. Annotate @RunWith(MockitoJunitRunner.class) at class
+2. Annotate objects to be injected with @Mock annotation
+3. Annotate object to which object other objects are injected with @InjectMocks
+4. Making MockitoJunitRunner is used to run the tests. That is done with @RunWith(MockitoJunitRunner.class)
+5. Annotate init() with @Before
+6. init() { MockitoAnnotations.initMocks(this); }
+7. Annotate test method with @Test annotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotate init method with </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Before annotation</t>
+  </si>
+  <si>
+    <t>In the init method</t>
+  </si>
+  <si>
+    <t>MockitoAnnotations.initMocks(this);</t>
+  </si>
+  <si>
+    <t>If getProducts() method is called on productDo then how to return mocks</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">List&lt;Product&gt; products = java.util.Arrays.asList(product1, product2);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>org.mockito.Mockito.stub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(productDo.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getProducts(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>org.mockito.Matchers.anyInt()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+   .toReturn(products);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Declare this annotation at test class level
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>org.mockito.runners.MockitoJunitRunner</t>
+    </r>
+  </si>
+  <si>
+    <t>org.mockito.ArgumentCaptor&lt;T&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3792,14 +2454,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <u/>
       <sz val="11"/>
       <color theme="0"/>
@@ -3827,7 +2481,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3855,12 +2509,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3960,7 +2608,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4000,43 +2648,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4054,7 +2675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4063,7 +2684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4107,6 +2728,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4134,20 +2767,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4180,49 +2801,6 @@
     </mruColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3000375</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>2257425</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="fig5-3.gif"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="38738174"/>
-          <a:ext cx="3000375" cy="2190751"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4514,7 +3092,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4548,7 +3126,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="47" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
@@ -4556,41 +3134,33 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="52"/>
+      <c r="A5" s="47"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="52"/>
+      <c r="A6" s="47"/>
       <c r="B6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" t="s">
-        <v>103</v>
-      </c>
+      <c r="A7" s="47"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="52"/>
-      <c r="B8" t="s">
-        <v>104</v>
-      </c>
+      <c r="A8" s="47"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
-        <v>206</v>
+        <v>102</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>207</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="47" t="s">
         <v>36</v>
       </c>
       <c r="B10" t="s">
@@ -4598,66 +3168,66 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="52"/>
+      <c r="A11" s="47"/>
       <c r="B11" t="s">
-        <v>247</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="52"/>
+      <c r="A12" s="47"/>
       <c r="B12" t="s">
-        <v>230</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="52"/>
+      <c r="A13" s="47"/>
       <c r="B13" t="s">
-        <v>237</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
-        <v>248</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="9" t="s">
-        <v>271</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="9" t="s">
-        <v>373</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="9" t="s">
-        <v>375</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="9" t="s">
-        <v>387</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="9" t="s">
-        <v>411</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="9" t="s">
-        <v>472</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="9" t="s">
-        <v>503</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="9" t="s">
-        <v>230</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4671,7 +3241,6 @@
     <hyperlink ref="A3" location="Autosys!A1" display="Autosys"/>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="A4:A5" location="HTML!A1" display="HTML"/>
-    <hyperlink ref="A7:A8" location="JVM!A1" display="JVM"/>
     <hyperlink ref="A9" location="'Apache Camel'!A1" display="Apache Camel"/>
     <hyperlink ref="B9" r:id="rId2"/>
     <hyperlink ref="A10" location="'JDK Tools utilities'!A1" display="JDK Tools utilities"/>
@@ -4691,94 +3260,116 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.85546875" customWidth="1"/>
-    <col min="2" max="2" width="122.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="56" t="s">
-        <v>374</v>
-      </c>
-      <c r="B8" s="56"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A8:B8"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B1" location="Junit!A2" display="Up"/>
-    <hyperlink ref="A1" location="Topics!A17" display="Topics"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="51.42578125" customWidth="1"/>
+    <col min="1" max="1" width="51.42578125" style="43" customWidth="1"/>
     <col min="2" max="2" width="125.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>228</v>
+      <c r="B1" s="18" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>385</v>
+      <c r="A2" s="43" t="s">
+        <v>261</v>
       </c>
       <c r="B2" t="s">
-        <v>386</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="68" t="s">
-        <v>376</v>
-      </c>
-      <c r="B8" s="69"/>
+      <c r="A8" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="46"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>383</v>
+      <c r="A9" s="43" t="s">
+        <v>259</v>
       </c>
       <c r="B9" t="s">
-        <v>384</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30">
+      <c r="A10" s="43" t="s">
+        <v>470</v>
+      </c>
+      <c r="B10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="43" t="s">
+        <v>457</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="43" t="s">
+        <v>459</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="43" t="s">
+        <v>464</v>
+      </c>
+      <c r="B14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="43" t="s">
+        <v>466</v>
+      </c>
+      <c r="B15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="105">
+      <c r="A16" s="43" t="s">
+        <v>462</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="45">
+      <c r="A17" s="44" t="s">
+        <v>468</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="43" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A8:B8"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Mockito!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A18" display="Topics"/>
@@ -4788,7 +3379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B48"/>
   <sheetViews>
@@ -4804,329 +3395,329 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>228</v>
+      <c r="B1" s="18" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="68" t="s">
-        <v>389</v>
-      </c>
-      <c r="B2" s="69"/>
+      <c r="A2" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="60"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="32" t="s">
-        <v>391</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>390</v>
+      <c r="A3" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>393</v>
+        <v>268</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="32" t="s">
-        <v>394</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>395</v>
+      <c r="A5" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="43" t="s">
-        <v>489</v>
+      <c r="A6" s="34" t="s">
+        <v>365</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>490</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="67" t="s">
-        <v>497</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>551</v>
+      <c r="A7" s="58" t="s">
+        <v>373</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="67"/>
-      <c r="B8" s="33" t="s">
-        <v>550</v>
+      <c r="A8" s="58"/>
+      <c r="B8" s="24" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="49" t="s">
-        <v>549</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>548</v>
+      <c r="A9" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="49" t="s">
-        <v>547</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>546</v>
+      <c r="A10" s="40" t="s">
+        <v>423</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="49" t="s">
-        <v>545</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>544</v>
+      <c r="A11" s="40" t="s">
+        <v>421</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="49" t="s">
-        <v>543</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>542</v>
+      <c r="A12" s="40" t="s">
+        <v>419</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="49" t="s">
-        <v>541</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>540</v>
+      <c r="A13" s="40" t="s">
+        <v>417</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="49" t="s">
-        <v>539</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>538</v>
+      <c r="A14" s="40" t="s">
+        <v>415</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="49" t="s">
-        <v>537</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>536</v>
+      <c r="A15" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="49"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="70" t="s">
-        <v>569</v>
-      </c>
-      <c r="B17" s="71"/>
+      <c r="A17" s="61" t="s">
+        <v>445</v>
+      </c>
+      <c r="B17" s="62"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="49" t="s">
-        <v>568</v>
-      </c>
-      <c r="B18" s="49"/>
+      <c r="A18" s="40" t="s">
+        <v>444</v>
+      </c>
+      <c r="B18" s="40"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="49" t="s">
-        <v>567</v>
-      </c>
-      <c r="B19" s="49"/>
+      <c r="A19" s="40" t="s">
+        <v>443</v>
+      </c>
+      <c r="B19" s="40"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="49" t="s">
-        <v>566</v>
-      </c>
-      <c r="B20" s="49"/>
+      <c r="A20" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="B20" s="40"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="49" t="s">
-        <v>565</v>
-      </c>
-      <c r="B21" s="49"/>
+      <c r="A21" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="B21" s="40"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="49" t="s">
-        <v>564</v>
-      </c>
-      <c r="B22" s="49"/>
+      <c r="A22" s="40" t="s">
+        <v>440</v>
+      </c>
+      <c r="B22" s="40"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="49" t="s">
-        <v>563</v>
-      </c>
-      <c r="B23" s="49"/>
+      <c r="A23" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="B23" s="40"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="49" t="s">
-        <v>562</v>
-      </c>
-      <c r="B24" s="49"/>
+      <c r="A24" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="B24" s="40"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="49" t="s">
-        <v>561</v>
-      </c>
-      <c r="B25" s="49"/>
+      <c r="A25" s="40" t="s">
+        <v>437</v>
+      </c>
+      <c r="B25" s="40"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="49" t="s">
-        <v>499</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>560</v>
+      <c r="A26" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="49" t="s">
-        <v>559</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>558</v>
+      <c r="A27" s="40" t="s">
+        <v>435</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="49" t="s">
-        <v>557</v>
-      </c>
-      <c r="B28" s="49" t="s">
-        <v>556</v>
+      <c r="A28" s="40" t="s">
+        <v>433</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
     </row>
     <row r="31" spans="1:2" ht="90">
-      <c r="A31" s="49" t="s">
-        <v>555</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>554</v>
+      <c r="A31" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="49" t="s">
-        <v>553</v>
-      </c>
-      <c r="B32" s="49" t="s">
-        <v>552</v>
+      <c r="A32" s="40" t="s">
+        <v>429</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="49"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="6"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="49"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="6"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="49"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="6"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="49"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="6"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="68" t="s">
-        <v>388</v>
-      </c>
-      <c r="B37" s="69"/>
+      <c r="A37" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37" s="60"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="32" t="s">
-        <v>404</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>403</v>
+      <c r="A38" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="32" t="s">
-        <v>402</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>401</v>
+      <c r="A39" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="67" t="s">
-        <v>400</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>399</v>
+      <c r="A40" s="58" t="s">
+        <v>276</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="67"/>
-      <c r="B41" s="32" t="s">
-        <v>398</v>
+      <c r="A41" s="58"/>
+      <c r="B41" s="23" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="67"/>
-      <c r="B42" s="32" t="s">
-        <v>397</v>
+      <c r="A42" s="58"/>
+      <c r="B42" s="23" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="67"/>
-      <c r="B43" s="32" t="s">
-        <v>396</v>
+      <c r="A43" s="58"/>
+      <c r="B43" s="23" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="32" t="s">
-        <v>406</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>405</v>
+      <c r="A44" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="45">
-      <c r="A45" s="32" t="s">
-        <v>408</v>
-      </c>
-      <c r="B45" s="32" t="s">
-        <v>407</v>
+      <c r="A45" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>497</v>
-      </c>
-      <c r="B46" s="45" t="s">
-        <v>498</v>
+        <v>373</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="45" t="s">
-        <v>499</v>
-      </c>
-      <c r="B47" s="45" t="s">
-        <v>500</v>
+      <c r="A47" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="45" t="s">
-        <v>501</v>
-      </c>
-      <c r="B48" s="45" t="s">
-        <v>502</v>
+      <c r="A48" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -5157,7 +3748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
@@ -5165,174 +3756,174 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.28515625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="131.7109375" style="34" customWidth="1"/>
+    <col min="1" max="1" width="47.28515625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="131.7109375" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>228</v>
+      <c r="B1" s="18" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="68" t="s">
-        <v>412</v>
-      </c>
-      <c r="B7" s="69"/>
+      <c r="A7" s="59" t="s">
+        <v>288</v>
+      </c>
+      <c r="B7" s="60"/>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="34" t="s">
-        <v>411</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>413</v>
+      <c r="A8" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="34" t="s">
-        <v>415</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>414</v>
+      <c r="A9" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>421</v>
+      <c r="A10" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="34" t="s">
-        <v>418</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>417</v>
+      <c r="A11" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45">
-      <c r="A12" s="34" t="s">
-        <v>419</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>420</v>
+      <c r="A12" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>423</v>
+      <c r="A13" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>425</v>
+      <c r="A14" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>427</v>
+      <c r="A15" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>429</v>
+      <c r="A16" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="34" t="s">
-        <v>430</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>431</v>
+      <c r="A17" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75">
-      <c r="A18" s="34" t="s">
-        <v>432</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>433</v>
+      <c r="A18" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="75">
-      <c r="A19" s="34" t="s">
-        <v>434</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>435</v>
+      <c r="A19" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="34" t="s">
-        <v>436</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>437</v>
+      <c r="A20" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="34" t="s">
-        <v>438</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>439</v>
+      <c r="A21" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="75">
-      <c r="A22" s="34" t="s">
-        <v>440</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>441</v>
+      <c r="A22" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="34" t="s">
-        <v>442</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>443</v>
+      <c r="A23" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="34" t="s">
-        <v>444</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>445</v>
+      <c r="A24" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="34" t="s">
-        <v>446</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>447</v>
+      <c r="A25" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="34" t="s">
-        <v>448</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>449</v>
+      <c r="A26" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -5348,7 +3939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -5359,84 +3950,84 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="58.7109375" style="41" customWidth="1"/>
-    <col min="2" max="2" width="123.42578125" style="41" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" style="32" customWidth="1"/>
+    <col min="2" max="2" width="123.42578125" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>228</v>
+      <c r="B1" s="18" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="68" t="s">
-        <v>473</v>
-      </c>
-      <c r="B5" s="69"/>
+      <c r="A5" s="59" t="s">
+        <v>349</v>
+      </c>
+      <c r="B5" s="60"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="41" t="s">
-        <v>474</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>475</v>
+      <c r="A6" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="41" t="s">
-        <v>476</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>477</v>
+      <c r="A7" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="41" t="s">
-        <v>478</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>479</v>
+      <c r="A8" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="41" t="s">
-        <v>484</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>480</v>
+      <c r="A9" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="240">
-      <c r="A10" s="57" t="s">
-        <v>481</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>483</v>
+      <c r="A10" s="52" t="s">
+        <v>357</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="105">
-      <c r="A11" s="57"/>
-      <c r="B11" s="41" t="s">
-        <v>482</v>
+      <c r="A11" s="52"/>
+      <c r="B11" s="32" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="42" t="s">
-        <v>485</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>486</v>
+      <c r="A12" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="42" t="s">
-        <v>487</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>488</v>
+      <c r="A13" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -5453,7 +4044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -5469,144 +4060,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>228</v>
+      <c r="B1" s="18" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="68" t="s">
-        <v>533</v>
-      </c>
-      <c r="B5" s="69"/>
+      <c r="A5" s="59" t="s">
+        <v>409</v>
+      </c>
+      <c r="B5" s="60"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="46" t="s">
-        <v>504</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>505</v>
+      <c r="A6" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="46" t="s">
-        <v>506</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>507</v>
+      <c r="A7" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="55" t="s">
-        <v>508</v>
-      </c>
-      <c r="B8" s="55"/>
+      <c r="A8" s="50" t="s">
+        <v>384</v>
+      </c>
+      <c r="B8" s="50"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="55" t="s">
-        <v>509</v>
-      </c>
-      <c r="B9" s="55"/>
+      <c r="A9" s="50" t="s">
+        <v>385</v>
+      </c>
+      <c r="B9" s="50"/>
     </row>
     <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="47" t="s">
-        <v>510</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>511</v>
+      <c r="A10" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="47" t="s">
-        <v>512</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>513</v>
+      <c r="A11" s="38" t="s">
+        <v>388</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="46" t="s">
-        <v>514</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>515</v>
+      <c r="A12" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="46" t="s">
-        <v>516</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>517</v>
+      <c r="A13" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="46" t="s">
-        <v>518</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>519</v>
+      <c r="A14" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="46" t="s">
-        <v>520</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>521</v>
+      <c r="A15" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="47" t="s">
-        <v>522</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>523</v>
+      <c r="A16" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="46" t="s">
-        <v>524</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>525</v>
+      <c r="A17" s="37" t="s">
+        <v>400</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="63" t="s">
-        <v>526</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>527</v>
+      <c r="A18" s="56" t="s">
+        <v>402</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="63"/>
-      <c r="B19" s="16" t="s">
-        <v>528</v>
+      <c r="A19" s="56"/>
+      <c r="B19" s="15" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60">
-      <c r="A20" s="63"/>
-      <c r="B20" s="16" t="s">
-        <v>529</v>
+      <c r="A20" s="56"/>
+      <c r="B20" s="15" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="90">
-      <c r="A21" s="46" t="s">
-        <v>530</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>531</v>
+      <c r="A21" s="37" t="s">
+        <v>406</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="55" t="s">
-        <v>532</v>
-      </c>
-      <c r="B22" s="55"/>
+      <c r="A22" s="50" t="s">
+        <v>408</v>
+      </c>
+      <c r="B22" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5624,7 +4215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -5640,65 +4231,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>228</v>
+      <c r="B1" s="18" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
-        <v>573</v>
-      </c>
-      <c r="B2" s="54"/>
+      <c r="A2" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="25" t="s">
-        <v>231</v>
+      <c r="A3" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>232</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="25" t="s">
-        <v>233</v>
+      <c r="A4" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>234</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="25" t="s">
-        <v>235</v>
+      <c r="A5" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="51" t="s">
-        <v>574</v>
+      <c r="A6" s="42" t="s">
+        <v>450</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>575</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="51" t="s">
-        <v>576</v>
+      <c r="A7" s="42" t="s">
+        <v>452</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>577</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="51" t="s">
-        <v>578</v>
+      <c r="A8" s="42" t="s">
+        <v>454</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>579</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -5734,18 +4325,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>228</v>
+      <c r="B1" s="18" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2" ht="120">
       <c r="A3" t="s">
@@ -5857,18 +4448,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>228</v>
+      <c r="B1" s="18" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -5879,10 +4470,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="55"/>
+      <c r="B4" s="50"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
@@ -5893,10 +4484,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="B6" s="56"/>
+      <c r="A6" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="51"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
@@ -5915,7 +4506,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="52" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -5923,13 +4514,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="57"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="52" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -5937,7 +4528,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="57"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
@@ -5959,7 +4550,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="52" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -5967,7 +4558,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="57"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
@@ -5989,7 +4580,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="52" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -5997,7 +4588,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="57"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
@@ -6011,10 +4602,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
-      <c r="A22" s="53" t="s">
-        <v>229</v>
-      </c>
-      <c r="B22" s="54"/>
+      <c r="A22" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="49"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
@@ -6029,7 +4620,7 @@
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="50" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -6037,7 +4628,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="55"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
@@ -6102,41 +4693,41 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="B46" s="54"/>
+      <c r="A46" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="49"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>238</v>
+        <v>114</v>
       </c>
       <c r="B47" t="s">
-        <v>239</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>240</v>
+        <v>116</v>
       </c>
       <c r="B48" t="s">
-        <v>241</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>242</v>
+        <v>118</v>
       </c>
       <c r="B49" t="s">
-        <v>243</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>244</v>
+        <v>120</v>
       </c>
       <c r="B50" t="s">
-        <v>245</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -6184,18 +4775,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>228</v>
+      <c r="B1" s="18" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -6293,22 +4884,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="60"/>
+      <c r="B1" s="55"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="54"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="11" t="s">
@@ -6334,579 +4925,6 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B70"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="45.28515625" customWidth="1"/>
-    <col min="2" max="2" width="122.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="54"/>
-    </row>
-    <row r="3" spans="1:2" ht="30">
-      <c r="A3" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="120">
-      <c r="A5" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="63"/>
-      <c r="B7" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="63"/>
-      <c r="B8" s="16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="63"/>
-      <c r="B11" s="16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="90">
-      <c r="A13" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="75">
-      <c r="A15" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="45">
-      <c r="A17" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="45">
-      <c r="A21" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="120">
-      <c r="A24" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="30">
-      <c r="A25" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="63"/>
-      <c r="B27" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="63"/>
-      <c r="B28" s="16" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="45">
-      <c r="A32" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="30">
-      <c r="A33" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="90">
-      <c r="A35" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="45">
-      <c r="A36" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="45">
-      <c r="A37" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="45">
-      <c r="A38" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="60">
-      <c r="A39" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="60">
-      <c r="A40" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="90">
-      <c r="A42" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="30">
-      <c r="A44" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="64" t="s">
-        <v>164</v>
-      </c>
-      <c r="B46" s="65"/>
-    </row>
-    <row r="47" spans="1:2" ht="60">
-      <c r="A47" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="90">
-      <c r="A49" s="57"/>
-      <c r="B49" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="57"/>
-      <c r="B51" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="57"/>
-      <c r="B52" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="57"/>
-      <c r="B53" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="63" t="s">
-        <v>175</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="63"/>
-      <c r="B55" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="63"/>
-      <c r="B56" s="16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="75">
-      <c r="A57" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="90">
-      <c r="A58" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="180">
-      <c r="A59" s="17"/>
-      <c r="B59" s="16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="61" t="s">
-        <v>209</v>
-      </c>
-      <c r="B61" s="62"/>
-    </row>
-    <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="105">
-      <c r="A63" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="B63" s="22" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="30">
-      <c r="A65" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="60">
-      <c r="A66" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="60">
-      <c r="A67" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="B67" s="22" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="30">
-      <c r="A68" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="45">
-      <c r="A69" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="B69" s="22" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="B70" s="22" t="s">
-        <v>227</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A46:B46"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1:B1" location="Topics!A9" display="Topics"/>
-    <hyperlink ref="B60" r:id="rId1"/>
-    <hyperlink ref="A46:B46" r:id="rId2" display="Internals of JVM by artima  - https://www.artima.com/insidejvm/ed2/jvm.html"/>
-    <hyperlink ref="B43" r:id="rId3"/>
-    <hyperlink ref="B44" r:id="rId4"/>
-    <hyperlink ref="B45" r:id="rId5"/>
-    <hyperlink ref="B1" location="JVM!A2" display="Up"/>
-    <hyperlink ref="A1" location="Topics!A8" display="Topics"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId6"/>
-  <drawing r:id="rId7"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6916,200 +4934,200 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" style="26" customWidth="1"/>
     <col min="2" max="2" width="142.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>228</v>
+      <c r="B1" s="18" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="56" t="s">
-        <v>389</v>
-      </c>
-      <c r="B2" s="56"/>
+      <c r="A2" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="48" t="s">
-        <v>535</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>534</v>
-      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="56" t="s">
-        <v>450</v>
-      </c>
-      <c r="B6" s="56"/>
+      <c r="A6" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="B6" s="51"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="37" t="s">
-        <v>451</v>
+      <c r="A7" s="28" t="s">
+        <v>327</v>
       </c>
       <c r="B7" t="s">
-        <v>454</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="37" t="s">
-        <v>453</v>
+      <c r="A8" s="28" t="s">
+        <v>329</v>
       </c>
       <c r="B8" t="s">
-        <v>455</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="37" t="s">
-        <v>452</v>
+      <c r="A9" s="28" t="s">
+        <v>328</v>
       </c>
       <c r="B9" t="s">
-        <v>456</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="39" t="s">
-        <v>457</v>
+      <c r="A10" s="30" t="s">
+        <v>333</v>
       </c>
       <c r="B10" t="s">
-        <v>459</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="39" t="s">
-        <v>458</v>
+      <c r="A11" s="30" t="s">
+        <v>334</v>
       </c>
       <c r="B11" t="s">
-        <v>460</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="39" t="s">
-        <v>461</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>462</v>
+      <c r="A12" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60">
-      <c r="A13" s="39" t="s">
-        <v>463</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>464</v>
+      <c r="A13" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="150">
-      <c r="A14" s="63" t="s">
-        <v>465</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>466</v>
+      <c r="A14" s="56" t="s">
+        <v>341</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="63"/>
-      <c r="B15" s="39" t="s">
-        <v>467</v>
+      <c r="A15" s="56"/>
+      <c r="B15" s="30" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="40" t="s">
-        <v>468</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>469</v>
+      <c r="A16" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="40" t="s">
-        <v>470</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>471</v>
+      <c r="A17" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="105">
-      <c r="A18" s="44" t="s">
-        <v>493</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>494</v>
+      <c r="A18" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="165">
-      <c r="A19" s="44" t="s">
-        <v>491</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>492</v>
+      <c r="A19" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="225">
-      <c r="A20" s="44" t="s">
-        <v>495</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>496</v>
+      <c r="A20" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="165">
-      <c r="A21" s="63" t="s">
-        <v>570</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>571</v>
+      <c r="A21" s="56" t="s">
+        <v>446</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="120">
-      <c r="A22" s="63"/>
-      <c r="B22" s="50" t="s">
-        <v>572</v>
+      <c r="A22" s="56"/>
+      <c r="B22" s="41" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="B30" s="35"/>
+      <c r="B30" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7129,7 +5147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -7145,103 +5163,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>228</v>
+      <c r="B1" s="18" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>132</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>257</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>258</v>
+        <v>134</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>259</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>136</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>261</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="66" t="s">
-        <v>262</v>
+      <c r="A5" s="57" t="s">
+        <v>138</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>263</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="66"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="9" t="s">
-        <v>264</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>141</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>266</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>143</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>268</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>251</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>252</v>
+        <v>128</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>253</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>254</v>
+        <v>130</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>255</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="B12" s="56"/>
+      <c r="A12" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="51"/>
     </row>
     <row r="13" spans="1:2" ht="90">
       <c r="A13" t="s">
-        <v>269</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>270</v>
+        <v>145</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -7267,7 +5285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B67"/>
   <sheetViews>
@@ -7278,487 +5296,487 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="59.7109375" style="29" customWidth="1"/>
+    <col min="1" max="1" width="59.7109375" style="20" customWidth="1"/>
     <col min="2" max="2" width="121.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="51"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="51"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="60">
+      <c r="A10" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="45">
+      <c r="A11" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="240">
+      <c r="A16" s="52"/>
+      <c r="B16" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="52"/>
+      <c r="B17" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="52"/>
+      <c r="B18" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="52"/>
+      <c r="B19" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="90">
+      <c r="A20" s="52"/>
+      <c r="B20" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="52"/>
+      <c r="B21" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="150">
+      <c r="A22" s="52"/>
+      <c r="B22" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="52"/>
+      <c r="B23" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="180">
+      <c r="A27" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="52"/>
+      <c r="B28" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="210">
+      <c r="A29" s="52"/>
+      <c r="B29" s="20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="210">
+      <c r="A30" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="105">
+      <c r="A31" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="285">
+      <c r="A32" s="52"/>
+      <c r="B32" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30">
+      <c r="A37" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="60">
+      <c r="A38" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="75">
+      <c r="A39" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="75">
+      <c r="A40" s="52"/>
+      <c r="B40" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="135">
+      <c r="A41" s="52"/>
+      <c r="B41" s="20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="45">
+      <c r="A46" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="45">
+      <c r="A47" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30" customHeight="1">
+      <c r="A53" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="120">
+      <c r="A54" s="52"/>
+      <c r="B54" s="20" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="60">
+      <c r="A56" s="52"/>
+      <c r="B56" s="20" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="56" t="s">
-        <v>377</v>
-      </c>
-      <c r="B2" s="56"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="31" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="31" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="31" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="31" t="s">
-        <v>381</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="56" t="s">
-        <v>272</v>
-      </c>
-      <c r="B8" s="56"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="B9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="60">
-      <c r="A10" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="B12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="B13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="57" t="s">
-        <v>285</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="240">
-      <c r="A16" s="57"/>
-      <c r="B16" s="29" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="57"/>
-      <c r="B17" s="29" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="57"/>
-      <c r="B18" s="29" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="57"/>
-      <c r="B19" s="29" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="90">
-      <c r="A20" s="57"/>
-      <c r="B20" s="29" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="57"/>
-      <c r="B21" s="29" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="150">
-      <c r="A22" s="57"/>
-      <c r="B22" s="29" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="57"/>
-      <c r="B23" s="29" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="180">
-      <c r="A27" s="57" t="s">
-        <v>301</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="57"/>
-      <c r="B28" s="29" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="210">
-      <c r="A29" s="57"/>
-      <c r="B29" s="29" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="210">
-      <c r="A30" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="105">
-      <c r="A31" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="285">
-      <c r="A32" s="57"/>
-      <c r="B32" s="29" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="29" t="s">
-        <v>314</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="29" t="s">
-        <v>318</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="29" t="s">
-        <v>320</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="75">
-      <c r="A39" s="57" t="s">
-        <v>322</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="57"/>
-      <c r="B40" s="29" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="135">
-      <c r="A41" s="57"/>
-      <c r="B41" s="29" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="29" t="s">
-        <v>333</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="45">
-      <c r="A47" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="29" t="s">
-        <v>338</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="29" t="s">
-        <v>340</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="29" t="s">
-        <v>346</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="30" customHeight="1">
-      <c r="A53" s="57" t="s">
-        <v>353</v>
-      </c>
-      <c r="B53" s="29" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="120">
-      <c r="A54" s="57"/>
-      <c r="B54" s="29" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="57" t="s">
-        <v>349</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="57"/>
-      <c r="B56" s="29" t="s">
-        <v>352</v>
-      </c>
-    </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>355</v>
+      <c r="A57" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="30">
-      <c r="A58" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="B58" s="29" t="s">
-        <v>359</v>
+      <c r="A58" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="29" t="s">
-        <v>357</v>
-      </c>
-      <c r="B59" s="29" t="s">
-        <v>360</v>
+      <c r="A59" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="29" t="s">
-        <v>358</v>
-      </c>
-      <c r="B60" s="29" t="s">
-        <v>361</v>
+      <c r="A60" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="30">
-      <c r="A61" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="B61" s="29" t="s">
-        <v>363</v>
+      <c r="A61" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="67" t="s">
-        <v>364</v>
-      </c>
-      <c r="B62" s="29" t="s">
-        <v>365</v>
+      <c r="A62" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="67"/>
-      <c r="B63" s="29" t="s">
-        <v>366</v>
+      <c r="A63" s="58"/>
+      <c r="B63" s="20" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="67" t="s">
-        <v>367</v>
-      </c>
-      <c r="B64" s="29" t="s">
-        <v>368</v>
+      <c r="A64" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="45">
-      <c r="A65" s="67"/>
-      <c r="B65" s="29" t="s">
-        <v>369</v>
+      <c r="A65" s="58"/>
+      <c r="B65" s="20" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="67" t="s">
-        <v>370</v>
-      </c>
-      <c r="B66" s="29" t="s">
-        <v>371</v>
+      <c r="A66" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="45">
-      <c r="A67" s="67"/>
-      <c r="B67" s="30" t="s">
-        <v>372</v>
+      <c r="A67" s="58"/>
+      <c r="B67" s="21" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -7783,4 +5801,45 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="50.85546875" customWidth="1"/>
+    <col min="2" max="2" width="122.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Junit!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A17" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="475">
   <si>
     <t>Lucene</t>
   </si>
@@ -2378,6 +2378,15 @@
   </si>
   <si>
     <t>org.mockito.ArgumentCaptor&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>Camel + Rest implementation</t>
+  </si>
+  <si>
+    <t>refer images\t_apache_camel\8_Camel_Rest_Example.docx</t>
+  </si>
+  <si>
+    <t>Projects</t>
   </si>
 </sst>
 </file>
@@ -2608,7 +2617,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2739,6 +2748,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3090,9 +3108,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:A8"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3126,7 +3144,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="50" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
@@ -3134,22 +3152,22 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="47"/>
+      <c r="A5" s="50"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="47"/>
+      <c r="A6" s="50"/>
       <c r="B6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="47"/>
+      <c r="A7" s="50"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="47"/>
+      <c r="A8" s="50"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
@@ -3160,7 +3178,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="50" t="s">
         <v>36</v>
       </c>
       <c r="B10" t="s">
@@ -3168,19 +3186,19 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="47"/>
+      <c r="A11" s="50"/>
       <c r="B11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="47"/>
+      <c r="A12" s="50"/>
       <c r="B12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="47"/>
+      <c r="A13" s="50"/>
       <c r="B13" t="s">
         <v>113</v>
       </c>
@@ -3403,10 +3421,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="60"/>
+      <c r="B2" s="63"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -3441,7 +3459,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="61" t="s">
         <v>373</v>
       </c>
       <c r="B7" s="40" t="s">
@@ -3449,7 +3467,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="58"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="24" t="s">
         <v>426</v>
       </c>
@@ -3515,10 +3533,10 @@
       <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="64" t="s">
         <v>445</v>
       </c>
-      <c r="B17" s="62"/>
+      <c r="B17" s="65"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="40" t="s">
@@ -3633,10 +3651,10 @@
       <c r="B36" s="6"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="59" t="s">
+      <c r="A37" s="62" t="s">
         <v>264</v>
       </c>
-      <c r="B37" s="60"/>
+      <c r="B37" s="63"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="23" t="s">
@@ -3655,7 +3673,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="58" t="s">
+      <c r="A40" s="61" t="s">
         <v>276</v>
       </c>
       <c r="B40" s="23" t="s">
@@ -3663,19 +3681,19 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="58"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="23" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="58"/>
+      <c r="A42" s="61"/>
       <c r="B42" s="23" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="58"/>
+      <c r="A43" s="61"/>
       <c r="B43" s="23" t="s">
         <v>272</v>
       </c>
@@ -3769,10 +3787,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="B7" s="60"/>
+      <c r="B7" s="63"/>
     </row>
     <row r="8" spans="1:2" ht="45">
       <c r="A8" s="25" t="s">
@@ -3963,10 +3981,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="62" t="s">
         <v>349</v>
       </c>
-      <c r="B5" s="60"/>
+      <c r="B5" s="63"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="32" t="s">
@@ -4001,7 +4019,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="240">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="55" t="s">
         <v>357</v>
       </c>
       <c r="B10" s="32" t="s">
@@ -4009,7 +4027,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="105">
-      <c r="A11" s="52"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="32" t="s">
         <v>358</v>
       </c>
@@ -4068,10 +4086,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="62" t="s">
         <v>409</v>
       </c>
-      <c r="B5" s="60"/>
+      <c r="B5" s="63"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="37" t="s">
@@ -4090,16 +4108,16 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="53" t="s">
         <v>384</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="53"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="53" t="s">
         <v>385</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="53"/>
     </row>
     <row r="10" spans="1:2" ht="45">
       <c r="A10" s="38" t="s">
@@ -4166,7 +4184,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="59" t="s">
         <v>402</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -4174,13 +4192,13 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="56"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="15" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60">
-      <c r="A20" s="56"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="15" t="s">
         <v>405</v>
       </c>
@@ -4194,10 +4212,10 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="53" t="s">
         <v>408</v>
       </c>
-      <c r="B22" s="50"/>
+      <c r="B22" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4239,10 +4257,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="51" t="s">
         <v>449</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="52"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
@@ -4333,10 +4351,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="52"/>
     </row>
     <row r="3" spans="1:2" ht="120">
       <c r="A3" t="s">
@@ -4456,10 +4474,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="52"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -4470,10 +4488,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="53"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
@@ -4484,10 +4502,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="51"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
@@ -4506,7 +4524,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="55" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -4514,13 +4532,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="52"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="55" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -4528,7 +4546,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="52"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
@@ -4550,7 +4568,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="55" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -4558,7 +4576,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="52"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
@@ -4580,7 +4598,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="55" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -4588,7 +4606,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="52"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
@@ -4602,10 +4620,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="49"/>
+      <c r="B22" s="52"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
@@ -4620,7 +4638,7 @@
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="53" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -4628,7 +4646,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="50"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
@@ -4693,10 +4711,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="48" t="s">
+      <c r="A46" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="49"/>
+      <c r="B46" s="52"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
@@ -4783,10 +4801,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="52"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -4884,22 +4902,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="58"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="54"/>
+      <c r="B16" s="57"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="11" t="s">
@@ -4925,11 +4943,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4947,10 +4965,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="54" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="26" t="s">
@@ -4968,173 +4986,204 @@
         <v>410</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="49"/>
+      <c r="B5" s="9"/>
+    </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="49"/>
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="54" t="s">
+        <v>474</v>
+      </c>
+      <c r="B7" s="54"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="49"/>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="49"/>
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="49"/>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="54" t="s">
         <v>326</v>
       </c>
-      <c r="B6" s="51"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="28" t="s">
+      <c r="B12" s="54"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B13" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="28" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B14" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="28" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B15" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="30" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B16" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="30" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B17" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="30" t="s">
+    <row r="18" spans="1:2" ht="60">
+      <c r="A18" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B18" s="30" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="60">
-      <c r="A13" s="30" t="s">
+    <row r="19" spans="1:2" ht="60">
+      <c r="A19" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B19" s="30" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="150">
-      <c r="A14" s="56" t="s">
+    <row r="20" spans="1:2" ht="150">
+      <c r="A20" s="59" t="s">
         <v>341</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B20" s="30" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="56"/>
-      <c r="B15" s="30" t="s">
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="59"/>
+      <c r="B21" s="30" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="31" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B22" s="31" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="31" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B23" s="31" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="105">
-      <c r="A18" s="35" t="s">
+    <row r="24" spans="1:2" ht="105">
+      <c r="A24" s="35" t="s">
         <v>369</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B24" s="35" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="165">
-      <c r="A19" s="35" t="s">
+    <row r="25" spans="1:2" ht="165">
+      <c r="A25" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B25" s="35" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="225">
-      <c r="A20" s="35" t="s">
+    <row r="26" spans="1:2" ht="225">
+      <c r="A26" s="35" t="s">
         <v>371</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B26" s="35" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="165">
-      <c r="A21" s="56" t="s">
+    <row r="27" spans="1:2" ht="165">
+      <c r="A27" s="59" t="s">
         <v>446</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B27" s="41" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="120">
-      <c r="A22" s="56"/>
-      <c r="B22" s="41" t="s">
+    <row r="28" spans="1:2" ht="120">
+      <c r="A28" s="59"/>
+      <c r="B28" s="41" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-    </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
+      <c r="A29" s="47" t="s">
+        <v>472</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="B30" s="26"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A14:A15"/>
+  <mergeCells count="5">
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1:B1" location="Topics!A11" display="Topics"/>
@@ -5195,7 +5244,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="60" t="s">
         <v>138</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -5203,7 +5252,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="57"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="9" t="s">
         <v>140</v>
       </c>
@@ -5249,10 +5298,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="54"/>
     </row>
     <row r="13" spans="1:2" ht="90">
       <c r="A13" t="s">
@@ -5309,10 +5358,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="54" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="22" t="s">
@@ -5338,10 +5387,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="51"/>
+      <c r="B8" s="54"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="20" t="s">
@@ -5392,7 +5441,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="55" t="s">
         <v>161</v>
       </c>
       <c r="B15" s="20" t="s">
@@ -5400,49 +5449,49 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="240">
-      <c r="A16" s="52"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="20" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="52"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="20" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="52"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="20" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="52"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="20" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="90">
-      <c r="A20" s="52"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="20" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="52"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="20" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="150">
-      <c r="A22" s="52"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="20" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="52"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="20" t="s">
         <v>170</v>
       </c>
@@ -5472,7 +5521,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="180">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="55" t="s">
         <v>177</v>
       </c>
       <c r="B27" s="20" t="s">
@@ -5480,13 +5529,13 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="52"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="20" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="210">
-      <c r="A29" s="52"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="20" t="s">
         <v>179</v>
       </c>
@@ -5500,7 +5549,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="105">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="55" t="s">
         <v>182</v>
       </c>
       <c r="B31" s="20" t="s">
@@ -5508,7 +5557,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="285">
-      <c r="A32" s="52"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="20" t="s">
         <v>184</v>
       </c>
@@ -5562,7 +5611,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="75">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="55" t="s">
         <v>198</v>
       </c>
       <c r="B39" s="20" t="s">
@@ -5570,13 +5619,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="52"/>
+      <c r="A40" s="55"/>
       <c r="B40" s="20" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="135">
-      <c r="A41" s="52"/>
+      <c r="A41" s="55"/>
       <c r="B41" s="20" t="s">
         <v>199</v>
       </c>
@@ -5670,7 +5719,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="30" customHeight="1">
-      <c r="A53" s="52" t="s">
+      <c r="A53" s="55" t="s">
         <v>229</v>
       </c>
       <c r="B53" s="20" t="s">
@@ -5678,13 +5727,13 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="120">
-      <c r="A54" s="52"/>
+      <c r="A54" s="55"/>
       <c r="B54" s="20" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="52" t="s">
+      <c r="A55" s="55" t="s">
         <v>225</v>
       </c>
       <c r="B55" s="20" t="s">
@@ -5692,7 +5741,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="52"/>
+      <c r="A56" s="55"/>
       <c r="B56" s="20" t="s">
         <v>228</v>
       </c>
@@ -5738,7 +5787,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="58" t="s">
+      <c r="A62" s="61" t="s">
         <v>240</v>
       </c>
       <c r="B62" s="20" t="s">
@@ -5746,13 +5795,13 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="58"/>
+      <c r="A63" s="61"/>
       <c r="B63" s="20" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="58" t="s">
+      <c r="A64" s="61" t="s">
         <v>243</v>
       </c>
       <c r="B64" s="20" t="s">
@@ -5760,13 +5809,13 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="45">
-      <c r="A65" s="58"/>
+      <c r="A65" s="61"/>
       <c r="B65" s="20" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="58" t="s">
+      <c r="A66" s="61" t="s">
         <v>246</v>
       </c>
       <c r="B66" s="20" t="s">
@@ -5774,24 +5823,24 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="45">
-      <c r="A67" s="58"/>
+      <c r="A67" s="61"/>
       <c r="B67" s="21" t="s">
         <v>248</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A15:A23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="MongoDB!A2" display="Up"/>
@@ -5827,10 +5876,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="B8" s="51"/>
+      <c r="B8" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="477">
   <si>
     <t>Lucene</t>
   </si>
@@ -2387,6 +2387,12 @@
   </si>
   <si>
     <t>Projects</t>
+  </si>
+  <si>
+    <t>https://github.com/avinashbabudonthu/ApacheCamel</t>
+  </si>
+  <si>
+    <t>https://github.com/avinashbabudonthu/CamelRest</t>
   </si>
 </sst>
 </file>
@@ -2617,7 +2623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2787,6 +2793,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3421,10 +3430,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="64"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -3459,7 +3468,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>373</v>
       </c>
       <c r="B7" s="40" t="s">
@@ -3467,7 +3476,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="61"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="24" t="s">
         <v>426</v>
       </c>
@@ -3533,10 +3542,10 @@
       <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="65" t="s">
         <v>445</v>
       </c>
-      <c r="B17" s="65"/>
+      <c r="B17" s="66"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="40" t="s">
@@ -3651,10 +3660,10 @@
       <c r="B36" s="6"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="62" t="s">
+      <c r="A37" s="63" t="s">
         <v>264</v>
       </c>
-      <c r="B37" s="63"/>
+      <c r="B37" s="64"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="23" t="s">
@@ -3673,7 +3682,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="61" t="s">
+      <c r="A40" s="62" t="s">
         <v>276</v>
       </c>
       <c r="B40" s="23" t="s">
@@ -3681,19 +3690,19 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="61"/>
+      <c r="A41" s="62"/>
       <c r="B41" s="23" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="61"/>
+      <c r="A42" s="62"/>
       <c r="B42" s="23" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="61"/>
+      <c r="A43" s="62"/>
       <c r="B43" s="23" t="s">
         <v>272</v>
       </c>
@@ -3787,10 +3796,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>288</v>
       </c>
-      <c r="B7" s="63"/>
+      <c r="B7" s="64"/>
     </row>
     <row r="8" spans="1:2" ht="45">
       <c r="A8" s="25" t="s">
@@ -3981,10 +3990,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>349</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="64"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="32" t="s">
@@ -4086,10 +4095,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>409</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="64"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="37" t="s">
@@ -4947,7 +4956,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5001,12 +5010,16 @@
       <c r="B7" s="54"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="49"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="60" t="s">
+        <v>475</v>
+      </c>
+      <c r="B8" s="53"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="49"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="60" t="s">
+        <v>476</v>
+      </c>
+      <c r="B9" s="53"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="49"/>
@@ -5178,21 +5191,25 @@
       <c r="B36" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1:B1" location="Topics!A11" display="Topics"/>
     <hyperlink ref="B1" location="'Apache Camel'!A2" display="Up"/>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="A8" r:id="rId3"/>
+    <hyperlink ref="A9" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -5244,7 +5261,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>138</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -5252,7 +5269,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="60"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="9" t="s">
         <v>140</v>
       </c>
@@ -5787,7 +5804,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="61" t="s">
+      <c r="A62" s="62" t="s">
         <v>240</v>
       </c>
       <c r="B62" s="20" t="s">
@@ -5795,13 +5812,13 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="61"/>
+      <c r="A63" s="62"/>
       <c r="B63" s="20" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="61" t="s">
+      <c r="A64" s="62" t="s">
         <v>243</v>
       </c>
       <c r="B64" s="20" t="s">
@@ -5809,13 +5826,13 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="45">
-      <c r="A65" s="61"/>
+      <c r="A65" s="62"/>
       <c r="B65" s="20" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="61" t="s">
+      <c r="A66" s="62" t="s">
         <v>246</v>
       </c>
       <c r="B66" s="20" t="s">
@@ -5823,7 +5840,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="45">
-      <c r="A67" s="61"/>
+      <c r="A67" s="62"/>
       <c r="B67" s="21" t="s">
         <v>248</v>
       </c>

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="479">
   <si>
     <t>Lucene</t>
   </si>
@@ -2393,6 +2393,12 @@
   </si>
   <si>
     <t>https://github.com/avinashbabudonthu/CamelRest</t>
+  </si>
+  <si>
+    <t>Camel Multicase example</t>
+  </si>
+  <si>
+    <t>refer images\t_apache_camel\9_Multicat_Examples.docx</t>
   </si>
 </sst>
 </file>
@@ -2623,7 +2629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2754,6 +2760,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3153,7 +3162,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="51" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
@@ -3161,22 +3170,22 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="50"/>
+      <c r="A5" s="51"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="50"/>
+      <c r="A6" s="51"/>
       <c r="B6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="50"/>
+      <c r="A7" s="51"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="50"/>
+      <c r="A8" s="51"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
@@ -3187,7 +3196,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="51" t="s">
         <v>36</v>
       </c>
       <c r="B10" t="s">
@@ -3195,19 +3204,19 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="50"/>
+      <c r="A11" s="51"/>
       <c r="B11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="50"/>
+      <c r="A12" s="51"/>
       <c r="B12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="50"/>
+      <c r="A13" s="51"/>
       <c r="B13" t="s">
         <v>113</v>
       </c>
@@ -3430,10 +3439,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="65"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -3468,7 +3477,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>373</v>
       </c>
       <c r="B7" s="40" t="s">
@@ -3476,7 +3485,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="62"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="24" t="s">
         <v>426</v>
       </c>
@@ -3542,10 +3551,10 @@
       <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="66" t="s">
         <v>445</v>
       </c>
-      <c r="B17" s="66"/>
+      <c r="B17" s="67"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="40" t="s">
@@ -3660,10 +3669,10 @@
       <c r="B36" s="6"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="64" t="s">
         <v>264</v>
       </c>
-      <c r="B37" s="64"/>
+      <c r="B37" s="65"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="23" t="s">
@@ -3682,7 +3691,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="62" t="s">
+      <c r="A40" s="63" t="s">
         <v>276</v>
       </c>
       <c r="B40" s="23" t="s">
@@ -3690,19 +3699,19 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="62"/>
+      <c r="A41" s="63"/>
       <c r="B41" s="23" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="62"/>
+      <c r="A42" s="63"/>
       <c r="B42" s="23" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="62"/>
+      <c r="A43" s="63"/>
       <c r="B43" s="23" t="s">
         <v>272</v>
       </c>
@@ -3796,10 +3805,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="64" t="s">
         <v>288</v>
       </c>
-      <c r="B7" s="64"/>
+      <c r="B7" s="65"/>
     </row>
     <row r="8" spans="1:2" ht="45">
       <c r="A8" s="25" t="s">
@@ -3990,10 +3999,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>349</v>
       </c>
-      <c r="B5" s="64"/>
+      <c r="B5" s="65"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="32" t="s">
@@ -4028,7 +4037,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="240">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="56" t="s">
         <v>357</v>
       </c>
       <c r="B10" s="32" t="s">
@@ -4036,7 +4045,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="105">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="32" t="s">
         <v>358</v>
       </c>
@@ -4095,10 +4104,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>409</v>
       </c>
-      <c r="B5" s="64"/>
+      <c r="B5" s="65"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="37" t="s">
@@ -4117,16 +4126,16 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="54" t="s">
         <v>384</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="54"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="54" t="s">
         <v>385</v>
       </c>
-      <c r="B9" s="53"/>
+      <c r="B9" s="54"/>
     </row>
     <row r="10" spans="1:2" ht="45">
       <c r="A10" s="38" t="s">
@@ -4193,7 +4202,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="60" t="s">
         <v>402</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -4201,13 +4210,13 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="59"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="15" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60">
-      <c r="A20" s="59"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="15" t="s">
         <v>405</v>
       </c>
@@ -4221,10 +4230,10 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="54" t="s">
         <v>408</v>
       </c>
-      <c r="B22" s="53"/>
+      <c r="B22" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4266,10 +4275,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>449</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
@@ -4360,10 +4369,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2" ht="120">
       <c r="A3" t="s">
@@ -4483,10 +4492,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -4497,10 +4506,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="53"/>
+      <c r="B4" s="54"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
@@ -4511,10 +4520,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="55"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
@@ -4533,7 +4542,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="56" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -4541,13 +4550,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="55"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="56" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -4555,7 +4564,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="55"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
@@ -4577,7 +4586,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="56" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -4585,7 +4594,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="55"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
@@ -4607,7 +4616,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="56" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -4615,7 +4624,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="55"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
@@ -4629,10 +4638,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="52"/>
+      <c r="B22" s="53"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
@@ -4647,7 +4656,7 @@
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="54" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -4655,7 +4664,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="53"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
@@ -4720,10 +4729,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="52"/>
+      <c r="B46" s="53"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
@@ -4810,10 +4819,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -4911,22 +4920,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="59"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="57"/>
+      <c r="B16" s="58"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="11" t="s">
@@ -4955,7 +4964,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -4974,10 +4983,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="26" t="s">
@@ -5004,32 +5013,32 @@
       <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="55" t="s">
         <v>474</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="55"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="61" t="s">
         <v>475</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="54"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="61" t="s">
         <v>476</v>
       </c>
-      <c r="B9" s="53"/>
+      <c r="B9" s="54"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="49"/>
       <c r="B10" s="9"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="55" t="s">
         <v>326</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="55"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="28" t="s">
@@ -5088,7 +5097,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="150">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="60" t="s">
         <v>341</v>
       </c>
       <c r="B20" s="30" t="s">
@@ -5096,7 +5105,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="59"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="30" t="s">
         <v>343</v>
       </c>
@@ -5142,7 +5151,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="165">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="60" t="s">
         <v>446</v>
       </c>
       <c r="B27" s="41" t="s">
@@ -5150,7 +5159,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="120">
-      <c r="A28" s="59"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="41" t="s">
         <v>448</v>
       </c>
@@ -5164,8 +5173,12 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
+      <c r="A30" s="50" t="s">
+        <v>477</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="30"/>
@@ -5261,7 +5274,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>138</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -5269,7 +5282,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="61"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="9" t="s">
         <v>140</v>
       </c>
@@ -5315,10 +5328,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="55"/>
     </row>
     <row r="13" spans="1:2" ht="90">
       <c r="A13" t="s">
@@ -5375,10 +5388,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="22" t="s">
@@ -5404,10 +5417,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="54"/>
+      <c r="B8" s="55"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="20" t="s">
@@ -5458,7 +5471,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="56" t="s">
         <v>161</v>
       </c>
       <c r="B15" s="20" t="s">
@@ -5466,49 +5479,49 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="240">
-      <c r="A16" s="55"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="20" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="55"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="20" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="55"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="20" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="20" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="90">
-      <c r="A20" s="55"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="20" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="55"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="20" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="150">
-      <c r="A22" s="55"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="20" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="55"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="20" t="s">
         <v>170</v>
       </c>
@@ -5538,7 +5551,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="180">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="56" t="s">
         <v>177</v>
       </c>
       <c r="B27" s="20" t="s">
@@ -5546,13 +5559,13 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="55"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="20" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="210">
-      <c r="A29" s="55"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="20" t="s">
         <v>179</v>
       </c>
@@ -5566,7 +5579,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="105">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="56" t="s">
         <v>182</v>
       </c>
       <c r="B31" s="20" t="s">
@@ -5574,7 +5587,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="285">
-      <c r="A32" s="55"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="20" t="s">
         <v>184</v>
       </c>
@@ -5628,7 +5641,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="75">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="56" t="s">
         <v>198</v>
       </c>
       <c r="B39" s="20" t="s">
@@ -5636,13 +5649,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="55"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="20" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="135">
-      <c r="A41" s="55"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="20" t="s">
         <v>199</v>
       </c>
@@ -5736,7 +5749,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="30" customHeight="1">
-      <c r="A53" s="55" t="s">
+      <c r="A53" s="56" t="s">
         <v>229</v>
       </c>
       <c r="B53" s="20" t="s">
@@ -5744,13 +5757,13 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="120">
-      <c r="A54" s="55"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="20" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="55" t="s">
+      <c r="A55" s="56" t="s">
         <v>225</v>
       </c>
       <c r="B55" s="20" t="s">
@@ -5758,7 +5771,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="55"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="20" t="s">
         <v>228</v>
       </c>
@@ -5804,7 +5817,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="62" t="s">
+      <c r="A62" s="63" t="s">
         <v>240</v>
       </c>
       <c r="B62" s="20" t="s">
@@ -5812,13 +5825,13 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="62"/>
+      <c r="A63" s="63"/>
       <c r="B63" s="20" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="62" t="s">
+      <c r="A64" s="63" t="s">
         <v>243</v>
       </c>
       <c r="B64" s="20" t="s">
@@ -5826,13 +5839,13 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="45">
-      <c r="A65" s="62"/>
+      <c r="A65" s="63"/>
       <c r="B65" s="20" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="62" t="s">
+      <c r="A66" s="63" t="s">
         <v>246</v>
       </c>
       <c r="B66" s="20" t="s">
@@ -5840,24 +5853,24 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="45">
-      <c r="A67" s="62"/>
+      <c r="A67" s="63"/>
       <c r="B67" s="21" t="s">
         <v>248</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A15:A23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="MongoDB!A2" display="Up"/>
@@ -5893,10 +5906,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="B8" s="54"/>
+      <c r="B8" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,10 @@
     <sheet name="Apache Camel" sheetId="8" r:id="rId6"/>
     <sheet name="OpenAM" sheetId="9" r:id="rId7"/>
     <sheet name="MongoDB" sheetId="10" r:id="rId8"/>
-    <sheet name="Junit" sheetId="11" r:id="rId9"/>
-    <sheet name="Mockito" sheetId="12" r:id="rId10"/>
-    <sheet name="AmazonWS" sheetId="13" r:id="rId11"/>
-    <sheet name="Cassandra" sheetId="14" r:id="rId12"/>
-    <sheet name="File IO" sheetId="15" r:id="rId13"/>
-    <sheet name="Class Loading" sheetId="16" r:id="rId14"/>
-    <sheet name="VisualVM" sheetId="17" r:id="rId15"/>
+    <sheet name="Cassandra" sheetId="14" r:id="rId9"/>
+    <sheet name="File IO" sheetId="15" r:id="rId10"/>
+    <sheet name="Class Loading" sheetId="16" r:id="rId11"/>
+    <sheet name="VisualVM" sheetId="17" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="jar" localSheetId="2">'JDK Tools utilities'!$A$11</definedName>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="394">
   <si>
     <t>Lucene</t>
   </si>
@@ -1270,18 +1267,6 @@
     </r>
   </si>
   <si>
-    <t>Junit</t>
-  </si>
-  <si>
-    <t>Junit Definitions</t>
-  </si>
-  <si>
-    <t>Mockito</t>
-  </si>
-  <si>
-    <t>Mockito Definitions</t>
-  </si>
-  <si>
     <t>Order of Reading</t>
   </si>
   <si>
@@ -1339,85 +1324,7 @@
     <t>http://www.tutorialspoint.com/mongodb/mongodb_java.htm</t>
   </si>
   <si>
-    <t>What is Mockito</t>
-  </si>
-  <si>
-    <t>Mockito is Mocking framework to use in Junit</t>
-  </si>
-  <si>
-    <t>Refer</t>
-  </si>
-  <si>
-    <t>images\q_mockito\Unit_tests_with_Mockito.docx</t>
-  </si>
-  <si>
-    <t>Amazon web services</t>
-  </si>
-  <si>
-    <t>Amazon Web Services Definitions</t>
-  </si>
-  <si>
     <t>Links</t>
-  </si>
-  <si>
-    <t>http://aws.amazon.com/documentation/</t>
-  </si>
-  <si>
-    <t>AWS Documentation</t>
-  </si>
-  <si>
-    <t>Amazon S3 Documentation</t>
-  </si>
-  <si>
-    <t>http://aws.amazon.com/documentation/s3/</t>
-  </si>
-  <si>
-    <t>Amazon S3 getting started</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AmazonS3/latest/gsg/s3-gsg.pdf</t>
-  </si>
-  <si>
-    <t>AWS Data Pipeline provides reliable service for data transfer between different AWS compute and storage services (e.g., Amazon S3, Amazon RDS, Amazon DynamoDB, Amazon EMR). In other words, this service is simply a data-driven workload management system, which provides a simple management API for managing and monitoring of data-driven workloads in cloud applications</t>
-  </si>
-  <si>
-    <t>Amazon DynamoDB provides a scalable, low-latency NoSQL online Database Service backed by SSD(Solid State Drive)</t>
-  </si>
-  <si>
-    <t>Amazon Simple Storage Service (S3) provides Web Service based storage</t>
-  </si>
-  <si>
-    <t>1. Amazon Elastic Compute Cloud (EC2) provides scalable virtual private servers using Xen
-2. Amazon Elastic MapReduce (EMR) allows businesses, researchers, data analysts, and developers to easily and cheaply process vast amounts of data. It uses a hosted Hadoop framework running on the web-scale infrastructure of EC2 and Amazon S3.
-3. Amazon Lambda (LAMBDA) provides a compute service that runs code in response to events and automatically manages the compute resources needed to run the code</t>
-  </si>
-  <si>
-    <t>Some products of AWS</t>
-  </si>
-  <si>
-    <t>Amazon EC2 ( Amazon Elastic Compute Cloud)
-Amazon S3 ( Amazon Simple Storage Service)</t>
-  </si>
-  <si>
-    <t>central and best-known of these services</t>
-  </si>
-  <si>
-    <t>Subsidiary of Amazon.com which offers a suite of cloud computing services that make up an on-demand computing platform</t>
-  </si>
-  <si>
-    <t>Amazon Web Services (AWS)</t>
-  </si>
-  <si>
-    <t>Amazon Simple Storage Service</t>
-  </si>
-  <si>
-    <t>Amazon S3</t>
-  </si>
-  <si>
-    <t>Amazon Simple Storage Service (Amazon S3) is storage for the Internet. You can use Amazon S3 to store and retrieve any amount of data at any time, from anywhere on the web. You can accomplish these tasks using the AWS Management Console, which is a simple and intuitive web interface. This guide introduces you to Amazon S3</t>
-  </si>
-  <si>
-    <t>What is Amazon S3</t>
   </si>
   <si>
     <t>http://www.mastertheintegration.com/camel/camel-introduction.html</t>
@@ -1766,12 +1673,6 @@
     <t>java.io.File.separator</t>
   </si>
   <si>
-    <t>Amazon aws console</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/console/</t>
-  </si>
-  <si>
     <t>How to send message to camel from end point</t>
   </si>
   <si>
@@ -1817,25 +1718,6 @@
   template.send("direct:start", exchange);</t>
   </si>
   <si>
-    <t>IAM</t>
-  </si>
-  <si>
-    <t>Identity Access Management</t>
-  </si>
-  <si>
-    <t>ARN</t>
-  </si>
-  <si>
-    <t>Amazon Resource Name</t>
-  </si>
-  <si>
-    <t>amazon command line access</t>
-  </si>
-  <si>
-    <t>1. have to download amazon cli (command line interface)
-2. for cli - google - amazon cli download</t>
-  </si>
-  <si>
     <t>Class Loading</t>
   </si>
   <si>
@@ -2049,113 +1931,6 @@
   </si>
   <si>
     <t>ActiveMQ and apache camel</t>
-  </si>
-  <si>
-    <t>http://aws.amazon.com/sdk-for-java/</t>
-  </si>
-  <si>
-    <t>AWS SDK Java</t>
-  </si>
-  <si>
-    <t>http://aws.amazon.com/code</t>
-  </si>
-  <si>
-    <t>AWS SDK (software Development Kit)</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AWSImportExport/latest/DG/introduction.html</t>
-  </si>
-  <si>
-    <t>AWS Import/Export</t>
-  </si>
-  <si>
-    <t>http://aws.amazon.com/elasticmapreduce/</t>
-  </si>
-  <si>
-    <t>Amazon Elastic Map reduce</t>
-  </si>
-  <si>
-    <t>http://aws.amazon.com/ec2/</t>
-  </si>
-  <si>
-    <t>Amazon EC2 (Elastic Compute Cloud)</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/IAM/latest/UserGuide/introduction.html</t>
-  </si>
-  <si>
-    <t>IAM user guide</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/IAM/latest/UserGuide/getting-started.html</t>
-  </si>
-  <si>
-    <t>IAM Getting started</t>
-  </si>
-  <si>
-    <t>http://aws.amazon.com/iam/</t>
-  </si>
-  <si>
-    <t>Identity and Access Management</t>
-  </si>
-  <si>
-    <t>1. REST through HTTP
-2. SOAP through HTTPS (SOAP through HTTP is not supported)</t>
-  </si>
-  <si>
-    <t>Amazon S3 API</t>
-  </si>
-  <si>
-    <t>1. Create a Bucket – Create and name your own bucket in which to store your objects.
-2. Write an Object – Store data by creating or overwriting an object.When you write an object, you specify a unique key in the namespace of your bucket. This is also a good time to specify any access control you want on the object.
-3. Read an Object – Read data back.You can download the data via HTTP or BitTorrent.
-4. Deleting an Object – Delete some of your data.
-5. Listing Keys – List the keys contained in one of your buckets.You can filter the key list based on a prefix.</t>
-  </si>
-  <si>
-    <t>Common Operations</t>
-  </si>
-  <si>
-    <t>Amazon Elastic Map Reduce</t>
-  </si>
-  <si>
-    <t>Amazon EMR</t>
-  </si>
-  <si>
-    <t>Amazon Elastic Compute Cloud</t>
-  </si>
-  <si>
-    <t>Amazon EC2</t>
-  </si>
-  <si>
-    <t>Amazon Resource Names</t>
-  </si>
-  <si>
-    <t>Bucket Policies</t>
-  </si>
-  <si>
-    <t>Reduced Redundancy Storage (RRS)</t>
-  </si>
-  <si>
-    <t>Eventually Consistent Read</t>
-  </si>
-  <si>
-    <t>Consistent Read</t>
-  </si>
-  <si>
-    <t>Regions</t>
-  </si>
-  <si>
-    <t>Keys</t>
-  </si>
-  <si>
-    <t>Objects</t>
-  </si>
-  <si>
-    <t>Buckets</t>
-  </si>
-  <si>
-    <t>Naming conventions</t>
   </si>
   <si>
     <t>If we want to write a route builder class, then how to give that bean info in spring xml file?</t>
@@ -2246,140 +2021,6 @@
     <t>http://www.oracle.com/technetwork/java/visualgc-136680.html</t>
   </si>
   <si>
-    <t xml:space="preserve"> @RunWith(MockitoJunitRunner.class)</t>
-  </si>
-  <si>
-    <t>To create injected object annotate them with this</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> @Mock
-private ProductDo productDo;</t>
-  </si>
-  <si>
-    <t>To inject above create mock object into another object</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> @InjectMocks
-private ProductBo productBo = new ProductBOImpl();</t>
-  </si>
-  <si>
-    <t>In the above case: productDo will be injected into productBO</t>
-  </si>
-  <si>
-    <t>Steps to create Junit test case with Mockito</t>
-  </si>
-  <si>
-    <t>1. Annotate @RunWith(MockitoJunitRunner.class) at class
-2. Annotate objects to be injected with @Mock annotation
-3. Annotate object to which object other objects are injected with @InjectMocks
-4. Making MockitoJunitRunner is used to run the tests. That is done with @RunWith(MockitoJunitRunner.class)
-5. Annotate init() with @Before
-6. init() { MockitoAnnotations.initMocks(this); }
-7. Annotate test method with @Test annotation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotate init method with </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> @Before annotation</t>
-  </si>
-  <si>
-    <t>In the init method</t>
-  </si>
-  <si>
-    <t>MockitoAnnotations.initMocks(this);</t>
-  </si>
-  <si>
-    <t>If getProducts() method is called on productDo then how to return mocks</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">List&lt;Product&gt; products = java.util.Arrays.asList(product1, product2);
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>org.mockito.Mockito.stub</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(productDo.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>getProducts(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>org.mockito.Matchers.anyInt()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)
-   .toReturn(products);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Declare this annotation at test class level
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>org.mockito.runners.MockitoJunitRunner</t>
-    </r>
-  </si>
-  <si>
-    <t>org.mockito.ArgumentCaptor&lt;T&gt;</t>
-  </si>
-  <si>
     <t>Camel + Rest implementation</t>
   </si>
   <si>
@@ -2399,13 +2040,19 @@
   </si>
   <si>
     <t>refer images\t_apache_camel\9_Multicat_Examples.docx</t>
+  </si>
+  <si>
+    <t>Camel with REST</t>
+  </si>
+  <si>
+    <t>https://www.javacodegeeks.com/2013/03/rest-with-apache-camel.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2452,23 +2099,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2489,20 +2122,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF252525"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2524,12 +2150,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2629,7 +2249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2675,10 +2295,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2687,7 +2307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2696,16 +2316,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2729,13 +2343,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2753,75 +2367,51 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3126,9 +2716,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3162,7 +2752,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="43" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
@@ -3170,22 +2760,22 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="51"/>
+      <c r="A5" s="43"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="51"/>
+      <c r="A6" s="43"/>
       <c r="B6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="51"/>
+      <c r="A7" s="43"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="51"/>
+      <c r="A8" s="43"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
@@ -3196,7 +2786,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="43" t="s">
         <v>36</v>
       </c>
       <c r="B10" t="s">
@@ -3204,19 +2794,19 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="51"/>
+      <c r="A11" s="43"/>
       <c r="B11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="51"/>
+      <c r="A12" s="43"/>
       <c r="B12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="51"/>
+      <c r="A13" s="43"/>
       <c r="B13" t="s">
         <v>113</v>
       </c>
@@ -3232,33 +2822,27 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="9" t="s">
-        <v>249</v>
-      </c>
+      <c r="A16" s="9"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="9" t="s">
-        <v>251</v>
-      </c>
+      <c r="A17" s="9"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="9" t="s">
-        <v>263</v>
-      </c>
+      <c r="A18" s="9"/>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="9" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="9" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="9" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -3282,9 +2866,6 @@
     <hyperlink ref="A10" location="'JDK Tools utilities'!A1" display="JDK Tools utilities"/>
     <hyperlink ref="A14" location="OpenAM!A1" display="Open AM"/>
     <hyperlink ref="A15" location="MongoDB!A1" display="MongoDB"/>
-    <hyperlink ref="A16" location="Junit!A1" display="Junit"/>
-    <hyperlink ref="A17" location="Mockito!A1" display="Mockito"/>
-    <hyperlink ref="A18" location="AmazonWS!A1" display="Amazon web services"/>
     <hyperlink ref="A19" location="Cassandra!A1" display="Apache Cassandra"/>
     <hyperlink ref="A20" location="'File IO'!A1" display="File IO"/>
     <hyperlink ref="A21" location="'Class Loading'!A1" display="Class Loading"/>
@@ -3296,687 +2877,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="51.42578125" style="43" customWidth="1"/>
-    <col min="2" max="2" width="125.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="43" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="45" t="s">
-        <v>252</v>
-      </c>
-      <c r="B8" s="46"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="43" t="s">
-        <v>259</v>
-      </c>
-      <c r="B9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="43" t="s">
-        <v>470</v>
-      </c>
-      <c r="B10" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="43" t="s">
-        <v>457</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="43" t="s">
-        <v>459</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="43" t="s">
-        <v>464</v>
-      </c>
-      <c r="B14" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="43" t="s">
-        <v>466</v>
-      </c>
-      <c r="B15" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="105">
-      <c r="A16" s="43" t="s">
-        <v>462</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="45">
-      <c r="A17" s="44" t="s">
-        <v>468</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="43" t="s">
-        <v>471</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" location="Mockito!A2" display="Up"/>
-    <hyperlink ref="A1" location="Topics!A18" display="Topics"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="55.5703125" customWidth="1"/>
-    <col min="2" max="2" width="122.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="64" t="s">
-        <v>265</v>
-      </c>
-      <c r="B2" s="65"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="34" t="s">
-        <v>365</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="63" t="s">
-        <v>373</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="63"/>
-      <c r="B8" s="24" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="40" t="s">
-        <v>425</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="40" t="s">
-        <v>423</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="40" t="s">
-        <v>421</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="40" t="s">
-        <v>419</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="40" t="s">
-        <v>417</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="40" t="s">
-        <v>415</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="40" t="s">
-        <v>413</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="40"/>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="66" t="s">
-        <v>445</v>
-      </c>
-      <c r="B17" s="67"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="40" t="s">
-        <v>444</v>
-      </c>
-      <c r="B18" s="40"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="40" t="s">
-        <v>443</v>
-      </c>
-      <c r="B19" s="40"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="B20" s="40"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="40" t="s">
-        <v>441</v>
-      </c>
-      <c r="B21" s="40"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="40" t="s">
-        <v>440</v>
-      </c>
-      <c r="B22" s="40"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="40" t="s">
-        <v>439</v>
-      </c>
-      <c r="B23" s="40"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="40" t="s">
-        <v>438</v>
-      </c>
-      <c r="B24" s="40"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="40" t="s">
-        <v>437</v>
-      </c>
-      <c r="B25" s="40"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="B26" s="40" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="40" t="s">
-        <v>435</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="40" t="s">
-        <v>433</v>
-      </c>
-      <c r="B28" s="40" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-    </row>
-    <row r="31" spans="1:2" ht="90">
-      <c r="A31" s="40" t="s">
-        <v>431</v>
-      </c>
-      <c r="B31" s="40" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="40" t="s">
-        <v>429</v>
-      </c>
-      <c r="B32" s="40" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="40"/>
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="40"/>
-      <c r="B34" s="6"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="40"/>
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="40"/>
-      <c r="B36" s="6"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="64" t="s">
-        <v>264</v>
-      </c>
-      <c r="B37" s="65"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="63" t="s">
-        <v>276</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="63"/>
-      <c r="B41" s="23" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="63"/>
-      <c r="B42" s="23" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="63"/>
-      <c r="B43" s="23" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="45">
-      <c r="A45" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>373</v>
-      </c>
-      <c r="B46" s="36" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="B47" s="36" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="B48" s="36" t="s">
-        <v>378</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A17:B17"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Topics!A19" display="Topics"/>
-    <hyperlink ref="B1" location="AmazonWS!A2" display="Up"/>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4"/>
-    <hyperlink ref="B8" r:id="rId5"/>
-    <hyperlink ref="B9" r:id="rId6"/>
-    <hyperlink ref="B10" r:id="rId7"/>
-    <hyperlink ref="B11" r:id="rId8"/>
-    <hyperlink ref="B13" r:id="rId9"/>
-    <hyperlink ref="B12" r:id="rId10"/>
-    <hyperlink ref="B14" r:id="rId11"/>
-    <hyperlink ref="B15" r:id="rId12"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="47.28515625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="131.7109375" style="25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="64" t="s">
-        <v>288</v>
-      </c>
-      <c r="B7" s="65"/>
-    </row>
-    <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="45">
-      <c r="A12" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="75">
-      <c r="A18" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="75">
-      <c r="A19" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="75">
-      <c r="A22" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>325</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A7:B7"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Topics!A20" display="Topics"/>
-    <hyperlink ref="B1" location="Cassandra!A2" display="Up"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3986,8 +2886,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="58.7109375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="123.42578125" style="32" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="123.42578125" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3999,71 +2899,71 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="64" t="s">
-        <v>349</v>
-      </c>
-      <c r="B5" s="65"/>
+      <c r="A5" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" s="57"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="32" t="s">
-        <v>350</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>351</v>
+      <c r="A6" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="32" t="s">
-        <v>352</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>353</v>
+      <c r="A7" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="32" t="s">
-        <v>354</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>355</v>
+      <c r="A8" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="32" t="s">
-        <v>360</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>356</v>
+      <c r="A9" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="240">
-      <c r="A10" s="56" t="s">
-        <v>357</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>359</v>
+      <c r="A10" s="48" t="s">
+        <v>328</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="105">
-      <c r="A11" s="56"/>
-      <c r="B11" s="32" t="s">
-        <v>358</v>
+      <c r="A11" s="48"/>
+      <c r="B11" s="30" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="33" t="s">
-        <v>361</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>362</v>
+      <c r="A12" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>364</v>
+      <c r="A13" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -4080,7 +2980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -4104,136 +3004,136 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="64" t="s">
-        <v>409</v>
-      </c>
-      <c r="B5" s="65"/>
+      <c r="A5" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="B5" s="57"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="37" t="s">
-        <v>380</v>
+      <c r="A6" s="33" t="s">
+        <v>343</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>381</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="37" t="s">
-        <v>382</v>
+      <c r="A7" s="33" t="s">
+        <v>345</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>383</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="54" t="s">
-        <v>384</v>
-      </c>
-      <c r="B8" s="54"/>
+      <c r="A8" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="B8" s="46"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="54" t="s">
-        <v>385</v>
-      </c>
-      <c r="B9" s="54"/>
+      <c r="A9" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="B9" s="46"/>
     </row>
     <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="38" t="s">
-        <v>386</v>
+      <c r="A10" s="34" t="s">
+        <v>349</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="38" t="s">
-        <v>388</v>
+      <c r="A11" s="34" t="s">
+        <v>351</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="37" t="s">
-        <v>390</v>
+      <c r="A12" s="33" t="s">
+        <v>353</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="37" t="s">
-        <v>392</v>
+      <c r="A13" s="33" t="s">
+        <v>355</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="37" t="s">
-        <v>394</v>
+      <c r="A14" s="33" t="s">
+        <v>357</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>395</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="37" t="s">
-        <v>396</v>
+      <c r="A15" s="33" t="s">
+        <v>359</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>397</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="38" t="s">
-        <v>398</v>
+      <c r="A16" s="34" t="s">
+        <v>361</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="37" t="s">
-        <v>400</v>
+      <c r="A17" s="33" t="s">
+        <v>363</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>401</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="60" t="s">
-        <v>402</v>
+      <c r="A18" s="52" t="s">
+        <v>365</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="60"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="15" t="s">
-        <v>404</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60">
-      <c r="A20" s="60"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="15" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="90">
-      <c r="A21" s="37" t="s">
-        <v>406</v>
+      <c r="A21" s="33" t="s">
+        <v>369</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>407</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="54" t="s">
-        <v>408</v>
-      </c>
-      <c r="B22" s="54"/>
+      <c r="A22" s="46" t="s">
+        <v>371</v>
+      </c>
+      <c r="B22" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4251,7 +3151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -4275,10 +3175,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
-        <v>449</v>
-      </c>
-      <c r="B2" s="53"/>
+      <c r="A2" s="44" t="s">
+        <v>378</v>
+      </c>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
@@ -4305,27 +3205,27 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="42" t="s">
-        <v>450</v>
+      <c r="A6" s="37" t="s">
+        <v>379</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>451</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="42" t="s">
-        <v>452</v>
+      <c r="A7" s="37" t="s">
+        <v>381</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>453</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="42" t="s">
-        <v>454</v>
+      <c r="A8" s="37" t="s">
+        <v>383</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>455</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -4369,10 +3269,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:2" ht="120">
       <c r="A3" t="s">
@@ -4474,7 +3374,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36:B39"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4492,10 +3392,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -4506,10 +3406,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="54"/>
+      <c r="B4" s="46"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
@@ -4520,10 +3420,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="47"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
@@ -4542,7 +3442,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="48" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -4550,13 +3450,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="56"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="48" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -4564,7 +3464,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="56"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
@@ -4586,7 +3486,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="48" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -4594,7 +3494,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="56"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
@@ -4616,7 +3516,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="48" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -4624,7 +3524,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="56"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
@@ -4638,10 +3538,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="53"/>
+      <c r="B22" s="45"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
@@ -4656,7 +3556,7 @@
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="46" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -4664,7 +3564,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="54"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
@@ -4729,10 +3629,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="53"/>
+      <c r="B46" s="45"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
@@ -4819,10 +3719,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -4920,22 +3820,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="51"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="58"/>
+      <c r="B16" s="50"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="11" t="s">
@@ -4963,14 +3863,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" style="26" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" style="24" customWidth="1"/>
     <col min="2" max="2" width="142.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4983,225 +3883,229 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="55" t="s">
-        <v>265</v>
-      </c>
-      <c r="B2" s="55"/>
+      <c r="A2" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>285</v>
+      <c r="A3" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="39" t="s">
-        <v>411</v>
+      <c r="A4" s="35" t="s">
+        <v>374</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>410</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="49"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="42" t="s">
+        <v>392</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="49"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="55" t="s">
-        <v>474</v>
-      </c>
-      <c r="B7" s="55"/>
+      <c r="A7" s="47" t="s">
+        <v>387</v>
+      </c>
+      <c r="B7" s="47"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="61" t="s">
-        <v>475</v>
-      </c>
-      <c r="B8" s="54"/>
+      <c r="A8" s="53" t="s">
+        <v>388</v>
+      </c>
+      <c r="B8" s="46"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="61" t="s">
-        <v>476</v>
-      </c>
-      <c r="B9" s="54"/>
+      <c r="A9" s="53" t="s">
+        <v>389</v>
+      </c>
+      <c r="B9" s="46"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="49"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="9"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="55" t="s">
-        <v>326</v>
-      </c>
-      <c r="B12" s="55"/>
+      <c r="A12" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="B12" s="47"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="28" t="s">
-        <v>327</v>
+      <c r="A13" s="26" t="s">
+        <v>298</v>
       </c>
       <c r="B13" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="28" t="s">
-        <v>329</v>
+      <c r="A14" s="26" t="s">
+        <v>300</v>
       </c>
       <c r="B14" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="28" t="s">
-        <v>328</v>
+      <c r="A15" s="26" t="s">
+        <v>299</v>
       </c>
       <c r="B15" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="30" t="s">
-        <v>333</v>
+      <c r="A16" s="28" t="s">
+        <v>304</v>
       </c>
       <c r="B16" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="30" t="s">
-        <v>334</v>
+      <c r="A17" s="28" t="s">
+        <v>305</v>
       </c>
       <c r="B17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="60">
+      <c r="A18" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="60">
+      <c r="A19" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="150">
+      <c r="A20" s="52" t="s">
+        <v>312</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="52"/>
+      <c r="B21" s="28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="105">
+      <c r="A24" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="165">
+      <c r="A25" s="32" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="60">
-      <c r="A18" s="30" t="s">
+      <c r="B25" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="B19" s="30" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="225">
+      <c r="A26" s="32" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="150">
-      <c r="A20" s="60" t="s">
+      <c r="B26" s="32" t="s">
         <v>341</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="60"/>
-      <c r="B21" s="30" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="31" t="s">
-        <v>346</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="105">
-      <c r="A24" s="35" t="s">
-        <v>369</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="165">
-      <c r="A25" s="35" t="s">
-        <v>367</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="225">
-      <c r="A26" s="35" t="s">
-        <v>371</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>372</v>
-      </c>
     </row>
     <row r="27" spans="1:2" ht="165">
-      <c r="A27" s="60" t="s">
-        <v>446</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>447</v>
+      <c r="A27" s="52" t="s">
+        <v>375</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="120">
-      <c r="A28" s="60"/>
-      <c r="B28" s="41" t="s">
-        <v>448</v>
+      <c r="A28" s="52"/>
+      <c r="B28" s="36" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="47" t="s">
-        <v>472</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>473</v>
+      <c r="A29" s="38" t="s">
+        <v>385</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="50" t="s">
-        <v>477</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>478</v>
+      <c r="A30" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="B36" s="26"/>
+      <c r="B36" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5220,9 +4124,10 @@
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="A8" r:id="rId3"/>
     <hyperlink ref="A9" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -5274,7 +4179,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="54" t="s">
         <v>138</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -5282,7 +4187,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="62"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="9" t="s">
         <v>140</v>
       </c>
@@ -5328,10 +4233,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="47"/>
     </row>
     <row r="13" spans="1:2" ht="90">
       <c r="A13" t="s">
@@ -5388,39 +4293,39 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="55" t="s">
-        <v>253</v>
-      </c>
-      <c r="B2" s="55"/>
+      <c r="A2" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="22" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="22" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="22" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="22" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="55"/>
+      <c r="B8" s="47"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="20" t="s">
@@ -5471,7 +4376,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="48" t="s">
         <v>161</v>
       </c>
       <c r="B15" s="20" t="s">
@@ -5479,49 +4384,49 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="240">
-      <c r="A16" s="56"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="20" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="56"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="20" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="56"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="20" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="56"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="20" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="90">
-      <c r="A20" s="56"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="20" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="56"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="20" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="150">
-      <c r="A22" s="56"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="20" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="56"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="20" t="s">
         <v>170</v>
       </c>
@@ -5551,7 +4456,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="180">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="48" t="s">
         <v>177</v>
       </c>
       <c r="B27" s="20" t="s">
@@ -5559,13 +4464,13 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="56"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="20" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="210">
-      <c r="A29" s="56"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="20" t="s">
         <v>179</v>
       </c>
@@ -5579,7 +4484,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="105">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="48" t="s">
         <v>182</v>
       </c>
       <c r="B31" s="20" t="s">
@@ -5587,7 +4492,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="285">
-      <c r="A32" s="56"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="20" t="s">
         <v>184</v>
       </c>
@@ -5641,7 +4546,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="75">
-      <c r="A39" s="56" t="s">
+      <c r="A39" s="48" t="s">
         <v>198</v>
       </c>
       <c r="B39" s="20" t="s">
@@ -5649,13 +4554,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="56"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="20" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="135">
-      <c r="A41" s="56"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="20" t="s">
         <v>199</v>
       </c>
@@ -5749,7 +4654,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="30" customHeight="1">
-      <c r="A53" s="56" t="s">
+      <c r="A53" s="48" t="s">
         <v>229</v>
       </c>
       <c r="B53" s="20" t="s">
@@ -5757,13 +4662,13 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="120">
-      <c r="A54" s="56"/>
+      <c r="A54" s="48"/>
       <c r="B54" s="20" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="56" t="s">
+      <c r="A55" s="48" t="s">
         <v>225</v>
       </c>
       <c r="B55" s="20" t="s">
@@ -5771,7 +4676,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="56"/>
+      <c r="A56" s="48"/>
       <c r="B56" s="20" t="s">
         <v>228</v>
       </c>
@@ -5817,7 +4722,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="63" t="s">
+      <c r="A62" s="55" t="s">
         <v>240</v>
       </c>
       <c r="B62" s="20" t="s">
@@ -5825,13 +4730,13 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="63"/>
+      <c r="A63" s="55"/>
       <c r="B63" s="20" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="63" t="s">
+      <c r="A64" s="55" t="s">
         <v>243</v>
       </c>
       <c r="B64" s="20" t="s">
@@ -5839,13 +4744,13 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="45">
-      <c r="A65" s="63"/>
+      <c r="A65" s="55"/>
       <c r="B65" s="20" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="63" t="s">
+      <c r="A66" s="55" t="s">
         <v>246</v>
       </c>
       <c r="B66" s="20" t="s">
@@ -5853,7 +4758,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="45">
-      <c r="A67" s="63"/>
+      <c r="A67" s="55"/>
       <c r="B67" s="21" t="s">
         <v>248</v>
       </c>
@@ -5884,17 +4789,14 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.85546875" customWidth="1"/>
-    <col min="2" max="2" width="122.140625" customWidth="1"/>
+    <col min="1" max="1" width="47.28515625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="131.7109375" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5905,20 +4807,173 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="B8" s="55"/>
+    <row r="7" spans="1:2">
+      <c r="A7" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" s="57"/>
+    </row>
+    <row r="8" spans="1:2" ht="45">
+      <c r="A8" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45">
+      <c r="A10" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45">
+      <c r="A12" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45">
+      <c r="A14" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="60">
+      <c r="A17" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="75">
+      <c r="A18" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="75">
+      <c r="A19" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="75">
+      <c r="A20" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="75">
+      <c r="A21" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="75">
+      <c r="A22" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>296</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" location="Junit!A2" display="Up"/>
-    <hyperlink ref="A1" location="Topics!A17" display="Topics"/>
+    <hyperlink ref="A1" location="Topics!A20" display="Topics"/>
+    <hyperlink ref="B1" location="Cassandra!A2" display="Up"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -14,11 +14,9 @@
     <sheet name="HTML" sheetId="5" r:id="rId5"/>
     <sheet name="Apache Camel" sheetId="8" r:id="rId6"/>
     <sheet name="OpenAM" sheetId="9" r:id="rId7"/>
-    <sheet name="MongoDB" sheetId="10" r:id="rId8"/>
-    <sheet name="Cassandra" sheetId="14" r:id="rId9"/>
-    <sheet name="File IO" sheetId="15" r:id="rId10"/>
-    <sheet name="Class Loading" sheetId="16" r:id="rId11"/>
-    <sheet name="VisualVM" sheetId="17" r:id="rId12"/>
+    <sheet name="File IO" sheetId="15" r:id="rId8"/>
+    <sheet name="Class Loading" sheetId="16" r:id="rId9"/>
+    <sheet name="VisualVM" sheetId="17" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="jar" localSheetId="2">'JDK Tools utilities'!$A$11</definedName>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="247">
   <si>
     <t>Lucene</t>
   </si>
@@ -496,834 +494,6 @@
 link at row 8</t>
   </si>
   <si>
-    <t>MongoDB</t>
-  </si>
-  <si>
-    <t>MongoDB definitions</t>
-  </si>
-  <si>
-    <t>What is MongoDB</t>
-  </si>
-  <si>
-    <t>No SQL database</t>
-  </si>
-  <si>
-    <t>Installing MongoDB</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. go to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">https://www.mongodb.org
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. Click on Download MongoDB button
-3. Select OS and version (Windows 64-bit 2008 R2+ for Windows 7/10)
-4. Click Download button</t>
-    </r>
-  </si>
-  <si>
-    <t>1. Double click on downloaded .msi file
-2. Click Next -&gt; Check acceptance -&gt; Next -&gt; click Complete -&gt; Install -&gt; windows will ask for permission to install -&gt; click Yes -&gt; Installation will take place -&gt; once done click Finish</t>
-  </si>
-  <si>
-    <t>Installation after downloading</t>
-  </si>
-  <si>
-    <t>checking our MongoDB after installation</t>
-  </si>
-  <si>
-    <t>C: drive -&gt; Program Files -&gt; MongoDB -&gt; Server -&gt; 3.2 -&gt; bin (location may change in future releases, finally look for bin directory)</t>
-  </si>
-  <si>
-    <t>bin/mongod</t>
-  </si>
-  <si>
-    <t>mongo data base</t>
-  </si>
-  <si>
-    <t>mongo</t>
-  </si>
-  <si>
-    <t>to write commands and execute stuff etc
-command line interface where we can type our database commands (like add data, remove data etc)</t>
-  </si>
-  <si>
-    <t>Running MongoDB</t>
-  </si>
-  <si>
-    <t>1. Go to location C:\Program Files\MongoDB\Server\3.2\bin
-2. run mongod.exe (if you are running first time, we will get an exception as follow)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C:\Program Files\MongoDB\Server\3.2\bin&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">mongod.exe
-2016-04-30T11:53:38.037+0530 I CONTROL  [initandlisten] MongoDB starting : pid=8708 port=27017 dbpath=C:\data\db\ 64-bit host=Admin-PC
-2016-04-30T11:53:38.040+0530 I CONTROL  [initandlisten] targetMinOS: Windows 7/Windows Server 2008 R2
-2016-04-30T11:53:38.042+0530 I CONTROL  [initandlisten] db version v3.2.6
-2016-04-30T11:53:38.043+0530 I CONTROL  [initandlisten] git version: 05552b562c7a0b3143a729aaa0838e558dc49b25
-2016-04-30T11:53:38.044+0530 I CONTROL  [initandlisten] OpenSSL version: OpenSSL 1.0.1p-fips 9 Jul 2015
-2016-04-30T11:53:38.047+0530 I CONTROL  [initandlisten] allocator: tcmalloc
-2016-04-30T11:53:38.049+0530 I CONTROL  [initandlisten] modules: none
-2016-04-30T11:53:38.050+0530 I CONTROL  [initandlisten] build environment:
-2016-04-30T11:53:38.052+0530 I CONTROL  [initandlisten]     distmod: 2008plus-ssl
-2016-04-30T11:53:38.053+0530 I CONTROL  [initandlisten]     distarch: x86_64
-2016-04-30T11:53:38.054+0530 I CONTROL  [initandlisten]     target_arch: x86_64
-2016-04-30T11:53:38.055+0530 I CONTROL  [initandlisten] options: {}
-2016-04-30T11:53:38.057+0530 I STORAGE  [initandlisten] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>exception in initAndListen: 29 Data directory C:\data\db\ not found.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, terminating
-2016-04-30T11:53:38.059+0530 I CONTROL  [initandlisten] dbexit:  rc: 100</t>
-    </r>
-  </si>
-  <si>
-    <t>MongoDB is trying to create a data base in C:\data\db directory and that directory is not present, so we got an exception</t>
-  </si>
-  <si>
-    <t>So go to C drive and create data\db</t>
-  </si>
-  <si>
-    <t>Go to location C:\Program Files\MongoDB\Server\3.2\bin and run mongod.exe</t>
-  </si>
-  <si>
-    <t>e,statistics=(fast),log=(enabled=true,archive=true,path=journal,compressor=snappy),file_manager=(close_idle_time=100000),checkpoint=(wait=60,log_size=2GB),statistics_log=(wait=0),
-2016-04-30T12:11:59.440+0530 I NETWORK  [HostnameCanonicalizationWorker] Starting hostname canonicalization worker
-2016-04-30T12:11:59.440+0530 I FTDC     [initandlisten] Initializing full-time diagnostic data capture with directory 'C:/data/db/diagnostic.data'
-2016-04-30T12:11:59.842+0530 I NETWORK  [initandlisten] waiting for connections on port 27017</t>
-  </si>
-  <si>
-    <t>Open one more cmd and go to location C:\Program Files\MongoDB\Server\3.2\bin and run mongo.exe</t>
-  </si>
-  <si>
-    <t>C:\Program Files\MongoDB\Server\3.2\bin&gt;mongo.exe
-MongoDB shell version: 3.2.6
-connecting to: test
-Welcome to the MongoDB shell.
-For interactive help, type "help".
-For more comprehensive documentation, see
-        http://docs.mongodb.org/
-Questions? Try the support group
-        http://groups.google.com/group/mongodb-user
-&gt;</t>
-  </si>
-  <si>
-    <t>type "db" -&gt; this will show "test" -&gt; now we are successfully connected to mongoDB</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once db started, how to create new database? I want to create database with name </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hockey</t>
-    </r>
-  </si>
-  <si>
-    <t>use hockey</t>
-  </si>
-  <si>
-    <t>db</t>
-  </si>
-  <si>
-    <t>command to check the current database connected to</t>
-  </si>
-  <si>
-    <t>delete current connected database</t>
-  </si>
-  <si>
-    <t>db.dropDatabase()</t>
-  </si>
-  <si>
-    <t>want to insert this data to mongoDB</t>
-  </si>
-  <si>
-    <t>{  
-         "position":"Right Wing",
-         "id":8465166,
-         "weight":200,
-         "height":"6' 0\"",
-         "imageUrl":"http://1.cdn.nhle.com/photos/mugs/8465166.jpg",
-         "birthplace":"Seria, BRN",
-         "age":37,
-         "name":"Craig Adams",
-         "birthdate":"April 26, 1977",
-         "number":27
-      }</t>
-  </si>
-  <si>
-    <t>&gt; db.players.insert({
-...          "position":"Right Wing",
-...          "id":8465166,
-...          "weight":200,
-...          "height":"6' 0\"",
-...          "imageUrl":"http://1.cdn.nhle.com/photos/mugs/8465166.jpg",
-...          "birthplace":"Seria, BRN",
-...          "age":37,
-...          "name":"Craig Adams",
-...          "birthdate":"April 26, 1977",
-...          "number":27
-...       }
-... )
-WriteResult({ "nInserted" : 1 })</t>
-  </si>
-  <si>
-    <t>want to insert one more record into same collection</t>
-  </si>
-  <si>
-    <t>&gt; db.players.insert({
-...          "position":"Right Wing",
-...          "id":8475761,
-...          "weight":195,
-...          "height":"6' 2\"",
-...          "imageUrl":"http://1.cdn.nhle.com/photos/mugs/8475761.jpg",
-...          "birthplace":"Gardena, CA, USA",
-...          "age":23,
-...          "name":"Beau Bennett",
-...          "birthdate":"November 27, 1991",
-...          "number":19
-...       }
-... )
-WriteResult({ "nInserted" : 1 })</t>
-  </si>
-  <si>
-    <t>If we want to insert more than one record</t>
-  </si>
-  <si>
-    <t>{  "position":"Left Wing", "id":8471260, "weight":202, "height":"6' 1\"",  "imageUrl":"http://3.cdn.nhle.com/photos/mugs/8471260.jpg",
-   "birthplace":"Meadow Lake, SK, CAN", "age":29, "name":"Blake Comeau", "birthdate":"February 18, 1986", "number":17
-},
-{  "position":"Center", "id":8471675, "weight":200, "height":"5' 11\"", "imageUrl":"http://3.cdn.nhle.com/photos/mugs/8471675.jpg",
-   "birthplace":"Cole Harbour, NS, CAN", "age":27, "name":"Sidney Crosby", "birthdate":"August 07, 1987", "number":87
-}</t>
-  </si>
-  <si>
-    <t>&gt; db.players.insert([{  "position":"Left Wing", "id":8471260, "weight":202, "height":"6' 1\"",  "imageUrl":"http://3.cdn.nhle.com/photos/mugs/8471260.jpg",
-...    "birthplace":"Meadow Lake, SK, CAN", "age":29, "name":"Blake Comeau", "birthdate":"February 18, 1986", "number":17
-... },
-... {  "position":"Center", "id":8471675, "weight":200, "height":"5' 11\"", "imageUrl":"http://3.cdn.nhle.com/photos/mugs/8471675.jpg",
-...    "birthplace":"Cole Harbour, NS, CAN", "age":27, "name":"Sidney Crosby", "birthdate":"August 07, 1987", "number":87
-... }
-... ])
-BulkWriteResult({
-        "writeErrors" : [ ],
-        "writeConcernErrors" : [ ],
-        "nInserted" : 2,
-        "nUpserted" : 0,
-        "nMatched" : 0,
-        "nModified" : 0,
-        "nRemoved" : 0,
-        "upserted" : [ ]
-})</t>
-  </si>
-  <si>
-    <t>To see existing collections in db</t>
-  </si>
-  <si>
-    <t>show collections</t>
-  </si>
-  <si>
-    <t>To display all documents(records) in a collection hockey</t>
-  </si>
-  <si>
-    <t>db.players.find()</t>
-  </si>
-  <si>
-    <t>All data in mongo data base will go into collection. Below data goes into - players collection in hockey database</t>
-  </si>
-  <si>
-    <t>To see formatted output</t>
-  </si>
-  <si>
-    <t>db.players.find().pretty()</t>
-  </si>
-  <si>
-    <t>To find the first document (record)</t>
-  </si>
-  <si>
-    <t>db.players.findOne()</t>
-  </si>
-  <si>
-    <t>Note on mongodb insertion</t>
-  </si>
-  <si>
-    <t>1. whenever we insert document(record) into mongodb, internally it will assign unique id to each document(record)
-2. If we want to remove the record, then we can use this id to uniquely identify the record</t>
-  </si>
-  <si>
-    <t>How to remove one document(record)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> db.players.remove(
-      {"_id" : ObjectId("57247113fe85fc289b855de3")}
-)
-WriteResult({ "nRemoved" : 1 })</t>
-  </si>
-  <si>
-    <t>Update record</t>
-  </si>
-  <si>
-    <t>&gt; db.players.update(
-... {"_id" : ObjectId("57247193fe85fc289b855de4")},
-... {"_id" : ObjectId("57247193fe85fc289b855de4"),"position" : "Left Wing","id" : 8475761,"weight" : 195,"height" : "6' 2\"",
-...  "imageUrl" : "http://1.cdn.nhle.com/photos/mugs/8475761.jpg","birthplace" : "Gardena, CA, USA","age" : 23,"name" : "Bob Bennett",
-...  "birthdate" : "November 27, 1991","number" : 19
-... }
-... )
-WriteResult({ "nMatched" : 1, "nUpserted" : 0, "nModified" : 1 })</t>
-  </si>
-  <si>
-    <r>
-      <t>{"_id" : ObjectId("57247193fe85fc289b855de4"),"position" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Left</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Wing","id" : 8475761,"weight" : 195,"height" : "6' 2\"",
- "imageUrl" : "http://1.cdn.nhle.com/photos/mugs/8475761.jpg","birthplace" : "Gardena, CA, USA","age" : 23,"name" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bob</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Bennett",
- "birthdate" : "November 27, 1991","number" : 19
-}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>{"_id" : ObjectId("57247193fe85fc289b855de4"),"position" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Right</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Wing","id" : 8475761,"weight" : 195,"height" : "6' 2\"",
- "imageUrl" : "http://1.cdn.nhle.com/photos/mugs/8475761.jpg","birthplace" : "Gardena, CA, USA","age" : 23,"name" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Beau</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Bennett",
- "birthdate" : "November 27, 1991","number" : 19
-}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">delete collection </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>players</t>
-    </r>
-  </si>
-  <si>
-    <t>db.players.drop()</t>
-  </si>
-  <si>
-    <t>db.players.find({"position":"Goalie"}).pretty()</t>
-  </si>
-  <si>
-    <t>want to search for Goalie (We need to give key-value pairs)</t>
-  </si>
-  <si>
-    <t>If we want get one Goalie</t>
-  </si>
-  <si>
-    <t>db.players.findOne({"position":"Goalie"})</t>
-  </si>
-  <si>
-    <t>db.players.find({"position":"Defenseman", "age":21}).pretty()</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">record - position: Defenseman </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>and</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> age: 21</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">all players who are Right Wing </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>or</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Left Wing</t>
-    </r>
-  </si>
-  <si>
-    <t>db.players.find( {   
-       $or:[{"position":"Right Wing"},    {"position":"Left Wing"}]   
-} )</t>
-  </si>
-  <si>
-    <t>players whose age is greater than 30</t>
-  </si>
-  <si>
-    <t>db.players.find(     
-       {"age": {$gt:30}  }
- )</t>
-  </si>
-  <si>
-    <t>$gt:</t>
-  </si>
-  <si>
-    <t>greater than</t>
-  </si>
-  <si>
-    <t>$lt:</t>
-  </si>
-  <si>
-    <t>less than</t>
-  </si>
-  <si>
-    <t>$gte</t>
-  </si>
-  <si>
-    <t>greater than or equal</t>
-  </si>
-  <si>
-    <t>$lte</t>
-  </si>
-  <si>
-    <t>less than or equal</t>
-  </si>
-  <si>
-    <t>$ne</t>
-  </si>
-  <si>
-    <t>not equal</t>
-  </si>
-  <si>
-    <t>db.players.find( {"age": {$gt:30}  }, {"name":1, "_id":0} )</t>
-  </si>
-  <si>
-    <t>limit the number of documents(records) to 3</t>
-  </si>
-  <si>
-    <t>db.players.find( {"age": {$gt:30} }, {"name":1, "_id":0} ).limit(3)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>output:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-{ "name" : "Craig Adams" }
-{ "name" : "Pascal Dupuis" }
-{ "name" : "Chris Kunitz" }
-{ "name" : "Christian Ehrhoff" }
-{ "name" : "Ben Lovejoy" }
-{ "name" : "Paul Martin" }
-{ "name" : "Rob Scuderi" }</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>output:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-{ "name" : "Craig Adams" }
-{ "name" : "Pascal Dupuis" }
-{ "name" : "Chris Kunitz" }</t>
-    </r>
-  </si>
-  <si>
-    <t>Want to get specific columns. Want names of players whose age &gt; 30.
-Note- name: 1. Here 1 means to display that property
-0 means do not display that property</t>
-  </si>
-  <si>
-    <t>skip first 2 records of resulted documents(records)</t>
-  </si>
-  <si>
-    <t>db.players.find( {"age": {$gt:30} }, {"name":1, "_id":0} ).skip(2)</t>
-  </si>
-  <si>
-    <t>Want to create index on age property(column) of document(record)</t>
-  </si>
-  <si>
-    <t>To see existing indexes</t>
-  </si>
-  <si>
-    <t>Drop an index</t>
-  </si>
-  <si>
-    <t>db.users.ensureIndex( {"age":1} )</t>
-  </si>
-  <si>
-    <t>db.users.getIndexes()</t>
-  </si>
-  <si>
-    <t>db.users.dropIndex( {"age":1} )</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Group the documents based on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">eyeColor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>and return the count of each group</t>
-    </r>
-  </si>
-  <si>
-    <t>db.users.aggregate({ $group: {   _id: "$eyeColor",   total: {$sum: 1}   } })</t>
-  </si>
-  <si>
-    <t>Group based on gender</t>
-  </si>
-  <si>
-    <t>db.users.aggregate({ $group: {   _id: "$gender",   total: {$sum: 1}   } })</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>output:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-{ "_id" : "female", "total" : 15 }
-{ "_id" : "male", "total" : 20 }</t>
-    </r>
-  </si>
-  <si>
-    <t>Group by gender and calculate averge age</t>
-  </si>
-  <si>
-    <t>db.users.aggregate({   $group: {   _id: "$gender",   avgAge: {$avg: "$age"}  } })</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>output:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-{ "_id" : "female", "avgAge" : 30.8 }
-{ "_id" : "male", "avgAge" : 32.5 }</t>
-    </r>
-  </si>
-  <si>
-    <t>Group by gender and get max balance within that group</t>
-  </si>
-  <si>
-    <t>db.users.aggregate({ $group: { _id: "$gender", richest: {$max: "$balance"} } })</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">output:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{ "_id" : "female", "richest" : "$3,960.64" }
-{ "_id" : "male", "richest" : "$3,818.97" }</t>
-    </r>
-  </si>
-  <si>
-    <t>Order of Reading</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">videos in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>JavaPrep\MongoDB\videos\1.level</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">videos in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>JavaPrep\MongoDB\videos\2.level</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">videos in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>JavaPrep\MongoDB\videos\3.level</t>
-    </r>
-  </si>
-  <si>
-    <t>MongoDB with Java</t>
-  </si>
-  <si>
-    <t>http://www.tutorialspoint.com/mongodb/mongodb_java.htm</t>
-  </si>
-  <si>
     <t>Links</t>
   </si>
   <si>
@@ -1331,138 +501,6 @@
   </si>
   <si>
     <t>camel intro</t>
-  </si>
-  <si>
-    <t>Apache Cassandra</t>
-  </si>
-  <si>
-    <t>Apache Cassandra Definitions</t>
-  </si>
-  <si>
-    <t>Apache Cassandra is a free and open-source distributed database management system designed to handle large amounts of data across many commodity servers, providing high availability with no single point of failure. Cassandra offers robust support for clusters spanning multiple datacenters,[1] with asynchronous masterless replication allowing low latency operations for all clients</t>
-  </si>
-  <si>
-    <t>Apache Cassandra was initially developed at Facebook to power their Inbox Search feature by Avinash Lakshman (one of the authors of Amazon's Dynamo) and Prashant Malik</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>Main features</t>
-  </si>
-  <si>
-    <t>Every node in the cluster has the same role. There is no single point of failure. Data is distributed across the cluster (so each node contains different data), but there is no master as every node can service any request</t>
-  </si>
-  <si>
-    <t>Decentralized</t>
-  </si>
-  <si>
-    <t>Supports replication and multi data center replication</t>
-  </si>
-  <si>
-    <t>Replication strategies are configurable.[17] Cassandra is designed as a distributed system, for deployment of large numbers of nodes across multiple data centers. Key features of Cassandra’s distributed architecture are specifically tailored for multiple-data center deployment, for redundancy, for failover and disaster recovery</t>
-  </si>
-  <si>
-    <t>1. Decentralized
-2. Supports replication and multi data center replication
-Scalability</t>
-  </si>
-  <si>
-    <t>Scalability</t>
-  </si>
-  <si>
-    <t>Read and write throughput both increase linearly as new machines are added, with no downtime or interruption to applications</t>
-  </si>
-  <si>
-    <t>Fault-tolerant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Data is automatically replicated to multiple nodes for fault-tolerance. Replication across multiple data centers is supported. Failed nodes can be replaced with no downtime</t>
-  </si>
-  <si>
-    <t>Tunable consistency</t>
-  </si>
-  <si>
-    <t>Writes and reads offer a tunable level of consistency, all the way from "writes never fail" to "block for all replicas to be readable", with the quorum level in the middle</t>
-  </si>
-  <si>
-    <t>MapReduce support</t>
-  </si>
-  <si>
-    <t>Cassandra has Hadoop integration, with MapReduce support. There is support also for Apache Pig and Apache Hive</t>
-  </si>
-  <si>
-    <t>Query language</t>
-  </si>
-  <si>
-    <t>Cassandra introduces CQL (Cassandra Query Language), a SQL-like alternative to the traditional RPC interface. CQL is a simple API meant for accessing Cassandra. CQL adds an abstraction layer that hides implementation details of this structure and provides native syntaxes for collections and other common encodings.[20] Language drivers are available for Java (JDBC), Python (DBAPI2), Node.JS (Helenus), Go (gocql) and C++</t>
-  </si>
-  <si>
-    <t>example of keyspace creation, including a column family in CQL 3.0</t>
-  </si>
-  <si>
-    <t>CREATE KEYSPACE MyKeySpace  WITH REPLICATION = { 'class' : 'SimpleStrategy', 'replication_factor' : 3 };
-USE MyKeySpace;
-CREATE COLUMNFAMILY MyColumns (id text, Last text, First text, PRIMARY KEY(id));
-INSERT INTO MyColumns (id, Last, First) VALUES ('1', 'Doe', 'John');
-SELECT * FROM MyColumns;</t>
-  </si>
-  <si>
-    <t>Output of above CQL commands</t>
-  </si>
-  <si>
-    <t>id | first | last
-----+-------+------
-  1 |  John |  Doe
-(1 rows)</t>
-  </si>
-  <si>
-    <t>Data model</t>
-  </si>
-  <si>
-    <t>Cassandra is essentially a hybrid between a key-value and a column-oriented (or tabular) database management system. Its data model is a partitioned row store with tunable consistency. Rows are organized into tables; the first component of a table's primary key is the partition key; within a partition, rows are clustered by the remaining columns of the key. Other columns may be indexed separately from the primary key.
-Tables may be created, dropped, and altered at run-time without blocking updates and queries.
-Cassandra cannot do joins or subqueries. Rather, Cassandra emphasizes denormalization through features like collections</t>
-  </si>
-  <si>
-    <t>Clustering</t>
-  </si>
-  <si>
-    <t>When the cluster for Apache Cassandra is designed, an important point is to select the right partitioner. Two partitioners exist:
-1. RandomPartitioner (RP): This partitioner randomly distributes the key-value pairs over the network, resulting in a good load balancing. Compared to OPP, more nodes have to be accessed to get a number of keys.
-2. OrderPreservingPartitioner (OPP): This partitioner distributes the key-value pairs in a natural way so that similar keys are not far away. The advantage is that fewer nodes have to be accessed. The drawback is the uneven distribution of the key-value pairs</t>
-  </si>
-  <si>
-    <t>Management and monitoring</t>
-  </si>
-  <si>
-    <t>Cassandra is a Java-based system that can be managed and monitored via Java Management Extensions (JMX). The JMX-compliant nodetool utility, for instance, can be used to manage a Cassandra cluster (adding nodes to a ring, draining nodes, decommissioning nodes, and so on).[29] Nodetool also offers a number of commands to return Cassandra metrics pertaining to disk usage, latency, compaction, garbage collection, and more.[30] Additional metrics are available via JMX tools such as JConsole and via pluggable metrics reporters for external monitoring tools, which became available with Cassandra version 2.0.2</t>
-  </si>
-  <si>
-    <t>Cassandra</t>
-  </si>
-  <si>
-    <t>1. Distributed features of Dynamo (Dynamo from Amazon)
-2. Data model and storage from Big Table (Big Table from Google)</t>
-  </si>
-  <si>
-    <t>What is Cassandra in a pic</t>
-  </si>
-  <si>
-    <t>refer r_apache_cassandra/1_what_is_cassandra.png</t>
-  </si>
-  <si>
-    <t>Cassandra - Fully Replicated</t>
-  </si>
-  <si>
-    <t>refer r_apache_cassandra/2_fully_replicated.png</t>
-  </si>
-  <si>
-    <t>SPOF</t>
-  </si>
-  <si>
-    <t>Single Point Of Failure</t>
   </si>
   <si>
     <t>Camel Definitions</t>
@@ -2052,7 +1090,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2085,14 +1123,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF0000CC"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2120,12 +1150,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF252525"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2249,7 +1273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2295,10 +1319,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2307,19 +1331,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2404,9 +1415,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2714,11 +1722,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2752,7 +1760,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="38" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
@@ -2760,22 +1768,22 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="43"/>
+      <c r="A5" s="38"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="43"/>
+      <c r="A6" s="38"/>
       <c r="B6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="43"/>
+      <c r="A7" s="38"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="43"/>
+      <c r="A8" s="38"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
@@ -2786,7 +1794,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="38" t="s">
         <v>36</v>
       </c>
       <c r="B10" t="s">
@@ -2794,19 +1802,19 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="43"/>
+      <c r="A11" s="38"/>
       <c r="B11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="43"/>
+      <c r="A12" s="38"/>
       <c r="B12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="43"/>
+      <c r="A13" s="38"/>
       <c r="B13" t="s">
         <v>113</v>
       </c>
@@ -2817,9 +1825,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="9" t="s">
-        <v>147</v>
-      </c>
+      <c r="A15" s="9"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="9"/>
@@ -2828,25 +1834,17 @@
       <c r="A17" s="9"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="9"/>
+      <c r="A18" s="9" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="9" t="s">
-        <v>258</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="9" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="9" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2865,293 +1863,15 @@
     <hyperlink ref="B9" r:id="rId2"/>
     <hyperlink ref="A10" location="'JDK Tools utilities'!A1" display="JDK Tools utilities"/>
     <hyperlink ref="A14" location="OpenAM!A1" display="Open AM"/>
-    <hyperlink ref="A15" location="MongoDB!A1" display="MongoDB"/>
-    <hyperlink ref="A19" location="Cassandra!A1" display="Apache Cassandra"/>
-    <hyperlink ref="A20" location="'File IO'!A1" display="File IO"/>
-    <hyperlink ref="A21" location="'Class Loading'!A1" display="Class Loading"/>
-    <hyperlink ref="A22" location="VisualVM!A1" display="Visual VM"/>
+    <hyperlink ref="A18" location="'File IO'!A1" display="File IO"/>
+    <hyperlink ref="A19" location="'Class Loading'!A1" display="Class Loading"/>
+    <hyperlink ref="A20" location="VisualVM!A1" display="Visual VM"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="58.7109375" style="30" customWidth="1"/>
-    <col min="2" max="2" width="123.42578125" style="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="56" t="s">
-        <v>320</v>
-      </c>
-      <c r="B5" s="57"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="30" t="s">
-        <v>331</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="240">
-      <c r="A10" s="48" t="s">
-        <v>328</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="105">
-      <c r="A11" s="48"/>
-      <c r="B11" s="30" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>335</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:A11"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B1" location="'File IO'!A2" display="Up"/>
-    <hyperlink ref="A1" location="Topics!A21" display="Topics"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="48" customWidth="1"/>
-    <col min="2" max="2" width="130.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="56" t="s">
-        <v>372</v>
-      </c>
-      <c r="B5" s="57"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="46" t="s">
-        <v>347</v>
-      </c>
-      <c r="B8" s="46"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="46" t="s">
-        <v>348</v>
-      </c>
-      <c r="B9" s="46"/>
-    </row>
-    <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="34" t="s">
-        <v>351</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="33" t="s">
-        <v>353</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="33" t="s">
-        <v>355</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="33" t="s">
-        <v>359</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="52" t="s">
-        <v>365</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="52"/>
-      <c r="B19" s="15" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="60">
-      <c r="A20" s="52"/>
-      <c r="B20" s="15" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="90">
-      <c r="A21" s="33" t="s">
-        <v>369</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="46" t="s">
-        <v>371</v>
-      </c>
-      <c r="B22" s="46"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Topics!A22" display="Topics"/>
-    <hyperlink ref="B1" location="'Class Loading'!A2" display="Up"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -3175,10 +1895,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
-        <v>378</v>
-      </c>
-      <c r="B2" s="45"/>
+      <c r="A2" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="40"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
@@ -3205,27 +1925,27 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="37" t="s">
-        <v>379</v>
+      <c r="A6" s="32" t="s">
+        <v>232</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>380</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="37" t="s">
-        <v>381</v>
+      <c r="A7" s="32" t="s">
+        <v>234</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>382</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="37" t="s">
-        <v>383</v>
+      <c r="A8" s="32" t="s">
+        <v>236</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>384</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3269,10 +1989,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="3" spans="1:2" ht="120">
       <c r="A3" t="s">
@@ -3392,10 +2112,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -3406,10 +2126,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="46"/>
+      <c r="B4" s="41"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
@@ -3420,10 +2140,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="47"/>
+      <c r="B6" s="42"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
@@ -3442,7 +2162,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="43" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -3450,13 +2170,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="48"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="43" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -3464,7 +2184,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="48"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
@@ -3486,7 +2206,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="43" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -3494,7 +2214,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="48"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
@@ -3516,7 +2236,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="43" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -3524,7 +2244,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="48"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
@@ -3538,10 +2258,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="45"/>
+      <c r="B22" s="40"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
@@ -3556,7 +2276,7 @@
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="41" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -3564,7 +2284,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="46"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
@@ -3629,10 +2349,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="45"/>
+      <c r="B46" s="40"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
@@ -3719,10 +2439,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -3820,22 +2540,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="51"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="50"/>
+      <c r="B16" s="45"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="11" t="s">
@@ -3870,7 +2590,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" style="20" customWidth="1"/>
     <col min="2" max="2" width="142.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3883,229 +2603,229 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" s="47"/>
+      <c r="A2" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="42"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>256</v>
+      <c r="A3" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="35" t="s">
-        <v>374</v>
+      <c r="A4" s="30" t="s">
+        <v>227</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>373</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="42" t="s">
-        <v>392</v>
+      <c r="A5" s="37" t="s">
+        <v>245</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>393</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="40"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="47" t="s">
-        <v>387</v>
-      </c>
-      <c r="B7" s="47"/>
+      <c r="A7" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="42"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="53" t="s">
-        <v>388</v>
-      </c>
-      <c r="B8" s="46"/>
+      <c r="A8" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="41"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="B9" s="46"/>
+      <c r="A9" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" s="41"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="40"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="9"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="47" t="s">
-        <v>297</v>
-      </c>
-      <c r="B12" s="47"/>
+      <c r="A12" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="42"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="26" t="s">
-        <v>298</v>
+      <c r="A13" s="21" t="s">
+        <v>151</v>
       </c>
       <c r="B13" t="s">
-        <v>301</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="26" t="s">
-        <v>300</v>
+      <c r="A14" s="21" t="s">
+        <v>153</v>
       </c>
       <c r="B14" t="s">
-        <v>302</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="26" t="s">
-        <v>299</v>
+      <c r="A15" s="21" t="s">
+        <v>152</v>
       </c>
       <c r="B15" t="s">
-        <v>303</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="28" t="s">
-        <v>304</v>
+      <c r="A16" s="23" t="s">
+        <v>157</v>
       </c>
       <c r="B16" t="s">
-        <v>306</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="28" t="s">
-        <v>305</v>
+      <c r="A17" s="23" t="s">
+        <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>307</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="60">
-      <c r="A18" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>309</v>
+      <c r="A18" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>311</v>
+      <c r="A19" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="150">
-      <c r="A20" s="52" t="s">
-        <v>312</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>313</v>
+      <c r="A20" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="52"/>
-      <c r="B21" s="28" t="s">
-        <v>314</v>
+      <c r="A21" s="47"/>
+      <c r="B21" s="23" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>316</v>
+      <c r="A22" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="29" t="s">
-        <v>317</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>318</v>
+      <c r="A23" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="105">
-      <c r="A24" s="32" t="s">
-        <v>338</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>339</v>
+      <c r="A24" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="165">
-      <c r="A25" s="32" t="s">
-        <v>336</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>337</v>
+      <c r="A25" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="225">
-      <c r="A26" s="32" t="s">
-        <v>340</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>341</v>
+      <c r="A26" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="165">
-      <c r="A27" s="52" t="s">
-        <v>375</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>376</v>
+      <c r="A27" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="120">
-      <c r="A28" s="52"/>
-      <c r="B28" s="36" t="s">
-        <v>377</v>
+      <c r="A28" s="47"/>
+      <c r="B28" s="31" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="38" t="s">
-        <v>385</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>386</v>
+      <c r="A29" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="41" t="s">
-        <v>390</v>
-      </c>
-      <c r="B30" s="41" t="s">
-        <v>391</v>
+      <c r="A30" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="B36" s="24"/>
+      <c r="B36" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4179,7 +2899,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="49" t="s">
         <v>138</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -4187,7 +2907,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="54"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="9" t="s">
         <v>140</v>
       </c>
@@ -4233,10 +2953,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="42"/>
     </row>
     <row r="13" spans="1:2" ht="90">
       <c r="A13" t="s">
@@ -4271,7 +2991,112 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="58.7109375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="123.42578125" style="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="51"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="240">
+      <c r="A10" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="105">
+      <c r="A11" s="43"/>
+      <c r="B11" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:A11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="'File IO'!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A21" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4280,8 +3105,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="59.7109375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="121.42578125" customWidth="1"/>
+    <col min="1" max="1" width="48" customWidth="1"/>
+    <col min="2" max="2" width="130.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4292,688 +3117,150 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
-        <v>249</v>
-      </c>
-      <c r="B2" s="47"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="22" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="22" t="s">
-        <v>251</v>
-      </c>
-    </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="22" t="s">
-        <v>252</v>
-      </c>
+      <c r="A5" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="51"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>254</v>
+      <c r="A6" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" s="47"/>
+      <c r="A8" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="41"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="60">
-      <c r="A10" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>153</v>
+      <c r="A9" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="41"/>
+    </row>
+    <row r="10" spans="1:2" ht="45">
+      <c r="A10" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" t="s">
-        <v>156</v>
+      <c r="A12" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="240">
-      <c r="A16" s="48"/>
-      <c r="B16" s="20" t="s">
-        <v>163</v>
+      <c r="A13" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="48"/>
-      <c r="B17" s="20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="48"/>
-      <c r="B18" s="20" t="s">
-        <v>165</v>
+      <c r="A17" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="48"/>
-      <c r="B19" s="20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="90">
-      <c r="A20" s="48"/>
-      <c r="B20" s="20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="48"/>
-      <c r="B21" s="20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="150">
-      <c r="A22" s="48"/>
-      <c r="B22" s="20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="48"/>
-      <c r="B23" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="180">
-      <c r="A27" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="48"/>
-      <c r="B28" s="20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="210">
-      <c r="A29" s="48"/>
-      <c r="B29" s="20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="210">
-      <c r="A30" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="105">
-      <c r="A31" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="285">
-      <c r="A32" s="48"/>
-      <c r="B32" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="75">
-      <c r="A39" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="48"/>
-      <c r="B40" s="20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="135">
-      <c r="A41" s="48"/>
-      <c r="B41" s="20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="45">
-      <c r="A47" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="20" t="s">
+      <c r="A19" s="47"/>
+      <c r="B19" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="B51" s="20" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="60">
+      <c r="A20" s="47"/>
+      <c r="B20" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="20" t="s">
+    <row r="21" spans="1:2" ht="90">
+      <c r="A21" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B21" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="30" customHeight="1">
-      <c r="A53" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="B53" s="20" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="41" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="120">
-      <c r="A54" s="48"/>
-      <c r="B54" s="20" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="48"/>
-      <c r="B56" s="20" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="30">
-      <c r="A58" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="30">
-      <c r="A61" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="55" t="s">
-        <v>240</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="55"/>
-      <c r="B63" s="20" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="55" t="s">
-        <v>243</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="45">
-      <c r="A65" s="55"/>
-      <c r="B65" s="20" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="55" t="s">
-        <v>246</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="45">
-      <c r="A67" s="55"/>
-      <c r="B67" s="21" t="s">
-        <v>248</v>
-      </c>
+      <c r="B22" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
+  <mergeCells count="5">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A15:A23"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" location="MongoDB!A2" display="Up"/>
-    <hyperlink ref="A1" location="Topics!A16" display="Topics"/>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="A1" location="Topics!A22" display="Topics"/>
+    <hyperlink ref="B1" location="'Class Loading'!A2" display="Up"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="47.28515625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="131.7109375" style="23" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="56" t="s">
-        <v>259</v>
-      </c>
-      <c r="B7" s="57"/>
-    </row>
-    <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="45">
-      <c r="A12" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="75">
-      <c r="A18" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="75">
-      <c r="A19" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="75">
-      <c r="A22" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>296</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A7:B7"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Topics!A20" display="Topics"/>
-    <hyperlink ref="B1" location="Cassandra!A2" display="Up"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -12,11 +12,10 @@
     <sheet name="JDK Tools utilities" sheetId="3" r:id="rId3"/>
     <sheet name="Autosys" sheetId="4" r:id="rId4"/>
     <sheet name="HTML" sheetId="5" r:id="rId5"/>
-    <sheet name="Apache Camel" sheetId="8" r:id="rId6"/>
-    <sheet name="OpenAM" sheetId="9" r:id="rId7"/>
-    <sheet name="File IO" sheetId="15" r:id="rId8"/>
-    <sheet name="Class Loading" sheetId="16" r:id="rId9"/>
-    <sheet name="VisualVM" sheetId="17" r:id="rId10"/>
+    <sheet name="OpenAM" sheetId="9" r:id="rId6"/>
+    <sheet name="File IO" sheetId="15" r:id="rId7"/>
+    <sheet name="Class Loading" sheetId="16" r:id="rId8"/>
+    <sheet name="VisualVM" sheetId="17" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="jar" localSheetId="2">'JDK Tools utilities'!$A$11</definedName>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="200">
   <si>
     <t>Lucene</t>
   </si>
@@ -354,12 +353,6 @@
 Detects version conflicts between a target Java Archive (JAR) file and currently installed extension JAR files.</t>
   </si>
   <si>
-    <t>Apache Camel</t>
-  </si>
-  <si>
-    <t>http://camel.apache.org/getting-started.html</t>
-  </si>
-  <si>
     <t>Up</t>
   </si>
   <si>
@@ -492,97 +485,6 @@
 link at row 5,6
 link at row 7
 link at row 8</t>
-  </si>
-  <si>
-    <t>Links</t>
-  </si>
-  <si>
-    <t>http://www.mastertheintegration.com/camel/camel-introduction.html</t>
-  </si>
-  <si>
-    <t>camel intro</t>
-  </si>
-  <si>
-    <t>Camel Definitions</t>
-  </si>
-  <si>
-    <t>Camel HelloWorld example</t>
-  </si>
-  <si>
-    <t>Camel + Processor + Bean example</t>
-  </si>
-  <si>
-    <t>Camel + Bean example</t>
-  </si>
-  <si>
-    <t>Refer images\t_apache_camel\1_Camel_HelloWorld.docx</t>
-  </si>
-  <si>
-    <t>Refer images\t_apache_camel\2_Camel_Bean_Example.docx</t>
-  </si>
-  <si>
-    <t>Refer images\t_apache_camel\3_Camel_Processor_Bean_Example.docx</t>
-  </si>
-  <si>
-    <t>Camel + Spring example</t>
-  </si>
-  <si>
-    <t>Camel + Spring + Processor + Bean</t>
-  </si>
-  <si>
-    <t>Refer images\t_apache_camel\4_Camel_Spring_Bean_Example.docx</t>
-  </si>
-  <si>
-    <t>Refer images\t_apache_camel\5_Camel_Spring_Processor_Bean_Example.docx</t>
-  </si>
-  <si>
-    <t>org.apache.camel.builder.RouteBuilder</t>
-  </si>
-  <si>
-    <t>1. Used to write RouteBuilder
-2. This is spring provided class
-3. To write route builder we have to extend this class
-4. Override configure() method</t>
-  </si>
-  <si>
-    <t>org.apache.camel.Processor</t>
-  </si>
-  <si>
-    <t>1. Used to write Processor class
-2. This is spring provided interface
-3. To write processor we have to implement this interface
-4. Override process(org.apache.camel.Exchange) method</t>
-  </si>
-  <si>
-    <t>To run camel from maven</t>
-  </si>
-  <si>
-    <t>Add below plugin in pom.xml:
-&lt;plugin&gt;
-                &lt;groupId&gt;org.apache.camel&lt;/groupId&gt;
-                &lt;artifactId&gt;camel-maven-plugin&lt;/artifactId&gt;
-                &lt;version&gt;2.17.1&lt;/version&gt;
-                &lt;!-- spring config file name. file must be in the classpath --&gt;
-                &lt;configuration&gt;
-                     &lt;applicationContextUri&gt;camel-spring.xml&lt;/applicationContextUri&gt;
-                &lt;/configuration&gt;
-            &lt;/plugin&gt;</t>
-  </si>
-  <si>
-    <t>Run using following command from cmd prompt:
-mvn clean compile camel:run</t>
-  </si>
-  <si>
-    <t>Camel + Object as exchange body</t>
-  </si>
-  <si>
-    <t>Refer images\t_apache_camel\6_Camel_Object_As_Body_Example.docx</t>
-  </si>
-  <si>
-    <t>Camel + exception handling</t>
-  </si>
-  <si>
-    <t>Refer images\t_apache_camel\7_Camel_Exception_Handling_Example.docx</t>
   </si>
   <si>
     <t>File IO</t>
@@ -711,51 +613,6 @@
     <t>java.io.File.separator</t>
   </si>
   <si>
-    <t>How to send message to camel from end point</t>
-  </si>
-  <si>
-    <t>Sample route created: from("direct:bean1").bean(new ExceptionThrowingBean()).end();
-CamelContext context = new DefaultCamelContext();
-  context.addRoutes(new ExceptionRouteBuilder());
-  context.start();
-  Message defaultMessage = new DefaultMessage();
-  Exchange exchange = new DefaultExchange(context);
-  exchange.setIn(defaultMessage);
-  ProducerTemplate template = context.createProducerTemplate();
-  template.send("direct:bean1", exchange);</t>
-  </si>
-  <si>
-    <t>Some important classes/interfaces</t>
-  </si>
-  <si>
-    <t>import org.apache.camel.CamelContext;
-import org.apache.camel.Exchange;
-import org.apache.camel.Message;
-import org.apache.camel.ProducerTemplate;
-import org.apache.camel.impl.DefaultCamelContext;
-import org.apache.camel.impl.DefaultExchange;
-import org.apache.camel.impl.DefaultMessage;</t>
-  </si>
-  <si>
-    <t>Send object as body in message</t>
-  </si>
-  <si>
-    <t>// create an Employee object
-  Employee employee = new Employee("john", "architect", "US");
-// create camel context, add route(s) to it and start camel context
-  CamelContext context = new DefaultCamelContext();
-  context.addRoutes(new ObjectAsBodyRouteBuilder());
-  context.start();
-// create camel message and add employee object as body to message
-  Message defaultMessage = new DefaultMessage();
-  defaultMessage.setBody(employee);
-// create Exchange and add camel message to it
-  Exchange exchange = new DefaultExchange(context);
-  exchange.setIn(defaultMessage);
-  ProducerTemplate template = context.createProducerTemplate();
-  template.send("direct:start", exchange);</t>
-  </si>
-  <si>
     <t>Class Loading</t>
   </si>
   <si>
@@ -965,79 +822,6 @@
     <t>Class Loading Definitions</t>
   </si>
   <si>
-    <t>http://examples.javacodegeeks.com/enterprise-java/apache-camel/apache-camel-activemq-example/</t>
-  </si>
-  <si>
-    <t>ActiveMQ and apache camel</t>
-  </si>
-  <si>
-    <t>If we want to write a route builder class, then how to give that bean info in spring xml file?</t>
-  </si>
-  <si>
-    <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;beans xmlns="http://www.springframework.org/schema/beans" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:camel="http://camel.apache.org/schema/spring" xmlns:util="http://www.springframework.org/schema/util"
-    xsi:schemaLocation="http://www.springframework.org/schema/beans http://www.springframework.org/schema/beans/spring-beans-3.0.xsd    
-     http://camel.apache.org/schema/spring http://camel.apache.org/schema/spring/camel-spring.xsd http://www.springframework.org/schema/util http://www.springframework.org/schema/util/spring-util-3.1.xsd"&gt;
-      &lt;bean id="myRouteBuilder" class="com.routebuilder.in.xml.MyRouteBuilder"&gt;&lt;/bean&gt;
-      &lt;camelContext xmlns="http://camel.apache.org/schema/spring"&gt;
-       &lt;routeBuilder ref="myRouteBuilder"/&gt;
-      &lt;/camelContext&gt;
-&lt;/beans&gt;</t>
-  </si>
-  <si>
-    <r>
-      <t>package com.routebuilder.in.xml;
-import org.apache.camel.builder.RouteBuilder;
-public class MyRouteBuilder</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> extends RouteBuilder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> {
- @Override
- public void configure() throws Exception {
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>from("file:E:/Backup/JavaPrep/Apache_Camel/router_practice_folder/input?noop=true").to("file:E:/Backup/JavaPrep/Apache_Camel/router_practice_folder/output6").end();</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- }</t>
-    </r>
-  </si>
-  <si>
     <t>Material Links</t>
   </si>
   <si>
@@ -1057,33 +841,6 @@
   </si>
   <si>
     <t>http://www.oracle.com/technetwork/java/visualgc-136680.html</t>
-  </si>
-  <si>
-    <t>Camel + Rest implementation</t>
-  </si>
-  <si>
-    <t>refer images\t_apache_camel\8_Camel_Rest_Example.docx</t>
-  </si>
-  <si>
-    <t>Projects</t>
-  </si>
-  <si>
-    <t>https://github.com/avinashbabudonthu/ApacheCamel</t>
-  </si>
-  <si>
-    <t>https://github.com/avinashbabudonthu/CamelRest</t>
-  </si>
-  <si>
-    <t>Camel Multicase example</t>
-  </si>
-  <si>
-    <t>refer images\t_apache_camel\9_Multicat_Examples.docx</t>
-  </si>
-  <si>
-    <t>Camel with REST</t>
-  </si>
-  <si>
-    <t>https://www.javacodegeeks.com/2013/03/rest-with-apache-camel.html</t>
   </si>
 </sst>
 </file>
@@ -1273,7 +1030,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1334,84 +1091,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1722,11 +1439,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1760,7 +1477,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="25" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
@@ -1768,61 +1485,56 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="38"/>
+      <c r="A5" s="25"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="38"/>
+      <c r="A6" s="25"/>
       <c r="B6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="38"/>
+      <c r="A7" s="25"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="38"/>
+      <c r="A8" s="25"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>103</v>
+      <c r="A9" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="38" t="s">
-        <v>36</v>
-      </c>
+      <c r="A10" s="25"/>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="38"/>
+      <c r="A11" s="25"/>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="38"/>
+      <c r="A12" s="25"/>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="38"/>
-      <c r="B13" t="s">
-        <v>113</v>
+      <c r="A13" s="9" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="9" t="s">
-        <v>124</v>
-      </c>
+      <c r="A14" s="9"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="9"/>
@@ -1831,135 +1543,36 @@
       <c r="A16" s="9"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="9"/>
+      <c r="A17" s="9" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="9" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A9:A12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" location="Lucene!A1" display="Lucene"/>
     <hyperlink ref="A3" location="Autosys!A1" display="Autosys"/>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="A4:A5" location="HTML!A1" display="HTML"/>
-    <hyperlink ref="A9" location="'Apache Camel'!A1" display="Apache Camel"/>
-    <hyperlink ref="B9" r:id="rId2"/>
-    <hyperlink ref="A10" location="'JDK Tools utilities'!A1" display="JDK Tools utilities"/>
-    <hyperlink ref="A14" location="OpenAM!A1" display="Open AM"/>
-    <hyperlink ref="A18" location="'File IO'!A1" display="File IO"/>
-    <hyperlink ref="A19" location="'Class Loading'!A1" display="Class Loading"/>
-    <hyperlink ref="A20" location="VisualVM!A1" display="Visual VM"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="55" customWidth="1"/>
-    <col min="2" max="2" width="121.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="B2" s="40"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B6" r:id="rId3"/>
-    <hyperlink ref="B7" r:id="rId4"/>
-    <hyperlink ref="B8" r:id="rId5"/>
-    <hyperlink ref="A1" location="Topics!A22" display="Topics"/>
-    <hyperlink ref="B1" location="VisualVM!A2" display="Up"/>
+    <hyperlink ref="A9" location="'JDK Tools utilities'!A1" display="JDK Tools utilities"/>
+    <hyperlink ref="A13" location="OpenAM!A1" display="Open AM"/>
+    <hyperlink ref="A17" location="'File IO'!A1" display="File IO"/>
+    <hyperlink ref="A18" location="'Class Loading'!A1" display="Class Loading"/>
+    <hyperlink ref="A19" location="VisualVM!A1" display="Visual VM"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1985,14 +1598,14 @@
         <v>72</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:2" ht="120">
       <c r="A3" t="s">
@@ -2108,14 +1721,14 @@
         <v>72</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -2126,10 +1739,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="28"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
@@ -2140,10 +1753,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="42"/>
+      <c r="A6" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="29"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
@@ -2162,7 +1775,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="30" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -2170,13 +1783,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="43"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="30" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2184,7 +1797,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="43"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
@@ -2206,7 +1819,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="30" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2214,7 +1827,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="43"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
@@ -2236,7 +1849,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="30" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -2244,7 +1857,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="43"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
@@ -2258,10 +1871,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
-      <c r="A22" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="40"/>
+      <c r="A22" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="27"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
@@ -2276,7 +1889,7 @@
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="28" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -2284,7 +1897,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="41"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
@@ -2349,41 +1962,41 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="B46" s="40"/>
+      <c r="A46" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="27"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2435,14 +2048,14 @@
         <v>72</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -2540,22 +2153,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="45"/>
+      <c r="B16" s="32"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="11" t="s">
@@ -2580,278 +2193,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="37.140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="142.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="42"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="35"/>
-      <c r="B6" s="9"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="B7" s="42"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="B8" s="41"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="B9" s="41"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="35"/>
-      <c r="B10" s="9"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" s="42"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="B13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="60">
-      <c r="A18" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="150">
-      <c r="A20" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="47"/>
-      <c r="B21" s="23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="105">
-      <c r="A24" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="165">
-      <c r="A25" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="225">
-      <c r="A26" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="165">
-      <c r="A27" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="120">
-      <c r="A28" s="47"/>
-      <c r="B28" s="31" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="B36" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1:B1" location="Topics!A11" display="Topics"/>
-    <hyperlink ref="B1" location="'Apache Camel'!A2" display="Up"/>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="A8" r:id="rId3"/>
-    <hyperlink ref="A9" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -2871,99 +2212,99 @@
         <v>72</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B5" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="49" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="35"/>
+      <c r="B6" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="49"/>
-      <c r="B6" s="9" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="42"/>
+      <c r="A12" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="29"/>
     </row>
     <row r="13" spans="1:2" ht="90">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2989,7 +2330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -3000,8 +2341,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="58.7109375" style="25" customWidth="1"/>
-    <col min="2" max="2" width="123.42578125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="123.42578125" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3009,75 +2350,75 @@
         <v>72</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" s="51"/>
+      <c r="A5" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="37"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>175</v>
+      <c r="A6" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>177</v>
+      <c r="A7" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>179</v>
+      <c r="A8" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>180</v>
+      <c r="A9" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="240">
-      <c r="A10" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>183</v>
+      <c r="A10" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="105">
-      <c r="A11" s="43"/>
-      <c r="B11" s="25" t="s">
-        <v>182</v>
+      <c r="A11" s="30"/>
+      <c r="B11" s="20" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>186</v>
+      <c r="A12" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>188</v>
+      <c r="A13" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3094,7 +2435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -3114,140 +2455,140 @@
         <v>72</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="B5" s="51"/>
+      <c r="A5" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="37"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="28" t="s">
-        <v>196</v>
+      <c r="A6" s="22" t="s">
+        <v>163</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="28" t="s">
-        <v>198</v>
+      <c r="A7" s="22" t="s">
+        <v>165</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="B8" s="41"/>
+      <c r="A8" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="28"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="B9" s="41"/>
+      <c r="A9" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="29" t="s">
-        <v>202</v>
+      <c r="A10" s="23" t="s">
+        <v>169</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="29" t="s">
-        <v>204</v>
+      <c r="A11" s="23" t="s">
+        <v>171</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="28" t="s">
-        <v>206</v>
+      <c r="A12" s="22" t="s">
+        <v>173</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="28" t="s">
-        <v>208</v>
+      <c r="A13" s="22" t="s">
+        <v>175</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="28" t="s">
-        <v>210</v>
+      <c r="A14" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="28" t="s">
-        <v>212</v>
+      <c r="A15" s="22" t="s">
+        <v>179</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="29" t="s">
-        <v>214</v>
+      <c r="A16" s="23" t="s">
+        <v>181</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="28" t="s">
-        <v>216</v>
+      <c r="A17" s="22" t="s">
+        <v>183</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="47" t="s">
-        <v>218</v>
+      <c r="A18" s="34" t="s">
+        <v>185</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="47"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="15" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60">
-      <c r="A20" s="47"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="15" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="90">
-      <c r="A21" s="28" t="s">
-        <v>222</v>
+      <c r="A21" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="B22" s="41"/>
+      <c r="A22" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3263,4 +2604,98 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="55" customWidth="1"/>
+    <col min="2" max="2" width="121.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="27"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="A1" location="Topics!A22" display="Topics"/>
+    <hyperlink ref="B1" location="VisualVM!A2" display="Up"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -12,10 +12,9 @@
     <sheet name="JDK Tools utilities" sheetId="3" r:id="rId3"/>
     <sheet name="Autosys" sheetId="4" r:id="rId4"/>
     <sheet name="HTML" sheetId="5" r:id="rId5"/>
-    <sheet name="OpenAM" sheetId="9" r:id="rId6"/>
-    <sheet name="File IO" sheetId="15" r:id="rId7"/>
-    <sheet name="Class Loading" sheetId="16" r:id="rId8"/>
-    <sheet name="VisualVM" sheetId="17" r:id="rId9"/>
+    <sheet name="File IO" sheetId="15" r:id="rId6"/>
+    <sheet name="Class Loading" sheetId="16" r:id="rId7"/>
+    <sheet name="VisualVM" sheetId="17" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="jar" localSheetId="2">'JDK Tools utilities'!$A$11</definedName>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="177">
   <si>
     <t>Lucene</t>
   </si>
@@ -411,80 +410,6 @@
   </si>
   <si>
     <t>Security Tools</t>
-  </si>
-  <si>
-    <t>Open AM</t>
-  </si>
-  <si>
-    <t>OpenAM Definitions</t>
-  </si>
-  <si>
-    <t>OpenAM home page</t>
-  </si>
-  <si>
-    <t>https://backstage.forgerock.com/#!/</t>
-  </si>
-  <si>
-    <t>Getting started with OpenAM</t>
-  </si>
-  <si>
-    <t>https://backstage.forgerock.com/#!/docs/openam/11.0.0/getting-started#federation</t>
-  </si>
-  <si>
-    <t>OpenAM docs</t>
-  </si>
-  <si>
-    <t>https://backstage.forgerock.com/#!/docs</t>
-  </si>
-  <si>
-    <t>What is OpenAM - wiki</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/OpenAM</t>
-  </si>
-  <si>
-    <t>What is OpenSSO - wiki</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/OpenSSO</t>
-  </si>
-  <si>
-    <t>OpenAM getting started</t>
-  </si>
-  <si>
-    <t>https://backstage.forgerock.com/#!/docs/openam/11.0.0/getting-started#software-you-need</t>
-  </si>
-  <si>
-    <t>What is Hosts file wiki</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Hosts_(file)</t>
-  </si>
-  <si>
-    <t>http://support.isoc.net/Page.aspx/117/hosts.html</t>
-  </si>
-  <si>
-    <t>OpenAM - Getting started guide - from Forgerock</t>
-  </si>
-  <si>
-    <t>https://wikis.forgerock.org/confluence/display/openam/If+you%27re+new+to+OpenAM</t>
-  </si>
-  <si>
-    <t>OpenAM - docs</t>
-  </si>
-  <si>
-    <t>https://backstage.forgerock.com/#!/docs/openam/12.0.0</t>
-  </si>
-  <si>
-    <t>Read the definitions in this order</t>
-  </si>
-  <si>
-    <t>link at row 2
-link at row 3
-link at row 4
-link at row 5,6
-link at row 7
-link at row 8</t>
   </si>
   <si>
     <t>File IO</t>
@@ -1030,7 +955,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1092,52 +1017,46 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1443,7 +1362,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1477,7 +1396,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
@@ -1485,25 +1404,25 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="25"/>
+      <c r="A5" s="24"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="25"/>
+      <c r="A6" s="24"/>
       <c r="B6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="25"/>
+      <c r="A7" s="24"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="25"/>
+      <c r="A8" s="24"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>36</v>
       </c>
       <c r="B9" t="s">
@@ -1511,28 +1430,23 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="25"/>
+      <c r="A10" s="24"/>
       <c r="B10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="25"/>
+      <c r="A11" s="24"/>
       <c r="B11" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="25"/>
+      <c r="A12" s="24"/>
       <c r="B12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
     <row r="14" spans="1:2">
       <c r="A14" s="9"/>
     </row>
@@ -1544,12 +1458,12 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="9" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="9" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -1569,7 +1483,6 @@
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="A4:A5" location="HTML!A1" display="HTML"/>
     <hyperlink ref="A9" location="'JDK Tools utilities'!A1" display="JDK Tools utilities"/>
-    <hyperlink ref="A13" location="OpenAM!A1" display="Open AM"/>
     <hyperlink ref="A17" location="'File IO'!A1" display="File IO"/>
     <hyperlink ref="A18" location="'Class Loading'!A1" display="Class Loading"/>
     <hyperlink ref="A19" location="VisualVM!A1" display="Visual VM"/>
@@ -1602,10 +1515,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:2" ht="120">
       <c r="A3" t="s">
@@ -1725,10 +1638,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -1739,10 +1652,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="27"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
@@ -1753,10 +1666,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="28"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
@@ -1775,7 +1688,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -1783,13 +1696,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="30"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="29" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1797,7 +1710,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="30"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
@@ -1819,7 +1732,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1827,7 +1740,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="30"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
@@ -1849,7 +1762,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="29" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -1857,7 +1770,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="30"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
@@ -1871,10 +1784,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="27"/>
+      <c r="B22" s="26"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
@@ -1889,7 +1802,7 @@
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="27" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -1897,7 +1810,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="28"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
@@ -1962,10 +1875,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B46" s="27"/>
+      <c r="B46" s="26"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
@@ -2052,10 +1965,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -2153,22 +2066,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="32"/>
+      <c r="B16" s="31"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="11" t="s">
@@ -2198,13 +2111,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:B12"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.28515625" customWidth="1"/>
-    <col min="2" max="2" width="123.5703125" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="123.42578125" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2215,210 +2128,72 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="34"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="9" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="240">
+      <c r="A10" s="29" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B10" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="105">
+      <c r="A11" s="29"/>
+      <c r="B11" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="20" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="35" t="s">
+      <c r="B12" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="9" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="20" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="35"/>
-      <c r="B6" s="9" t="s">
+      <c r="B13" s="20" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="29"/>
-    </row>
-    <row r="13" spans="1:2" ht="90">
-      <c r="A13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A5:A6"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Topics!A15" display="Topics"/>
-    <hyperlink ref="B1" location="OpenAM!A2" display="Up"/>
-    <hyperlink ref="B9" r:id="rId1" location="!/"/>
-    <hyperlink ref="B10" r:id="rId2" location="!/docs/openam/11.0.0/getting-started#federation"/>
-    <hyperlink ref="B11" r:id="rId3" location="!/docs"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B3" r:id="rId5"/>
-    <hyperlink ref="B4" r:id="rId6" location="!/docs/openam/11.0.0/getting-started#software-you-need"/>
-    <hyperlink ref="B5" r:id="rId7"/>
-    <hyperlink ref="B6" r:id="rId8"/>
-    <hyperlink ref="B7" r:id="rId9"/>
-    <hyperlink ref="B8" r:id="rId10" location="!/docs/openam/12.0.0"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="58.7109375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="123.42578125" style="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" s="37"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="240">
-      <c r="A10" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="105">
-      <c r="A11" s="30"/>
-      <c r="B11" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2435,7 +2210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -2459,136 +2234,136 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" s="37"/>
+      <c r="A5" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="34"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="27"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="27"/>
+    </row>
+    <row r="10" spans="1:2" ht="45">
+      <c r="A10" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="B6" s="15" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="35"/>
+      <c r="B19" s="15" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="22" t="s">
+    <row r="20" spans="1:2" ht="60">
+      <c r="A20" s="35"/>
+      <c r="B20" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="15" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="90">
+      <c r="A21" s="21" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="28" t="s">
+      <c r="B21" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="28"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="28" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="28"/>
-    </row>
-    <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="60">
-      <c r="A20" s="34"/>
-      <c r="B20" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="90">
-      <c r="A21" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="B22" s="28"/>
+      <c r="B22" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2606,7 +2381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -2630,10 +2405,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="B2" s="27"/>
+      <c r="A2" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
@@ -2660,27 +2435,27 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="24" t="s">
-        <v>194</v>
+      <c r="A6" s="23" t="s">
+        <v>171</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="24" t="s">
-        <v>196</v>
+      <c r="A7" s="23" t="s">
+        <v>173</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="24" t="s">
-        <v>198</v>
+      <c r="A8" s="23" t="s">
+        <v>175</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="179">
   <si>
     <t>Lucene</t>
   </si>
@@ -766,6 +766,20 @@
   </si>
   <si>
     <t>http://www.oracle.com/technetwork/java/visualgc-136680.html</t>
+  </si>
+  <si>
+    <t>listFilesAndDirectories</t>
+  </si>
+  <si>
+    <t>import java.io.File;
+public static void listFilesAndDirectories(File directory) {
+  File[] listOfFiles = directory.listFiles();
+  for (File file : listOfFiles) {
+   if (file.isDirectory())
+    listFilesAndDirectories(file);
+   System.out.println(file.getPath() + "\\" + file.getName());
+  }
+ }</t>
   </si>
 </sst>
 </file>
@@ -955,7 +969,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1018,6 +1032,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1360,15 +1377,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" customWidth="1"/>
-    <col min="2" max="2" width="72.85546875" customWidth="1"/>
+    <col min="1" max="1" width="44.25" customWidth="1"/>
+    <col min="2" max="2" width="72.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1396,7 +1413,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
@@ -1404,25 +1421,25 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="24"/>
+      <c r="A5" s="25"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="24"/>
+      <c r="A6" s="25"/>
       <c r="B6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="24"/>
+      <c r="A7" s="25"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="24"/>
+      <c r="A8" s="25"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="25" t="s">
         <v>36</v>
       </c>
       <c r="B9" t="s">
@@ -1430,19 +1447,19 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="24"/>
+      <c r="A10" s="25"/>
       <c r="B10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="24"/>
+      <c r="A11" s="25"/>
       <c r="B11" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="24"/>
+      <c r="A12" s="25"/>
       <c r="B12" t="s">
         <v>111</v>
       </c>
@@ -1502,8 +1519,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" customWidth="1"/>
-    <col min="2" max="2" width="128.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.375" customWidth="1"/>
+    <col min="2" max="2" width="128.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1515,10 +1532,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:2" ht="120">
       <c r="A3" t="s">
@@ -1544,7 +1561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1625,8 +1642,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="118.42578125" customWidth="1"/>
+    <col min="1" max="1" width="45.75" customWidth="1"/>
+    <col min="2" max="2" width="118.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1638,10 +1655,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -1652,10 +1669,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="28"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
@@ -1666,10 +1683,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="29"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
@@ -1688,7 +1705,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -1696,13 +1713,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="29"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="30" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1710,7 +1727,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="29"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
@@ -1732,7 +1749,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="30" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1740,7 +1757,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="29"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
@@ -1762,7 +1779,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="30" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -1770,7 +1787,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="29"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
@@ -1784,10 +1801,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="26"/>
+      <c r="B22" s="27"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
@@ -1802,7 +1819,7 @@
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="28" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -1810,7 +1827,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="27"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
@@ -1875,10 +1892,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B46" s="26"/>
+      <c r="B46" s="27"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
@@ -1953,7 +1970,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="114.140625" customWidth="1"/>
+    <col min="2" max="2" width="114.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1965,10 +1982,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -1994,7 +2011,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45">
+    <row r="6" spans="1:2" ht="30">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -2061,27 +2078,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.28515625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="119.5703125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="45.25" style="11" customWidth="1"/>
+    <col min="2" max="2" width="119.625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="31"/>
+      <c r="B16" s="32"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="11" t="s">
@@ -2107,17 +2124,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="58.7109375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="123.42578125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="49.75" style="19" customWidth="1"/>
+    <col min="2" max="2" width="113.375" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2129,10 +2146,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="35"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="19" t="s">
@@ -2167,7 +2184,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="240">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>131</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -2175,7 +2192,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="105">
-      <c r="A11" s="29"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="19" t="s">
         <v>132</v>
       </c>
@@ -2194,6 +2211,14 @@
       </c>
       <c r="B13" s="20" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="135">
+      <c r="A14" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2222,7 +2247,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
-    <col min="2" max="2" width="130.28515625" customWidth="1"/>
+    <col min="2" max="2" width="130.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2234,10 +2259,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="35"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="21" t="s">
@@ -2256,16 +2281,16 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="28"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" ht="45">
       <c r="A10" s="22" t="s">
@@ -2331,8 +2356,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="35" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="36" t="s">
         <v>162</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -2340,13 +2365,13 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="35"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="15" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="60">
-      <c r="A20" s="35"/>
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="36"/>
       <c r="B20" s="15" t="s">
         <v>165</v>
       </c>
@@ -2360,10 +2385,10 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="27"/>
+      <c r="B22" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2393,7 +2418,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
-    <col min="2" max="2" width="121.42578125" customWidth="1"/>
+    <col min="2" max="2" width="121.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2405,10 +2430,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -8,95 +8,21 @@
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
-    <sheet name="Lucene" sheetId="2" r:id="rId2"/>
-    <sheet name="Autosys" sheetId="4" r:id="rId3"/>
-    <sheet name="HTML" sheetId="5" r:id="rId4"/>
-    <sheet name="VisualVM" sheetId="17" r:id="rId5"/>
+    <sheet name="Autosys" sheetId="4" r:id="rId2"/>
+    <sheet name="HTML" sheetId="5" r:id="rId3"/>
+    <sheet name="VisualVM" sheetId="17" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
-  <si>
-    <t>Lucene</t>
-  </si>
-  <si>
-    <t>How Search Application works?</t>
-  </si>
-  <si>
-    <t>1. Acquire Raw Content
-2. Build the document
-3. Analyze the document
-4. Indexing the document
-5. User Interface for Search
-6. Build Query
-7. Search Query
-8. Render Results</t>
-  </si>
-  <si>
-    <t>First step of any search application is to collect the target contents on which search are to be conducted.</t>
-  </si>
-  <si>
-    <t>Next step is to build the document(s) from the raw contents which search application can understands and interpret easily.</t>
-  </si>
-  <si>
-    <t>Before indexing process to start, the document is to be analyzed as which part of the text is a candidate to be indexed. This process is called analyzing the document.</t>
-  </si>
-  <si>
-    <t>Once documents are built and analyzed, next step is to index them so that this document can be retrived based on certain keys instead of whole contents of the document. Indexing process is similar to indexes in the end of a book where common words are shown with their page numbers so that these words can be tracked quickly instead of searching the complete book</t>
-  </si>
-  <si>
-    <t>Once a database of indexes is ready then application can make any search. To facilitate user to make a search, application must provide a user a mean or u0ser interface where a user can enter text and start the search process</t>
-  </si>
-  <si>
-    <t>Once user made a request to search a text, application should prepare a Query object using that text which can be used to inquire index database to get the relevant details</t>
-  </si>
-  <si>
-    <t>Using query object, index database is then checked to get the relevant details and the content documents</t>
-  </si>
-  <si>
-    <t>Once result is received the application should decide how to show the results to the user using User Interface. How much information is to be shown at first look and so on.</t>
-  </si>
-  <si>
-    <t>Acquire Raw Content</t>
-  </si>
-  <si>
-    <t>Build the document</t>
-  </si>
-  <si>
-    <t>Analyze the document</t>
-  </si>
-  <si>
-    <t>Indexing the document</t>
-  </si>
-  <si>
-    <t>User Interface for Search</t>
-  </si>
-  <si>
-    <t>Build Query</t>
-  </si>
-  <si>
-    <t>Search Query</t>
-  </si>
-  <si>
-    <t>Render Results</t>
-  </si>
-  <si>
-    <t>Lucene's role in search application</t>
-  </si>
-  <si>
-    <t>Lucene plays role in steps 2 to step 7 mentioned above and provides classes to do the required operations. In nutshell, lucene works as a heart of any search application and provides the vital operations pertaining to indexing and searching. Acquiring contents and displaying the results is left for the application part to handle.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Topic</t>
   </si>
   <si>
     <t>Tab Name</t>
-  </si>
-  <si>
-    <t>Lucene Definitions</t>
   </si>
   <si>
     <t>Autosys</t>
@@ -365,14 +291,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -725,11 +645,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -739,221 +659,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="13"/>
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="15"/>
+      <c r="A5" s="13"/>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="15"/>
-      <c r="B6" t="s">
-        <v>47</v>
+      <c r="A6" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="14"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="15"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="15"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="15"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="15"/>
+      <c r="A7" s="12"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="6"/>
+      <c r="A14" s="4"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="6"/>
+      <c r="A15" s="4"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="6"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="6"/>
+      <c r="A16" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A9:A12"/>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" location="Lucene!A1" display="Lucene"/>
-    <hyperlink ref="A3" location="Autosys!A1" display="Autosys"/>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="A4:A5" location="HTML!A1" display="HTML"/>
-    <hyperlink ref="A7" location="VisualVM!A1" display="Visual VM"/>
+    <hyperlink ref="A2" location="Autosys!A1" display="Autosys"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="A3:A4" location="HTML!A1" display="HTML"/>
+    <hyperlink ref="A6" location="VisualVM!A1" display="Visual VM"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="40.42578125" customWidth="1"/>
-    <col min="2" max="2" width="128.5703125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="17"/>
-    </row>
-    <row r="3" spans="1:2" ht="120">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="45">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="45">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Topics!A1" display="Topics"/>
-    <hyperlink ref="A1:B1" location="Topics!A2" display="Topics"/>
-    <hyperlink ref="B1" location="Lucene!A2" display="Up"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -969,81 +744,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>50</v>
+      <c r="A1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="17"/>
+      <c r="A2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
       <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>42</v>
+        <v>19</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1063,7 +838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -1073,34 +848,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="119.5703125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="45.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="119.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="18"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="17"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="20"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="19"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="17"/>
     </row>
     <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>49</v>
+      <c r="A17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1117,7 +892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -1133,65 +908,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>50</v>
+      <c r="A1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="17"/>
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>53</v>
+      <c r="A3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>55</v>
+      <c r="A4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
-        <v>56</v>
+      <c r="A5" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>60</v>
+      <c r="A6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>62</v>
+      <c r="A7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>64</v>
+      <c r="A8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -17,13 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
-  <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>Tab Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Autosys</t>
   </si>
@@ -89,16 +83,10 @@
     <t>http://autosys-tutorials.blogspot.in/2010/01/autosys-work-flow.html</t>
   </si>
   <si>
-    <t>http://autosys-tutorials.blogspot.in/</t>
-  </si>
-  <si>
     <t>Html</t>
   </si>
   <si>
     <t>HTML</t>
-  </si>
-  <si>
-    <t>Html 5</t>
   </si>
   <si>
     <t>CSS</t>
@@ -116,9 +104,6 @@
     <t>Up</t>
   </si>
   <si>
-    <t>Visual VM</t>
-  </si>
-  <si>
     <t>Download Visual VM and configuring in eclipse</t>
   </si>
   <si>
@@ -156,6 +141,9 @@
   </si>
   <si>
     <t>http://www.oracle.com/technetwork/java/visualgc-136680.html</t>
+  </si>
+  <si>
+    <t>VisualVM</t>
   </si>
 </sst>
 </file>
@@ -205,12 +193,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0000CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF0066FF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -227,8 +209,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -277,26 +265,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -315,10 +291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -330,19 +303,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -649,7 +619,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -662,69 +632,56 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
+      <c r="A3" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="13"/>
-      <c r="B4" t="s">
-        <v>24</v>
+      <c r="A4" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="13"/>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
+      <c r="A5" s="11"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="A6" s="3"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="12"/>
+      <c r="A7" s="10"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="3"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="4"/>
+      <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="4"/>
+      <c r="A16" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:A5"/>
-  </mergeCells>
   <hyperlinks>
+    <hyperlink ref="B1" location="Topics!A2" display="Up"/>
     <hyperlink ref="A2" location="Autosys!A1" display="Autosys"/>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="A3:A4" location="HTML!A1" display="HTML"/>
-    <hyperlink ref="A6" location="VisualVM!A1" display="Visual VM"/>
+    <hyperlink ref="A3" location="HTML!A1" display="HTML"/>
+    <hyperlink ref="A4" location="VisualVM!A1" display="VisualVM"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -744,81 +701,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>28</v>
+      <c r="A1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="15"/>
+      <c r="A2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -826,11 +783,10 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
+    <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
     <hyperlink ref="B8" r:id="rId1"/>
     <hyperlink ref="B9" r:id="rId2"/>
     <hyperlink ref="B10" r:id="rId3"/>
-    <hyperlink ref="A1:B1" location="Topics!A4" display="Topics"/>
     <hyperlink ref="B1" location="Autosys!A2" display="Up"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -842,51 +798,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="119.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="45.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="119.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="18"/>
+      <c r="A1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="13"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="13"/>
+    </row>
+    <row r="17" spans="1:2" ht="60">
+      <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="17"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="17"/>
-    </row>
-    <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>27</v>
+      <c r="B17" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A16:B16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Topics!A1" display="Topics"/>
-    <hyperlink ref="A1:B1" location="Topics!A7" display="Topics"/>
+    <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
+    <hyperlink ref="B1" location="HTML!A2" display="Up"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -898,7 +853,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -908,65 +863,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="13"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="15"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="11" t="s">
+      <c r="B8" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -979,8 +934,8 @@
     <hyperlink ref="B6" r:id="rId3"/>
     <hyperlink ref="B7" r:id="rId4"/>
     <hyperlink ref="B8" r:id="rId5"/>
-    <hyperlink ref="A1" location="Topics!A22" display="Topics"/>
     <hyperlink ref="B1" location="VisualVM!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
     <sheet name="Autosys" sheetId="4" r:id="rId2"/>
-    <sheet name="HTML" sheetId="5" r:id="rId3"/>
-    <sheet name="VisualVM" sheetId="17" r:id="rId4"/>
+    <sheet name="VisualVM" sheetId="17" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Autosys</t>
   </si>
@@ -83,24 +82,6 @@
     <t>http://autosys-tutorials.blogspot.in/2010/01/autosys-work-flow.html</t>
   </si>
   <si>
-    <t>Html</t>
-  </si>
-  <si>
-    <t>HTML</t>
-  </si>
-  <si>
-    <t>CSS</t>
-  </si>
-  <si>
-    <t>How to make div height increase automatically based on data</t>
-  </si>
-  <si>
-    <t>#divId{
-  min-height: 500px;
-  height: auto;
-}</t>
-  </si>
-  <si>
     <t>Up</t>
   </si>
   <si>
@@ -149,8 +130,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,7 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -282,37 +263,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -327,6 +305,14 @@
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -373,7 +359,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,9 +391,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -439,6 +426,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -614,71 +602,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" customWidth="1"/>
-    <col min="2" max="2" width="72.85546875" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
+    <col min="2" max="2" width="72.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="B1" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="11"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="10"/>
-    </row>
-    <row r="13" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" location="Topics!A2" display="Up"/>
     <hyperlink ref="A2" location="Autosys!A1" display="Autosys"/>
-    <hyperlink ref="A3" location="HTML!A1" display="HTML"/>
-    <hyperlink ref="A4" location="VisualVM!A1" display="VisualVM"/>
+    <hyperlink ref="A3" location="VisualVM!A1" display="VisualVM"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -686,35 +668,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="114.140625" customWidth="1"/>
+    <col min="2" max="2" width="114.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13"/>
-    </row>
-    <row r="3" spans="1:2" ht="30">
+      <c r="B2" s="14"/>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -722,7 +704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="90">
+    <row r="4" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -730,7 +712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30">
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -738,7 +720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45">
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -746,7 +728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30">
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -754,7 +736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -762,19 +744,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -795,60 +777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="45.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="119.5703125" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="13"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="13"/>
-    </row>
-    <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A16:B16"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
-    <hyperlink ref="B1" location="HTML!A2" display="Up"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -856,72 +785,72 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
-    <col min="2" max="2" width="121.42578125" customWidth="1"/>
+    <col min="2" max="2" width="121.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="14"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="13"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -935,7 +864,7 @@
     <hyperlink ref="B7" r:id="rId4"/>
     <hyperlink ref="B8" r:id="rId5"/>
     <hyperlink ref="B1" location="VisualVM!A2" display="Up"/>
-    <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
+    <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Definitions/3_Definitions.xlsx
+++ b/Definitions/3_Definitions.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="1000" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -130,8 +130,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,7 +359,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,10 +391,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -426,7 +425,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -602,7 +600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -610,13 +608,13 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" customWidth="1"/>
-    <col min="2" max="2" width="72.88671875" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" customWidth="1"/>
+    <col min="2" max="2" width="72.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -624,36 +622,36 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="10"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="9"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="3"/>
     </row>
   </sheetData>
@@ -668,21 +666,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="114.109375" customWidth="1"/>
+    <col min="2" max="2" width="114.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -690,13 +688,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="14"/>
     </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -704,7 +702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="90">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -712,7 +710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="30">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -720,7 +718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -728,7 +726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="30">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -736,7 +734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -744,7 +742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -752,7 +750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -777,21 +775,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
-    <col min="2" max="2" width="121.44140625" customWidth="1"/>
+    <col min="2" max="2" width="121.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -799,13 +797,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="14"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
@@ -813,7 +811,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -821,7 +819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
         <v>24</v>
       </c>
@@ -829,7 +827,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
@@ -837,7 +835,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
         <v>29</v>
       </c>
@@ -845,7 +843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="8" t="s">
         <v>31</v>
       </c>
